--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki" sheetId="1" r:id="rId1"/>
@@ -1448,7 +1448,16 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J25" totalsRowCount="1">
   <autoFilter ref="A1:J24">
-    <filterColumn colId="0"/>
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Styropian"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
@@ -1773,7 +1782,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,7 +2301,7 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -2347,7 +2356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1">
+    <row r="2" spans="1:13" ht="15.75" hidden="1" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>76</v>
       </c>
@@ -2385,7 +2394,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15.75" hidden="1" thickTop="1">
       <c r="A3" s="55" t="s">
         <v>76</v>
       </c>
@@ -2423,7 +2432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="15.75" hidden="1" thickTop="1">
       <c r="A4" s="55" t="s">
         <v>76</v>
       </c>
@@ -2461,7 +2470,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="15.75" hidden="1" thickTop="1">
       <c r="A5" s="55" t="s">
         <v>76</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="15.75" thickTop="1">
       <c r="A6" s="55" t="s">
         <v>76</v>
       </c>
@@ -2534,7 +2543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="55" t="s">
         <v>76</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="55" t="s">
         <v>76</v>
       </c>
@@ -2604,7 +2613,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="55" t="s">
         <v>76</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="55" t="s">
         <v>76</v>
       </c>
@@ -2654,7 +2663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="55" t="s">
         <v>76</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="55" t="s">
         <v>76</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="55" t="s">
         <v>76</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="55" t="s">
         <v>76</v>
       </c>
@@ -2739,21 +2748,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="M15" s="125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="M16" s="125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="55"/>
       <c r="B17" s="57" t="s">
         <v>46</v>
@@ -2771,7 +2780,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="55"/>
       <c r="B18" s="57" t="s">
         <v>46</v>
@@ -2786,7 +2795,7 @@
         <v>10584</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="55"/>
       <c r="B19" s="57" t="s">
         <v>46</v>
@@ -2801,7 +2810,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="55"/>
       <c r="B20" s="57" t="s">
         <v>46</v>
@@ -2816,7 +2825,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="55"/>
       <c r="B21" s="57" t="s">
         <v>46</v>
@@ -2831,7 +2840,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="55"/>
       <c r="B22" s="57" t="s">
         <v>46</v>
@@ -2846,11 +2855,11 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="55"/>
       <c r="B24" s="57"/>
       <c r="C24" s="10"/>
@@ -2871,7 +2880,7 @@
       <c r="D25" s="60"/>
       <c r="E25" s="60">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>81788.17</v>
+        <v>8280.36</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -2879,7 +2888,7 @@
       <c r="I25" s="60"/>
       <c r="J25" s="60">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickTop="1"/>
@@ -3162,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="138">
   <si>
     <t>Data</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Zapłacono</t>
+  </si>
+  <si>
+    <t>Geodeta</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1363,25 +1365,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51072384"/>
-        <c:axId val="51074176"/>
+        <c:axId val="51058560"/>
+        <c:axId val="51068928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51072384"/>
+        <c:axId val="51058560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51074176"/>
+        <c:crossAx val="51068928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51074176"/>
+        <c:axId val="51068928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,21 +1392,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51072384"/>
+        <c:crossAx val="51058560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1448,16 +1449,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J25" totalsRowCount="1">
   <autoFilter ref="A1:J24">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Styropian"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="0"/>
+    <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
@@ -2301,14 +2294,14 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
@@ -2356,7 +2349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" hidden="1" thickTop="1">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" s="55" t="s">
         <v>76</v>
       </c>
@@ -2394,7 +2387,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" hidden="1" thickTop="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="55" t="s">
         <v>76</v>
       </c>
@@ -2432,7 +2425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" hidden="1" thickTop="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="55" t="s">
         <v>76</v>
       </c>
@@ -2470,7 +2463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" hidden="1" thickTop="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="55" t="s">
         <v>76</v>
       </c>
@@ -2508,7 +2501,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickTop="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
         <v>76</v>
       </c>
@@ -2543,7 +2536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
         <v>76</v>
       </c>
@@ -2578,7 +2571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="55" t="s">
         <v>76</v>
       </c>
@@ -2613,7 +2606,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>76</v>
       </c>
@@ -2639,14 +2632,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="D10" t="s">
         <v>111</v>
       </c>
@@ -2663,14 +2658,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="s">
         <v>112</v>
       </c>
@@ -2687,14 +2684,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
@@ -2711,13 +2710,16 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>119</v>
       </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="55" t="s">
         <v>76</v>
       </c>
@@ -2748,22 +2750,24 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="M15" s="125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="M16" s="125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="B17" s="57" t="s">
         <v>46</v>
       </c>
@@ -2780,8 +2784,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="55" t="s">
+        <v>131</v>
+      </c>
       <c r="B18" s="57" t="s">
         <v>46</v>
       </c>
@@ -2795,8 +2801,10 @@
         <v>10584</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="B19" s="57" t="s">
         <v>46</v>
       </c>
@@ -2810,8 +2818,10 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="B20" s="57" t="s">
         <v>46</v>
       </c>
@@ -2825,8 +2835,10 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" s="57" t="s">
         <v>46</v>
       </c>
@@ -2840,8 +2852,10 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
-      <c r="A22" s="55"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="B22" s="57" t="s">
         <v>46</v>
       </c>
@@ -2855,11 +2869,11 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24" s="55"/>
       <c r="B24" s="57"/>
       <c r="C24" s="10"/>
@@ -2880,7 +2894,7 @@
       <c r="D25" s="60"/>
       <c r="E25" s="60">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>8280.36</v>
+        <v>81788.17</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -2888,7 +2902,7 @@
       <c r="I25" s="60"/>
       <c r="J25" s="60">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickTop="1"/>
@@ -3171,7 +3185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
   <si>
     <t>Data</t>
   </si>
@@ -436,6 +436,27 @@
   </si>
   <si>
     <t>Geodeta</t>
+  </si>
+  <si>
+    <t>Pustaki</t>
+  </si>
+  <si>
+    <t>5291/T/08/2013</t>
+  </si>
+  <si>
+    <t>Smoła</t>
+  </si>
+  <si>
+    <t>5315/T/08/2013</t>
+  </si>
+  <si>
+    <t>Pustaki połówki</t>
+  </si>
+  <si>
+    <t>5327/T/08/2013</t>
+  </si>
+  <si>
+    <t>5337/T/08/2013</t>
   </si>
 </sst>
 </file>
@@ -707,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -840,6 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1365,25 +1387,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51058560"/>
-        <c:axId val="51068928"/>
+        <c:axId val="63519360"/>
+        <c:axId val="63533440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51058560"/>
+        <c:axId val="63519360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51068928"/>
+        <c:crossAx val="63533440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51068928"/>
+        <c:axId val="63533440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1414,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51058560"/>
+        <c:crossAx val="63519360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,7 +1427,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1447,10 +1469,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J25" totalsRowCount="1">
-  <autoFilter ref="A1:J24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J29" totalsRowCount="1">
+  <autoFilter ref="A1:J28">
     <filterColumn colId="0"/>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Materiał"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3"/>
+    <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
@@ -1460,8 +1488,8 @@
     <tableColumn id="4" name="Kwota" totalsRowFunction="sum" totalsRowDxfId="5"/>
     <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
     <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="6" name="Zapłacono" totalsRowDxfId="2"/>
-    <tableColumn id="1" name="Data płatności" totalsRowDxfId="1"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" totalsRowDxfId="1"/>
     <tableColumn id="7" name="Konto" totalsRowFunction="count" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2292,11 +2320,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2307,8 +2335,8 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -2340,10 +2368,10 @@
         <v>116</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -2372,10 +2400,10 @@
         <v>41494</v>
       </c>
       <c r="H2" s="12">
+        <v>41497</v>
+      </c>
+      <c r="I2" s="12">
         <v>41495</v>
-      </c>
-      <c r="I2" s="12">
-        <v>41497</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>35</v>
@@ -2524,10 +2552,10 @@
         <v>41499</v>
       </c>
       <c r="H6" s="12">
+        <v>41502</v>
+      </c>
+      <c r="I6" s="12">
         <v>41501</v>
-      </c>
-      <c r="I6" s="12">
-        <v>41502</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>43</v>
@@ -2559,10 +2587,10 @@
         <v>41502</v>
       </c>
       <c r="H7" s="11">
+        <v>41505</v>
+      </c>
+      <c r="I7" s="11">
         <v>41502</v>
-      </c>
-      <c r="I7" s="11">
-        <v>41505</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -2594,10 +2622,10 @@
         <v>41502</v>
       </c>
       <c r="H8" s="12">
+        <v>41509</v>
+      </c>
+      <c r="I8" s="12">
         <v>41507</v>
-      </c>
-      <c r="I8" s="12">
-        <v>41509</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
@@ -2606,7 +2634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="55" t="s">
         <v>76</v>
       </c>
@@ -2622,9 +2650,6 @@
       <c r="E9">
         <v>10584</v>
       </c>
-      <c r="I9" s="12">
-        <v>41507</v>
-      </c>
       <c r="J9" t="s">
         <v>43</v>
       </c>
@@ -2632,7 +2657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="55" t="s">
         <v>76</v>
       </c>
@@ -2648,9 +2673,7 @@
       <c r="E10">
         <v>400</v>
       </c>
-      <c r="I10" s="11">
-        <v>41475</v>
-      </c>
+      <c r="H10" s="10"/>
       <c r="J10" t="s">
         <v>117</v>
       </c>
@@ -2658,7 +2681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="55" t="s">
         <v>76</v>
       </c>
@@ -2674,9 +2697,7 @@
       <c r="E11">
         <v>650</v>
       </c>
-      <c r="I11" s="11">
-        <v>41475</v>
-      </c>
+      <c r="H11" s="10"/>
       <c r="J11" t="s">
         <v>117</v>
       </c>
@@ -2700,9 +2721,7 @@
       <c r="E12">
         <v>7800</v>
       </c>
-      <c r="I12" s="11">
-        <v>41475</v>
-      </c>
+      <c r="H12" s="10"/>
       <c r="J12" t="s">
         <v>117</v>
       </c>
@@ -2726,6 +2745,7 @@
       <c r="E13">
         <v>335</v>
       </c>
+      <c r="H13" s="10"/>
       <c r="M13" s="125" t="s">
         <v>134</v>
       </c>
@@ -2744,27 +2764,36 @@
         <v>113</v>
       </c>
       <c r="E14">
-        <v>9000</v>
+        <v>7610.63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="11">
+        <v>41514</v>
+      </c>
+      <c r="H14" s="126">
+        <v>41517</v>
       </c>
       <c r="M14" s="125" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="M15" s="125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="M16" s="125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="55" t="s">
         <v>79</v>
       </c>
@@ -2784,7 +2813,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="55" t="s">
         <v>131</v>
       </c>
@@ -2801,7 +2830,7 @@
         <v>10584</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="55" t="s">
         <v>79</v>
       </c>
@@ -2818,7 +2847,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="55" t="s">
         <v>79</v>
       </c>
@@ -2835,7 +2864,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
@@ -2852,7 +2881,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="55" t="s">
         <v>53</v>
       </c>
@@ -2869,11 +2898,11 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="55"/>
       <c r="B24" s="57"/>
       <c r="C24" s="10"/>
@@ -2885,33 +2914,129 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A25" s="60" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="10">
+        <v>3813.05</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="126">
+        <v>41512</v>
+      </c>
+      <c r="H25" s="126">
+        <v>41519</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="10">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="126">
+        <v>41513</v>
+      </c>
+      <c r="H26" s="126">
+        <v>41516</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="10">
+        <v>649.32000000000005</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="126">
+        <v>41513</v>
+      </c>
+      <c r="H27" s="126">
+        <v>41516</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" hidden="1">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A29" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>81788.17</v>
-      </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60">
+        <v>38247.35</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickTop="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickTop="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A28">
       <formula1>$M$3:$M$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -21,8 +21,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+dwa razy</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="145">
   <si>
     <t>Data</t>
   </si>
@@ -463,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +547,21 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1387,25 +1438,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63519360"/>
-        <c:axId val="63533440"/>
+        <c:axId val="51927680"/>
+        <c:axId val="62602240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63519360"/>
+        <c:axId val="51927680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63533440"/>
+        <c:crossAx val="62602240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63533440"/>
+        <c:axId val="62602240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1465,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63519360"/>
+        <c:crossAx val="51927680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1427,7 +1478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1472,11 +1523,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J29" totalsRowCount="1">
   <autoFilter ref="A1:J28">
     <filterColumn colId="0"/>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Materiał"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
   </autoFilter>
@@ -2323,8 +2370,8 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2634,7 +2681,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="55" t="s">
         <v>76</v>
       </c>
@@ -2657,7 +2704,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="55" t="s">
         <v>76</v>
       </c>
@@ -2681,7 +2728,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="55" t="s">
         <v>76</v>
       </c>
@@ -2775,25 +2822,31 @@
       <c r="H14" s="126">
         <v>41517</v>
       </c>
+      <c r="I14" s="11">
+        <v>41515</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
       <c r="M14" s="125" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="55"/>
       <c r="B15" s="57"/>
       <c r="M15" s="125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="M16" s="125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="55" t="s">
         <v>79</v>
       </c>
@@ -2813,7 +2866,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="55" t="s">
         <v>131</v>
       </c>
@@ -2830,7 +2883,7 @@
         <v>10584</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" s="55" t="s">
         <v>79</v>
       </c>
@@ -2847,7 +2900,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="55" t="s">
         <v>79</v>
       </c>
@@ -2864,7 +2917,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" s="55" t="s">
         <v>53</v>
       </c>
@@ -2881,7 +2934,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22" s="55" t="s">
         <v>53</v>
       </c>
@@ -2898,11 +2951,11 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" s="55"/>
       <c r="B23" s="57"/>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24" s="55"/>
       <c r="B24" s="57"/>
       <c r="C24" s="10"/>
@@ -2939,8 +2992,12 @@
       <c r="H25" s="126">
         <v>41519</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="11">
+        <v>41515</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="57" t="s">
@@ -2967,8 +3024,12 @@
       <c r="H26" s="126">
         <v>41516</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="11">
+        <v>41515</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="57" t="s">
@@ -2995,10 +3056,14 @@
       <c r="H27" s="126">
         <v>41516</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" hidden="1">
+      <c r="I27" s="11">
+        <v>41515</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
       <c r="C28" s="10"/>
@@ -3019,7 +3084,7 @@
       <c r="D29" s="60"/>
       <c r="E29" s="60">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>38247.35</v>
+        <v>84927.349999999991</v>
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
@@ -3027,7 +3092,7 @@
       <c r="I29" s="60"/>
       <c r="J29" s="60">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickTop="1"/>
@@ -3042,8 +3107,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -14,8 +14,8 @@
     <sheet name="Plan 1. Transza" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wydatki budowa'!$M$2:$M$8</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'Wydatki budowa'!$M$2:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wydatki budowa'!$M$2:$M$9</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'Wydatki budowa'!$M$2:$M$6</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -27,7 +27,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="181">
   <si>
     <t>Data</t>
   </si>
@@ -493,13 +493,121 @@
   </si>
   <si>
     <t>5337/T/08/2013</t>
+  </si>
+  <si>
+    <t>Wynaghrodzenie Bory</t>
+  </si>
+  <si>
+    <t>Komin</t>
+  </si>
+  <si>
+    <t>5433/T/08/2013</t>
+  </si>
+  <si>
+    <t>Kanalizacja</t>
+  </si>
+  <si>
+    <t>4765/T/08/2013</t>
+  </si>
+  <si>
+    <t>Projekt</t>
+  </si>
+  <si>
+    <t>Archipelag</t>
+  </si>
+  <si>
+    <t>Zakup projektu</t>
+  </si>
+  <si>
+    <t>Wrocław</t>
+  </si>
+  <si>
+    <t>Marek Glapa</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie architekta</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie kierownika budowy</t>
+  </si>
+  <si>
+    <t>ZDiUK</t>
+  </si>
+  <si>
+    <t>Uzgodnienia</t>
+  </si>
+  <si>
+    <t>Tauron</t>
+  </si>
+  <si>
+    <t>Umowa</t>
+  </si>
+  <si>
+    <t>Elektryk</t>
+  </si>
+  <si>
+    <t>Skrzynka Taurona</t>
+  </si>
+  <si>
+    <t>Koszty kredytu</t>
+  </si>
+  <si>
+    <t>Sąd</t>
+  </si>
+  <si>
+    <t>Danuta Fabrowicz</t>
+  </si>
+  <si>
+    <t>Urząd Skarbowy</t>
+  </si>
+  <si>
+    <t>Tomasz Partyka</t>
+  </si>
+  <si>
+    <t>Projekty przyłączy</t>
+  </si>
+  <si>
+    <t>Operator Koparki</t>
+  </si>
+  <si>
+    <t>ZGK</t>
+  </si>
+  <si>
+    <t>Opłata do ZGK za ponowne uzgodnienie</t>
+  </si>
+  <si>
+    <t>Bory</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie Borek</t>
+  </si>
+  <si>
+    <t>Wniosek o wpis do hipoteki</t>
+  </si>
+  <si>
+    <t>0. Przed budową</t>
+  </si>
+  <si>
+    <t>1. Fundamenty</t>
+  </si>
+  <si>
+    <t>2. Ściany nadziemia</t>
+  </si>
+  <si>
+    <t>3. Stropy, schody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek  </t>
+  </si>
+  <si>
+    <t>Wnioski o wpis do hipotek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +670,33 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Czcionka tekstu podstawowego"/>
     </font>
   </fonts>
   <fills count="18">
@@ -735,17 +870,6 @@
         <color theme="0"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -775,11 +899,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -838,8 +971,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -911,13 +1043,27 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -930,7 +1076,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="13"/>
-        <color theme="3"/>
+        <color rgb="FFC00000"/>
         <name val="Czcionka tekstu podstawowego"/>
         <scheme val="none"/>
       </font>
@@ -952,6 +1098,22 @@
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1262,6 +1424,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1438,25 +1601,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="51927680"/>
-        <c:axId val="62602240"/>
+        <c:axId val="62544512"/>
+        <c:axId val="62566784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51927680"/>
+        <c:axId val="62544512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62602240"/>
+        <c:crossAx val="62566784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62602240"/>
+        <c:axId val="62566784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,20 +1628,21 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51927680"/>
+        <c:crossAx val="62544512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1520,24 +1684,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J29" totalsRowCount="1">
-  <autoFilter ref="A1:J28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J53" totalsRowCount="1">
+  <autoFilter ref="A1:J52">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
   </autoFilter>
+  <sortState ref="A2:J52">
+    <sortCondition ref="A1:A52"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1553,7 +1720,7 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="10">
+    <tableColumn id="4" name="Plan suma" dataDxfId="12">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Rzecz suma"/>
@@ -1849,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2281,16 +2448,28 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="7">
+        <v>41515</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="9">
+        <v>450</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="7">
+        <v>41509</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="9">
+        <v>260</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
@@ -2367,24 +2546,25 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="135" customWidth="1"/>
+    <col min="10" max="10" width="11" style="133" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -2392,14 +2572,14 @@
     <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>121</v>
       </c>
       <c r="D1" t="s">
@@ -2417,692 +2597,1281 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="133" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1510.21</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="12">
-        <v>41494</v>
-      </c>
-      <c r="H2" s="12">
-        <v>41497</v>
-      </c>
-      <c r="I2" s="12">
-        <v>41495</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="58" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="129">
+        <v>2252</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="136">
+        <v>41015</v>
+      </c>
+      <c r="J2" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="57" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="13">
-        <v>5878.78</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="12">
-        <v>41494</v>
-      </c>
-      <c r="H3" s="12">
-        <v>41501</v>
-      </c>
-      <c r="I3" s="12">
-        <v>41501</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>43</v>
+      <c r="A3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="129">
+        <v>650</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="136">
+        <v>41100</v>
+      </c>
+      <c r="J3" s="133" t="s">
+        <v>117</v>
       </c>
       <c r="L3" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="124" t="s">
-        <v>76</v>
+      <c r="M3" s="131" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="13">
-        <v>19.079999999999998</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12">
-        <v>41498</v>
-      </c>
-      <c r="H4" s="12">
-        <v>41501</v>
-      </c>
-      <c r="I4" s="12">
-        <v>41501</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>43</v>
+      <c r="A4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="129">
+        <v>2800</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="136">
+        <v>41197</v>
+      </c>
+      <c r="J4" s="133" t="s">
+        <v>117</v>
       </c>
       <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="125" t="s">
-        <v>79</v>
+      <c r="M4" s="131" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="13">
-        <v>115.01</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="12">
-        <v>41498</v>
-      </c>
-      <c r="H5" s="12">
-        <v>41501</v>
-      </c>
-      <c r="I5" s="12">
-        <v>41501</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>43</v>
+      <c r="A5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="129">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="136">
+        <v>41351</v>
+      </c>
+      <c r="J5" s="133" t="s">
+        <v>117</v>
       </c>
       <c r="L5" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="125" t="s">
-        <v>131</v>
+      <c r="M5" s="132" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="129">
+        <v>148</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="136">
+        <v>41351</v>
+      </c>
+      <c r="J6" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="129">
+        <v>2142</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="136">
+        <v>41352</v>
+      </c>
+      <c r="J7" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="130">
+        <v>400</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="136">
+        <v>41353</v>
+      </c>
+      <c r="J8" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="130">
+        <v>260</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="136">
+        <v>41360</v>
+      </c>
+      <c r="J9" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="130">
+        <v>600</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="136">
+        <v>41362</v>
+      </c>
+      <c r="J10" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="130">
+        <v>416</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="136">
+        <v>41367</v>
+      </c>
+      <c r="J11" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="123" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="129">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="136">
+        <v>41372</v>
+      </c>
+      <c r="J12" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="130">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="136">
+        <v>41382</v>
+      </c>
+      <c r="J13" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22">
+        <v>150</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="136">
+        <v>41391</v>
+      </c>
+      <c r="J14" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="123" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C15" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="22">
+        <v>200</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="136">
+        <v>41404</v>
+      </c>
+      <c r="J15" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="22">
+        <v>140</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="136">
+        <v>41406</v>
+      </c>
+      <c r="J16" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="123" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="22">
+        <v>200</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="136">
+        <v>41428</v>
+      </c>
+      <c r="J17" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="22">
+        <v>200</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="136">
+        <v>41484</v>
+      </c>
+      <c r="J18" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="123" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="22">
+        <v>147</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="136">
+        <v>41488</v>
+      </c>
+      <c r="J19" s="133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="128">
+        <v>450</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="136">
+        <v>41515</v>
+      </c>
+      <c r="J20" s="133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="128">
+        <v>260</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="136">
+        <v>41509</v>
+      </c>
+      <c r="J21" s="133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1510.21</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="12">
+        <v>41494</v>
+      </c>
+      <c r="H22" s="12">
+        <v>41497</v>
+      </c>
+      <c r="I22" s="137">
+        <v>41495</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="13">
+        <v>5878.78</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="12">
+        <v>41494</v>
+      </c>
+      <c r="H23" s="12">
+        <v>41501</v>
+      </c>
+      <c r="I23" s="137">
+        <v>41501</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="13">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="12">
+        <v>41498</v>
+      </c>
+      <c r="H24" s="12">
+        <v>41501</v>
+      </c>
+      <c r="I24" s="137">
+        <v>41501</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="13">
+        <v>115.01</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="12">
+        <v>41498</v>
+      </c>
+      <c r="H25" s="12">
+        <v>41501</v>
+      </c>
+      <c r="I25" s="137">
+        <v>41501</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E26" s="13">
         <v>8280.36</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G26" s="12">
         <v>41499</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H26" s="12">
         <v>41502</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I26" s="137">
         <v>41501</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="125" t="s">
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>1657.43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="11">
+        <v>41502</v>
+      </c>
+      <c r="H27" s="11">
+        <v>41505</v>
+      </c>
+      <c r="I27" s="137">
+        <v>41502</v>
+      </c>
+      <c r="J27" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="13">
+        <v>512.29999999999995</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="12">
+        <v>41502</v>
+      </c>
+      <c r="H28" s="12">
+        <v>41509</v>
+      </c>
+      <c r="I28" s="137">
+        <v>41507</v>
+      </c>
+      <c r="J28" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>10584</v>
+      </c>
+      <c r="I29" s="137">
+        <v>41507</v>
+      </c>
+      <c r="J29" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30">
+        <v>400</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="137">
+        <v>41474</v>
+      </c>
+      <c r="J30" s="133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31">
+        <v>650</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="137">
+        <v>41474</v>
+      </c>
+      <c r="J31" s="133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>7800</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="137">
+        <v>41474</v>
+      </c>
+      <c r="J32" s="133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>335</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34">
+        <v>7610.63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="11">
+        <v>41514</v>
+      </c>
+      <c r="H34" s="124">
+        <v>41517</v>
+      </c>
+      <c r="I34" s="137">
+        <v>41515</v>
+      </c>
+      <c r="J34" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35">
+        <v>992.96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="11">
+        <v>41492</v>
+      </c>
+      <c r="H35" s="11">
+        <v>41495</v>
+      </c>
+      <c r="I35" s="137">
+        <v>41516</v>
+      </c>
+      <c r="J35" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3813.05</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="124">
+        <v>41512</v>
+      </c>
+      <c r="H39" s="124">
+        <v>41519</v>
+      </c>
+      <c r="I39" s="137">
+        <v>41515</v>
+      </c>
+      <c r="J39" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="10">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="124">
+        <v>41513</v>
+      </c>
+      <c r="H40" s="124">
+        <v>41516</v>
+      </c>
+      <c r="I40" s="137">
+        <v>41515</v>
+      </c>
+      <c r="J40" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="10">
+        <v>649.32000000000005</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="124">
+        <v>41513</v>
+      </c>
+      <c r="H41" s="124">
+        <v>41516</v>
+      </c>
+      <c r="I41" s="137">
+        <v>41515</v>
+      </c>
+      <c r="J41" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="10">
+        <v>3084.07</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="124">
+        <v>41516</v>
+      </c>
+      <c r="H42" s="124">
+        <v>41307</v>
+      </c>
+      <c r="I42" s="136">
+        <v>41516</v>
+      </c>
+      <c r="J42" s="133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B44" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A53" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59">
+        <f>SUBTOTAL(109,[Kwota])</f>
+        <v>105419.38</v>
+      </c>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="134">
+        <f>SUBTOTAL(103,[Konto])</f>
         <v>37</v>
       </c>
-      <c r="E7">
-        <v>1657.43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="11">
-        <v>41502</v>
-      </c>
-      <c r="H7" s="11">
-        <v>41505</v>
-      </c>
-      <c r="I7" s="11">
-        <v>41502</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="125" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="13">
-        <v>512.29999999999995</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="12">
-        <v>41502</v>
-      </c>
-      <c r="H8" s="12">
-        <v>41509</v>
-      </c>
-      <c r="I8" s="12">
-        <v>41507</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="125" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9">
-        <v>10584</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="125" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10">
-        <v>400</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="J10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="125" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11">
-        <v>650</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="J11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="125" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>7800</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="J12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" s="125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13">
-        <v>335</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="M13" s="125" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14">
-        <v>7610.63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="11">
-        <v>41514</v>
-      </c>
-      <c r="H14" s="126">
-        <v>41517</v>
-      </c>
-      <c r="I14" s="11">
-        <v>41515</v>
-      </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="125" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="55"/>
-      <c r="B15" s="57"/>
-      <c r="M15" s="125" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
-      <c r="M16" s="125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>7236</v>
-      </c>
-      <c r="M17" s="125" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <v>5724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>6372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="55"/>
-      <c r="B23" s="57"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="55"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="10">
-        <v>3813.05</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="126">
-        <v>41512</v>
-      </c>
-      <c r="H25" s="126">
-        <v>41519</v>
-      </c>
-      <c r="I25" s="11">
-        <v>41515</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="10">
-        <v>66.180000000000007</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="126">
-        <v>41513</v>
-      </c>
-      <c r="H26" s="126">
-        <v>41516</v>
-      </c>
-      <c r="I26" s="11">
-        <v>41515</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="10">
-        <v>649.32000000000005</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="126">
-        <v>41513</v>
-      </c>
-      <c r="H27" s="126">
-        <v>41516</v>
-      </c>
-      <c r="I27" s="11">
-        <v>41515</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A29" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60">
-        <f>SUBTOTAL(109,[Kwota])</f>
-        <v>84927.349999999991</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60">
-        <f>SUBTOTAL(103,[Konto])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickTop="1"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="61" spans="1:10">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="127"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="139"/>
+      <c r="J78" s="127"/>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A28">
-      <formula1>$M$3:$M$17</formula1>
+  <dataConsolidate/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54:A61">
+      <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B61 B50:B52 B22:B45">
       <formula1>$L$3:$L$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A52">
+      <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3119,7 +3888,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3133,9 +3902,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
@@ -3164,7 +3933,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="58">
         <v>0</v>
       </c>
       <c r="F3">
@@ -3181,11 +3950,11 @@
       <c r="D4">
         <v>46700</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E3</f>
         <v>37600</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="58">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>9100</v>
       </c>
@@ -3197,11 +3966,11 @@
       <c r="C5">
         <v>37800</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E4</f>
         <v>75400</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
@@ -3210,11 +3979,11 @@
       <c r="C6">
         <v>43200</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E5</f>
         <v>118600</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
@@ -3223,11 +3992,11 @@
       <c r="C7">
         <v>47500</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E6</f>
         <v>166100</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
@@ -3236,11 +4005,11 @@
       <c r="C8">
         <v>32000</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E7</f>
         <v>198100</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
@@ -3249,11 +4018,11 @@
       <c r="C9">
         <v>21600</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E8</f>
         <v>219700</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
@@ -3262,7 +4031,7 @@
       <c r="C10">
         <v>9700</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E9</f>
         <v>229400</v>
       </c>
@@ -3274,7 +4043,7 @@
       <c r="C11">
         <v>45700</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E10</f>
         <v>275100</v>
       </c>
@@ -3286,7 +4055,7 @@
       <c r="C12">
         <v>16200</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E11</f>
         <v>291300</v>
       </c>
@@ -3298,7 +4067,7 @@
       <c r="C13">
         <v>22200</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E12</f>
         <v>313500</v>
       </c>
@@ -3310,7 +4079,7 @@
       <c r="C14">
         <v>39900</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E13</f>
         <v>353400</v>
       </c>
@@ -3322,7 +4091,7 @@
       <c r="C15">
         <v>6500</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E14</f>
         <v>359900</v>
       </c>
@@ -3334,7 +4103,7 @@
       <c r="C16">
         <v>31300</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E15</f>
         <v>391200</v>
       </c>
@@ -3346,7 +4115,7 @@
       <c r="C17">
         <v>20000</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E16</f>
         <v>411200</v>
       </c>
@@ -3358,7 +4127,7 @@
       <c r="C18">
         <v>31600</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="58">
         <f>Tabela5[[#This Row],[Planowane]]+E17</f>
         <v>442800</v>
       </c>
@@ -3428,10 +4197,10 @@
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
       <c r="G2" s="31"/>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="108">
+      <c r="K2" s="107">
         <v>37600</v>
       </c>
     </row>
@@ -3459,10 +4228,10 @@
         <f>F3-2100</f>
         <v>5900</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="109">
+      <c r="K3" s="108">
         <v>37800</v>
       </c>
     </row>
@@ -3487,10 +4256,10 @@
         <v>3200</v>
       </c>
       <c r="G4" s="31"/>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="110">
+      <c r="K4" s="109">
         <v>43200</v>
       </c>
     </row>
@@ -3515,10 +4284,10 @@
         <v>17800</v>
       </c>
       <c r="G5" s="31"/>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="110">
         <v>47500</v>
       </c>
     </row>
@@ -3539,10 +4308,10 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31"/>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="112">
+      <c r="K6" s="111">
         <v>32000</v>
       </c>
     </row>
@@ -3567,10 +4336,10 @@
         <v>8600</v>
       </c>
       <c r="G7" s="31"/>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="113">
+      <c r="K7" s="112">
         <v>21600</v>
       </c>
     </row>
@@ -3596,64 +4365,64 @@
         <v>12400</v>
       </c>
       <c r="G8" s="48"/>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="113">
         <v>9700</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="66">
+      <c r="A9" s="65">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <v>43200</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="67">
         <f t="shared" si="0"/>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <f t="shared" ref="E9:E33" si="1">C9-F9</f>
         <v>43200</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="J9" s="115" t="s">
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="J9" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="115">
+      <c r="K9" s="114">
         <v>45700</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="88">
+      <c r="A10" s="87">
         <v>9</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="88">
         <v>9700</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="89">
         <f t="shared" si="0"/>
         <v>2.1906052393857272E-2</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="90">
         <f t="shared" si="1"/>
         <v>9700</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
-      <c r="J10" s="116" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="J10" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="116">
+      <c r="K10" s="115">
         <v>16200</v>
       </c>
     </row>
@@ -3677,10 +4446,10 @@
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="53"/>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="117">
+      <c r="K11" s="116">
         <v>22200</v>
       </c>
     </row>
@@ -3704,37 +4473,37 @@
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="53"/>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="118">
+      <c r="K12" s="117">
         <v>39900</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="71">
+      <c r="A13" s="70">
         <v>12</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="71">
         <v>32000</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="72">
         <f t="shared" si="0"/>
         <v>7.2267389340560068E-2</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="73">
         <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
-      <c r="J13" s="119" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="J13" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="122">
+      <c r="K13" s="121">
         <v>6500</v>
       </c>
     </row>
@@ -3758,133 +4527,133 @@
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="43"/>
-      <c r="J14" s="120" t="s">
+      <c r="J14" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="75">
         <v>31300</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="98">
+      <c r="A15" s="97">
         <v>14</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="98">
         <v>6500</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="99">
         <f t="shared" si="0"/>
         <v>1.4679313459801264E-2</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="100">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="J15" s="121" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+      <c r="J15" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="120">
         <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="93">
+      <c r="A16" s="92">
         <v>15</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="93">
         <v>18900</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="94">
         <f t="shared" si="0"/>
         <v>4.2682926829268296E-2</v>
       </c>
-      <c r="E16" s="96">
+      <c r="E16" s="95">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="J16" s="121" t="s">
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="J16" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="121">
+      <c r="K16" s="120">
         <v>31600</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="93">
+      <c r="A17" s="92">
         <v>16</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="94">
+      <c r="C17" s="93">
         <v>3300</v>
       </c>
-      <c r="D17" s="95">
+      <c r="D17" s="94">
         <f t="shared" si="0"/>
         <v>7.4525745257452572E-3</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="95">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
       <c r="K17">
         <f>SUM(K2:K16)</f>
         <v>442800</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="77">
+      <c r="A18" s="76">
         <v>17</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="80">
         <v>12000</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="77">
         <f t="shared" si="0"/>
         <v>2.7100271002710029E-2</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="78">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="77">
+      <c r="A19" s="76">
         <v>18</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="80">
         <v>27900</v>
       </c>
-      <c r="D19" s="78">
+      <c r="D19" s="77">
         <f t="shared" si="0"/>
         <v>6.3008130081300809E-2</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="78">
         <f t="shared" si="1"/>
         <v>27900</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10">
@@ -3908,25 +4677,25 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="103">
+      <c r="A21" s="102">
         <v>20</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="104">
+      <c r="C21" s="103">
         <v>16200</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="104">
         <f t="shared" si="0"/>
         <v>3.6585365853658534E-2</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="105">
         <f t="shared" si="1"/>
         <v>16200</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="34">
@@ -3971,128 +4740,128 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="82">
+      <c r="A24" s="81">
         <v>23</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84">
+      <c r="C24" s="82"/>
+      <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="86">
         <v>2700</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>6.0975609756097563E-3</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="84">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="87">
+      <c r="C26" s="86">
         <v>6700</v>
       </c>
-      <c r="D26" s="84">
+      <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>1.5130984643179765E-2</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="84">
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="86">
         <v>2200</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="83">
         <f t="shared" si="0"/>
         <v>4.9683830171635048E-3</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="84">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="86">
         <v>15700</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="83">
         <f t="shared" si="0"/>
         <v>3.5456187895212286E-2</v>
       </c>
-      <c r="E28" s="85">
+      <c r="E28" s="84">
         <f t="shared" si="1"/>
         <v>15700</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="86">
         <v>18400</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="83">
         <f t="shared" si="0"/>
         <v>4.1553748870822041E-2</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="84">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10">
@@ -4158,25 +4927,25 @@
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="61">
+      <c r="A33" s="60">
         <v>27</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="61">
         <v>51600</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="62">
         <f t="shared" si="0"/>
         <v>0.11653116531165311</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="63">
         <f t="shared" si="1"/>
         <v>51600</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,18 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
-    <sheet name="Wydatki" sheetId="1" r:id="rId1"/>
-    <sheet name="Wydatki budowa" sheetId="2" r:id="rId2"/>
-    <sheet name="Etapy budowy" sheetId="9" r:id="rId3"/>
-    <sheet name="Harmonogram DB " sheetId="7" r:id="rId4"/>
-    <sheet name="Plan 1. Transza" sheetId="8" r:id="rId5"/>
+    <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
+    <sheet name="Etapy budowy" sheetId="9" r:id="rId2"/>
+    <sheet name="Harmonogram DB " sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Wydatki budowa'!$M$2:$M$9</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'Wydatki budowa'!$M$2:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wydatki budowa'!$M$2:$M$9</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'Wydatki budowa'!$M$2:$M$6</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -58,59 +56,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="181">
-  <si>
-    <t>Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="154">
   <si>
     <t>Opis</t>
   </si>
   <si>
-    <t>Słonka</t>
-  </si>
-  <si>
-    <t>Słonek</t>
-  </si>
-  <si>
-    <t>Razem</t>
-  </si>
-  <si>
-    <t>Archipelag - projekt Mati G1</t>
-  </si>
-  <si>
     <t>Mapa do celów projektowych</t>
   </si>
   <si>
-    <t>Wydanie warunkow przyłączenia ZGK</t>
-  </si>
-  <si>
-    <t>150 (?)</t>
-  </si>
-  <si>
-    <t>Różne Dokumenty do warunków</t>
-  </si>
-  <si>
-    <t>200(?)</t>
-  </si>
-  <si>
-    <t>Glapa - kierownik budowy</t>
-  </si>
-  <si>
-    <t>Glapa - architekt adaptujący</t>
-  </si>
-  <si>
-    <t>ZDiUK - uzgodnienia</t>
-  </si>
-  <si>
-    <t>Tauron Umowa</t>
-  </si>
-  <si>
-    <t>Elektryk - skrzynka Taurona</t>
-  </si>
-  <si>
-    <t>Wpis, wypis KW</t>
-  </si>
-  <si>
     <t>Projekt płyty fundamentowej</t>
   </si>
   <si>
@@ -120,9 +73,6 @@
     <t>Operaty szacunkowe</t>
   </si>
   <si>
-    <t>Partyka - projekty przyłączy</t>
-  </si>
-  <si>
     <t>Rozsypanie tłucznia</t>
   </si>
   <si>
@@ -132,21 +82,9 @@
     <t>Partyka - update projektu kanalizacji</t>
   </si>
   <si>
-    <t>2013-07-xx</t>
-  </si>
-  <si>
-    <t>Geodeta cz.1</t>
-  </si>
-  <si>
-    <t>Geodeta cz.2</t>
-  </si>
-  <si>
     <t>Piasek</t>
   </si>
   <si>
-    <t>Opłata doo ZGK za ponowne uzgodnienie</t>
-  </si>
-  <si>
     <t>Data płatności</t>
   </si>
   <si>
@@ -228,45 +166,6 @@
     <t>Nowak</t>
   </si>
   <si>
-    <t>podział</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
-    <t>ABA</t>
-  </si>
-  <si>
-    <t>JZA</t>
-  </si>
-  <si>
-    <t>budowa</t>
-  </si>
-  <si>
-    <t>wklad własny</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>(60000)</t>
-  </si>
-  <si>
-    <t>Środki</t>
-  </si>
-  <si>
-    <t>Wydatki</t>
-  </si>
-  <si>
-    <t>refinans</t>
-  </si>
-  <si>
-    <t>bory</t>
-  </si>
-  <si>
-    <t>MBA</t>
-  </si>
-  <si>
     <t>DEUTSCHE</t>
   </si>
   <si>
@@ -495,9 +394,6 @@
     <t>5337/T/08/2013</t>
   </si>
   <si>
-    <t>Wynaghrodzenie Bory</t>
-  </si>
-  <si>
     <t>Komin</t>
   </si>
   <si>
@@ -600,7 +496,28 @@
     <t xml:space="preserve">Marek  </t>
   </si>
   <si>
-    <t>Wnioski o wpis do hipotek</t>
+    <t>4. Dach</t>
+  </si>
+  <si>
+    <t>5. Ocieplenie</t>
+  </si>
+  <si>
+    <t>6. Okna i drzwi zewn</t>
+  </si>
+  <si>
+    <t>7. Ścianki działowe</t>
+  </si>
+  <si>
+    <t>8. Instalacje wew</t>
+  </si>
+  <si>
+    <t>9. Biały montaż</t>
+  </si>
+  <si>
+    <t>10. Tynki wewn, malowanie</t>
+  </si>
+  <si>
+    <t>Wpis BZ, wypis KW</t>
   </si>
 </sst>
 </file>
@@ -912,28 +829,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1065,6 +968,45 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1105,42 +1047,6 @@
         <vertAlign val="baseline"/>
         <color rgb="FFC00000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <name val="Czcionka tekstu podstawowego"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1390,9 +1296,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1601,25 +1504,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62544512"/>
-        <c:axId val="62566784"/>
+        <c:axId val="63289984"/>
+        <c:axId val="62984576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62544512"/>
+        <c:axId val="63289984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62566784"/>
+        <c:crossAx val="62984576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62566784"/>
+        <c:axId val="62984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1531,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62544512"/>
+        <c:crossAx val="63289984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,7 +1545,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1690,21 +1593,22 @@
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
   </autoFilter>
   <sortState ref="A2:J52">
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="12"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="11"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="9"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="6"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1720,7 +1624,7 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="12">
+    <tableColumn id="4" name="Plan suma" dataDxfId="0">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Rzecz suma"/>
@@ -2014,543 +1918,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
-        <v>41015</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1126</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1126</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
-        <v>41100</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6">
-        <v>325</v>
-      </c>
-      <c r="D3" s="6">
-        <v>325</v>
-      </c>
-      <c r="E3" s="6">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>41197</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1400</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E6" s="6">
-        <f>C6+D6</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>41351</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1500</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7:E24" si="0">C7+D7</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>41351</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6">
-        <v>74</v>
-      </c>
-      <c r="D8" s="6">
-        <v>74</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <v>41352</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1071</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1071</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
-        <v>41353</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>400</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
-        <v>41360</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>260</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
-        <v>41362</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>500</v>
-      </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7">
-        <v>41367</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>416</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
-        <v>41372</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6">
-        <v>500</v>
-      </c>
-      <c r="D14" s="6">
-        <v>500</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
-        <v>41382</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4">
-        <v>41391</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9">
-        <v>150</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>41404</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>41406</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>140</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4">
-        <v>41428</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>200</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>650</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5800</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4">
-        <v>41484</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4">
-        <v>41488</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9">
-        <v>147</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7">
-        <v>41515</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="9">
-        <v>450</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7">
-        <v>41509</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="9">
-        <v>260</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="E35" s="14">
-        <f>SUM(E6:E34)</f>
-        <v>21653</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2563,8 +1938,8 @@
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="135" customWidth="1"/>
-    <col min="10" max="10" width="11" style="133" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="123" customWidth="1"/>
+    <col min="10" max="10" width="11" style="121" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -2573,1293 +1948,1293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="E2" s="117">
+        <v>2252</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="124">
+        <v>41015</v>
+      </c>
+      <c r="J2" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="117">
+        <v>650</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="124">
+        <v>41100</v>
+      </c>
+      <c r="J3" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E4" s="117">
+        <v>2800</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="124">
+        <v>41197</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="117">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="124">
+        <v>41351</v>
+      </c>
+      <c r="J5" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="135" t="s">
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="117">
+        <v>148</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="124">
+        <v>41351</v>
+      </c>
+      <c r="J6" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="117">
+        <v>2142</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="124">
+        <v>41352</v>
+      </c>
+      <c r="J7" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="118">
+        <v>400</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="124">
+        <v>41353</v>
+      </c>
+      <c r="J8" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="118">
+        <v>260</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="124">
+        <v>41360</v>
+      </c>
+      <c r="J9" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="118">
+        <v>600</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="124">
+        <v>41362</v>
+      </c>
+      <c r="J10" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="118">
+        <v>416</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="124">
+        <v>41367</v>
+      </c>
+      <c r="J11" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="117">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="124">
+        <v>41372</v>
+      </c>
+      <c r="J12" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="118">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="124">
+        <v>41382</v>
+      </c>
+      <c r="J13" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10">
+        <v>150</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="124">
+        <v>41391</v>
+      </c>
+      <c r="J14" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="124">
+        <v>41404</v>
+      </c>
+      <c r="J15" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10">
+        <v>140</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="124">
+        <v>41406</v>
+      </c>
+      <c r="J16" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="124">
+        <v>41428</v>
+      </c>
+      <c r="J17" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="124">
+        <v>41484</v>
+      </c>
+      <c r="J18" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="133" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="129">
-        <v>2252</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="136">
-        <v>41015</v>
-      </c>
-      <c r="J2" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="129">
-        <v>650</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="136">
-        <v>41100</v>
-      </c>
-      <c r="J3" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="131" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="129">
-        <v>2800</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="136">
-        <v>41197</v>
-      </c>
-      <c r="J4" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="129">
-        <v>3000</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="136">
-        <v>41351</v>
-      </c>
-      <c r="J5" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="132" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="129">
-        <v>148</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="136">
-        <v>41351</v>
-      </c>
-      <c r="J6" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" s="132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="129">
-        <v>2142</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="136">
-        <v>41352</v>
-      </c>
-      <c r="J7" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="123" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="130">
-        <v>400</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="136">
-        <v>41353</v>
-      </c>
-      <c r="J8" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="123" t="s">
+      <c r="D19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="10">
+        <v>147</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="124">
+        <v>41488</v>
+      </c>
+      <c r="J19" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="116">
+        <v>450</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="124">
+        <v>41515</v>
+      </c>
+      <c r="J20" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="D21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="116">
+        <v>260</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="124">
+        <v>41509</v>
+      </c>
+      <c r="J21" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1510.21</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3">
+        <v>41494</v>
+      </c>
+      <c r="H22" s="3">
+        <v>41497</v>
+      </c>
+      <c r="I22" s="125">
+        <v>41495</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5878.78</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="130">
-        <v>260</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="136">
-        <v>41360</v>
-      </c>
-      <c r="J9" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="123" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="G23" s="3">
+        <v>41494</v>
+      </c>
+      <c r="H23" s="3">
+        <v>41501</v>
+      </c>
+      <c r="I23" s="125">
+        <v>41501</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3">
+        <v>41498</v>
+      </c>
+      <c r="H24" s="3">
+        <v>41501</v>
+      </c>
+      <c r="I24" s="125">
+        <v>41501</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4">
+        <v>115.01</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3">
+        <v>41498</v>
+      </c>
+      <c r="H25" s="3">
+        <v>41501</v>
+      </c>
+      <c r="I25" s="125">
+        <v>41501</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8280.36</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3">
+        <v>41499</v>
+      </c>
+      <c r="H26" s="3">
+        <v>41502</v>
+      </c>
+      <c r="I26" s="125">
+        <v>41501</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="130">
-        <v>600</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="136">
-        <v>41362</v>
-      </c>
-      <c r="J10" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="123" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="130">
-        <v>416</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="136">
-        <v>41367</v>
-      </c>
-      <c r="J11" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="123" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="129">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="136">
-        <v>41372</v>
-      </c>
-      <c r="J12" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" s="123" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="130">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="136">
-        <v>41382</v>
-      </c>
-      <c r="J13" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="22">
-        <v>150</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="136">
-        <v>41391</v>
-      </c>
-      <c r="J14" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" s="123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="127" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="22">
-        <v>200</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="136">
-        <v>41404</v>
-      </c>
-      <c r="J15" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" s="123" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="22">
-        <v>140</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="136">
-        <v>41406</v>
-      </c>
-      <c r="J16" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M16" s="123" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="22">
-        <v>200</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="136">
-        <v>41428</v>
-      </c>
-      <c r="J17" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M17" s="123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="22">
-        <v>200</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="136">
-        <v>41484</v>
-      </c>
-      <c r="J18" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="123" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="22">
-        <v>147</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="136">
-        <v>41488</v>
-      </c>
-      <c r="J19" s="133" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="128">
-        <v>450</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="136">
-        <v>41515</v>
-      </c>
-      <c r="J20" s="133" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="128">
-        <v>260</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="136">
-        <v>41509</v>
-      </c>
-      <c r="J21" s="133" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1510.21</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="12">
-        <v>41494</v>
-      </c>
-      <c r="H22" s="12">
-        <v>41497</v>
-      </c>
-      <c r="I22" s="137">
-        <v>41495</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="13">
-        <v>5878.78</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="12">
-        <v>41494</v>
-      </c>
-      <c r="H23" s="12">
-        <v>41501</v>
-      </c>
-      <c r="I23" s="137">
-        <v>41501</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="13">
-        <v>19.079999999999998</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="12">
-        <v>41498</v>
-      </c>
-      <c r="H24" s="12">
-        <v>41501</v>
-      </c>
-      <c r="I24" s="137">
-        <v>41501</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="13">
-        <v>115.01</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="12">
-        <v>41498</v>
-      </c>
-      <c r="H25" s="12">
-        <v>41501</v>
-      </c>
-      <c r="I25" s="137">
-        <v>41501</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="13">
-        <v>8280.36</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="12">
-        <v>41499</v>
-      </c>
-      <c r="H26" s="12">
-        <v>41502</v>
-      </c>
-      <c r="I26" s="137">
-        <v>41501</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
       </c>
       <c r="E27">
         <v>1657.43</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="11">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2">
         <v>41502</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="2">
         <v>41505</v>
       </c>
-      <c r="I27" s="137">
+      <c r="I27" s="125">
         <v>41502</v>
       </c>
-      <c r="J27" s="133" t="s">
-        <v>43</v>
+      <c r="J27" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="A28" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="4">
         <v>512.29999999999995</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
         <v>41502</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="3">
         <v>41509</v>
       </c>
-      <c r="I28" s="137">
+      <c r="I28" s="125">
         <v>41507</v>
       </c>
-      <c r="J28" s="133" t="s">
-        <v>43</v>
+      <c r="J28" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>55</v>
+      <c r="A29" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>10584</v>
       </c>
-      <c r="I29" s="137">
+      <c r="I29" s="125">
         <v>41507</v>
       </c>
-      <c r="J29" s="133" t="s">
-        <v>43</v>
+      <c r="J29" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>137</v>
+      <c r="A30" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="E30">
         <v>400</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="137">
+      <c r="H30" s="1"/>
+      <c r="I30" s="125">
         <v>41474</v>
       </c>
-      <c r="J30" s="133" t="s">
-        <v>117</v>
+      <c r="J30" s="121" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>137</v>
+      <c r="A31" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>650</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="137">
+      <c r="H31" s="1"/>
+      <c r="I31" s="125">
         <v>41474</v>
       </c>
-      <c r="J31" s="133" t="s">
-        <v>117</v>
+      <c r="J31" s="121" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>55</v>
+      <c r="A32" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>7800</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="137">
+      <c r="H32" s="1"/>
+      <c r="I32" s="125">
         <v>41474</v>
       </c>
-      <c r="J32" s="133" t="s">
-        <v>117</v>
+      <c r="J32" s="121" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>119</v>
+      <c r="A33" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>335</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>119</v>
+      <c r="A34" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>7610.63</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="11">
+        <v>111</v>
+      </c>
+      <c r="G34" s="2">
         <v>41514</v>
       </c>
-      <c r="H34" s="124">
+      <c r="H34" s="112">
         <v>41517</v>
       </c>
-      <c r="I34" s="137">
+      <c r="I34" s="125">
         <v>41515</v>
       </c>
-      <c r="J34" s="133" t="s">
-        <v>43</v>
+      <c r="J34" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>122</v>
+      <c r="A35" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="E35">
         <v>992.96</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="11">
+        <v>115</v>
+      </c>
+      <c r="G35" s="2">
         <v>41492</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="2">
         <v>41495</v>
       </c>
-      <c r="I35" s="137">
+      <c r="I35" s="125">
         <v>41516</v>
       </c>
-      <c r="J35" s="133" t="s">
-        <v>43</v>
+      <c r="J35" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>55</v>
+      <c r="A36" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>7236</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>55</v>
+      <c r="A37" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>3078</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>55</v>
+      <c r="A38" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>2052</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="A39" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="1">
         <v>3813.05</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="124">
+      <c r="F39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="112">
         <v>41512</v>
       </c>
-      <c r="H39" s="124">
+      <c r="H39" s="112">
         <v>41519</v>
       </c>
-      <c r="I39" s="137">
+      <c r="I39" s="125">
         <v>41515</v>
       </c>
-      <c r="J39" s="133" t="s">
-        <v>43</v>
+      <c r="J39" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="A40" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="1">
         <v>66.180000000000007</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="124">
+      <c r="F40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="112">
         <v>41513</v>
       </c>
-      <c r="H40" s="124">
+      <c r="H40" s="112">
         <v>41516</v>
       </c>
-      <c r="I40" s="137">
+      <c r="I40" s="125">
         <v>41515</v>
       </c>
-      <c r="J40" s="133" t="s">
-        <v>43</v>
+      <c r="J40" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="A41" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="1">
         <v>649.32000000000005</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="112">
+        <v>41513</v>
+      </c>
+      <c r="H41" s="112">
+        <v>41516</v>
+      </c>
+      <c r="I41" s="125">
+        <v>41515</v>
+      </c>
+      <c r="J41" s="121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="124">
-        <v>41513</v>
-      </c>
-      <c r="H41" s="124">
+      <c r="B42" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3084.07</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="112">
         <v>41516</v>
       </c>
-      <c r="I41" s="137">
-        <v>41515</v>
-      </c>
-      <c r="J41" s="133" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="10">
-        <v>3084.07</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" s="124">
+      <c r="H42" s="112">
+        <v>41307</v>
+      </c>
+      <c r="I42" s="124">
         <v>41516</v>
       </c>
-      <c r="H42" s="124">
-        <v>41307</v>
-      </c>
-      <c r="I42" s="136">
-        <v>41516</v>
-      </c>
-      <c r="J42" s="133" t="s">
-        <v>43</v>
+      <c r="J42" s="121" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>55</v>
+      <c r="A43" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>10584</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>55</v>
+      <c r="A44" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>5724</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>55</v>
+      <c r="A45" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>6372</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A53" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59">
+      <c r="A53" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47">
         <f>SUBTOTAL(109,[Kwota])</f>
         <v>105419.38</v>
       </c>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="134">
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="122">
         <f>SUBTOTAL(103,[Konto])</f>
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickTop="1"/>
     <row r="61" spans="1:10">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="127"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="115"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="139"/>
-      <c r="J78" s="127"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="115"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3883,7 +3258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F18"/>
   <sheetViews>
@@ -3902,30 +3277,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3933,7 +3308,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="46">
         <v>0</v>
       </c>
       <c r="F3">
@@ -3942,7 +3317,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>37600</v>
@@ -3950,184 +3325,184 @@
       <c r="D4">
         <v>46700</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E3</f>
         <v>37600</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="46">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>9100</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>37800</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E4</f>
         <v>75400</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>43200</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E5</f>
         <v>118600</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>47500</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E6</f>
         <v>166100</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>32000</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E7</f>
         <v>198100</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>21600</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E8</f>
         <v>219700</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>9700</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E9</f>
         <v>229400</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>45700</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E10</f>
         <v>275100</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>16200</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E11</f>
         <v>291300</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>22200</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E12</f>
         <v>313500</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>39900</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E13</f>
         <v>353400</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>6500</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E14</f>
         <v>359900</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>31300</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E15</f>
         <v>391200</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>20000</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E16</f>
         <v>411200</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>31600</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="46">
         <f>Tabela5[[#This Row],[Planowane]]+E17</f>
         <v>442800</v>
       </c>
@@ -4141,12 +3516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4156,991 +3531,819 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="20">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="8">
         <f>50000-F3-F4-F5-F7-F8</f>
         <v>0</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>129</v>
+      <c r="J1" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="27">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="17">
         <f>C2/$C$34</f>
         <v>0</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="J2" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="107">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="J2" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="95">
         <v>37600</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="27">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="32">
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="20">
         <v>8000</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="17">
         <f t="shared" ref="D3:D34" si="0">C3/$C$34</f>
         <v>1.8066847335140017E-2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="18">
         <v>0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="18">
         <v>8000</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="21">
         <f>F3-2100</f>
         <v>5900</v>
       </c>
-      <c r="J3" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="108">
+      <c r="J3" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="96">
         <v>37800</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="27">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="20">
         <v>3200</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="17">
         <f t="shared" si="0"/>
         <v>7.2267389340560069E-3</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="18">
         <v>3200</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="J4" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" s="109">
+      <c r="G4" s="19"/>
+      <c r="J4" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="97">
         <v>43200</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="27">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="B5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="20">
         <v>17800</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
         <v>4.0198735320686539E-2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="18">
         <v>17800</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="J5" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="110">
+      <c r="G5" s="19"/>
+      <c r="J5" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="98">
         <v>47500</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="27">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="20">
         <v>0</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="J6" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="111">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="J6" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="99">
         <v>32000</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="27">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="20">
         <v>8600</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>1.9421860885275519E-2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="18">
         <v>8600</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="J7" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="112">
+      <c r="G7" s="19"/>
+      <c r="J7" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="100">
         <v>21600</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="44">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="33">
         <v>37800</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="34">
         <f t="shared" si="0"/>
         <v>8.5365853658536592E-2</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="35">
         <f>C8-F8</f>
         <v>25400</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="35">
         <v>12400</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="J8" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="113">
+      <c r="G8" s="36"/>
+      <c r="J8" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="101">
         <v>9700</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="65">
+      <c r="A9" s="53">
         <v>8</v>
       </c>
-      <c r="B9" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="66">
+      <c r="B9" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="54">
         <v>43200</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="55">
         <f t="shared" si="0"/>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="56">
         <f t="shared" ref="E9:E33" si="1">C9-F9</f>
         <v>43200</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="J9" s="114" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="114">
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="J9" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="102">
         <v>45700</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="87">
+      <c r="A10" s="75">
         <v>9</v>
       </c>
-      <c r="B10" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="88">
+      <c r="B10" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="76">
         <v>9700</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="77">
         <f t="shared" si="0"/>
         <v>2.1906052393857272E-2</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="78">
         <f t="shared" si="1"/>
         <v>9700</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="J10" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="115">
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="J10" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="103">
         <v>16200</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="49">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="50">
+      <c r="B11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="38">
         <v>14600</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>3.297199638663053E-2</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="40">
         <f t="shared" si="1"/>
         <v>14600</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="J11" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" s="116">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="J11" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="104">
         <v>22200</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="49">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="50">
+      <c r="B12" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="38">
         <v>32900</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="39">
         <f t="shared" si="0"/>
         <v>7.4299909665763331E-2</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="40">
         <f t="shared" si="1"/>
         <v>32900</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="J12" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="117">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="J12" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="105">
         <v>39900</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="70">
+      <c r="A13" s="58">
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="71">
+      <c r="B13" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="59">
         <v>32000</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="60">
         <f t="shared" si="0"/>
         <v>7.2267389340560068E-2</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="61">
         <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="J13" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="121">
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="J13" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="109">
         <v>6500</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="39">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="B14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="28">
         <v>21600</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="29">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="30">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="J14" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="75">
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="J14" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="63">
         <v>31300</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="97">
+      <c r="A15" s="85">
         <v>14</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="98">
+      <c r="B15" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="86">
         <v>6500</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="87">
         <f t="shared" si="0"/>
         <v>1.4679313459801264E-2</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="88">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="J15" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="120">
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="J15" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="108">
         <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="92">
+      <c r="A16" s="80">
         <v>15</v>
       </c>
-      <c r="B16" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="93">
+      <c r="B16" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="81">
         <v>18900</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="82">
         <f t="shared" si="0"/>
         <v>4.2682926829268296E-2</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="83">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="J16" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="120">
+      <c r="F16" s="83"/>
+      <c r="G16" s="84"/>
+      <c r="J16" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="108">
         <v>31600</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="92">
+      <c r="A17" s="80">
         <v>16</v>
       </c>
-      <c r="B17" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="93">
+      <c r="B17" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="81">
         <v>3300</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="82">
         <f t="shared" si="0"/>
         <v>7.4525745257452572E-3</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="83">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
       <c r="K17">
         <f>SUM(K2:K16)</f>
         <v>442800</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="76">
+      <c r="A18" s="64">
         <v>17</v>
       </c>
-      <c r="B18" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="80">
+      <c r="B18" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="68">
         <v>12000</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="65">
         <f t="shared" si="0"/>
         <v>2.7100271002710029E-2</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="66">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="76">
+      <c r="A19" s="64">
         <v>18</v>
       </c>
-      <c r="B19" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="80">
+      <c r="B19" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="68">
         <v>27900</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="65">
         <f t="shared" si="0"/>
         <v>6.3008130081300809E-2</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="66">
         <f t="shared" si="1"/>
         <v>27900</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="10">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="26">
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="14">
         <v>0</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="102">
+      <c r="A21" s="90">
         <v>20</v>
       </c>
-      <c r="B21" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="103">
+      <c r="B21" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="91">
         <v>16200</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="92">
         <f t="shared" si="0"/>
         <v>3.6585365853658534E-2</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="93">
         <f t="shared" si="1"/>
         <v>16200</v>
       </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="34">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="35">
+      <c r="B22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="23">
         <v>31300</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="24">
         <f t="shared" si="0"/>
         <v>7.0686540198735326E-2</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="25">
         <f t="shared" si="1"/>
         <v>31300</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="10">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="14">
         <v>0</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="81">
+      <c r="A24" s="69">
         <v>23</v>
       </c>
-      <c r="B24" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83">
+      <c r="B24" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="86">
+      <c r="A25" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="74">
         <v>2700</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="71">
         <f t="shared" si="0"/>
         <v>6.0975609756097563E-3</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="72">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="86">
+      <c r="A26" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="74">
         <v>6700</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="71">
         <f t="shared" si="0"/>
         <v>1.5130984643179765E-2</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="72">
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="86">
+      <c r="A27" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="74">
         <v>2200</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="71">
         <f t="shared" si="0"/>
         <v>4.9683830171635048E-3</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="72">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="86">
+      <c r="A28" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="74">
         <v>15700</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="71">
         <f t="shared" si="0"/>
         <v>3.5456187895212286E-2</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="72">
         <f t="shared" si="1"/>
         <v>15700</v>
       </c>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="86">
+      <c r="A29" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="74">
         <v>18400</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="71">
         <f t="shared" si="0"/>
         <v>4.1553748870822041E-2</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="72">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="10">
+      <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="26">
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="14">
         <v>0</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="10">
+      <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="26">
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="14">
         <v>0</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="10">
+      <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="26">
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="14">
         <v>0</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="60">
+      <c r="A33" s="48">
         <v>27</v>
       </c>
-      <c r="B33" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="61">
+      <c r="B33" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="49">
         <v>51600</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="50">
         <f t="shared" si="0"/>
         <v>0.11653116531165311</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="51">
         <f t="shared" si="1"/>
         <v>51600</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10"/>
-      <c r="B34" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="A34" s="1"/>
+      <c r="B34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="12">
         <f>SUM(C2:C33)</f>
         <v>442800</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="12">
         <f t="shared" ref="E34:F34" si="2">SUM(E2:E33)</f>
         <v>392800</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="12">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="G34" s="23"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="4" spans="2:9">
-      <c r="B4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5">
-        <v>70000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>29000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6">
-        <v>7000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6">
-        <v>38000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>36500</v>
-      </c>
-      <c r="H6">
-        <v>4.2370000000000001</v>
-      </c>
-      <c r="I6">
-        <f>H6*G6</f>
-        <v>154650.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7">
-        <v>20000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7">
-        <v>45000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7">
-        <v>25500</v>
-      </c>
-      <c r="H7">
-        <v>4.37</v>
-      </c>
-      <c r="I7">
-        <f>H7*G7</f>
-        <v>111435</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8">
-        <v>10000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>20000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <f>SUM(I6:I7)</f>
-        <v>266085.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>10000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10">
-        <v>180000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10">
-        <v>10000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11">
-        <v>100000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11">
-        <f>B10-D6</f>
-        <v>142000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="D12">
-        <v>110000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14">
-        <f>SUM(B5:B13)</f>
-        <v>397000</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C5:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D5:D12)</f>
-        <v>404000</v>
-      </c>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -2,20 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
-    <sheet name="Etapy budowy" sheetId="9" r:id="rId2"/>
-    <sheet name="Harmonogram DB " sheetId="7" r:id="rId3"/>
+    <sheet name="Zestawienie kosztów" sheetId="11" r:id="rId2"/>
+    <sheet name="Etapy budowy" sheetId="9" r:id="rId3"/>
+    <sheet name="Harmonogram DB " sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wydatki budowa'!$M$2:$M$9</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'Wydatki budowa'!$M$2:$M$6</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="16" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
@@ -56,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="169">
   <si>
     <t>Opis</t>
   </si>
@@ -343,9 +347,6 @@
     <t>Zero</t>
   </si>
   <si>
-    <t>Rzecz suma</t>
-  </si>
-  <si>
     <t>Nazwy etapów</t>
   </si>
   <si>
@@ -518,12 +519,63 @@
   </si>
   <si>
     <t>Wpis BZ, wypis KW</t>
+  </si>
+  <si>
+    <t>bez faktury</t>
+  </si>
+  <si>
+    <t>698/2013</t>
+  </si>
+  <si>
+    <t>Zaprawa Nowak</t>
+  </si>
+  <si>
+    <t>F/SK/00799/13</t>
+  </si>
+  <si>
+    <t>9/2013</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>Nadproża</t>
+  </si>
+  <si>
+    <t>5441/T/08/2013</t>
+  </si>
+  <si>
+    <t>Rzecz różnica</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Realizacja</t>
+  </si>
+  <si>
+    <t>Etykiety wierszy</t>
+  </si>
+  <si>
+    <t>(puste)</t>
+  </si>
+  <si>
+    <t>Suma końcowa</t>
+  </si>
+  <si>
+    <t>Suma z Kwota</t>
+  </si>
+  <si>
+    <t>Rzeczoznawca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -829,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -950,9 +1002,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,14 +1011,25 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -1000,11 +1060,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1040,13 +1095,33 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1064,6 +1139,69 @@
         <name val="Czcionka tekstu podstawowego"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="3"/>
+        <name val="Czcionka tekstu podstawowego"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1204,97 +1342,29 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <name val="Czcionka tekstu podstawowego"/>
-        <scheme val="none"/>
+        <color rgb="FFC00000"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <name val="Czcionka tekstu podstawowego"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="3"/>
-        <name val="Czcionka tekstu podstawowego"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,7 +1408,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Etapy budowy'!$E$2</c:f>
+              <c:f>'Etapy budowy'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1355,7 +1425,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Etapy budowy'!$B$3:$B$18</c:f>
+              <c:f>'Etapy budowy'!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1411,7 +1481,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Etapy budowy'!$E$3:$E$18</c:f>
+              <c:f>'Etapy budowy'!$D$3:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1472,11 +1542,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Etapy budowy'!$F$2</c:f>
+              <c:f>'Etapy budowy'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rzecz suma</c:v>
+                  <c:v>Rzecz różnica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1489,7 +1559,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Etapy budowy'!$F$3:$F$18</c:f>
+              <c:f>'Etapy budowy'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1504,25 +1574,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63289984"/>
-        <c:axId val="62984576"/>
+        <c:axId val="70915200"/>
+        <c:axId val="70916736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63289984"/>
+        <c:axId val="70915200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62984576"/>
+        <c:crossAx val="70916736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62984576"/>
+        <c:axId val="70916736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1601,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63289984"/>
+        <c:crossAx val="70915200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,7 +1615,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1555,16 +1625,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1586,11 +1656,860 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41523.404467361113" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="53">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Etap" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="0. Przed budową"/>
+        <s v="1. Fundamenty"/>
+        <s v="2. Ściany nadziemia"/>
+        <s v="3. Stropy, schody"/>
+        <s v="4. Dach"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Typ" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Projekt"/>
+        <s v="Usługa"/>
+        <s v="Koszty kredytu"/>
+        <s v="Materiał"/>
+        <s v="Wykonawca"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dostawca" numFmtId="0">
+      <sharedItems containsBlank="1" count="20">
+        <s v="Archipelag"/>
+        <s v="Wrocław"/>
+        <s v="Marek Glapa"/>
+        <s v="ZDiUK"/>
+        <s v="Tauron"/>
+        <s v="Elektryk"/>
+        <s v="Sąd"/>
+        <s v="Danuta Fabrowicz"/>
+        <s v="Urząd Skarbowy"/>
+        <s v="Rzeczoznawca"/>
+        <s v="Tomasz Partyka"/>
+        <s v="Operator Koparki"/>
+        <s v="Marek  "/>
+        <s v="ZGK"/>
+        <s v="Bory"/>
+        <s v="Manex"/>
+        <s v="Antoni Nowak"/>
+        <s v="Geodeta"/>
+        <s v="Nowak"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Opis" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Kwota" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="19.079999999999998" maxValue="10584"/>
+    </cacheField>
+    <cacheField name="Faktura numer" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Data faktury" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-08-31T00:00:00"/>
+    </cacheField>
+    <cacheField name="Data płatności" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-09-03T00:00:00"/>
+    </cacheField>
+    <cacheField name="Zapłacono" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-05T00:00:00"/>
+    </cacheField>
+    <cacheField name="Konto" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="53">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Zakup projektu"/>
+    <n v="2252"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2012-04-16T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Mapa do celów projektowych"/>
+    <n v="650"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2012-07-10T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Wynagrodzenie architekta"/>
+    <n v="2800"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2012-10-15T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Wynagrodzenie kierownika budowy"/>
+    <n v="3000"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-03-18T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Uzgodnienia"/>
+    <n v="148"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-03-18T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Umowa"/>
+    <n v="2142"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-03-19T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Skrzynka Taurona"/>
+    <n v="400"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-03-20T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="Wpis BZ, wypis KW"/>
+    <n v="260"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-03-27T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="Projekt płyty fundamentowej"/>
+    <n v="600"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-03-29T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="Podatek od umowy najmu"/>
+    <n v="416"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-04-03T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="Operaty szacunkowe"/>
+    <n v="1000"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-04-08T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="Projekty przyłączy"/>
+    <n v="1000"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-04-18T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="Rozsypanie tłucznia"/>
+    <n v="150"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-04-27T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="12"/>
+    <s v="Siatka leśna"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-05-10T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <s v="Podatek od umowy najmu"/>
+    <n v="140"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-05-12T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="Partyka - update projektu kanalizacji"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-06-03T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="Partyka - update projektu kanalizacji"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-29T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="Opłata do ZGK za ponowne uzgodnienie"/>
+    <n v="147"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-08-02T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="14"/>
+    <s v="Wynagrodzenie Borek"/>
+    <n v="450"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-08-29T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="Wniosek o wpis do hipoteki"/>
+    <n v="260"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-08-23T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Folia"/>
+    <n v="1510.21"/>
+    <s v="4817/T/08/2013"/>
+    <d v="2013-08-08T00:00:00"/>
+    <d v="2013-08-11T00:00:00"/>
+    <d v="2013-08-09T00:00:00"/>
+    <s v="mbank dza"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Stal"/>
+    <n v="5878.78"/>
+    <s v="4815/T/08/2013"/>
+    <d v="2013-08-08T00:00:00"/>
+    <d v="2013-08-15T00:00:00"/>
+    <d v="2013-08-15T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Rura woda"/>
+    <n v="19.079999999999998"/>
+    <s v="4877/T/08/2013"/>
+    <d v="2013-08-12T00:00:00"/>
+    <d v="2013-08-15T00:00:00"/>
+    <d v="2013-08-15T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Folia"/>
+    <n v="115.01"/>
+    <s v="4916/T/08/2013"/>
+    <d v="2013-08-12T00:00:00"/>
+    <d v="2013-08-15T00:00:00"/>
+    <d v="2013-08-15T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Styropian"/>
+    <n v="8280.36"/>
+    <s v="4969/T/08/2013"/>
+    <d v="2013-08-13T00:00:00"/>
+    <d v="2013-08-16T00:00:00"/>
+    <d v="2013-08-15T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Stal"/>
+    <n v="1657.43"/>
+    <s v="5017/T/08/2013"/>
+    <d v="2013-08-16T00:00:00"/>
+    <d v="2013-08-19T00:00:00"/>
+    <d v="2013-08-16T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Stal"/>
+    <n v="512.29999999999995"/>
+    <s v="5042/T/08/2013"/>
+    <d v="2013-08-16T00:00:00"/>
+    <d v="2013-08-23T00:00:00"/>
+    <d v="2013-08-21T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="Płyta fundamentowa"/>
+    <n v="10584"/>
+    <s v="9/2013"/>
+    <m/>
+    <m/>
+    <d v="2013-08-21T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="Geodeta działka"/>
+    <n v="400"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-19T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="Geodeta budynek"/>
+    <n v="650"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-19T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="18"/>
+    <s v="Piasek"/>
+    <n v="7800"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-19T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="Folia Nowak"/>
+    <n v="335.18"/>
+    <s v="698/2013"/>
+    <m/>
+    <m/>
+    <d v="2013-09-04T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Beton"/>
+    <n v="7610.63"/>
+    <s v="5337/T/08/2013"/>
+    <d v="2013-08-28T00:00:00"/>
+    <d v="2013-08-31T00:00:00"/>
+    <d v="2013-08-29T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Kanalizacja"/>
+    <n v="992.96"/>
+    <s v="4765/T/08/2013"/>
+    <d v="2013-08-06T00:00:00"/>
+    <d v="2013-08-09T00:00:00"/>
+    <d v="2013-08-30T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="Parter"/>
+    <n v="7010.82"/>
+    <s v="bez faktury"/>
+    <m/>
+    <m/>
+    <d v="2013-09-04T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="Ściana kolankowa"/>
+    <n v="3078"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="Mur poddasza"/>
+    <n v="2052"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Pustaki"/>
+    <n v="3813.05"/>
+    <s v="5291/T/08/2013"/>
+    <d v="2013-08-26T00:00:00"/>
+    <d v="2013-09-02T00:00:00"/>
+    <d v="2013-08-29T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Smoła"/>
+    <n v="66.180000000000007"/>
+    <s v="5315/T/08/2013"/>
+    <d v="2013-08-27T00:00:00"/>
+    <d v="2013-08-30T00:00:00"/>
+    <d v="2013-08-29T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Pustaki połówki"/>
+    <n v="649.32000000000005"/>
+    <s v="5327/T/08/2013"/>
+    <d v="2013-08-27T00:00:00"/>
+    <d v="2013-08-30T00:00:00"/>
+    <d v="2013-08-29T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Komin"/>
+    <n v="3084.07"/>
+    <s v="5433/T/08/2013"/>
+    <d v="2013-08-30T00:00:00"/>
+    <d v="2013-09-02T00:00:00"/>
+    <d v="2013-08-30T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="Zaprawa Nowak"/>
+    <n v="54"/>
+    <s v="F/SK/00799/13"/>
+    <m/>
+    <m/>
+    <d v="2013-09-04T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="15"/>
+    <s v="Nadproża"/>
+    <n v="1415.36"/>
+    <s v="5441/T/08/2013"/>
+    <d v="2013-08-30T00:00:00"/>
+    <d v="2013-09-02T00:00:00"/>
+    <d v="2013-09-04T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="Strop"/>
+    <n v="10584"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="Więźba"/>
+    <n v="5724"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="16"/>
+    <s v="Dach"/>
+    <n v="6372"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="21">
+        <item x="16"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J53" totalsRowCount="1">
-  <autoFilter ref="A1:J52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J55" totalsRowCount="1">
+  <autoFilter ref="A1:J54">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
@@ -1599,35 +2518,39 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="12"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="11"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="6"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="B2:F18" totalsRowShown="0">
-  <autoFilter ref="B2:F18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A2:G18" totalsRowShown="0">
+  <autoFilter ref="A2:G18">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
   </autoFilter>
-  <tableColumns count="5">
+  <tableColumns count="7">
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="0">
-      <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+      <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Rzecz suma"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="7" name="Plan"/>
+    <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1921,11 +2844,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1934,12 +2857,12 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="123" customWidth="1"/>
-    <col min="10" max="10" width="11" style="121" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="120" customWidth="1"/>
+    <col min="10" max="10" width="11" style="118" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -1960,7 +2883,7 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="125" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
@@ -1972,36 +2895,36 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="121" t="s">
+      <c r="I1" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="118" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="117">
+      <c r="E2" s="126">
         <v>2252</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="124">
+      <c r="I2" s="121">
         <v>41015</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="118" t="s">
         <v>84</v>
       </c>
       <c r="L2" s="45" t="s">
@@ -2013,382 +2936,384 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="126">
         <v>650</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="124">
+      <c r="I3" s="121">
         <v>41100</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="118" t="s">
         <v>84</v>
       </c>
       <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="119" t="s">
-        <v>141</v>
+      <c r="M3" s="116" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="117">
+      <c r="E4" s="126">
         <v>2800</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="124">
+      <c r="I4" s="121">
         <v>41197</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="118" t="s">
         <v>84</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="119" t="s">
-        <v>142</v>
+      <c r="M4" s="116" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="117">
+        <v>121</v>
+      </c>
+      <c r="E5" s="126">
         <v>3000</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="124">
+      <c r="I5" s="121">
         <v>41351</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="118" t="s">
         <v>84</v>
       </c>
       <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="120" t="s">
-        <v>143</v>
+      <c r="M5" s="117" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="117">
+      <c r="E6" s="126">
         <v>148</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="124">
+      <c r="I6" s="121">
         <v>41351</v>
       </c>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="120" t="s">
-        <v>144</v>
+      <c r="M6" s="117" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="117">
+      <c r="E7" s="126">
         <v>2142</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="124">
+      <c r="I7" s="121">
         <v>41352</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="120" t="s">
-        <v>146</v>
+      <c r="M7" s="117" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="118">
+      <c r="E8" s="127">
         <v>400</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="124">
+      <c r="I8" s="121">
         <v>41353</v>
       </c>
-      <c r="J8" s="121" t="s">
+      <c r="J8" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="120" t="s">
-        <v>147</v>
+      <c r="M8" s="117" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="118">
+        <v>152</v>
+      </c>
+      <c r="E9" s="127">
         <v>260</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="124">
+      <c r="I9" s="121">
         <v>41360</v>
       </c>
-      <c r="J9" s="121" t="s">
+      <c r="J9" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="120" t="s">
-        <v>148</v>
+      <c r="M9" s="117" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="118">
+      <c r="E10" s="127">
         <v>600</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="124">
+      <c r="I10" s="121">
         <v>41362</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="120" t="s">
-        <v>149</v>
+      <c r="M10" s="117" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="127">
         <v>416</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="124">
+      <c r="I11" s="121">
         <v>41367</v>
       </c>
-      <c r="J11" s="121" t="s">
+      <c r="J11" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="120" t="s">
-        <v>150</v>
+      <c r="M11" s="117" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D12" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="117">
+      <c r="E12" s="126">
         <v>1000</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="124">
+      <c r="I12" s="121">
         <v>41372</v>
       </c>
-      <c r="J12" s="121" t="s">
+      <c r="J12" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="120" t="s">
-        <v>151</v>
+      <c r="M12" s="117" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="118">
+      <c r="E13" s="127">
         <v>1000</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="124">
+      <c r="I13" s="121">
         <v>41382</v>
       </c>
-      <c r="J13" s="121" t="s">
+      <c r="J13" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="120" t="s">
-        <v>152</v>
+      <c r="M13" s="117" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="128">
         <v>150</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="124">
+      <c r="I14" s="121">
         <v>41391</v>
       </c>
-      <c r="J14" s="121" t="s">
+      <c r="J14" s="118" t="s">
         <v>84</v>
       </c>
       <c r="M14" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="128">
         <v>200</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="124">
+      <c r="I15" s="121">
         <v>41404</v>
       </c>
-      <c r="J15" s="121" t="s">
+      <c r="J15" s="118" t="s">
         <v>84</v>
       </c>
       <c r="M15" s="111" t="s">
@@ -2397,27 +3322,27 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="128">
         <v>140</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="124">
+      <c r="I16" s="121">
         <v>41406</v>
       </c>
-      <c r="J16" s="121" t="s">
+      <c r="J16" s="118" t="s">
         <v>84</v>
       </c>
       <c r="M16" s="111" t="s">
@@ -2426,143 +3351,143 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="128">
         <v>200</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="124">
+      <c r="I17" s="121">
         <v>41428</v>
       </c>
-      <c r="J17" s="121" t="s">
+      <c r="J17" s="118" t="s">
         <v>84</v>
       </c>
       <c r="M17" s="111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="128">
         <v>200</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="124">
+      <c r="I18" s="121">
         <v>41484</v>
       </c>
-      <c r="J18" s="121" t="s">
+      <c r="J18" s="118" t="s">
         <v>84</v>
       </c>
       <c r="M18" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="E19" s="128">
         <v>147</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="124">
+      <c r="I19" s="121">
         <v>41488</v>
       </c>
-      <c r="J19" s="121" t="s">
+      <c r="J19" s="118" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="116">
+      <c r="E20" s="129">
         <v>450</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="124">
+      <c r="I20" s="121">
         <v>41515</v>
       </c>
-      <c r="J20" s="121" t="s">
+      <c r="J20" s="118" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="116">
+        <v>139</v>
+      </c>
+      <c r="E21" s="129">
         <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="124">
+      <c r="I21" s="121">
         <v>41509</v>
       </c>
-      <c r="J21" s="121" t="s">
+      <c r="J21" s="118" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>86</v>
@@ -2573,7 +3498,7 @@
       <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="130">
         <v>1510.21</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -2585,7 +3510,7 @@
       <c r="H22" s="3">
         <v>41497</v>
       </c>
-      <c r="I22" s="125">
+      <c r="I22" s="122">
         <v>41495</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -2594,7 +3519,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>86</v>
@@ -2605,7 +3530,7 @@
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="130">
         <v>5878.78</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -2617,7 +3542,7 @@
       <c r="H23" s="3">
         <v>41501</v>
       </c>
-      <c r="I23" s="125">
+      <c r="I23" s="122">
         <v>41501</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -2626,7 +3551,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>86</v>
@@ -2637,7 +3562,7 @@
       <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="130">
         <v>19.079999999999998</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -2649,7 +3574,7 @@
       <c r="H24" s="3">
         <v>41501</v>
       </c>
-      <c r="I24" s="125">
+      <c r="I24" s="122">
         <v>41501</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -2658,7 +3583,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>86</v>
@@ -2669,7 +3594,7 @@
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="130">
         <v>115.01</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -2681,7 +3606,7 @@
       <c r="H25" s="3">
         <v>41501</v>
       </c>
-      <c r="I25" s="125">
+      <c r="I25" s="122">
         <v>41501</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2690,7 +3615,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>86</v>
@@ -2701,7 +3626,7 @@
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="130">
         <v>8280.36</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -2713,7 +3638,7 @@
       <c r="H26" s="3">
         <v>41502</v>
       </c>
-      <c r="I26" s="125">
+      <c r="I26" s="122">
         <v>41501</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -2722,7 +3647,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>86</v>
@@ -2733,7 +3658,7 @@
       <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="125">
         <v>1657.43</v>
       </c>
       <c r="F27" t="s">
@@ -2745,16 +3670,16 @@
       <c r="H27" s="2">
         <v>41505</v>
       </c>
-      <c r="I27" s="125">
+      <c r="I27" s="122">
         <v>41502</v>
       </c>
-      <c r="J27" s="121" t="s">
+      <c r="J27" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="44" t="s">
         <v>86</v>
@@ -2765,7 +3690,7 @@
       <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="130">
         <v>512.29999999999995</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -2777,87 +3702,90 @@
       <c r="H28" s="3">
         <v>41509</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28" s="122">
         <v>41507</v>
       </c>
-      <c r="J28" s="121" t="s">
+      <c r="J28" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
+      <c r="C29" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="125">
         <v>10584</v>
       </c>
-      <c r="I29" s="125">
+      <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="122">
         <v>41507</v>
       </c>
-      <c r="J29" s="121" t="s">
+      <c r="J29" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
         <v>78</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="125">
         <v>400</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="125">
+      <c r="I30" s="122">
         <v>41474</v>
       </c>
-      <c r="J30" s="121" t="s">
+      <c r="J30" s="118" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="125">
         <v>650</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="125">
+      <c r="I31" s="122">
         <v>41474</v>
       </c>
-      <c r="J31" s="121" t="s">
+      <c r="J31" s="118" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="44" t="s">
         <v>86</v>
@@ -2868,38 +3796,47 @@
       <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="125">
         <v>7800</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="125">
+      <c r="I32" s="122">
         <v>41474</v>
       </c>
-      <c r="J32" s="121" t="s">
+      <c r="J32" s="118" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s">
-        <v>35</v>
+      <c r="C33" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="E33">
-        <v>335</v>
+      <c r="E33" s="125">
+        <v>335.18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
       </c>
       <c r="H33" s="1"/>
+      <c r="I33" s="122">
+        <v>41521</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>86</v>
@@ -2910,11 +3847,11 @@
       <c r="D34" t="s">
         <v>80</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="125">
         <v>7610.63</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G34" s="2">
         <v>41514</v>
@@ -2922,16 +3859,16 @@
       <c r="H34" s="112">
         <v>41517</v>
       </c>
-      <c r="I34" s="125">
+      <c r="I34" s="122">
         <v>41515</v>
       </c>
-      <c r="J34" s="121" t="s">
+      <c r="J34" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>86</v>
@@ -2940,13 +3877,13 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="125">
+        <v>992.96</v>
+      </c>
+      <c r="F35" t="s">
         <v>114</v>
-      </c>
-      <c r="E35">
-        <v>992.96</v>
-      </c>
-      <c r="F35" t="s">
-        <v>115</v>
       </c>
       <c r="G35" s="2">
         <v>41492</v>
@@ -2954,67 +3891,76 @@
       <c r="H35" s="2">
         <v>41495</v>
       </c>
-      <c r="I35" s="125">
+      <c r="I35" s="122">
         <v>41516</v>
       </c>
-      <c r="J35" s="121" t="s">
+      <c r="J35" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>35</v>
+      <c r="C36" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="E36">
-        <v>7236</v>
+      <c r="E36" s="125">
+        <v>7010.82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="122">
+        <v>41521</v>
+      </c>
+      <c r="J36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>35</v>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="125">
         <v>3078</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>35</v>
+      <c r="C38" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="125">
         <v>2052</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" s="44" t="s">
         <v>86</v>
@@ -3023,13 +3969,13 @@
         <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="128">
+        <v>3813.05</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3813.05</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="G39" s="112">
         <v>41512</v>
@@ -3037,16 +3983,16 @@
       <c r="H39" s="112">
         <v>41519</v>
       </c>
-      <c r="I39" s="125">
+      <c r="I39" s="122">
         <v>41515</v>
       </c>
-      <c r="J39" s="121" t="s">
+      <c r="J39" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="44" t="s">
         <v>86</v>
@@ -3055,13 +4001,13 @@
         <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="128">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E40" s="1">
-        <v>66.180000000000007</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G40" s="112">
         <v>41513</v>
@@ -3069,16 +4015,16 @@
       <c r="H40" s="112">
         <v>41516</v>
       </c>
-      <c r="I40" s="125">
+      <c r="I40" s="122">
         <v>41515</v>
       </c>
-      <c r="J40" s="121" t="s">
+      <c r="J40" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>86</v>
@@ -3087,13 +4033,13 @@
         <v>89</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="128">
+        <v>649.32000000000005</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E41" s="1">
-        <v>649.32000000000005</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G41" s="112">
         <v>41513</v>
@@ -3101,16 +4047,16 @@
       <c r="H41" s="112">
         <v>41516</v>
       </c>
-      <c r="I41" s="125">
+      <c r="I41" s="122">
         <v>41515</v>
       </c>
-      <c r="J41" s="121" t="s">
+      <c r="J41" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="44" t="s">
         <v>86</v>
@@ -3119,133 +4065,196 @@
         <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="128">
+        <v>3084.07</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E42" s="1">
-        <v>3084.07</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G42" s="112">
         <v>41516</v>
       </c>
       <c r="H42" s="112">
-        <v>41307</v>
-      </c>
-      <c r="I42" s="124">
+        <v>41519</v>
+      </c>
+      <c r="I42" s="121">
         <v>41516</v>
       </c>
-      <c r="J42" s="121" t="s">
+      <c r="J42" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43">
-        <v>10584</v>
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="128">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="121">
+        <v>41521</v>
+      </c>
+      <c r="J43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44">
-        <v>5724</v>
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="128">
+        <v>1415.36</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="112">
+        <v>41516</v>
+      </c>
+      <c r="H44" s="112">
+        <v>41519</v>
+      </c>
+      <c r="I44" s="121">
+        <v>41521</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>35</v>
+      <c r="C45" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="125">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="125">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
         <v>33</v>
       </c>
-      <c r="E45">
+      <c r="E47" s="125">
         <v>6372</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A53" s="47" t="s">
+    <row r="55" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A55" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47">
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="131">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>105419.38</v>
-      </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="122">
+        <v>106663.74</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="119">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="115"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="115"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="115"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="D65">
+        <f>7400-54-335.18</f>
+        <v>7010.82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="124"/>
+      <c r="J80" s="115"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A54:A61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56:A63">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B61 B50:B52 B22:B45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B63 B52:B54 B22:B47">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A54">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -3260,250 +4269,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F18"/>
+  <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="3" spans="1:2">
+      <c r="A3" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="46">
+        <v>16415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="134" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="46">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="46">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="46">
+        <v>8492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="46">
+        <v>46345.939999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="46">
+        <v>34711.939999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="46">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="46">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="46">
+        <v>21222.800000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="46">
+        <v>9081.9800000000014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="46">
+        <v>12140.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="46">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="46">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="46">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="46">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="46"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="46"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="133" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="46">
+        <v>106663.73999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="110"/>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-    </row>
-    <row r="2" spans="2:6">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>94</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="46">
         <v>0</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
+      <c r="B4">
+        <v>37600</v>
+      </c>
       <c r="C4">
+        <v>46700</v>
+      </c>
+      <c r="D4" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D3</f>
         <v>37600</v>
       </c>
-      <c r="D4">
-        <v>46700</v>
-      </c>
       <c r="E4" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E3</f>
-        <v>37600</v>
-      </c>
-      <c r="F4" s="46">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>9100</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
+      <c r="F4" s="2">
+        <v>41499</v>
+      </c>
+      <c r="G4" s="2">
+        <v>41499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>37800</v>
       </c>
-      <c r="E5" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E4</f>
+      <c r="D5" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D4</f>
         <v>75400</v>
       </c>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="2">
+        <v>41544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>43200</v>
+      </c>
+      <c r="D6" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D5</f>
+        <v>118600</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="2">
+        <v>41536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>47500</v>
+      </c>
+      <c r="D7" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D6</f>
+        <v>166100</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="2">
+        <v>41571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <v>32000</v>
+      </c>
+      <c r="D8" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D7</f>
+        <v>198100</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>21600</v>
+      </c>
+      <c r="D9" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D8</f>
+        <v>219700</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>9700</v>
+      </c>
+      <c r="D10" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D9</f>
+        <v>229400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>45700</v>
+      </c>
+      <c r="D11" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D10</f>
+        <v>275100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>16200</v>
+      </c>
+      <c r="D12" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D11</f>
+        <v>291300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <v>22200</v>
+      </c>
+      <c r="D13" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D12</f>
+        <v>313500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>39900</v>
+      </c>
+      <c r="D14" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D13</f>
+        <v>353400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>6500</v>
+      </c>
+      <c r="D15" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D14</f>
+        <v>359900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>31300</v>
+      </c>
+      <c r="D16" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D15</f>
+        <v>391200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="C6">
-        <v>43200</v>
-      </c>
-      <c r="E6" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E5</f>
-        <v>118600</v>
-      </c>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>47500</v>
-      </c>
-      <c r="E7" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E6</f>
-        <v>166100</v>
-      </c>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8">
-        <v>32000</v>
-      </c>
-      <c r="E8" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E7</f>
-        <v>198100</v>
-      </c>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
-        <v>21600</v>
-      </c>
-      <c r="E9" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E8</f>
-        <v>219700</v>
-      </c>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>9700</v>
-      </c>
-      <c r="E10" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E9</f>
-        <v>229400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <v>45700</v>
-      </c>
-      <c r="E11" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E10</f>
-        <v>275100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12">
-        <v>16200</v>
-      </c>
-      <c r="E12" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E11</f>
-        <v>291300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13">
-        <v>22200</v>
-      </c>
-      <c r="E13" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E12</f>
-        <v>313500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14">
-        <v>39900</v>
-      </c>
-      <c r="E14" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E13</f>
-        <v>353400</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15">
-        <v>6500</v>
-      </c>
-      <c r="E15" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E14</f>
-        <v>359900</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <v>31300</v>
-      </c>
-      <c r="E16" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E15</f>
-        <v>391200</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D16</f>
+        <v>411200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="C17">
-        <v>20000</v>
-      </c>
-      <c r="E17" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E16</f>
-        <v>411200</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
         <v>31600</v>
       </c>
-      <c r="E18" s="46">
-        <f>Tabela5[[#This Row],[Planowane]]+E17</f>
+      <c r="D18" s="46">
+        <f>Tabela5[[#This Row],[Planowane]]+D17</f>
         <v>442800</v>
       </c>
     </row>
@@ -3516,12 +4724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3552,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3632,7 +4840,7 @@
       </c>
       <c r="G4" s="19"/>
       <c r="J4" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="97">
         <v>43200</v>
@@ -3684,7 +4892,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
       <c r="J6" s="99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="99">
         <v>32000</v>
@@ -3822,7 +5030,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
       <c r="J11" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" s="104">
         <v>22200</v>
@@ -3849,7 +5057,7 @@
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
       <c r="J12" s="105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" s="105">
         <v>39900</v>
@@ -3930,7 +5138,7 @@
       <c r="F15" s="88"/>
       <c r="G15" s="89"/>
       <c r="J15" s="108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="108">
         <v>20000</v>
@@ -3957,7 +5165,7 @@
       <c r="F16" s="83"/>
       <c r="G16" s="84"/>
       <c r="J16" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="108">
         <v>31600</v>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="33" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="170">
   <si>
     <t>Opis</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>Rzeczoznawca</t>
+  </si>
+  <si>
+    <t>Etykiety kolumn</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +669,14 @@
       <sz val="13"/>
       <color rgb="FFC00000"/>
       <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -881,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1022,14 +1033,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1063,6 +1089,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1091,6 +1122,17 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1218,6 +1260,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1341,31 +1386,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1397,7 +1417,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1574,25 +1593,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70915200"/>
-        <c:axId val="70916736"/>
+        <c:axId val="46088576"/>
+        <c:axId val="46091264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70915200"/>
+        <c:axId val="46088576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70916736"/>
+        <c:crossAx val="46091264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70916736"/>
+        <c:axId val="46091264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,21 +1620,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70915200"/>
+        <c:crossAx val="46088576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1657,7 +1675,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41523.404467361113" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="53">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41523.414122453702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="53">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -1683,28 +1701,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dostawca" numFmtId="0">
-      <sharedItems containsBlank="1" count="20">
-        <s v="Archipelag"/>
-        <s v="Wrocław"/>
-        <s v="Marek Glapa"/>
-        <s v="ZDiUK"/>
-        <s v="Tauron"/>
-        <s v="Elektryk"/>
-        <s v="Sąd"/>
-        <s v="Danuta Fabrowicz"/>
-        <s v="Urząd Skarbowy"/>
-        <s v="Rzeczoznawca"/>
-        <s v="Tomasz Partyka"/>
-        <s v="Operator Koparki"/>
-        <s v="Marek  "/>
-        <s v="ZGK"/>
-        <s v="Bory"/>
-        <s v="Manex"/>
-        <s v="Antoni Nowak"/>
-        <s v="Geodeta"/>
-        <s v="Nowak"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Opis" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1736,7 +1733,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Archipelag"/>
     <s v="Zakup projektu"/>
     <n v="2252"/>
     <m/>
@@ -1748,7 +1745,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="Wrocław"/>
     <s v="Mapa do celów projektowych"/>
     <n v="650"/>
     <m/>
@@ -1760,7 +1757,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <s v="Marek Glapa"/>
     <s v="Wynagrodzenie architekta"/>
     <n v="2800"/>
     <m/>
@@ -1772,7 +1769,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <s v="Marek Glapa"/>
     <s v="Wynagrodzenie kierownika budowy"/>
     <n v="3000"/>
     <m/>
@@ -1784,7 +1781,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="3"/>
+    <s v="ZDiUK"/>
     <s v="Uzgodnienia"/>
     <n v="148"/>
     <m/>
@@ -1796,7 +1793,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="4"/>
+    <s v="Tauron"/>
     <s v="Umowa"/>
     <n v="2142"/>
     <m/>
@@ -1808,7 +1805,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="5"/>
+    <s v="Elektryk"/>
     <s v="Skrzynka Taurona"/>
     <n v="400"/>
     <m/>
@@ -1820,7 +1817,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="6"/>
+    <s v="Sąd"/>
     <s v="Wpis BZ, wypis KW"/>
     <n v="260"/>
     <m/>
@@ -1832,7 +1829,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="Danuta Fabrowicz"/>
     <s v="Projekt płyty fundamentowej"/>
     <n v="600"/>
     <m/>
@@ -1844,7 +1841,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="8"/>
+    <s v="Urząd Skarbowy"/>
     <s v="Podatek od umowy najmu"/>
     <n v="416"/>
     <m/>
@@ -1856,7 +1853,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="9"/>
+    <s v="Rzeczoznawca"/>
     <s v="Operaty szacunkowe"/>
     <n v="1000"/>
     <m/>
@@ -1868,7 +1865,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="10"/>
+    <s v="Tomasz Partyka"/>
     <s v="Projekty przyłączy"/>
     <n v="1000"/>
     <m/>
@@ -1880,7 +1877,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="11"/>
+    <s v="Operator Koparki"/>
     <s v="Rozsypanie tłucznia"/>
     <n v="150"/>
     <m/>
@@ -1892,7 +1889,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="12"/>
+    <s v="Marek  "/>
     <s v="Siatka leśna"/>
     <n v="200"/>
     <m/>
@@ -1904,7 +1901,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="8"/>
+    <s v="Urząd Skarbowy"/>
     <s v="Podatek od umowy najmu"/>
     <n v="140"/>
     <m/>
@@ -1916,7 +1913,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="10"/>
+    <s v="Tomasz Partyka"/>
     <s v="Partyka - update projektu kanalizacji"/>
     <n v="200"/>
     <m/>
@@ -1928,7 +1925,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="10"/>
+    <s v="Tomasz Partyka"/>
     <s v="Partyka - update projektu kanalizacji"/>
     <n v="200"/>
     <m/>
@@ -1940,7 +1937,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ZGK"/>
     <s v="Opłata do ZGK za ponowne uzgodnienie"/>
     <n v="147"/>
     <m/>
@@ -1952,7 +1949,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="14"/>
+    <s v="Bory"/>
     <s v="Wynagrodzenie Borek"/>
     <n v="450"/>
     <m/>
@@ -1964,7 +1961,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="6"/>
+    <s v="Sąd"/>
     <s v="Wniosek o wpis do hipoteki"/>
     <n v="260"/>
     <m/>
@@ -1976,7 +1973,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Folia"/>
     <n v="1510.21"/>
     <s v="4817/T/08/2013"/>
@@ -1988,7 +1985,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Stal"/>
     <n v="5878.78"/>
     <s v="4815/T/08/2013"/>
@@ -2000,7 +1997,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Rura woda"/>
     <n v="19.079999999999998"/>
     <s v="4877/T/08/2013"/>
@@ -2012,7 +2009,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Folia"/>
     <n v="115.01"/>
     <s v="4916/T/08/2013"/>
@@ -2024,7 +2021,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Styropian"/>
     <n v="8280.36"/>
     <s v="4969/T/08/2013"/>
@@ -2036,7 +2033,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Stal"/>
     <n v="1657.43"/>
     <s v="5017/T/08/2013"/>
@@ -2048,7 +2045,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Stal"/>
     <n v="512.29999999999995"/>
     <s v="5042/T/08/2013"/>
@@ -2060,7 +2057,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Płyta fundamentowa"/>
     <n v="10584"/>
     <s v="9/2013"/>
@@ -2072,7 +2069,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="17"/>
+    <s v="Geodeta"/>
     <s v="Geodeta działka"/>
     <n v="400"/>
     <m/>
@@ -2084,7 +2081,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="17"/>
+    <s v="Geodeta"/>
     <s v="Geodeta budynek"/>
     <n v="650"/>
     <m/>
@@ -2096,7 +2093,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="18"/>
+    <s v="Nowak"/>
     <s v="Piasek"/>
     <n v="7800"/>
     <m/>
@@ -2108,7 +2105,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Folia Nowak"/>
     <n v="335.18"/>
     <s v="698/2013"/>
@@ -2120,7 +2117,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Beton"/>
     <n v="7610.63"/>
     <s v="5337/T/08/2013"/>
@@ -2132,7 +2129,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Kanalizacja"/>
     <n v="992.96"/>
     <s v="4765/T/08/2013"/>
@@ -2144,7 +2141,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Parter"/>
     <n v="7010.82"/>
     <s v="bez faktury"/>
@@ -2156,7 +2153,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Ściana kolankowa"/>
     <n v="3078"/>
     <m/>
@@ -2168,7 +2165,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Mur poddasza"/>
     <n v="2052"/>
     <m/>
@@ -2180,7 +2177,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Pustaki"/>
     <n v="3813.05"/>
     <s v="5291/T/08/2013"/>
@@ -2192,7 +2189,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Smoła"/>
     <n v="66.180000000000007"/>
     <s v="5315/T/08/2013"/>
@@ -2204,7 +2201,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Pustaki połówki"/>
     <n v="649.32000000000005"/>
     <s v="5327/T/08/2013"/>
@@ -2216,7 +2213,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Komin"/>
     <n v="3084.07"/>
     <s v="5433/T/08/2013"/>
@@ -2228,7 +2225,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Zaprawa Nowak"/>
     <n v="54"/>
     <s v="F/SK/00799/13"/>
@@ -2240,7 +2237,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="15"/>
+    <s v="Manex"/>
     <s v="Nadproża"/>
     <n v="1415.36"/>
     <s v="5441/T/08/2013"/>
@@ -2252,7 +2249,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Strop"/>
     <n v="10584"/>
     <m/>
@@ -2264,7 +2261,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Więźba"/>
     <n v="5724"/>
     <m/>
@@ -2276,7 +2273,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="16"/>
+    <s v="Antoni Nowak"/>
     <s v="Dach"/>
     <n v="6372"/>
     <m/>
@@ -2288,7 +2285,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="19"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2300,7 +2297,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="19"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2312,7 +2309,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="19"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2324,7 +2321,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="19"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2336,7 +2333,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="19"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2348,7 +2345,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="19"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2360,7 +2357,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="19"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -2373,8 +2370,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -2387,42 +2384,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="7">
         <item x="2"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
+        <item sd="0" x="5"/>
+        <item t="default" sd="0"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="21">
-        <item x="16"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -2431,75 +2404,73 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="0"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="7">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
+    <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
       <x v="5"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -2518,16 +2489,16 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2545,10 +2516,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+    <tableColumn id="4" name="Plan suma" dataDxfId="3">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="2"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2846,7 +2817,7 @@
   </sheetPr>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
@@ -4269,176 +4240,209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B22"/>
+  <dimension ref="A3:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8">
       <c r="A3" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="133" t="s">
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="133" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" s="46">
-        <v>16415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="134" t="s">
-        <v>128</v>
       </c>
       <c r="B5" s="46">
         <v>2526</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="46">
+      <c r="C5" s="46">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="46">
+      <c r="D5" s="46">
         <v>5197</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="134" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="46">
+      <c r="E5" s="46">
         <v>8492</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="134">
+        <v>16415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46">
+        <v>34711.939999999995</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46">
+        <v>1050</v>
+      </c>
+      <c r="F6" s="46">
+        <v>10584</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="134">
+        <v>46345.939999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46">
+        <v>9081.9800000000014</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46">
+        <v>12140.82</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="134">
+        <v>21222.800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46">
+        <v>10584</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="134">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="46">
-        <v>46345.939999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="46">
-        <v>34711.939999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="134" t="s">
-        <v>87</v>
+        <v>145</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46">
+        <v>12096</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="134">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="134"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="133" t="s">
+        <v>166</v>
       </c>
       <c r="B11" s="46">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="46">
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="46">
-        <v>21222.800000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="46">
-        <v>9081.9800000000014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="46">
-        <v>12140.82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="46">
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="46">
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="133" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="46">
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="46">
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="133" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="46"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="46"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="133" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="46">
+        <v>2526</v>
+      </c>
+      <c r="C11" s="46">
+        <v>43993.919999999998</v>
+      </c>
+      <c r="D11" s="46">
+        <v>5197</v>
+      </c>
+      <c r="E11" s="46">
+        <v>9542</v>
+      </c>
+      <c r="F11" s="46">
+        <v>45404.82</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="135">
         <v>106663.73999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="169">
   <si>
     <t>Opis</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>Etykiety wierszy</t>
-  </si>
-  <si>
-    <t>(puste)</t>
   </si>
   <si>
     <t>Suma końcowa</t>
@@ -1039,7 +1036,27 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="3"/>
@@ -2371,7 +2388,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -2386,12 +2403,12 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="7">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="4"/>
-        <item sd="0" x="5"/>
+        <item h="1" sd="0" x="5"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -2407,7 +2424,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -2423,9 +2440,6 @@
     <i>
       <x v="4"/>
     </i>
-    <i>
-      <x v="5"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2433,10 +2447,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
+  <colItems count="5">
     <i>
       <x v="1"/>
     </i>
@@ -2449,9 +2460,6 @@
     <i>
       <x v="4"/>
     </i>
-    <i>
-      <x v="5"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2460,14 +2468,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2489,16 +2497,16 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="20"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="19"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="18"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="17"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="14"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="13"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2516,10 +2524,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="3">
+    <tableColumn id="4" name="Plan suma" dataDxfId="7">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="2"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="6"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -3183,7 +3191,7 @@
         <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="115" t="s">
         <v>4</v>
@@ -4240,21 +4248,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="7.140625" customWidth="1"/>
@@ -4278,166 +4285,132 @@
     <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="132" t="s">
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
         <v>165</v>
       </c>
-      <c r="H4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="133" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="46">
-        <v>2526</v>
+        <v>200</v>
       </c>
       <c r="C5" s="46">
-        <v>200</v>
+        <v>5197</v>
       </c>
       <c r="D5" s="46">
-        <v>5197</v>
-      </c>
-      <c r="E5" s="46">
         <v>8492</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="134">
-        <v>16415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="E5" s="46"/>
+      <c r="F5" s="134">
+        <v>13889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46">
+      <c r="B6" s="46">
         <v>34711.939999999995</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46">
+        <v>1050</v>
+      </c>
       <c r="E6" s="46">
-        <v>1050</v>
-      </c>
-      <c r="F6" s="46">
         <v>10584</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="134">
+      <c r="F6" s="134">
         <v>46345.939999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46">
-        <v>9081.9800000000014</v>
-      </c>
+      <c r="B7" s="46">
+        <v>9081.98</v>
+      </c>
+      <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="E7" s="46">
         <v>12140.82</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="134">
-        <v>21222.800000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="134">
+        <v>21222.799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="133" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46">
+      <c r="E8" s="46">
         <v>10584</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="134">
+      <c r="F8" s="134">
         <v>10584</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="133" t="s">
         <v>145</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46">
+      <c r="E9" s="46">
         <v>12096</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="134">
+      <c r="F9" s="134">
         <v>12096</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="134"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="133" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="46">
-        <v>2526</v>
-      </c>
-      <c r="C11" s="46">
+      <c r="B10" s="46">
         <v>43993.919999999998</v>
       </c>
-      <c r="D11" s="46">
+      <c r="C10" s="46">
         <v>5197</v>
       </c>
-      <c r="E11" s="46">
+      <c r="D10" s="46">
         <v>9542</v>
       </c>
-      <c r="F11" s="46">
+      <c r="E10" s="46">
         <v>45404.82</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="135">
-        <v>106663.73999999999</v>
+      <c r="F10" s="135">
+        <v>104137.73999999999</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId5"/>
+    <pivotCache cacheId="34" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
   <si>
     <t>Opis</t>
   </si>
@@ -1036,7 +1036,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
     <dxf>
       <font>
         <b/>
@@ -1059,6 +1059,11 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="3"/>
       </font>
     </dxf>
@@ -1068,10 +1073,25 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1610,25 +1630,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="46088576"/>
-        <c:axId val="46091264"/>
+        <c:axId val="44841600"/>
+        <c:axId val="46090112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46088576"/>
+        <c:axId val="44841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46091264"/>
+        <c:crossAx val="46090112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46091264"/>
+        <c:axId val="46090112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1657,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46088576"/>
+        <c:crossAx val="44841600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1650,7 +1670,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2387,8 +2407,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -2401,9 +2421,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="7">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
@@ -2411,6 +2431,15 @@
         <item h="1" sd="0" x="5"/>
         <item t="default" sd="0"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2447,18 +2476,21 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -2468,14 +2500,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="11">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2497,16 +2529,16 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="20"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="19"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="18"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="17"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="14"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="13"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="12"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="24"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="23"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="21"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="18"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="17"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="16"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2524,10 +2556,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="7">
+    <tableColumn id="4" name="Plan suma" dataDxfId="9">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="6"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="8"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -4248,20 +4280,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="7.140625" customWidth="1"/>
@@ -4285,7 +4318,7 @@
     <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="132" t="s">
         <v>166</v>
       </c>
@@ -4293,124 +4326,137 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="132" t="s">
         <v>164</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46">
         <v>200</v>
-      </c>
-      <c r="C5" s="46">
-        <v>5197</v>
       </c>
       <c r="D5" s="46">
         <v>8492</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="134">
-        <v>13889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="46">
+        <v>5197</v>
+      </c>
+      <c r="F5" s="46">
+        <v>2526</v>
+      </c>
+      <c r="G5" s="134">
+        <v>16415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="133" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="46">
+        <v>10584</v>
+      </c>
+      <c r="C6" s="46">
         <v>34711.939999999995</v>
       </c>
-      <c r="C6" s="46"/>
       <c r="D6" s="46">
         <v>1050</v>
       </c>
-      <c r="E6" s="46">
-        <v>10584</v>
-      </c>
-      <c r="F6" s="134">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="134">
         <v>46345.939999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="133" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="46">
-        <v>9081.98</v>
-      </c>
-      <c r="C7" s="46"/>
+        <v>12140.82</v>
+      </c>
+      <c r="C7" s="46">
+        <v>9081.9800000000014</v>
+      </c>
       <c r="D7" s="46"/>
-      <c r="E7" s="46">
-        <v>12140.82</v>
-      </c>
-      <c r="F7" s="134">
-        <v>21222.799999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="134">
+        <v>21222.800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="46">
+        <v>10584</v>
+      </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
-      <c r="E8" s="46">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="134">
         <v>10584</v>
       </c>
-      <c r="F8" s="134">
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="46">
+        <v>12096</v>
+      </c>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
-      <c r="E9" s="46">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="134">
         <v>12096</v>
       </c>
-      <c r="F9" s="134">
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="133" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="46">
+        <v>45404.82</v>
+      </c>
+      <c r="C10" s="46">
         <v>43993.919999999998</v>
-      </c>
-      <c r="C10" s="46">
-        <v>5197</v>
       </c>
       <c r="D10" s="46">
         <v>9542</v>
       </c>
       <c r="E10" s="46">
-        <v>45404.82</v>
-      </c>
-      <c r="F10" s="135">
-        <v>104137.73999999999</v>
+        <v>5197</v>
+      </c>
+      <c r="F10" s="46">
+        <v>2526</v>
+      </c>
+      <c r="G10" s="135">
+        <v>106663.73999999999</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="173">
   <si>
     <t>Opis</t>
   </si>
@@ -567,6 +567,18 @@
   </si>
   <si>
     <t>Etykiety kolumn</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Bloczki</t>
+  </si>
+  <si>
+    <t>5379/T/08/2013</t>
+  </si>
+  <si>
+    <t>5376/T/08/2013</t>
   </si>
 </sst>
 </file>
@@ -889,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1032,67 +1044,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -1126,11 +1083,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1159,17 +1111,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1297,9 +1238,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1423,6 +1361,41 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1481,7 +1454,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Etapy budowy'!$A$3:$A$18</c:f>
+              <c:f>'Etapy budowy'!$A$3:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1537,10 +1510,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Etapy budowy'!$D$3:$D$18</c:f>
+              <c:f>'Etapy budowy'!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1589,6 +1562,9 @@
                 <c:pt idx="15">
                   <c:v>442800</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>442800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1615,10 +1591,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Etapy budowy'!$E$3:$E$18</c:f>
+              <c:f>'Etapy budowy'!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1630,25 +1606,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="44841600"/>
-        <c:axId val="46090112"/>
+        <c:axId val="62736640"/>
+        <c:axId val="62754816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44841600"/>
+        <c:axId val="62736640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46090112"/>
+        <c:crossAx val="62754816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46090112"/>
+        <c:axId val="62754816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1633,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44841600"/>
+        <c:crossAx val="62736640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1670,7 +1646,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2407,7 +2383,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2500,14 +2476,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="16">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2516,11 +2492,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J55" totalsRowCount="1">
-  <autoFilter ref="A1:J54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J57" totalsRowCount="1">
+  <autoFilter ref="A1:J56">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Manex"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
@@ -2529,24 +2509,24 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="24"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="23"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="21"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="18"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="17"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="16"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A2:G18" totalsRowShown="0">
-  <autoFilter ref="A2:G18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A2:G19" totalsRowShown="0">
+  <autoFilter ref="A2:G19">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -2556,10 +2536,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="9">
+    <tableColumn id="4" name="Plan suma" dataDxfId="14">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="8"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="13"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2855,11 +2835,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2913,7 +2893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2945,7 +2925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -2977,7 +2957,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3009,7 +2989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3041,7 +3021,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3070,7 +3050,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3099,7 +3079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3128,7 +3108,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3157,7 +3137,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -3186,7 +3166,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -3215,7 +3195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -3244,7 +3224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3273,7 +3253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3302,7 +3282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3331,7 +3311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -3360,7 +3340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3389,7 +3369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3418,7 +3398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3444,7 +3424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -3470,7 +3450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -3720,7 +3700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="44" t="s">
         <v>141</v>
       </c>
@@ -3746,7 +3726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="44" t="s">
         <v>141</v>
       </c>
@@ -3770,7 +3750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="44" t="s">
         <v>141</v>
       </c>
@@ -3794,7 +3774,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="44" t="s">
         <v>141</v>
       </c>
@@ -3818,7 +3798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="44" t="s">
         <v>141</v>
       </c>
@@ -3909,7 +3889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="44" t="s">
         <v>142</v>
       </c>
@@ -3935,7 +3915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="44" t="s">
         <v>142</v>
       </c>
@@ -3952,7 +3932,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="42" t="s">
         <v>142</v>
       </c>
@@ -4097,7 +4077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="42" t="s">
         <v>142</v>
       </c>
@@ -4153,8 +4133,11 @@
       <c r="I44" s="121">
         <v>41521</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="42" t="s">
         <v>143</v>
       </c>
@@ -4171,7 +4154,7 @@
         <v>10584</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="42" t="s">
         <v>145</v>
       </c>
@@ -4188,7 +4171,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="42" t="s">
         <v>145</v>
       </c>
@@ -4205,67 +4188,138 @@
         <v>6372</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A55" s="47" t="s">
+    <row r="48" spans="1:10" hidden="1"/>
+    <row r="49" spans="1:10" hidden="1"/>
+    <row r="50" spans="1:10" hidden="1"/>
+    <row r="51" spans="1:10" hidden="1"/>
+    <row r="52" spans="1:10" hidden="1"/>
+    <row r="53" spans="1:10" hidden="1"/>
+    <row r="54" spans="1:10" hidden="1"/>
+    <row r="55" spans="1:10">
+      <c r="A55" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="125">
+        <v>4163.04</v>
+      </c>
+      <c r="F55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H55" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I55" s="122">
+        <v>41527</v>
+      </c>
+      <c r="J55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="125">
+        <v>1214.22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H56" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I56" s="122">
+        <v>41527</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A57" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="131">
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="131">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>106663.74</v>
-      </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="119">
+        <v>40982</v>
+      </c>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="119">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="115"/>
-    </row>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickTop="1"/>
     <row r="65" spans="1:10">
-      <c r="D65">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="115"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="D67">
         <f>7400-54-335.18</f>
         <v>7010.82</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="128"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="115"/>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="128"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="124"/>
+      <c r="J82" s="115"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56:A63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A65">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B63 B52:B54 B22:B47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58:B65 B22:B47 B52:B56">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -4282,7 +4336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4467,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4714,7 +4768,7 @@
         <v>391200</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -4726,7 +4780,7 @@
         <v>411200</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -4737,6 +4791,20 @@
         <f>Tabela5[[#This Row],[Planowane]]+D17</f>
         <v>442800</v>
       </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="136">
+        <f>Tabela5[[#This Row],[Planowane]]+D18</f>
+        <v>442800</v>
+      </c>
+      <c r="E19" s="136"/>
+      <c r="F19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="174">
   <si>
     <t>Opis</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>5376/T/08/2013</t>
+  </si>
+  <si>
+    <t>5732/T/09/2013</t>
   </si>
 </sst>
 </file>
@@ -1362,6 +1365,22 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
       </font>
@@ -1379,22 +1398,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1606,11 +1609,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62736640"/>
+        <c:axId val="62732544"/>
         <c:axId val="62754816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62736640"/>
+        <c:axId val="62732544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1636,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62736640"/>
+        <c:crossAx val="62732544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1646,7 +1649,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2476,14 +2479,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="16">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2492,8 +2495,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J57" totalsRowCount="1">
-  <autoFilter ref="A1:J56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J60" totalsRowCount="1">
+  <autoFilter ref="A1:J59">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2">
@@ -2513,12 +2516,12 @@
     <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
     <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
     <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
     <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
     <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
     <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2536,10 +2539,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="14">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="13"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2835,11 +2838,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56:J56"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4259,67 +4262,115 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A57" s="47" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="125">
+        <v>2413.2399999999998</v>
+      </c>
+      <c r="F57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41527</v>
+      </c>
+      <c r="H57" s="2">
+        <v>41530</v>
+      </c>
+      <c r="I57" s="122">
+        <v>41527</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="122"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="122"/>
+    </row>
+    <row r="60" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A60" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="131">
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="131">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>40982</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="119">
+        <v>43395.24</v>
+      </c>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="119">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="115"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="D67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="115"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="D70">
         <f>7400-54-335.18</f>
         <v>7010.82</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="115"/>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="128"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="124"/>
+      <c r="J85" s="115"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A58:A65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A61:A68">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58:B65 B22:B47 B52:B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61:B68 B22:B47 B52:B57">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A59">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="175">
   <si>
     <t>Opis</t>
   </si>
@@ -582,6 +582,9 @@
   </si>
   <si>
     <t>5732/T/09/2013</t>
+  </si>
+  <si>
+    <t>5801/T/09/2013</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1652,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2495,8 +2498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J60" totalsRowCount="1">
-  <autoFilter ref="A1:J59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J62" totalsRowCount="1">
+  <autoFilter ref="A1:J61">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2">
@@ -2838,11 +2841,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4295,82 +4298,123 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="1"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="122"/>
+      <c r="A58" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="125">
+        <v>227.55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="2">
+        <v>41528</v>
+      </c>
+      <c r="H58" s="2">
+        <v>41531</v>
+      </c>
+      <c r="I58" s="122">
+        <v>41528</v>
+      </c>
+      <c r="J58" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="4"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="122"/>
     </row>
-    <row r="60" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A60" s="47" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="122"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="122"/>
+    </row>
+    <row r="62" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A62" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="131">
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="131">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>43395.24</v>
-      </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="119">
+        <v>43622.79</v>
+      </c>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="119">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="115"/>
-    </row>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickTop="1"/>
     <row r="70" spans="1:10">
-      <c r="D70">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="115"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="D72">
         <f>7400-54-335.18</f>
         <v>7010.82</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="128"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="124"/>
-      <c r="J85" s="115"/>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="115"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A61:A68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A70">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61:B68 B22:B47 B52:B57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63:B70 B22:B47 B52:B59">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A61">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -23,42 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="E28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-dwa razy</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="175">
   <si>
@@ -594,7 +558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,21 +606,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Czcionka tekstu podstawowego"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1031,14 +980,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1049,13 +998,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1089,6 +1054,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1117,6 +1087,17 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1244,6 +1225,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1366,41 +1350,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1612,25 +1561,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62732544"/>
-        <c:axId val="62754816"/>
+        <c:axId val="63465728"/>
+        <c:axId val="63483904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62732544"/>
+        <c:axId val="63465728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62754816"/>
+        <c:crossAx val="63483904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62754816"/>
+        <c:axId val="63483904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1588,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62732544"/>
+        <c:crossAx val="63465728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1652,7 +1601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2482,14 +2431,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2515,16 +2464,16 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2542,10 +2491,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+    <tableColumn id="4" name="Plan suma" dataDxfId="1">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="0"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2845,7 +2794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4420,9 +4369,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -747,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -809,17 +809,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="5" tint="0.39997558519241921"/>
       </left>
@@ -856,11 +845,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,7 +889,6 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -972,13 +959,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -991,7 +977,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1004,21 +989,15 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
         <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
       </font>
     </dxf>
     <dxf>
@@ -1054,11 +1033,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1087,17 +1061,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1225,9 +1188,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1351,6 +1311,41 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1382,6 +1377,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1561,25 +1557,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63465728"/>
-        <c:axId val="63483904"/>
+        <c:axId val="63117568"/>
+        <c:axId val="63135744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63465728"/>
+        <c:axId val="63117568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63483904"/>
+        <c:crossAx val="63135744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63483904"/>
+        <c:axId val="63135744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,20 +1584,21 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63465728"/>
+        <c:crossAx val="63117568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1643,7 +1640,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41523.414122453702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="53">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41532.416864467596" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="60">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -1681,13 +1678,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-08-31T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-09-12T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-09-03T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-09-15T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-05T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-12T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1697,7 +1694,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="53">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2212,7 +2209,7 @@
     <d v="2013-08-30T00:00:00"/>
     <d v="2013-09-02T00:00:00"/>
     <d v="2013-09-04T00:00:00"/>
-    <m/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="3"/>
@@ -2334,11 +2331,95 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Bloczki"/>
+    <n v="4163.04"/>
+    <s v="5379/T/08/2013"/>
+    <d v="2013-08-29T00:00:00"/>
+    <d v="2013-09-01T00:00:00"/>
+    <d v="2013-09-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Bloczki"/>
+    <n v="1214.22"/>
+    <s v="5376/T/08/2013"/>
+    <d v="2013-08-29T00:00:00"/>
+    <d v="2013-09-01T00:00:00"/>
+    <d v="2013-09-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="2413.2399999999998"/>
+    <s v="5732/T/09/2013"/>
+    <d v="2013-09-10T00:00:00"/>
+    <d v="2013-09-13T00:00:00"/>
+    <d v="2013-09-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="227.55"/>
+    <s v="5801/T/09/2013"/>
+    <d v="2013-09-11T00:00:00"/>
+    <d v="2013-09-14T00:00:00"/>
+    <d v="2013-09-11T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2409,10 +2490,10 @@
   </colFields>
   <colItems count="6">
     <i>
-      <x v="4"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="3"/>
@@ -2431,14 +2512,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="15">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2451,29 +2532,29 @@
   <autoFilter ref="A1:J61">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Manex"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <sortState ref="A2:J52">
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2491,10 +2572,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="1">
+    <tableColumn id="4" name="Plan suma" dataDxfId="13">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="0"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="12"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2793,8 +2874,8 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2803,12 +2884,12 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="122" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="120" customWidth="1"/>
-    <col min="10" max="10" width="11" style="118" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="117" customWidth="1"/>
+    <col min="10" max="10" width="11" style="115" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -2817,19 +2898,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="122" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
@@ -2841,14 +2922,14 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2861,26 +2942,26 @@
       <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="126">
+      <c r="E2" s="123">
         <v>2252</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="121">
+      <c r="I2" s="118">
         <v>41015</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="43" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -2893,26 +2974,26 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="126">
+      <c r="E3" s="123">
         <v>650</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="121">
+      <c r="I3" s="118">
         <v>41100</v>
       </c>
-      <c r="J3" s="118" t="s">
+      <c r="J3" s="115" t="s">
         <v>84</v>
       </c>
       <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="113" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -2925,26 +3006,26 @@
       <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="126">
+      <c r="E4" s="123">
         <v>2800</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="121">
+      <c r="I4" s="118">
         <v>41197</v>
       </c>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="115" t="s">
         <v>84</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="M4" s="113" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -2957,26 +3038,26 @@
       <c r="D5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="123">
         <v>3000</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="121">
+      <c r="I5" s="118">
         <v>41351</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="115" t="s">
         <v>84</v>
       </c>
       <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="117" t="s">
+      <c r="M5" s="114" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -2989,23 +3070,23 @@
       <c r="D6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="123">
         <v>148</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="121">
+      <c r="I6" s="118">
         <v>41351</v>
       </c>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="117" t="s">
+      <c r="M6" s="114" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3015,26 +3096,26 @@
       <c r="C7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E7" s="123">
         <v>2142</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="121">
+      <c r="I7" s="118">
         <v>41352</v>
       </c>
-      <c r="J7" s="118" t="s">
+      <c r="J7" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="117" t="s">
+      <c r="M7" s="114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3047,23 +3128,23 @@
       <c r="D8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="127">
+      <c r="E8" s="124">
         <v>400</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="121">
+      <c r="I8" s="118">
         <v>41353</v>
       </c>
-      <c r="J8" s="118" t="s">
+      <c r="J8" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="117" t="s">
+      <c r="M8" s="114" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3076,23 +3157,23 @@
       <c r="D9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="124">
         <v>260</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="121">
+      <c r="I9" s="118">
         <v>41360</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J9" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="117" t="s">
+      <c r="M9" s="114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -3105,23 +3186,23 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="127">
+      <c r="E10" s="124">
         <v>600</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="121">
+      <c r="I10" s="118">
         <v>41362</v>
       </c>
-      <c r="J10" s="118" t="s">
+      <c r="J10" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="117" t="s">
+      <c r="M10" s="114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -3131,26 +3212,26 @@
       <c r="C11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="127">
+      <c r="E11" s="124">
         <v>416</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="121">
+      <c r="I11" s="118">
         <v>41367</v>
       </c>
-      <c r="J11" s="118" t="s">
+      <c r="J11" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="117" t="s">
+      <c r="M11" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -3160,26 +3241,26 @@
       <c r="C12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="126">
+      <c r="E12" s="123">
         <v>1000</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="121">
+      <c r="I12" s="118">
         <v>41372</v>
       </c>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="117" t="s">
+      <c r="M12" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3192,23 +3273,23 @@
       <c r="D13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="124">
         <v>1000</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="121">
+      <c r="I13" s="118">
         <v>41382</v>
       </c>
-      <c r="J13" s="118" t="s">
+      <c r="J13" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="117" t="s">
+      <c r="M13" s="114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3218,26 +3299,26 @@
       <c r="C14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="125">
         <v>150</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="121">
+      <c r="I14" s="118">
         <v>41391</v>
       </c>
-      <c r="J14" s="118" t="s">
+      <c r="J14" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="111" t="s">
+      <c r="M14" s="109" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3247,26 +3328,26 @@
       <c r="C15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="128">
+      <c r="E15" s="125">
         <v>200</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="121">
+      <c r="I15" s="118">
         <v>41404</v>
       </c>
-      <c r="J15" s="118" t="s">
+      <c r="J15" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="111" t="s">
+      <c r="M15" s="109" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -3276,26 +3357,26 @@
       <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="128">
+      <c r="E16" s="125">
         <v>140</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="121">
+      <c r="I16" s="118">
         <v>41406</v>
       </c>
-      <c r="J16" s="118" t="s">
+      <c r="J16" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="111" t="s">
+      <c r="M16" s="109" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3305,26 +3386,26 @@
       <c r="C17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="128">
+      <c r="E17" s="125">
         <v>200</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="121">
+      <c r="I17" s="118">
         <v>41428</v>
       </c>
-      <c r="J17" s="118" t="s">
+      <c r="J17" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="111" t="s">
+      <c r="M17" s="109" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3334,26 +3415,26 @@
       <c r="C18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="125">
         <v>200</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="121">
+      <c r="I18" s="118">
         <v>41484</v>
       </c>
-      <c r="J18" s="118" t="s">
+      <c r="J18" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="111" t="s">
+      <c r="M18" s="109" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3366,20 +3447,20 @@
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="125">
         <v>147</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="121">
+      <c r="I19" s="118">
         <v>41488</v>
       </c>
-      <c r="J19" s="118" t="s">
+      <c r="J19" s="115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -3392,20 +3473,20 @@
       <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="129">
+      <c r="E20" s="126">
         <v>450</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="121">
+      <c r="I20" s="118">
         <v>41515</v>
       </c>
-      <c r="J20" s="118" t="s">
+      <c r="J20" s="115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -3418,497 +3499,516 @@
       <c r="D21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="126">
         <v>260</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="121">
+      <c r="I21" s="118">
         <v>41509</v>
       </c>
-      <c r="J21" s="118" t="s">
+      <c r="J21" s="115" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="130">
+      <c r="E22" s="126">
         <v>1510.21</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>41494</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>41497</v>
       </c>
-      <c r="I22" s="122">
+      <c r="I22" s="118">
         <v>41495</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="115" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="126">
         <v>5878.78</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>41494</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>41501</v>
       </c>
-      <c r="I23" s="122">
+      <c r="I23" s="118">
         <v>41501</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="130">
+      <c r="E24" s="126">
         <v>19.079999999999998</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>41498</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>41501</v>
       </c>
-      <c r="I24" s="122">
+      <c r="I24" s="118">
         <v>41501</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="126">
         <v>115.01</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>41498</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>41501</v>
       </c>
-      <c r="I25" s="122">
+      <c r="I25" s="118">
         <v>41501</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E26" s="126">
         <v>8280.36</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>41499</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>41502</v>
       </c>
-      <c r="I26" s="122">
+      <c r="I26" s="118">
         <v>41501</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="125">
+      <c r="E27" s="126">
         <v>1657.43</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>41502</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>41505</v>
       </c>
-      <c r="I27" s="122">
+      <c r="I27" s="118">
         <v>41502</v>
       </c>
-      <c r="J27" s="118" t="s">
+      <c r="J27" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="130">
+      <c r="E28" s="126">
         <v>512.29999999999995</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>41502</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>41509</v>
       </c>
-      <c r="I28" s="122">
+      <c r="I28" s="118">
         <v>41507</v>
       </c>
-      <c r="J28" s="118" t="s">
+      <c r="J28" s="115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="125">
+      <c r="E29" s="126">
         <v>10584</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I29" s="122">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="118">
         <v>41507</v>
       </c>
-      <c r="J29" s="118" t="s">
+      <c r="J29" s="115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="125">
+      <c r="E30" s="126">
         <v>400</v>
       </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="122">
+      <c r="I30" s="118">
         <v>41474</v>
       </c>
-      <c r="J30" s="118" t="s">
+      <c r="J30" s="115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="125">
+      <c r="E31" s="126">
         <v>650</v>
       </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="122">
+      <c r="I31" s="118">
         <v>41474</v>
       </c>
-      <c r="J31" s="118" t="s">
+      <c r="J31" s="115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="125">
+      <c r="E32" s="126">
         <v>7800</v>
       </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="122">
+      <c r="I32" s="118">
         <v>41474</v>
       </c>
-      <c r="J32" s="118" t="s">
+      <c r="J32" s="115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="125">
+      <c r="E33" s="126">
         <v>335.18</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="122">
+      <c r="I33" s="118">
         <v>41521</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="115" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="125">
+      <c r="E34" s="126">
         <v>7610.63</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>41514</v>
       </c>
-      <c r="H34" s="112">
+      <c r="H34" s="1">
         <v>41517</v>
       </c>
-      <c r="I34" s="122">
+      <c r="I34" s="118">
         <v>41515</v>
       </c>
-      <c r="J34" s="118" t="s">
+      <c r="J34" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="125">
+      <c r="E35" s="126">
         <v>992.96</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>41492</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>41495</v>
       </c>
-      <c r="I35" s="122">
+      <c r="I35" s="118">
         <v>41516</v>
       </c>
-      <c r="J35" s="118" t="s">
+      <c r="J35" s="115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="125">
+      <c r="E36" s="126">
         <v>7010.82</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I36" s="122">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="118">
         <v>41521</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="115" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:10" hidden="1">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="125">
+      <c r="E37" s="126">
         <v>3078</v>
       </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="118"/>
     </row>
     <row r="38" spans="1:10" hidden="1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="125">
+      <c r="E38" s="126">
         <v>2052</v>
       </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="118"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3917,30 +4017,30 @@
       <c r="D39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="128">
+      <c r="E39" s="126">
         <v>3813.05</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="1">
         <v>41512</v>
       </c>
-      <c r="H39" s="112">
+      <c r="H39" s="1">
         <v>41519</v>
       </c>
-      <c r="I39" s="122">
+      <c r="I39" s="118">
         <v>41515</v>
       </c>
-      <c r="J39" s="118" t="s">
+      <c r="J39" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3949,30 +4049,30 @@
       <c r="D40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="126">
         <v>66.180000000000007</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="112">
+      <c r="G40" s="1">
         <v>41513</v>
       </c>
-      <c r="H40" s="112">
+      <c r="H40" s="1">
         <v>41516</v>
       </c>
-      <c r="I40" s="122">
+      <c r="I40" s="118">
         <v>41515</v>
       </c>
-      <c r="J40" s="118" t="s">
+      <c r="J40" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3981,30 +4081,30 @@
       <c r="D41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="128">
+      <c r="E41" s="126">
         <v>649.32000000000005</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="112">
+      <c r="G41" s="1">
         <v>41513</v>
       </c>
-      <c r="H41" s="112">
+      <c r="H41" s="1">
         <v>41516</v>
       </c>
-      <c r="I41" s="122">
+      <c r="I41" s="118">
         <v>41515</v>
       </c>
-      <c r="J41" s="118" t="s">
+      <c r="J41" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4013,30 +4113,30 @@
       <c r="D42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="128">
+      <c r="E42" s="126">
         <v>3084.07</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="112">
+      <c r="G42" s="1">
         <v>41516</v>
       </c>
-      <c r="H42" s="112">
+      <c r="H42" s="1">
         <v>41519</v>
       </c>
-      <c r="I42" s="121">
+      <c r="I42" s="118">
         <v>41516</v>
       </c>
-      <c r="J42" s="118" t="s">
+      <c r="J42" s="115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
-      <c r="A43" s="42" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4045,26 +4145,26 @@
       <c r="D43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="128">
+      <c r="E43" s="126">
         <v>54</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="121">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="118">
         <v>41521</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="115" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4073,254 +4173,336 @@
       <c r="D44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="128">
+      <c r="E44" s="126">
         <v>1415.36</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="112">
+      <c r="G44" s="1">
         <v>41516</v>
       </c>
-      <c r="H44" s="112">
+      <c r="H44" s="1">
         <v>41519</v>
       </c>
-      <c r="I44" s="121">
+      <c r="I44" s="118">
         <v>41521</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="125">
+      <c r="E45" s="126">
         <v>10584</v>
       </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="118"/>
     </row>
     <row r="46" spans="1:10" hidden="1">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="125">
+      <c r="E46" s="126">
         <v>5724</v>
       </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="118"/>
     </row>
     <row r="47" spans="1:10" hidden="1">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="125">
+      <c r="E47" s="126">
         <v>6372</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1"/>
-    <row r="49" spans="1:10" hidden="1"/>
-    <row r="50" spans="1:10" hidden="1"/>
-    <row r="51" spans="1:10" hidden="1"/>
-    <row r="52" spans="1:10" hidden="1"/>
-    <row r="53" spans="1:10" hidden="1"/>
-    <row r="54" spans="1:10" hidden="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="118"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="118"/>
+    </row>
+    <row r="49" spans="1:10" hidden="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="118"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="118"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="118"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="118"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="118"/>
+    </row>
+    <row r="54" spans="1:10" hidden="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="118"/>
+    </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="125">
+      <c r="E55" s="126">
         <v>4163.04</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>41515</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>41518</v>
       </c>
-      <c r="I55" s="122">
+      <c r="I55" s="118">
         <v>41527</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="125">
+      <c r="E56" s="126">
         <v>1214.22</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>41515</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>41518</v>
       </c>
-      <c r="I56" s="122">
+      <c r="I56" s="118">
         <v>41527</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="125">
+      <c r="E57" s="126">
         <v>2413.2399999999998</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>41527</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>41530</v>
       </c>
-      <c r="I57" s="122">
+      <c r="I57" s="118">
         <v>41527</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="125">
+      <c r="E58" s="126">
         <v>227.55</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="1">
         <v>41528</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="1">
         <v>41531</v>
       </c>
-      <c r="I58" s="122">
+      <c r="I58" s="118">
         <v>41528</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="4"/>
+    <row r="59" spans="1:10" hidden="1">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="3"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="122"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
+      <c r="I59" s="119"/>
+    </row>
+    <row r="60" spans="1:10" hidden="1">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="1"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="122"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
+      <c r="I60" s="119"/>
+    </row>
+    <row r="61" spans="1:10" hidden="1">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="1"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="122"/>
+      <c r="I61" s="119"/>
     </row>
     <row r="62" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="131">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>43622.79</v>
-      </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="123"/>
-      <c r="J62" s="119">
+        <v>86871.790000000008</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickTop="1"/>
@@ -4329,30 +4511,24 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="128"/>
+      <c r="E70" s="125"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="115"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="D72">
-        <f>7400-54-335.18</f>
-        <v>7010.82</v>
-      </c>
+      <c r="I70" s="121"/>
+      <c r="J70" s="112"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="128"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="115"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4380,14 +4556,14 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
@@ -4416,22 +4592,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="128" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="128" t="s">
         <v>164</v>
       </c>
       <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>87</v>
@@ -4447,113 +4623,113 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46">
+      <c r="B5" s="44">
         <v>200</v>
       </c>
-      <c r="D5" s="46">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44">
         <v>8492</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <v>5197</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <v>2526</v>
       </c>
-      <c r="G5" s="134">
+      <c r="G5" s="130">
         <v>16415</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="44">
+        <v>34711.939999999995</v>
+      </c>
+      <c r="C6" s="44">
         <v>10584</v>
       </c>
-      <c r="C6" s="46">
-        <v>34711.939999999995</v>
-      </c>
-      <c r="D6" s="46">
+      <c r="D6" s="44">
         <v>1050</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="134">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="130">
         <v>46345.939999999995</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
+        <v>17100.03</v>
+      </c>
+      <c r="C7" s="44">
         <v>12140.82</v>
       </c>
-      <c r="C7" s="46">
-        <v>9081.9800000000014</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="134">
-        <v>21222.800000000003</v>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="130">
+        <v>29240.85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44">
         <v>10584</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="134">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="130">
         <v>10584</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44">
         <v>12096</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="134">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="130">
         <v>12096</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="44">
+        <v>52011.969999999994</v>
+      </c>
+      <c r="C10" s="44">
         <v>45404.82</v>
       </c>
-      <c r="C10" s="46">
-        <v>43993.919999999998</v>
-      </c>
-      <c r="D10" s="46">
+      <c r="D10" s="44">
         <v>9542</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="44">
         <v>5197</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="44">
         <v>2526</v>
       </c>
-      <c r="G10" s="135">
-        <v>106663.73999999999</v>
+      <c r="G10" s="131">
+        <v>114681.79</v>
       </c>
     </row>
   </sheetData>
@@ -4582,9 +4758,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="110"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -4619,7 +4795,7 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="44">
         <v>0</v>
       </c>
       <c r="E3">
@@ -4636,11 +4812,11 @@
       <c r="C4">
         <v>46700</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D3</f>
         <v>37600</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="44">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>9100</v>
       </c>
@@ -4658,11 +4834,11 @@
       <c r="B5">
         <v>37800</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D4</f>
         <v>75400</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="2">
         <v>41544</v>
       </c>
@@ -4674,11 +4850,11 @@
       <c r="B6">
         <v>43200</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D5</f>
         <v>118600</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="2">
         <v>41536</v>
       </c>
@@ -4690,11 +4866,11 @@
       <c r="B7">
         <v>47500</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D6</f>
         <v>166100</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="2">
         <v>41571</v>
       </c>
@@ -4706,12 +4882,12 @@
       <c r="B8">
         <v>32000</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D7</f>
         <v>198100</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -4720,12 +4896,12 @@
       <c r="B9">
         <v>21600</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D8</f>
         <v>219700</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -4734,7 +4910,7 @@
       <c r="B10">
         <v>9700</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D9</f>
         <v>229400</v>
       </c>
@@ -4746,7 +4922,7 @@
       <c r="B11">
         <v>45700</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D10</f>
         <v>275100</v>
       </c>
@@ -4758,7 +4934,7 @@
       <c r="B12">
         <v>16200</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D11</f>
         <v>291300</v>
       </c>
@@ -4770,7 +4946,7 @@
       <c r="B13">
         <v>22200</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D12</f>
         <v>313500</v>
       </c>
@@ -4782,7 +4958,7 @@
       <c r="B14">
         <v>39900</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D13</f>
         <v>353400</v>
       </c>
@@ -4794,7 +4970,7 @@
       <c r="B15">
         <v>6500</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D14</f>
         <v>359900</v>
       </c>
@@ -4806,7 +4982,7 @@
       <c r="B16">
         <v>31300</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D15</f>
         <v>391200</v>
       </c>
@@ -4818,7 +4994,7 @@
       <c r="B17">
         <v>20000</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D16</f>
         <v>411200</v>
       </c>
@@ -4830,7 +5006,7 @@
       <c r="B18">
         <v>31600</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D17</f>
         <v>442800</v>
       </c>
@@ -4839,11 +5015,11 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="136">
+      <c r="D19" s="132">
         <f>Tabela5[[#This Row],[Planowane]]+D18</f>
         <v>442800</v>
       </c>
-      <c r="E19" s="136"/>
+      <c r="E19" s="132"/>
       <c r="F19" s="1" t="s">
         <v>169</v>
       </c>
@@ -4873,504 +5049,504 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <f>50000-F3-F4-F5-F7-F8</f>
         <v>0</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <f>C2/$C$34</f>
         <v>0</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="J2" s="95" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="J2" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="95">
+      <c r="K2" s="93">
         <v>37600</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>8000</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f t="shared" ref="D3:D34" si="0">C3/$C$34</f>
         <v>1.8066847335140017E-2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>8000</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <f>F3-2100</f>
         <v>5900</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="96">
+      <c r="K3" s="94">
         <v>37800</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>3200</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>7.2267389340560069E-3</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>3200</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="J4" s="97" t="s">
+      <c r="G4" s="18"/>
+      <c r="J4" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="95">
         <v>43200</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>17800</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>4.0198735320686539E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>17800</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="J5" s="98" t="s">
+      <c r="G5" s="18"/>
+      <c r="J5" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="98">
+      <c r="K5" s="96">
         <v>47500</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="J6" s="99" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="J6" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="99">
+      <c r="K6" s="97">
         <v>32000</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>8600</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>1.9421860885275519E-2</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>8600</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="J7" s="100" t="s">
+      <c r="G7" s="18"/>
+      <c r="J7" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="98">
         <v>21600</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>37800</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f t="shared" si="0"/>
         <v>8.5365853658536592E-2</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <f>C8-F8</f>
         <v>25400</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>12400</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="J8" s="101" t="s">
+      <c r="G8" s="35"/>
+      <c r="J8" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="99">
         <v>9700</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="53">
+      <c r="A9" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="52">
         <v>43200</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <f t="shared" si="0"/>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="54">
         <f t="shared" ref="E9:E33" si="1">C9-F9</f>
         <v>43200</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="J9" s="102" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="J9" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="100">
         <v>45700</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="75">
+      <c r="A10" s="73">
         <v>9</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="74">
         <v>9700</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="75">
         <f t="shared" si="0"/>
         <v>2.1906052393857272E-2</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="76">
         <f t="shared" si="1"/>
         <v>9700</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="J10" s="103" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="J10" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="103">
+      <c r="K10" s="101">
         <v>16200</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>14600</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>3.297199638663053E-2</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <f t="shared" si="1"/>
         <v>14600</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="J11" s="104" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="J11" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="104">
+      <c r="K11" s="102">
         <v>22200</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>32900</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <f t="shared" si="0"/>
         <v>7.4299909665763331E-2</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <f t="shared" si="1"/>
         <v>32900</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="J12" s="105" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="J12" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="105">
+      <c r="K12" s="103">
         <v>39900</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="58">
+      <c r="A13" s="56">
         <v>12</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="57">
         <v>32000</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="58">
         <f t="shared" si="0"/>
         <v>7.2267389340560068E-2</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="59">
         <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="J13" s="106" t="s">
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="J13" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="107">
         <v>6500</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>21600</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="J14" s="107" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="J14" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="61">
         <v>31300</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="85">
+      <c r="A15" s="83">
         <v>14</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="84">
         <v>6500</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="85">
         <f t="shared" si="0"/>
         <v>1.4679313459801264E-2</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="86">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-      <c r="J15" s="108" t="s">
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="J15" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="108">
+      <c r="K15" s="106">
         <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="80">
+      <c r="A16" s="78">
         <v>15</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="79">
         <v>18900</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <f t="shared" si="0"/>
         <v>4.2682926829268296E-2</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="81">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84"/>
-      <c r="J16" s="108" t="s">
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="J16" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="106">
         <v>31600</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="80">
+      <c r="A17" s="78">
         <v>16</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="79">
         <v>3300</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <f t="shared" si="0"/>
         <v>7.4525745257452572E-3</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="81">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
       <c r="K17">
         <f>SUM(K2:K16)</f>
         <v>442800</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="64">
+      <c r="A18" s="62">
         <v>17</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="66">
         <v>12000</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="63">
         <f t="shared" si="0"/>
         <v>2.7100271002710029E-2</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="64">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="64">
+      <c r="A19" s="62">
         <v>18</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="66">
         <v>27900</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="63">
         <f t="shared" si="0"/>
         <v>6.3008130081300809E-2</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="64">
         <f t="shared" si="1"/>
         <v>27900</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
@@ -5379,61 +5555,61 @@
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="90">
+      <c r="A21" s="88">
         <v>20</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="89">
         <v>16200</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="90">
         <f t="shared" si="0"/>
         <v>3.6585365853658534E-2</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="91">
         <f t="shared" si="1"/>
         <v>16200</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>31300</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <f t="shared" si="0"/>
         <v>7.0686540198735326E-2</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <f t="shared" si="1"/>
         <v>31300</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
@@ -5442,143 +5618,143 @@
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>0</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="69">
+      <c r="A24" s="67">
         <v>23</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71">
+      <c r="C24" s="68"/>
+      <c r="D24" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="72">
         <v>2700</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="69">
         <f t="shared" si="0"/>
         <v>6.0975609756097563E-3</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="70">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="72">
         <v>6700</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="69">
         <f t="shared" si="0"/>
         <v>1.5130984643179765E-2</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="70">
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="72">
         <v>2200</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="69">
         <f t="shared" si="0"/>
         <v>4.9683830171635048E-3</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="70">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="71"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="72">
         <v>15700</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="69">
         <f t="shared" si="0"/>
         <v>3.5456187895212286E-2</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="70">
         <f t="shared" si="1"/>
         <v>15700</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="72">
         <v>18400</v>
       </c>
-      <c r="D29" s="71">
+      <c r="D29" s="69">
         <f t="shared" si="0"/>
         <v>4.1553748870822041E-2</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="70">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
@@ -5587,19 +5763,19 @@
       <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>0</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
@@ -5608,19 +5784,19 @@
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>0</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
@@ -5629,63 +5805,63 @@
       <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>0</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="48">
+      <c r="A33" s="46">
         <v>27</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="47">
         <v>51600</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="48">
         <f t="shared" si="0"/>
         <v>0.11653116531165311</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="49">
         <f t="shared" si="1"/>
         <v>51600</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f>SUM(C2:C33)</f>
         <v>442800</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <f t="shared" ref="E34:F34" si="2">SUM(E2:E33)</f>
         <v>392800</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="177">
   <si>
     <t>Opis</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>5801/T/09/2013</t>
+  </si>
+  <si>
+    <t>5924/T/09/2013</t>
+  </si>
+  <si>
+    <t>Beton na słupki</t>
   </si>
 </sst>
 </file>
@@ -989,17 +995,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -1312,22 +1308,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
       </font>
@@ -1345,6 +1325,22 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1377,7 +1373,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1557,25 +1552,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63117568"/>
-        <c:axId val="63135744"/>
+        <c:axId val="62724352"/>
+        <c:axId val="62742528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63117568"/>
+        <c:axId val="62724352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63135744"/>
+        <c:crossAx val="62742528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63135744"/>
+        <c:axId val="62742528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,21 +1579,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63117568"/>
+        <c:crossAx val="62724352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2419,7 +2413,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2512,14 +2506,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="16">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="15">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2528,33 +2522,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J62" totalsRowCount="1">
-  <autoFilter ref="A1:J61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J59" totalsRowCount="1">
+  <autoFilter ref="A1:J58">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="8"/>
   </autoFilter>
   <sortState ref="A2:J52">
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2572,10 +2562,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="13">
+    <tableColumn id="4" name="Plan suma" dataDxfId="14">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="12"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="13"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2871,11 +2861,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3962,7 +3952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -3983,7 +3973,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="118"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>142</v>
       </c>
@@ -4192,7 +4182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -4213,7 +4203,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="118"/>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
@@ -4234,7 +4224,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="118"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
@@ -4255,291 +4245,283 @@
       <c r="H47" s="1"/>
       <c r="I47" s="118"/>
     </row>
-    <row r="48" spans="1:10" hidden="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="118"/>
-    </row>
-    <row r="49" spans="1:10" hidden="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="118"/>
-    </row>
-    <row r="50" spans="1:10" hidden="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="118"/>
-    </row>
-    <row r="51" spans="1:10" hidden="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="118"/>
-    </row>
-    <row r="52" spans="1:10" hidden="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="118"/>
-    </row>
-    <row r="53" spans="1:10" hidden="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="118"/>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="126">
+        <v>4163.04</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" s="1">
+        <v>41515</v>
+      </c>
+      <c r="H48" s="1">
+        <v>41518</v>
+      </c>
+      <c r="I48" s="118">
+        <v>41527</v>
+      </c>
+      <c r="J48" s="115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="126">
+        <v>1214.22</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="1">
+        <v>41515</v>
+      </c>
+      <c r="H49" s="1">
+        <v>41518</v>
+      </c>
+      <c r="I49" s="118">
+        <v>41527</v>
+      </c>
+      <c r="J49" s="115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="126">
+        <v>2413.2399999999998</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="1">
+        <v>41527</v>
+      </c>
+      <c r="H50" s="1">
+        <v>41530</v>
+      </c>
+      <c r="I50" s="118">
+        <v>41527</v>
+      </c>
+      <c r="J50" s="115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="126">
+        <v>227.55</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="1">
+        <v>41528</v>
+      </c>
+      <c r="H51" s="1">
+        <v>41531</v>
+      </c>
+      <c r="I51" s="118">
+        <v>41528</v>
+      </c>
+      <c r="J51" s="115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="122">
+        <v>247.93</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="2">
+        <v>41534</v>
+      </c>
+      <c r="H52" s="2">
+        <v>41537</v>
+      </c>
+      <c r="I52" s="119">
+        <v>41534</v>
+      </c>
+      <c r="J52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="122">
+        <v>360</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2">
+        <v>41537</v>
+      </c>
+      <c r="I53" s="119"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="118"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="119"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" s="126">
-        <v>4163.04</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G55" s="1">
-        <v>41515</v>
-      </c>
-      <c r="H55" s="1">
-        <v>41518</v>
-      </c>
-      <c r="I55" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J55" s="115" t="s">
-        <v>23</v>
-      </c>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="119"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="126">
-        <v>1214.22</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" s="1">
-        <v>41515</v>
-      </c>
-      <c r="H56" s="1">
-        <v>41518</v>
-      </c>
-      <c r="I56" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J56" s="115" t="s">
-        <v>23</v>
-      </c>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="119"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="126">
-        <v>2413.2399999999998</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="1">
-        <v>41527</v>
-      </c>
-      <c r="H57" s="1">
-        <v>41530</v>
-      </c>
-      <c r="I57" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J57" s="115" t="s">
-        <v>23</v>
-      </c>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="119"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="126">
-        <v>227.55</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="1">
-        <v>41528</v>
-      </c>
-      <c r="H58" s="1">
-        <v>41531</v>
-      </c>
-      <c r="I58" s="118">
-        <v>41528</v>
-      </c>
-      <c r="J58" s="115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="3"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="119"/>
-    </row>
-    <row r="60" spans="1:10" hidden="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="1"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="119"/>
-    </row>
-    <row r="61" spans="1:10" hidden="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="1"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="119"/>
-    </row>
-    <row r="62" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A62" s="45" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="119"/>
+    </row>
+    <row r="59" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A59" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="127">
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>86871.790000000008</v>
-      </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="116">
+        <v>115289.72</v>
+      </c>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="112"/>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="121"/>
-      <c r="J87" s="112"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="121"/>
+      <c r="J67" s="112"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A60:A67">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63:B70 B22:B47 B52:B59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B67 B22:B52">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A58">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
   <si>
     <t>Opis</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>Beton na słupki</t>
+  </si>
+  <si>
+    <t>5991/T/09/2013</t>
+  </si>
+  <si>
+    <t>2013-09-190</t>
   </si>
 </sst>
 </file>
@@ -1308,6 +1314,22 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
       </font>
@@ -1325,22 +1347,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1552,25 +1558,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62724352"/>
-        <c:axId val="62742528"/>
+        <c:axId val="71754880"/>
+        <c:axId val="71756416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62724352"/>
+        <c:axId val="71754880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62742528"/>
+        <c:crossAx val="71756416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62742528"/>
+        <c:axId val="71756416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1585,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62724352"/>
+        <c:crossAx val="71754880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1592,7 +1598,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2506,14 +2512,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="16">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2539,12 +2545,12 @@
     <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
     <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
     <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
     <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
     <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
     <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2562,10 +2568,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="14">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="13"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2864,8 +2870,8 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4428,12 +4434,36 @@
       <c r="I53" s="119"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="1"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="119"/>
+      <c r="A54" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="122">
+        <v>257.38</v>
+      </c>
+      <c r="F54" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="2">
+        <v>41536</v>
+      </c>
+      <c r="H54" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I54" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="42"/>
@@ -4476,7 +4506,7 @@
       <c r="D59" s="45"/>
       <c r="E59" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>115289.72</v>
+        <v>115547.1</v>
       </c>
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
@@ -4484,7 +4514,7 @@
       <c r="I59" s="120"/>
       <c r="J59" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickTop="1"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="178">
   <si>
     <t>Opis</t>
   </si>
@@ -533,9 +533,6 @@
     <t>Etykiety kolumn</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>Bloczki</t>
   </si>
   <si>
@@ -560,7 +557,7 @@
     <t>5991/T/09/2013</t>
   </si>
   <si>
-    <t>2013-09-190</t>
+    <t>Belki, pustaki</t>
   </si>
 </sst>
 </file>
@@ -570,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +646,14 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -857,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -997,11 +1002,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1314,6 +1330,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1379,6 +1405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1558,25 +1585,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71754880"/>
-        <c:axId val="71756416"/>
+        <c:axId val="66937984"/>
+        <c:axId val="71017600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71754880"/>
+        <c:axId val="66937984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71756416"/>
+        <c:crossAx val="71017600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71756416"/>
+        <c:axId val="71017600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,20 +1612,21 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71754880"/>
+        <c:crossAx val="66937984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1640,7 +1668,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41532.416864467596" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="60">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41538.576876388892" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="59">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -1678,13 +1706,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-09-12T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-09-20T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-09-15T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-09-23T00:00:00"/>
     </cacheField>
-    <cacheField name="Zapłacono" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-12T00:00:00"/>
+    <cacheField name="Zapłacono" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-21T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1694,7 +1722,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="59">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2224,6 +2252,30 @@
     <m/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Beton"/>
+    <n v="4489.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Belki, pustaki"/>
+    <n v="7261.15"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="4"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
@@ -2241,90 +2293,6 @@
     <s v="Antoni Nowak"/>
     <s v="Dach"/>
     <n v="6372"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
     <m/>
     <m/>
     <m/>
@@ -2356,7 +2324,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Stal"/>
@@ -2380,6 +2348,54 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="247.93"/>
+    <s v="5924/T/09/2013"/>
+    <d v="2013-09-17T00:00:00"/>
+    <d v="2013-09-20T00:00:00"/>
+    <d v="2013-09-17T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Antoni Nowak"/>
+    <s v="Beton na słupki"/>
+    <n v="360"/>
+    <m/>
+    <m/>
+    <d v="2013-09-20T00:00:00"/>
+    <d v="2013-09-20T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="257.38"/>
+    <s v="5991/T/09/2013"/>
+    <d v="2013-09-19T00:00:00"/>
+    <d v="2013-09-22T00:00:00"/>
+    <d v="2013-09-19T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="5"/>
     <x v="5"/>
     <m/>
@@ -2419,7 +2435,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2512,14 +2528,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="17">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="16">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2528,8 +2544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J59" totalsRowCount="1">
-  <autoFilter ref="A1:J58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J61" totalsRowCount="1">
+  <autoFilter ref="A1:J60">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2541,16 +2557,16 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="19" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2568,10 +2584,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+    <tableColumn id="4" name="Plan suma" dataDxfId="15">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="14"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2867,11 +2883,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3527,10 +3543,10 @@
       <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>41494</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>41497</v>
       </c>
       <c r="I22" s="118">
@@ -3559,10 +3575,10 @@
       <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>41494</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>41501</v>
       </c>
       <c r="I23" s="118">
@@ -3591,10 +3607,10 @@
       <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>41498</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>41501</v>
       </c>
       <c r="I24" s="118">
@@ -3623,10 +3639,10 @@
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>41498</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>41501</v>
       </c>
       <c r="I25" s="118">
@@ -3655,10 +3671,10 @@
       <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>41499</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>41502</v>
       </c>
       <c r="I26" s="118">
@@ -3687,10 +3703,10 @@
       <c r="F27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>41502</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>41505</v>
       </c>
       <c r="I27" s="118">
@@ -3719,10 +3735,10 @@
       <c r="F28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>41502</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>41509</v>
       </c>
       <c r="I28" s="118">
@@ -3751,8 +3767,8 @@
       <c r="F29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="118">
         <v>41507</v>
       </c>
@@ -3777,8 +3793,8 @@
         <v>400</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="118">
         <v>41474</v>
       </c>
@@ -3803,8 +3819,8 @@
         <v>650</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="118">
         <v>41474</v>
       </c>
@@ -3829,8 +3845,8 @@
         <v>7800</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="118">
         <v>41474</v>
       </c>
@@ -3857,8 +3873,8 @@
       <c r="F33" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="118">
         <v>41521</v>
       </c>
@@ -3885,10 +3901,10 @@
       <c r="F34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>41514</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>41517</v>
       </c>
       <c r="I34" s="118">
@@ -3917,10 +3933,10 @@
       <c r="F35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>41492</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>41495</v>
       </c>
       <c r="I35" s="118">
@@ -3949,8 +3965,8 @@
       <c r="F36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="118">
         <v>41521</v>
       </c>
@@ -3975,8 +3991,8 @@
         <v>3078</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="118"/>
     </row>
     <row r="38" spans="1:10">
@@ -3996,8 +4012,8 @@
         <v>2052</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="118"/>
     </row>
     <row r="39" spans="1:10">
@@ -4019,10 +4035,10 @@
       <c r="F39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="2">
         <v>41512</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <v>41519</v>
       </c>
       <c r="I39" s="118">
@@ -4051,10 +4067,10 @@
       <c r="F40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <v>41513</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="2">
         <v>41516</v>
       </c>
       <c r="I40" s="118">
@@ -4083,10 +4099,10 @@
       <c r="F41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <v>41513</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="2">
         <v>41516</v>
       </c>
       <c r="I41" s="118">
@@ -4115,10 +4131,10 @@
       <c r="F42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>41516</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <v>41519</v>
       </c>
       <c r="I42" s="118">
@@ -4147,8 +4163,8 @@
       <c r="F43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="118">
         <v>41521</v>
       </c>
@@ -4175,10 +4191,10 @@
       <c r="F44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <v>41516</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="2">
         <v>41519</v>
       </c>
       <c r="I44" s="118">
@@ -4205,115 +4221,93 @@
         <v>10584</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="118"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="126">
-        <v>5724</v>
+        <v>80</v>
+      </c>
+      <c r="E46" s="133">
+        <v>4489.5</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="118"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="126">
-        <v>6372</v>
+        <v>177</v>
+      </c>
+      <c r="E47" s="133">
+        <v>7261.15</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="118"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="E48" s="126">
-        <v>4163.04</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G48" s="1">
-        <v>41515</v>
-      </c>
-      <c r="H48" s="1">
-        <v>41518</v>
-      </c>
-      <c r="I48" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J48" s="115" t="s">
-        <v>23</v>
-      </c>
+        <v>5724</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="118"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="E49" s="126">
-        <v>1214.22</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="1">
-        <v>41515</v>
-      </c>
-      <c r="H49" s="1">
-        <v>41518</v>
-      </c>
-      <c r="I49" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J49" s="115" t="s">
-        <v>23</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="118"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
@@ -4326,19 +4320,19 @@
         <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="E50" s="126">
-        <v>2413.2399999999998</v>
+        <v>4163.04</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="1">
-        <v>41527</v>
-      </c>
-      <c r="H50" s="1">
-        <v>41530</v>
+        <v>170</v>
+      </c>
+      <c r="G50" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H50" s="2">
+        <v>41518</v>
       </c>
       <c r="I50" s="118">
         <v>41527</v>
@@ -4358,84 +4352,94 @@
         <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="E51" s="126">
-        <v>227.55</v>
+        <v>1214.22</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G51" s="1">
-        <v>41528</v>
-      </c>
-      <c r="H51" s="1">
-        <v>41531</v>
+        <v>171</v>
+      </c>
+      <c r="G51" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H51" s="2">
+        <v>41518</v>
       </c>
       <c r="I51" s="118">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="J51" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="126">
+        <v>2413.2399999999998</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="2">
+        <v>41527</v>
+      </c>
+      <c r="H52" s="2">
+        <v>41530</v>
+      </c>
+      <c r="I52" s="118">
+        <v>41527</v>
+      </c>
+      <c r="J52" s="115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="122">
-        <v>247.93</v>
-      </c>
-      <c r="F52" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H52" s="2">
-        <v>41537</v>
-      </c>
-      <c r="I52" s="119">
-        <v>41534</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="E53" s="126">
+        <v>227.55</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="2">
+        <v>41528</v>
+      </c>
+      <c r="H53" s="2">
+        <v>41531</v>
+      </c>
+      <c r="I53" s="118">
+        <v>41528</v>
+      </c>
+      <c r="J53" s="115" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" s="122">
-        <v>360</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2">
-        <v>41537</v>
-      </c>
-      <c r="I53" s="119"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" s="42" t="s">
         <v>86</v>
@@ -4447,39 +4451,82 @@
         <v>17</v>
       </c>
       <c r="E54" s="122">
-        <v>257.38</v>
+        <v>247.93</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G54" s="2">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="H54" s="2">
-        <v>41539</v>
-      </c>
-      <c r="I54" s="119" t="s">
-        <v>178</v>
+        <v>41537</v>
+      </c>
+      <c r="I54" s="119">
+        <v>41534</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="122">
+        <v>360</v>
+      </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="119"/>
+      <c r="H55" s="2">
+        <v>41537</v>
+      </c>
+      <c r="I55" s="119">
+        <v>41537</v>
+      </c>
+      <c r="J55" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="1"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="119"/>
+      <c r="A56" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="122">
+        <v>257.38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41536</v>
+      </c>
+      <c r="H56" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I56" s="119">
+        <v>41536</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="42"/>
@@ -4497,61 +4544,77 @@
       <c r="H58" s="2"/>
       <c r="I58" s="119"/>
     </row>
-    <row r="59" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A59" s="45" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="119"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="119"/>
+    </row>
+    <row r="61" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A61" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="127">
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>115547.1</v>
-      </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="116">
+        <v>127297.75</v>
+      </c>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="121"/>
-      <c r="J67" s="112"/>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="125"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="112"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="112"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A60:A67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A62:A69">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B67 B22:B52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B69 B22:B54">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -4568,7 +4631,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4679,7 +4742,7 @@
         <v>142</v>
       </c>
       <c r="B7" s="44">
-        <v>17100.03</v>
+        <v>15046.789999999999</v>
       </c>
       <c r="C7" s="44">
         <v>12140.82</v>
@@ -4688,14 +4751,16 @@
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="130">
-        <v>29240.85</v>
+        <v>27187.61</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="44">
+        <v>14669.199999999999</v>
+      </c>
       <c r="C8" s="44">
         <v>10584</v>
       </c>
@@ -4703,7 +4768,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="130">
-        <v>10584</v>
+        <v>25253.199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4726,7 +4791,7 @@
         <v>165</v>
       </c>
       <c r="B10" s="44">
-        <v>52011.969999999994</v>
+        <v>64627.929999999993</v>
       </c>
       <c r="C10" s="44">
         <v>45404.82</v>
@@ -4741,7 +4806,7 @@
         <v>2526</v>
       </c>
       <c r="G10" s="131">
-        <v>114681.79</v>
+        <v>127297.74999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +4820,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4870,6 +4935,9 @@
       <c r="F6" s="2">
         <v>41536</v>
       </c>
+      <c r="G6" s="2">
+        <v>41537</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -5032,9 +5100,7 @@
         <v>442800</v>
       </c>
       <c r="E19" s="132"/>
-      <c r="F19" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
   </sheetData>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -862,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1003,11 +1003,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
@@ -1017,6 +1018,9 @@
       <font>
         <color theme="3"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1340,7 +1344,14 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1580,6 +1591,45 @@
                 <c:pt idx="1">
                   <c:v>9100</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-47500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-21600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-45700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-22200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-39900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-31300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-31600</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1668,7 +1718,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41538.576876388892" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41538.585481944443" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="59">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -2244,7 +2294,7 @@
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Strop"/>
-    <n v="10584"/>
+    <n v="10000"/>
     <m/>
     <m/>
     <m/>
@@ -2435,7 +2485,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2528,14 +2578,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="17">
+    <format dxfId="19">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2557,16 +2607,16 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="19" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="12"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="11"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="10"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="9"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="7"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="6"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="21" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2584,10 +2634,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="15">
+    <tableColumn id="4" name="Plan suma" dataDxfId="2">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="14"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="17"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2885,9 +2935,9 @@
   </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4218,7 +4268,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="126">
-        <v>10584</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
@@ -4569,7 +4619,7 @@
       <c r="D61" s="45"/>
       <c r="E61" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>127297.75</v>
+        <v>126713.75</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
@@ -4631,7 +4681,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4762,13 +4812,13 @@
         <v>14669.199999999999</v>
       </c>
       <c r="C8" s="44">
-        <v>10584</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="130">
-        <v>25253.199999999997</v>
+        <v>24669.199999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4794,7 +4844,7 @@
         <v>64627.929999999993</v>
       </c>
       <c r="C10" s="44">
-        <v>45404.82</v>
+        <v>44820.82</v>
       </c>
       <c r="D10" s="44">
         <v>9542</v>
@@ -4806,7 +4856,7 @@
         <v>2526</v>
       </c>
       <c r="G10" s="131">
-        <v>127297.74999999999</v>
+        <v>126713.74999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4819,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4927,11 +4977,17 @@
       <c r="B6">
         <v>43200</v>
       </c>
+      <c r="C6" s="134">
+        <v>25000</v>
+      </c>
       <c r="D6" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D5</f>
         <v>118600</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-18200</v>
+      </c>
       <c r="F6" s="2">
         <v>41536</v>
       </c>
@@ -4950,7 +5006,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D6</f>
         <v>166100</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-47500</v>
+      </c>
       <c r="F7" s="2">
         <v>41571</v>
       </c>
@@ -4966,7 +5025,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D7</f>
         <v>198100</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-32000</v>
+      </c>
       <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:7">
@@ -4980,7 +5042,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D8</f>
         <v>219700</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-21600</v>
+      </c>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:7">
@@ -4994,6 +5059,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D9</f>
         <v>229400</v>
       </c>
+      <c r="E10" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-9700</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -5006,6 +5075,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D10</f>
         <v>275100</v>
       </c>
+      <c r="E11" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-45700</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -5018,6 +5091,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D11</f>
         <v>291300</v>
       </c>
+      <c r="E12" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-16200</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -5030,6 +5107,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D12</f>
         <v>313500</v>
       </c>
+      <c r="E13" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-22200</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -5042,6 +5123,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D13</f>
         <v>353400</v>
       </c>
+      <c r="E14" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-39900</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -5054,6 +5139,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D14</f>
         <v>359900</v>
       </c>
+      <c r="E15" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-6500</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -5066,6 +5155,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D15</f>
         <v>391200</v>
       </c>
+      <c r="E16" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-31300</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -5078,6 +5171,10 @@
         <f>Tabela5[[#This Row],[Planowane]]+D16</f>
         <v>411200</v>
       </c>
+      <c r="E17" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-20000</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
@@ -5089,6 +5186,10 @@
       <c r="D18" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D17</f>
         <v>442800</v>
+      </c>
+      <c r="E18" s="44">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-31600</v>
       </c>
     </row>
     <row r="19" spans="1:7">

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="179">
   <si>
     <t>Opis</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>Belki, pustaki</t>
+  </si>
+  <si>
+    <t>5889/T/09/2013</t>
   </si>
 </sst>
 </file>
@@ -862,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1004,24 +1007,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -1334,24 +1325,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1635,25 +1609,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66937984"/>
-        <c:axId val="71017600"/>
+        <c:axId val="63711872"/>
+        <c:axId val="63734144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66937984"/>
+        <c:axId val="63711872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71017600"/>
+        <c:crossAx val="63734144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71017600"/>
+        <c:axId val="63734144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1636,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66937984"/>
+        <c:crossAx val="63711872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,7 +1650,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2485,7 +2459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2578,14 +2552,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="19">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2607,16 +2581,16 @@
     <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="12"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="11"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="10"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="7"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="6"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="21" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="3"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2634,10 +2608,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="2">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="17"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2935,9 +2909,9 @@
   </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4309,13 +4283,24 @@
       <c r="D47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="133">
-        <v>7261.15</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="118"/>
+      <c r="E47" s="135">
+        <v>7792.51</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H47" s="2">
+        <v>41536</v>
+      </c>
+      <c r="I47" s="118">
+        <v>41541</v>
+      </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
@@ -4619,7 +4604,7 @@
       <c r="D61" s="45"/>
       <c r="E61" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>126713.75</v>
+        <v>127245.11</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
@@ -4627,7 +4612,7 @@
       <c r="I61" s="120"/>
       <c r="J61" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickTop="1"/>
@@ -4869,7 +4854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="180">
   <si>
     <t>Opis</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>5889/T/09/2013</t>
+  </si>
+  <si>
+    <t>6144/T/09/2013</t>
   </si>
 </sst>
 </file>
@@ -865,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1005,7 +1008,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1390,7 +1392,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1609,25 +1610,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63711872"/>
-        <c:axId val="63734144"/>
+        <c:axId val="63183104"/>
+        <c:axId val="63201280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63711872"/>
+        <c:axId val="63183104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63734144"/>
+        <c:crossAx val="63201280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63734144"/>
+        <c:axId val="63201280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,21 +1637,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63711872"/>
+        <c:crossAx val="63183104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2572,7 +2572,11 @@
   <autoFilter ref="A1:J60">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Manex"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
@@ -2910,8 +2914,8 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2965,7 +2969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3354,7 +3358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3383,7 +3387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -3772,7 +3776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3852,7 +3856,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -4019,7 +4023,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="118"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
         <v>142</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -4262,13 +4266,24 @@
       <c r="D46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="133">
+      <c r="E46" s="134">
         <v>4489.5</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="118"/>
+      <c r="F46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="2">
+        <v>41511</v>
+      </c>
+      <c r="H46" s="2">
+        <v>41514</v>
+      </c>
+      <c r="I46" s="118">
+        <v>41511</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
@@ -4283,7 +4298,7 @@
       <c r="D47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="135">
+      <c r="E47" s="134">
         <v>7792.51</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -4302,7 +4317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="1" t="s">
         <v>145</v>
       </c>
@@ -4323,7 +4338,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="118"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -4504,7 +4519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="42" t="s">
         <v>142</v>
       </c>
@@ -4563,7 +4578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="1"/>
@@ -4571,7 +4586,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="119"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="1"/>
@@ -4579,7 +4594,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="119"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="1"/>
@@ -4587,7 +4602,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="119"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="1"/>
@@ -4604,7 +4619,7 @@
       <c r="D61" s="45"/>
       <c r="E61" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>127245.11</v>
+        <v>56410.11</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
@@ -4612,7 +4627,7 @@
       <c r="I61" s="120"/>
       <c r="J61" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickTop="1"/>
@@ -4962,7 +4977,7 @@
       <c r="B6">
         <v>43200</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="133">
         <v>25000</v>
       </c>
       <c r="D6" s="44">

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="181">
   <si>
     <t>Opis</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>6144/T/09/2013</t>
+  </si>
+  <si>
+    <t>6199/T/09/2013</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,14 +655,6 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -868,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1008,13 +1003,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1048,6 +1058,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1076,6 +1091,17 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1203,6 +1229,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1325,41 +1354,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1567,7 +1561,7 @@
                   <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18200</c:v>
+                  <c:v>-17900</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-47500</c:v>
@@ -1610,25 +1604,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63183104"/>
-        <c:axId val="63201280"/>
+        <c:axId val="62720256"/>
+        <c:axId val="62738432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63183104"/>
+        <c:axId val="62720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63201280"/>
+        <c:crossAx val="62738432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63201280"/>
+        <c:axId val="62738432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1631,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63183104"/>
+        <c:crossAx val="62720256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1650,7 +1644,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1692,7 +1686,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41538.585481944443" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41543.818344328705" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="59">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -1736,7 +1730,7 @@
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-09-23T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-21T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-26T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2268,12 +2262,12 @@
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Strop"/>
-    <n v="10000"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="10100"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-09-25T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="3"/>
@@ -2281,23 +2275,23 @@
     <s v="Manex"/>
     <s v="Beton"/>
     <n v="4489.5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="6144/T/09/2013"/>
+    <d v="2013-08-25T00:00:00"/>
+    <d v="2013-08-28T00:00:00"/>
+    <d v="2013-08-25T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Belki, pustaki"/>
-    <n v="7261.15"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="7792.51"/>
+    <s v="5889/T/09/2013"/>
+    <d v="2013-09-16T00:00:00"/>
+    <d v="2013-09-19T00:00:00"/>
+    <d v="2013-09-24T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="4"/>
@@ -2552,14 +2546,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2568,33 +2562,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J61" totalsRowCount="1">
-  <autoFilter ref="A1:J60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J63" totalsRowCount="1">
+  <autoFilter ref="A1:J62">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Manex"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
     <filterColumn colId="3"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
-  <sortState ref="A2:J52">
-    <sortCondition ref="A1:A52"/>
+  <sortState ref="A2:J62">
+    <sortCondition ref="A62"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2612,10 +2602,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+    <tableColumn id="4" name="Plan suma" dataDxfId="1">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="0"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2911,11 +2901,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2969,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -3001,7 +2991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3033,7 +3023,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3065,7 +3055,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3097,7 +3087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3126,7 +3116,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3155,7 +3145,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3184,7 +3174,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3213,7 +3203,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -3242,7 +3232,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -3271,7 +3261,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -3300,7 +3290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3329,7 +3319,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3358,7 +3348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3387,7 +3377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -3416,7 +3406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3445,7 +3435,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3474,7 +3464,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3500,7 +3490,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -3526,7 +3516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -3776,7 +3766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -3804,7 +3794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -3830,7 +3820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -3856,7 +3846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -3882,7 +3872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -3974,7 +3964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -4002,7 +3992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -4023,7 +4013,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="118"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>142</v>
       </c>
@@ -4172,7 +4162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
@@ -4232,30 +4222,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="E45" s="126">
-        <v>10000</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="118"/>
+        <v>4163.04</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H45" s="2">
+        <v>41518</v>
+      </c>
+      <c r="I45" s="118">
+        <v>41527</v>
+      </c>
+      <c r="J45" s="115" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>86</v>
@@ -4264,30 +4265,30 @@
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="134">
-        <v>4489.5</v>
+        <v>169</v>
+      </c>
+      <c r="E46" s="126">
+        <v>1214.22</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G46" s="2">
-        <v>41511</v>
+        <v>41515</v>
       </c>
       <c r="H46" s="2">
-        <v>41514</v>
+        <v>41518</v>
       </c>
       <c r="I46" s="118">
-        <v>41511</v>
-      </c>
-      <c r="J46" t="s">
+        <v>41527</v>
+      </c>
+      <c r="J46" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>86</v>
@@ -4296,104 +4297,110 @@
         <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="134">
-        <v>7792.51</v>
+        <v>17</v>
+      </c>
+      <c r="E47" s="126">
+        <v>227.55</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G47" s="2">
-        <v>41533</v>
+        <v>41528</v>
       </c>
       <c r="H47" s="2">
-        <v>41536</v>
+        <v>41531</v>
       </c>
       <c r="I47" s="118">
-        <v>41541</v>
-      </c>
-      <c r="J47" t="s">
+        <v>41528</v>
+      </c>
+      <c r="J47" s="115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
-      <c r="A48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>26</v>
+    <row r="48" spans="1:10">
+      <c r="A48" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="126">
-        <v>5724</v>
-      </c>
-      <c r="F48" s="1"/>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="122">
+        <v>360</v>
+      </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="118"/>
-    </row>
-    <row r="49" spans="1:10" hidden="1">
-      <c r="A49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="126">
-        <v>6372</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="118"/>
+      <c r="H48" s="2">
+        <v>41537</v>
+      </c>
+      <c r="I48" s="119">
+        <v>41537</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="122">
+        <v>2786.4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41544</v>
+      </c>
+      <c r="H49" s="2">
+        <v>41547</v>
+      </c>
+      <c r="I49" s="119"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="E50" s="126">
-        <v>4163.04</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H50" s="2">
-        <v>41518</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J50" s="115" t="s">
+        <v>41542</v>
+      </c>
+      <c r="J50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>86</v>
@@ -4402,24 +4409,24 @@
         <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="126">
-        <v>1214.22</v>
+        <v>80</v>
+      </c>
+      <c r="E51" s="133">
+        <v>4489.5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G51" s="2">
-        <v>41515</v>
+        <v>41511</v>
       </c>
       <c r="H51" s="2">
-        <v>41518</v>
+        <v>41514</v>
       </c>
       <c r="I51" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J51" s="115" t="s">
+        <v>41511</v>
+      </c>
+      <c r="J51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4434,30 +4441,30 @@
         <v>89</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="126">
-        <v>2413.2399999999998</v>
+        <v>177</v>
+      </c>
+      <c r="E52" s="133">
+        <v>7792.51</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G52" s="2">
-        <v>41527</v>
+        <v>41533</v>
       </c>
       <c r="H52" s="2">
-        <v>41530</v>
+        <v>41536</v>
       </c>
       <c r="I52" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J52" s="115" t="s">
+        <v>41541</v>
+      </c>
+      <c r="J52" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>86</v>
@@ -4469,19 +4476,19 @@
         <v>17</v>
       </c>
       <c r="E53" s="126">
-        <v>227.55</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G53" s="2">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="H53" s="2">
-        <v>41531</v>
+        <v>41530</v>
       </c>
       <c r="I53" s="118">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="J53" s="115" t="s">
         <v>23</v>
@@ -4519,74 +4526,81 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" t="s">
-        <v>175</v>
+      <c r="C55" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E55" s="122">
-        <v>360</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>257.38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="2">
+        <v>41536</v>
+      </c>
       <c r="H55" s="2">
-        <v>41537</v>
+        <v>41539</v>
       </c>
       <c r="I55" s="119">
-        <v>41537</v>
+        <v>41536</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="122">
-        <v>257.38</v>
-      </c>
-      <c r="F56" t="s">
-        <v>176</v>
-      </c>
-      <c r="G56" s="2">
-        <v>41536</v>
-      </c>
-      <c r="H56" s="2">
-        <v>41539</v>
-      </c>
-      <c r="I56" s="119">
-        <v>41536</v>
-      </c>
-      <c r="J56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="126">
+        <v>5724</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="118"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="126">
+        <v>6372</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="119"/>
-    </row>
-    <row r="58" spans="1:10" hidden="1">
+      <c r="I57" s="118"/>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="1"/>
@@ -4594,7 +4608,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="119"/>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="1"/>
@@ -4602,7 +4616,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="119"/>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="1"/>
@@ -4610,61 +4624,77 @@
       <c r="H60" s="2"/>
       <c r="I60" s="119"/>
     </row>
-    <row r="61" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A61" s="45" t="s">
+    <row r="61" spans="1:10">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="119"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="119"/>
+    </row>
+    <row r="63" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A63" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="127">
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>56410.11</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="116">
+        <v>130131.51</v>
+      </c>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="121"/>
-      <c r="J69" s="112"/>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="121"/>
-      <c r="J86" s="112"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="112"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A62:A69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A64:A71">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B69 B22:B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64:B71 B22:B54">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -4681,7 +4711,7 @@
   <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4809,16 +4839,16 @@
         <v>143</v>
       </c>
       <c r="B8" s="44">
-        <v>14669.199999999999</v>
+        <v>15200.56</v>
       </c>
       <c r="C8" s="44">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="130">
-        <v>24669.199999999997</v>
+        <v>25300.559999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4841,10 +4871,10 @@
         <v>165</v>
       </c>
       <c r="B10" s="44">
-        <v>64627.929999999993</v>
+        <v>65159.289999999994</v>
       </c>
       <c r="C10" s="44">
-        <v>44820.82</v>
+        <v>44920.82</v>
       </c>
       <c r="D10" s="44">
         <v>9542</v>
@@ -4856,7 +4886,7 @@
         <v>2526</v>
       </c>
       <c r="G10" s="131">
-        <v>126713.74999999999</v>
+        <v>127345.10999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4870,7 +4900,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4977,8 +5007,8 @@
       <c r="B6">
         <v>43200</v>
       </c>
-      <c r="C6" s="133">
-        <v>25000</v>
+      <c r="C6" s="3">
+        <v>25300</v>
       </c>
       <c r="D6" s="44">
         <f>Tabela5[[#This Row],[Planowane]]+D5</f>
@@ -4986,7 +5016,7 @@
       </c>
       <c r="E6" s="44">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
-        <v>-18200</v>
+        <v>-17900</v>
       </c>
       <c r="F6" s="2">
         <v>41536</v>
@@ -5206,9 +5236,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="183">
   <si>
     <t>Opis</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>6199/T/09/2013</t>
+  </si>
+  <si>
+    <t>Stal piętro</t>
+  </si>
+  <si>
+    <t>6284/T/09/2013</t>
   </si>
 </sst>
 </file>
@@ -1010,22 +1016,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1058,11 +1048,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1091,17 +1076,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1229,9 +1203,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1354,6 +1325,41 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1604,25 +1610,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62720256"/>
-        <c:axId val="62738432"/>
+        <c:axId val="63113472"/>
+        <c:axId val="63131648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62720256"/>
+        <c:axId val="63113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62738432"/>
+        <c:crossAx val="63131648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62738432"/>
+        <c:axId val="63131648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1637,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62720256"/>
+        <c:crossAx val="63113472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,7 +1650,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2546,14 +2552,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2562,8 +2568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J63" totalsRowCount="1">
-  <autoFilter ref="A1:J62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J64" totalsRowCount="1">
+  <autoFilter ref="A1:J63">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2575,16 +2581,16 @@
     <sortCondition ref="A62"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2602,10 +2608,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="1">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="0"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2901,11 +2907,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD51"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4370,29 +4376,40 @@
       <c r="H49" s="2">
         <v>41547</v>
       </c>
-      <c r="I49" s="119"/>
+      <c r="I49" s="119">
+        <v>41547</v>
+      </c>
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="126">
-        <v>10100</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="118">
-        <v>41542</v>
+      <c r="A50" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="122">
+        <v>594.69000000000005</v>
+      </c>
+      <c r="F50" t="s">
+        <v>182</v>
+      </c>
+      <c r="G50" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H50" s="2">
+        <v>41550</v>
+      </c>
+      <c r="I50" s="119">
+        <v>41547</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -4403,28 +4420,22 @@
         <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="133">
-        <v>4489.5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" s="2">
-        <v>41511</v>
-      </c>
-      <c r="H51" s="2">
-        <v>41514</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E51" s="126">
+        <v>10100</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="118">
-        <v>41511</v>
+        <v>41542</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -4441,22 +4452,22 @@
         <v>89</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="E52" s="133">
-        <v>7792.51</v>
+        <v>4489.5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G52" s="2">
-        <v>41533</v>
+        <v>41542</v>
       </c>
       <c r="H52" s="2">
-        <v>41536</v>
+        <v>41545</v>
       </c>
       <c r="I52" s="118">
-        <v>41541</v>
+        <v>41542</v>
       </c>
       <c r="J52" t="s">
         <v>23</v>
@@ -4473,56 +4484,56 @@
         <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="133">
+        <v>7792.51</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H53" s="2">
+        <v>41536</v>
+      </c>
+      <c r="I53" s="118">
+        <v>41541</v>
+      </c>
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="126">
+      <c r="E54" s="126">
         <v>2413.2399999999998</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G54" s="2">
         <v>41527</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H54" s="2">
         <v>41530</v>
       </c>
-      <c r="I53" s="118">
+      <c r="I54" s="118">
         <v>41527</v>
       </c>
-      <c r="J53" s="115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="122">
-        <v>247.93</v>
-      </c>
-      <c r="F54" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H54" s="2">
-        <v>41537</v>
-      </c>
-      <c r="I54" s="119">
-        <v>41534</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="J54" s="115" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4540,44 +4551,55 @@
         <v>17</v>
       </c>
       <c r="E55" s="122">
-        <v>257.38</v>
+        <v>247.93</v>
       </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G55" s="2">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="H55" s="2">
-        <v>41539</v>
+        <v>41537</v>
       </c>
       <c r="I55" s="119">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="126">
-        <v>5724</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="118"/>
+      <c r="A56" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="122">
+        <v>257.38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41536</v>
+      </c>
+      <c r="H56" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I56" s="119">
+        <v>41536</v>
+      </c>
+      <c r="J56" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
@@ -4590,10 +4612,10 @@
         <v>158</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E57" s="126">
-        <v>6372</v>
+        <v>5724</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="2"/>
@@ -4601,12 +4623,25 @@
       <c r="I57" s="118"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="126">
+        <v>6372</v>
+      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="119"/>
+      <c r="I58" s="118"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="42"/>
@@ -4640,61 +4675,69 @@
       <c r="H62" s="2"/>
       <c r="I62" s="119"/>
     </row>
-    <row r="63" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A63" s="45" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="119"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A64" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="127">
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>130131.51</v>
-      </c>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="120"/>
-      <c r="J63" s="116">
+        <v>130726.2</v>
+      </c>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="112"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="125"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="121"/>
-      <c r="J88" s="112"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="112"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A64:A71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A65:A72">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64:B71 B22:B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65:B72 B22:B55">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A63">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="189">
   <si>
     <t>Opis</t>
   </si>
@@ -573,6 +573,24 @@
   </si>
   <si>
     <t>6284/T/09/2013</t>
+  </si>
+  <si>
+    <t>Kotwa murłata</t>
+  </si>
+  <si>
+    <t>paragon PWB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaprawa  </t>
+  </si>
+  <si>
+    <t>paragon Castorama</t>
+  </si>
+  <si>
+    <t>Zaprawa murarska</t>
+  </si>
+  <si>
+    <t>paragon Smolec</t>
   </si>
 </sst>
 </file>
@@ -1610,25 +1628,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63113472"/>
-        <c:axId val="63131648"/>
+        <c:axId val="72317952"/>
+        <c:axId val="72327936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63113472"/>
+        <c:axId val="72317952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63131648"/>
+        <c:crossAx val="72327936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63131648"/>
+        <c:axId val="72327936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1655,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63113472"/>
+        <c:crossAx val="72317952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1650,7 +1668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2568,8 +2586,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J64" totalsRowCount="1">
-  <autoFilter ref="A1:J63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J67" totalsRowCount="1">
+  <autoFilter ref="A1:J66">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2907,11 +2925,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4416,186 +4434,171 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>26</v>
+      <c r="A51" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="126">
-        <v>10100</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="118">
-        <v>41542</v>
-      </c>
-      <c r="J51" t="s">
-        <v>23</v>
-      </c>
+      <c r="D51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="122">
+        <v>200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>184</v>
+      </c>
+      <c r="G51" s="2">
+        <v>41549</v>
+      </c>
+      <c r="H51" s="2">
+        <v>41549</v>
+      </c>
+      <c r="I51" s="119"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="133">
-        <v>4489.5</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="122">
+        <v>48.18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>186</v>
       </c>
       <c r="G52" s="2">
-        <v>41542</v>
+        <v>41548</v>
       </c>
       <c r="H52" s="2">
-        <v>41545</v>
-      </c>
-      <c r="I52" s="118">
-        <v>41542</v>
-      </c>
-      <c r="J52" t="s">
-        <v>23</v>
-      </c>
+        <v>41548</v>
+      </c>
+      <c r="I52" s="119"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="133">
-        <v>7792.51</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="122">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
       </c>
       <c r="G53" s="2">
-        <v>41533</v>
+        <v>41547</v>
       </c>
       <c r="H53" s="2">
-        <v>41536</v>
-      </c>
-      <c r="I53" s="118">
-        <v>41541</v>
-      </c>
-      <c r="J53" t="s">
-        <v>23</v>
-      </c>
+        <v>41547</v>
+      </c>
+      <c r="I53" s="119"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="126">
+        <v>10100</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="118">
+        <v>41542</v>
+      </c>
+      <c r="J54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="126">
-        <v>2413.2399999999998</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="2">
-        <v>41527</v>
-      </c>
-      <c r="H54" s="2">
-        <v>41530</v>
-      </c>
-      <c r="I54" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J54" s="115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="122">
-        <v>247.93</v>
-      </c>
-      <c r="F55" t="s">
-        <v>174</v>
+      <c r="D55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="133">
+        <v>4489.5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G55" s="2">
-        <v>41534</v>
+        <v>41542</v>
       </c>
       <c r="H55" s="2">
-        <v>41537</v>
-      </c>
-      <c r="I55" s="119">
-        <v>41534</v>
+        <v>41545</v>
+      </c>
+      <c r="I55" s="118">
+        <v>41542</v>
       </c>
       <c r="J55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="122">
-        <v>257.38</v>
-      </c>
-      <c r="F56" t="s">
-        <v>176</v>
+      <c r="D56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="133">
+        <v>7792.51</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G56" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H56" s="2">
         <v>41536</v>
       </c>
-      <c r="H56" s="2">
-        <v>41539</v>
-      </c>
-      <c r="I56" s="119">
-        <v>41536</v>
+      <c r="I56" s="118">
+        <v>41541</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -4603,69 +4606,141 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="126">
+        <v>2413.2399999999998</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41527</v>
+      </c>
+      <c r="H57" s="2">
+        <v>41530</v>
+      </c>
+      <c r="I57" s="118">
+        <v>41527</v>
+      </c>
+      <c r="J57" s="115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="122">
+        <v>247.93</v>
+      </c>
+      <c r="F58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="2">
+        <v>41534</v>
+      </c>
+      <c r="H58" s="2">
+        <v>41537</v>
+      </c>
+      <c r="I58" s="119">
+        <v>41534</v>
+      </c>
+      <c r="J58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="122">
+        <v>257.38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" s="2">
+        <v>41536</v>
+      </c>
+      <c r="H59" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I59" s="119">
+        <v>41536</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="126">
+      <c r="E60" s="126">
         <v>5724</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="118"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="126">
-        <v>6372</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="118"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="1"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="119"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="119"/>
+      <c r="I60" s="118"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="126">
+        <v>6372</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="119"/>
+      <c r="I61" s="118"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="42"/>
@@ -4683,61 +4758,85 @@
       <c r="H63" s="2"/>
       <c r="I63" s="119"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A64" s="45" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="119"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="119"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="119"/>
+    </row>
+    <row r="67" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A67" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="127">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>130726.2</v>
-      </c>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="116">
+        <v>131064.37999999999</v>
+      </c>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="121"/>
-      <c r="J72" s="112"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="121"/>
-      <c r="J89" s="112"/>
+    <row r="68" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="112"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A65:A72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A68:A75">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65:B72 B22:B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68:B75 B22:B58">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A66">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="189">
   <si>
     <t>Opis</t>
   </si>
@@ -1628,25 +1628,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72317952"/>
-        <c:axId val="72327936"/>
+        <c:axId val="76385664"/>
+        <c:axId val="76399744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72317952"/>
+        <c:axId val="76385664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72327936"/>
+        <c:crossAx val="76399744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72327936"/>
+        <c:axId val="76399744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1655,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72317952"/>
+        <c:crossAx val="76385664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,7 +1668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2928,8 +2928,8 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4030,12 +4030,19 @@
         <v>30</v>
       </c>
       <c r="E37" s="126">
-        <v>3078</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>2960</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="118"/>
+      <c r="I37" s="118">
+        <v>41552</v>
+      </c>
+      <c r="J37" s="115" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
@@ -4458,7 +4465,12 @@
       <c r="H51" s="2">
         <v>41549</v>
       </c>
-      <c r="I51" s="119"/>
+      <c r="I51" s="119">
+        <v>41552</v>
+      </c>
+      <c r="J51" s="115" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="42" t="s">
@@ -4485,7 +4497,12 @@
       <c r="H52" s="2">
         <v>41548</v>
       </c>
-      <c r="I52" s="119"/>
+      <c r="I52" s="119">
+        <v>41552</v>
+      </c>
+      <c r="J52" s="115" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="42" t="s">
@@ -4512,7 +4529,12 @@
       <c r="H53" s="2">
         <v>41547</v>
       </c>
-      <c r="I53" s="119"/>
+      <c r="I53" s="119">
+        <v>41552</v>
+      </c>
+      <c r="J53" s="115" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
@@ -4791,7 +4813,7 @@
       <c r="D67" s="45"/>
       <c r="E67" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>131064.37999999999</v>
+        <v>130946.37999999999</v>
       </c>
       <c r="F67" s="45"/>
       <c r="G67" s="45"/>
@@ -4799,7 +4821,7 @@
       <c r="I67" s="120"/>
       <c r="J67" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickTop="1"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="203">
   <si>
     <t>Opis</t>
   </si>
@@ -591,6 +591,48 @@
   </si>
   <si>
     <t>paragon Smolec</t>
+  </si>
+  <si>
+    <t>Tartak</t>
+  </si>
+  <si>
+    <t>Drewno na więźbę-zaliczka</t>
+  </si>
+  <si>
+    <t>dowód wpłaty</t>
+  </si>
+  <si>
+    <t>SBB Bielany</t>
+  </si>
+  <si>
+    <t>Dach - dachówki</t>
+  </si>
+  <si>
+    <t>zamówienie SB/002674</t>
+  </si>
+  <si>
+    <t>Dach - dodatki</t>
+  </si>
+  <si>
+    <t>zaliczka SB/002675</t>
+  </si>
+  <si>
+    <t>Dach - Rynna</t>
+  </si>
+  <si>
+    <t>zaliczka   SB/002678</t>
+  </si>
+  <si>
+    <t>Dach - Okna dachowe</t>
+  </si>
+  <si>
+    <t>zamówienie SB/002677</t>
+  </si>
+  <si>
+    <t>Beton na wieniec</t>
+  </si>
+  <si>
+    <t>6568/T/10/2013</t>
   </si>
 </sst>
 </file>
@@ -1628,25 +1670,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76385664"/>
-        <c:axId val="76399744"/>
+        <c:axId val="62720256"/>
+        <c:axId val="62738432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76385664"/>
+        <c:axId val="62720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76399744"/>
+        <c:crossAx val="62738432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76399744"/>
+        <c:axId val="62738432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1697,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76385664"/>
+        <c:crossAx val="62720256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1668,7 +1710,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2586,8 +2628,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J67" totalsRowCount="1">
-  <autoFilter ref="A1:J66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J74" totalsRowCount="1">
+  <autoFilter ref="A1:J73">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2595,8 +2637,8 @@
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
-  <sortState ref="A2:J62">
-    <sortCondition ref="A62"/>
+  <sortState ref="A2:J67">
+    <sortCondition ref="A1:A67"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
@@ -2925,11 +2967,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3522,19 +3564,19 @@
         <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E20" s="126">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="118">
-        <v>41515</v>
+        <v>41509</v>
       </c>
       <c r="J20" s="115" t="s">
         <v>84</v>
@@ -3548,19 +3590,19 @@
         <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="126">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="118">
-        <v>41509</v>
+        <v>41515</v>
       </c>
       <c r="J21" s="115" t="s">
         <v>84</v>
@@ -3571,31 +3613,25 @@
         <v>141</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E22" s="126">
-        <v>1510.21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H22" s="2">
-        <v>41497</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="118">
-        <v>41495</v>
+        <v>41474</v>
       </c>
       <c r="J22" s="115" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3603,31 +3639,25 @@
         <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E23" s="126">
-        <v>5878.78</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H23" s="2">
-        <v>41501</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="118">
-        <v>41501</v>
+        <v>41474</v>
       </c>
       <c r="J23" s="115" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3638,28 +3668,22 @@
         <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E24" s="126">
-        <v>19.079999999999998</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2">
-        <v>41498</v>
-      </c>
-      <c r="H24" s="2">
-        <v>41501</v>
-      </c>
+        <v>7800</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="118">
-        <v>41501</v>
+        <v>41474</v>
       </c>
       <c r="J24" s="115" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3676,22 +3700,22 @@
         <v>14</v>
       </c>
       <c r="E25" s="126">
-        <v>115.01</v>
+        <v>1510.21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2">
-        <v>41498</v>
+        <v>41494</v>
       </c>
       <c r="H25" s="2">
-        <v>41501</v>
+        <v>41497</v>
       </c>
       <c r="I25" s="118">
-        <v>41501</v>
+        <v>41495</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3705,19 +3729,19 @@
         <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E26" s="126">
-        <v>8280.36</v>
+        <v>5878.78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2">
-        <v>41499</v>
+        <v>41494</v>
       </c>
       <c r="H26" s="2">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="I26" s="118">
         <v>41501</v>
@@ -3737,22 +3761,22 @@
         <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" s="126">
-        <v>1657.43</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2">
-        <v>41502</v>
+        <v>41498</v>
       </c>
       <c r="H27" s="2">
-        <v>41505</v>
+        <v>41501</v>
       </c>
       <c r="I27" s="118">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="J27" s="115" t="s">
         <v>23</v>
@@ -3769,22 +3793,22 @@
         <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28" s="126">
-        <v>512.29999999999995</v>
+        <v>115.01</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2">
-        <v>41502</v>
+        <v>41498</v>
       </c>
       <c r="H28" s="2">
-        <v>41509</v>
+        <v>41501</v>
       </c>
       <c r="I28" s="118">
-        <v>41507</v>
+        <v>41501</v>
       </c>
       <c r="J28" s="115" t="s">
         <v>23</v>
@@ -3795,24 +3819,28 @@
         <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E29" s="126">
-        <v>10584</v>
+        <v>8280.36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G29" s="2">
+        <v>41499</v>
+      </c>
+      <c r="H29" s="2">
+        <v>41502</v>
+      </c>
       <c r="I29" s="118">
-        <v>41507</v>
+        <v>41501</v>
       </c>
       <c r="J29" s="115" t="s">
         <v>23</v>
@@ -3823,25 +3851,31 @@
         <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E30" s="126">
-        <v>400</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+        <v>1657.43</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H30" s="2">
+        <v>41505</v>
+      </c>
       <c r="I30" s="118">
-        <v>41474</v>
+        <v>41502</v>
       </c>
       <c r="J30" s="115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3849,25 +3883,31 @@
         <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E31" s="126">
-        <v>650</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>512.29999999999995</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H31" s="2">
+        <v>41509</v>
+      </c>
       <c r="I31" s="118">
-        <v>41474</v>
+        <v>41507</v>
       </c>
       <c r="J31" s="115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -3875,25 +3915,27 @@
         <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E32" s="126">
-        <v>7800</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>10584</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="118">
-        <v>41474</v>
+        <v>41507</v>
       </c>
       <c r="J32" s="115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3904,24 +3946,28 @@
         <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E33" s="126">
-        <v>335.18</v>
+        <v>7610.63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G33" s="2">
+        <v>41514</v>
+      </c>
+      <c r="H33" s="2">
+        <v>41517</v>
+      </c>
       <c r="I33" s="118">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J33" s="115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3935,22 +3981,22 @@
         <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E34" s="126">
-        <v>7610.63</v>
+        <v>992.96</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G34" s="2">
-        <v>41514</v>
+        <v>41492</v>
       </c>
       <c r="H34" s="2">
-        <v>41517</v>
+        <v>41495</v>
       </c>
       <c r="I34" s="118">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="J34" s="115" t="s">
         <v>23</v>
@@ -3964,28 +4010,24 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="E35" s="126">
-        <v>992.96</v>
+        <v>335.18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="2">
-        <v>41492</v>
-      </c>
-      <c r="H35" s="2">
-        <v>41495</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="118">
-        <v>41516</v>
+        <v>41521</v>
       </c>
       <c r="J35" s="115" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3993,27 +4035,31 @@
         <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E36" s="126">
-        <v>7010.82</v>
+        <v>3813.05</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="G36" s="2">
+        <v>41512</v>
+      </c>
+      <c r="H36" s="2">
+        <v>41519</v>
+      </c>
       <c r="I36" s="118">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J36" s="115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4021,27 +4067,31 @@
         <v>142</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E37" s="126">
-        <v>2960</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="G37" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H37" s="2">
+        <v>41516</v>
+      </c>
       <c r="I37" s="118">
-        <v>41552</v>
+        <v>41515</v>
       </c>
       <c r="J37" s="115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4049,21 +4099,32 @@
         <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="E38" s="126">
-        <v>2052</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="118"/>
+        <v>649.32000000000005</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H38" s="2">
+        <v>41516</v>
+      </c>
+      <c r="I38" s="118">
+        <v>41515</v>
+      </c>
+      <c r="J38" s="115" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
@@ -4076,22 +4137,22 @@
         <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E39" s="126">
-        <v>3813.05</v>
+        <v>3084.07</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G39" s="2">
-        <v>41512</v>
+        <v>41516</v>
       </c>
       <c r="H39" s="2">
         <v>41519</v>
       </c>
       <c r="I39" s="118">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="J39" s="115" t="s">
         <v>23</v>
@@ -4102,31 +4163,27 @@
         <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E40" s="126">
-        <v>66.180000000000007</v>
+        <v>7010.82</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H40" s="2">
-        <v>41516</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="118">
-        <v>41515</v>
+        <v>41521</v>
       </c>
       <c r="J40" s="115" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4137,28 +4194,24 @@
         <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="E41" s="126">
-        <v>649.32000000000005</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H41" s="2">
-        <v>41516</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="118">
-        <v>41515</v>
+        <v>41521</v>
       </c>
       <c r="J41" s="115" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4172,13 +4225,13 @@
         <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E42" s="126">
-        <v>3084.07</v>
+        <v>1415.36</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="G42" s="2">
         <v>41516</v>
@@ -4187,7 +4240,7 @@
         <v>41519</v>
       </c>
       <c r="I42" s="118">
-        <v>41516</v>
+        <v>41521</v>
       </c>
       <c r="J42" s="115" t="s">
         <v>23</v>
@@ -4201,24 +4254,28 @@
         <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E43" s="126">
-        <v>54</v>
+        <v>4163.04</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="G43" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H43" s="2">
+        <v>41518</v>
+      </c>
       <c r="I43" s="118">
-        <v>41521</v>
+        <v>41527</v>
       </c>
       <c r="J43" s="115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4232,22 +4289,22 @@
         <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E44" s="126">
-        <v>1415.36</v>
+        <v>1214.22</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G44" s="2">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="H44" s="2">
-        <v>41519</v>
+        <v>41518</v>
       </c>
       <c r="I44" s="118">
-        <v>41521</v>
+        <v>41527</v>
       </c>
       <c r="J44" s="115" t="s">
         <v>23</v>
@@ -4264,88 +4321,83 @@
         <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="E45" s="126">
-        <v>4163.04</v>
+        <v>227.55</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G45" s="2">
-        <v>41515</v>
+        <v>41528</v>
       </c>
       <c r="H45" s="2">
-        <v>41518</v>
+        <v>41531</v>
       </c>
       <c r="I45" s="118">
-        <v>41527</v>
+        <v>41528</v>
       </c>
       <c r="J45" s="115" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="122">
+        <v>360</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2">
+        <v>41537</v>
+      </c>
+      <c r="I46" s="119">
+        <v>41537</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="126">
-        <v>1214.22</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G46" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H46" s="2">
-        <v>41518</v>
-      </c>
-      <c r="I46" s="118">
-        <v>41527</v>
-      </c>
-      <c r="J46" s="115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="126">
-        <v>227.55</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>173</v>
+      <c r="E47" s="122">
+        <v>2786.4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>180</v>
       </c>
       <c r="G47" s="2">
-        <v>41528</v>
+        <v>41544</v>
       </c>
       <c r="H47" s="2">
-        <v>41531</v>
-      </c>
-      <c r="I47" s="118">
-        <v>41528</v>
-      </c>
-      <c r="J47" s="115" t="s">
+        <v>41547</v>
+      </c>
+      <c r="I47" s="119">
+        <v>41547</v>
+      </c>
+      <c r="J47" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4356,56 +4408,57 @@
       <c r="B48" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>158</v>
+      <c r="C48" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E48" s="122">
-        <v>360</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>594.69000000000005</v>
+      </c>
+      <c r="F48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="2">
+        <v>41547</v>
+      </c>
       <c r="H48" s="2">
-        <v>41537</v>
+        <v>41550</v>
       </c>
       <c r="I48" s="119">
-        <v>41537</v>
+        <v>41547</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="122">
-        <v>2786.4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="2">
-        <v>41544</v>
-      </c>
-      <c r="H49" s="2">
-        <v>41547</v>
-      </c>
-      <c r="I49" s="119">
-        <v>41547</v>
-      </c>
-      <c r="J49" t="s">
-        <v>23</v>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="126">
+        <v>2960</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="118">
+        <v>41552</v>
+      </c>
+      <c r="J49" s="115" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4415,29 +4468,29 @@
       <c r="B50" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="42" t="s">
-        <v>89</v>
+      <c r="C50" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E50" s="122">
-        <v>594.69000000000005</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G50" s="2">
-        <v>41547</v>
+        <v>41549</v>
       </c>
       <c r="H50" s="2">
-        <v>41550</v>
+        <v>41549</v>
       </c>
       <c r="I50" s="119">
-        <v>41547</v>
-      </c>
-      <c r="J50" t="s">
-        <v>23</v>
+        <v>41552</v>
+      </c>
+      <c r="J50" s="115" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4451,19 +4504,19 @@
         <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E51" s="122">
-        <v>200</v>
+        <v>48.18</v>
       </c>
       <c r="F51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G51" s="2">
-        <v>41549</v>
+        <v>41548</v>
       </c>
       <c r="H51" s="2">
-        <v>41549</v>
+        <v>41548</v>
       </c>
       <c r="I51" s="119">
         <v>41552</v>
@@ -4483,19 +4536,19 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E52" s="122">
-        <v>48.18</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G52" s="2">
-        <v>41548</v>
+        <v>41547</v>
       </c>
       <c r="H52" s="2">
-        <v>41548</v>
+        <v>41547</v>
       </c>
       <c r="I52" s="119">
         <v>41552</v>
@@ -4512,115 +4565,90 @@
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E53" s="122">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G53" s="2">
-        <v>41547</v>
-      </c>
-      <c r="H53" s="2">
-        <v>41547</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="119">
-        <v>41552</v>
-      </c>
-      <c r="J53" s="115" t="s">
+        <v>41555</v>
+      </c>
+      <c r="J53" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>26</v>
+      <c r="A54" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="126">
-        <v>10100</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="122">
+        <v>6500</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="118">
-        <v>41542</v>
-      </c>
-      <c r="J54" t="s">
-        <v>23</v>
-      </c>
+      <c r="I54" s="119"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="133">
-        <v>4489.5</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G55" s="2">
-        <v>41542</v>
-      </c>
-      <c r="H55" s="2">
-        <v>41545</v>
-      </c>
-      <c r="I55" s="118">
-        <v>41542</v>
-      </c>
-      <c r="J55" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E55" s="126">
+        <v>2052</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="118"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E56" s="133">
-        <v>7792.51</v>
+        <v>201</v>
+      </c>
+      <c r="E56" s="126">
+        <v>1260.76</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G56" s="2">
-        <v>41533</v>
-      </c>
-      <c r="H56" s="2">
-        <v>41536</v>
-      </c>
-      <c r="I56" s="118">
-        <v>41541</v>
+        <v>202</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="119">
+        <v>41557</v>
       </c>
       <c r="J56" t="s">
         <v>23</v>
@@ -4724,28 +4752,39 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="126">
-        <v>5724</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="118"/>
+        <v>177</v>
+      </c>
+      <c r="E60" s="133">
+        <v>7792.51</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H60" s="2">
+        <v>41536</v>
+      </c>
+      <c r="I60" s="118">
+        <v>41541</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>26</v>
@@ -4754,111 +4793,326 @@
         <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E61" s="126">
-        <v>6372</v>
+        <v>10100</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="118"/>
+      <c r="I61" s="118">
+        <v>41542</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="1"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="119"/>
+      <c r="A62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="133">
+        <v>4489.5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H62" s="2">
+        <v>41545</v>
+      </c>
+      <c r="I62" s="118">
+        <v>41542</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="126">
+        <v>5724</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="119"/>
+      <c r="I63" s="118"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="126">
+        <v>6372</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="119"/>
+      <c r="I64" s="118"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="122">
+        <v>9249.7800000000007</v>
+      </c>
+      <c r="F65" t="s">
+        <v>194</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="119"/>
+      <c r="I65" s="119">
+        <v>41557</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="122">
+        <v>610</v>
+      </c>
+      <c r="F66" t="s">
+        <v>196</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="119"/>
-    </row>
-    <row r="67" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A67" s="45" t="s">
+      <c r="I66" s="119">
+        <v>41557</v>
+      </c>
+      <c r="J66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="122">
+        <v>1420.86</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="119"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" s="122">
+        <v>790</v>
+      </c>
+      <c r="F68" t="s">
+        <v>198</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="119">
+        <v>41557</v>
+      </c>
+      <c r="J68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="122">
+        <v>1841.26</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="119"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="122">
+        <v>12076.41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="119">
+        <v>41557</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="119"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="119"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="119"/>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A74" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="127">
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>130946.37999999999</v>
-      </c>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="116">
+        <v>165695.44999999998</v>
+      </c>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="120"/>
+      <c r="J74" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="121"/>
-      <c r="J75" s="112"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="125"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="121"/>
-      <c r="J92" s="112"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="121"/>
+      <c r="J82" s="112"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A68:A75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A75:A82">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68:B75 B22:B58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75:B82 B22:B61">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A73">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="204">
   <si>
     <t>Opis</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t>6568/T/10/2013</t>
+  </si>
+  <si>
+    <t>6599/T/10/2013</t>
   </si>
 </sst>
 </file>
@@ -1670,25 +1673,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62720256"/>
-        <c:axId val="62738432"/>
+        <c:axId val="63113472"/>
+        <c:axId val="63131648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62720256"/>
+        <c:axId val="63113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62738432"/>
+        <c:crossAx val="63131648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62738432"/>
+        <c:axId val="63131648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1700,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62720256"/>
+        <c:crossAx val="63113472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,7 +1713,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2628,8 +2631,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J74" totalsRowCount="1">
-  <autoFilter ref="A1:J73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J75" totalsRowCount="1">
+  <autoFilter ref="A1:J74">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2967,11 +2970,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4655,66 +4658,66 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="126">
+        <v>2398.8000000000002</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41558</v>
+      </c>
+      <c r="H57" s="2">
+        <v>41561</v>
+      </c>
+      <c r="I57" s="119">
+        <v>41558</v>
+      </c>
+      <c r="J57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="126">
+      <c r="E58" s="126">
         <v>2413.2399999999998</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G58" s="2">
         <v>41527</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H58" s="2">
         <v>41530</v>
       </c>
-      <c r="I57" s="118">
+      <c r="I58" s="118">
         <v>41527</v>
       </c>
-      <c r="J57" s="115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="122">
-        <v>247.93</v>
-      </c>
-      <c r="F58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H58" s="2">
-        <v>41537</v>
-      </c>
-      <c r="I58" s="119">
-        <v>41534</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="J58" s="115" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4732,51 +4735,51 @@
         <v>17</v>
       </c>
       <c r="E59" s="122">
-        <v>257.38</v>
+        <v>247.93</v>
       </c>
       <c r="F59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G59" s="2">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="H59" s="2">
-        <v>41539</v>
+        <v>41537</v>
       </c>
       <c r="I59" s="119">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="J59" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="133">
-        <v>7792.51</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>178</v>
+      <c r="D60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="122">
+        <v>257.38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>176</v>
       </c>
       <c r="G60" s="2">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="H60" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I60" s="119">
         <v>41536</v>
-      </c>
-      <c r="I60" s="118">
-        <v>41541</v>
       </c>
       <c r="J60" t="s">
         <v>23</v>
@@ -4787,22 +4790,28 @@
         <v>143</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="126">
-        <v>10100</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="E61" s="133">
+        <v>7792.51</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G61" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H61" s="2">
+        <v>41536</v>
+      </c>
       <c r="I61" s="118">
-        <v>41542</v>
+        <v>41541</v>
       </c>
       <c r="J61" t="s">
         <v>23</v>
@@ -4813,26 +4822,20 @@
         <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="133">
-        <v>4489.5</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="2">
-        <v>41542</v>
-      </c>
-      <c r="H62" s="2">
-        <v>41545</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E62" s="126">
+        <v>10100</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="118">
         <v>41542</v>
       </c>
@@ -4842,24 +4845,35 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="126">
-        <v>5724</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="118"/>
+        <v>80</v>
+      </c>
+      <c r="E63" s="133">
+        <v>4489.5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H63" s="2">
+        <v>41545</v>
+      </c>
+      <c r="I63" s="118">
+        <v>41542</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
@@ -4872,10 +4886,10 @@
         <v>158</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" s="126">
-        <v>6372</v>
+        <v>5724</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
@@ -4883,32 +4897,25 @@
       <c r="I64" s="118"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="42" t="s">
-        <v>86</v>
+      <c r="B65" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="122">
-        <v>9249.7800000000007</v>
-      </c>
-      <c r="F65" t="s">
-        <v>194</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="126">
+        <v>6372</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="119">
-        <v>41557</v>
-      </c>
-      <c r="J65" t="s">
-        <v>23</v>
-      </c>
+      <c r="I65" s="118"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="42" t="s">
@@ -4921,13 +4928,13 @@
         <v>192</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E66" s="122">
-        <v>610</v>
+        <v>9249.7800000000007</v>
       </c>
       <c r="F66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -4952,11 +4959,19 @@
         <v>195</v>
       </c>
       <c r="E67" s="122">
-        <v>1420.86</v>
+        <v>610</v>
+      </c>
+      <c r="F67" t="s">
+        <v>196</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="119"/>
+      <c r="I67" s="119">
+        <v>41557</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="42" t="s">
@@ -4969,22 +4984,14 @@
         <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E68" s="122">
-        <v>790</v>
-      </c>
-      <c r="F68" t="s">
-        <v>198</v>
+        <v>1420.86</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="119">
-        <v>41557</v>
-      </c>
-      <c r="J68" t="s">
-        <v>23</v>
-      </c>
+      <c r="I68" s="119"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="42" t="s">
@@ -5000,11 +5007,19 @@
         <v>197</v>
       </c>
       <c r="E69" s="122">
-        <v>1841.26</v>
+        <v>790</v>
+      </c>
+      <c r="F69" t="s">
+        <v>198</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="119"/>
+      <c r="I69" s="119">
+        <v>41557</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="42" t="s">
@@ -5017,30 +5032,42 @@
         <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E70" s="122">
-        <v>12076.41</v>
-      </c>
-      <c r="F70" t="s">
-        <v>200</v>
+        <v>1841.26</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="119">
-        <v>41557</v>
-      </c>
-      <c r="J70" t="s">
-        <v>23</v>
-      </c>
+      <c r="I70" s="119"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="122">
+        <v>12076.41</v>
+      </c>
+      <c r="F71" t="s">
+        <v>200</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="119"/>
+      <c r="I71" s="119">
+        <v>41557</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="42"/>
@@ -5058,61 +5085,69 @@
       <c r="H73" s="2"/>
       <c r="I73" s="119"/>
     </row>
-    <row r="74" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A74" s="45" t="s">
+    <row r="74" spans="1:10">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="119"/>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A75" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="127">
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="127">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>165695.44999999998</v>
-      </c>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="120"/>
-      <c r="J74" s="116">
+        <v>168094.25</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="120"/>
+      <c r="J75" s="116">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="121"/>
-      <c r="J82" s="112"/>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="121"/>
-      <c r="J99" s="112"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="112"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="112"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A75:A82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A76:A83">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75:B82 B22:B61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B83 B22:B62">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A74">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -730,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,12 +771,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor theme="6" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
@@ -932,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -977,12 +971,16 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -993,23 +991,23 @@
     <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1025,26 +1023,21 @@
     <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1056,7 +1049,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1072,12 +1064,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1111,6 +1118,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1139,6 +1151,17 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1266,6 +1289,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1388,41 +1414,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1673,25 +1664,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63113472"/>
-        <c:axId val="63131648"/>
+        <c:axId val="62648320"/>
+        <c:axId val="63136512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63113472"/>
+        <c:axId val="62648320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63131648"/>
+        <c:crossAx val="63136512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63131648"/>
+        <c:axId val="63136512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1691,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63113472"/>
+        <c:crossAx val="62648320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1713,7 +1704,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2522,7 +2513,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2615,14 +2606,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2631,8 +2622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J75" totalsRowCount="1">
-  <autoFilter ref="A1:J74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J79" totalsRowCount="1">
+  <autoFilter ref="A1:J78">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2644,16 +2635,16 @@
     <sortCondition ref="A1:A67"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2671,10 +2662,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+    <tableColumn id="4" name="Plan suma" dataDxfId="1">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="0"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2970,11 +2961,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2983,12 +2974,12 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="122" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="120" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="117" customWidth="1"/>
-    <col min="10" max="10" width="11" style="115" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="116" customWidth="1"/>
+    <col min="10" max="10" width="11" style="114" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -2997,7 +2988,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -3009,7 +3000,7 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="120" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
@@ -3021,10 +3012,10 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="114" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3041,22 +3032,22 @@
       <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="123">
+      <c r="E2" s="121">
         <v>2252</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="118">
+      <c r="I2" s="117">
         <v>41015</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3073,22 +3064,22 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="123">
+      <c r="E3" s="121">
         <v>650</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="118">
+      <c r="I3" s="117">
         <v>41100</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="114" t="s">
         <v>84</v>
       </c>
       <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="112" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3105,22 +3096,22 @@
       <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="123">
+      <c r="E4" s="121">
         <v>2800</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="118">
+      <c r="I4" s="117">
         <v>41197</v>
       </c>
-      <c r="J4" s="115" t="s">
+      <c r="J4" s="114" t="s">
         <v>84</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="113" t="s">
+      <c r="M4" s="112" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3137,22 +3128,22 @@
       <c r="D5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="123">
+      <c r="E5" s="121">
         <v>3000</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="118">
+      <c r="I5" s="117">
         <v>41351</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="114" t="s">
         <v>84</v>
       </c>
       <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="113" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3169,19 +3160,19 @@
       <c r="D6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="121">
         <v>148</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="118">
+      <c r="I6" s="117">
         <v>41351</v>
       </c>
-      <c r="J6" s="115" t="s">
+      <c r="J6" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="114" t="s">
+      <c r="M6" s="113" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3195,22 +3186,22 @@
       <c r="C7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="121">
         <v>2142</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="118">
+      <c r="I7" s="117">
         <v>41352</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="113" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3227,19 +3218,19 @@
       <c r="D8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="122">
         <v>400</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="118">
+      <c r="I8" s="117">
         <v>41353</v>
       </c>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="114" t="s">
+      <c r="M8" s="113" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3256,19 +3247,19 @@
       <c r="D9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="124">
+      <c r="E9" s="122">
         <v>260</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="118">
+      <c r="I9" s="117">
         <v>41360</v>
       </c>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="114" t="s">
+      <c r="M9" s="113" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3285,19 +3276,19 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="124">
+      <c r="E10" s="122">
         <v>600</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="118">
+      <c r="I10" s="117">
         <v>41362</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="113" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3311,22 +3302,22 @@
       <c r="C11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="124">
+      <c r="E11" s="122">
         <v>416</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="118">
+      <c r="I11" s="117">
         <v>41367</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="113" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3340,22 +3331,22 @@
       <c r="C12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="121">
         <v>1000</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="118">
+      <c r="I12" s="117">
         <v>41372</v>
       </c>
-      <c r="J12" s="115" t="s">
+      <c r="J12" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="114" t="s">
+      <c r="M12" s="113" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3372,19 +3363,19 @@
       <c r="D13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="124">
+      <c r="E13" s="122">
         <v>1000</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="118">
+      <c r="I13" s="117">
         <v>41382</v>
       </c>
-      <c r="J13" s="115" t="s">
+      <c r="J13" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="114" t="s">
+      <c r="M13" s="113" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3398,22 +3389,22 @@
       <c r="C14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="123">
         <v>150</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="118">
+      <c r="I14" s="117">
         <v>41391</v>
       </c>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="109" t="s">
+      <c r="M14" s="108" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3427,22 +3418,22 @@
       <c r="C15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="125">
+      <c r="E15" s="123">
         <v>200</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="118">
+      <c r="I15" s="117">
         <v>41404</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="109" t="s">
+      <c r="M15" s="108" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3456,22 +3447,22 @@
       <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="112" t="s">
+      <c r="D16" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="123">
         <v>140</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="118">
+      <c r="I16" s="117">
         <v>41406</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="109" t="s">
+      <c r="M16" s="108" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3485,22 +3476,22 @@
       <c r="C17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="123">
         <v>200</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="118">
+      <c r="I17" s="117">
         <v>41428</v>
       </c>
-      <c r="J17" s="115" t="s">
+      <c r="J17" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="109" t="s">
+      <c r="M17" s="108" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3514,22 +3505,22 @@
       <c r="C18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="123">
         <v>200</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="118">
+      <c r="I18" s="117">
         <v>41484</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="108" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3546,16 +3537,16 @@
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19" s="123">
         <v>147</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="118">
+      <c r="I19" s="117">
         <v>41488</v>
       </c>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3572,16 +3563,16 @@
       <c r="D20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="126">
+      <c r="E20" s="124">
         <v>260</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="118">
+      <c r="I20" s="117">
         <v>41509</v>
       </c>
-      <c r="J20" s="115" t="s">
+      <c r="J20" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3598,16 +3589,16 @@
       <c r="D21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="126">
+      <c r="E21" s="124">
         <v>450</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="118">
+      <c r="I21" s="117">
         <v>41515</v>
       </c>
-      <c r="J21" s="115" t="s">
+      <c r="J21" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3624,16 +3615,16 @@
       <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="126">
+      <c r="E22" s="124">
         <v>400</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="118">
+      <c r="I22" s="117">
         <v>41474</v>
       </c>
-      <c r="J22" s="115" t="s">
+      <c r="J22" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3650,16 +3641,16 @@
       <c r="D23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="126">
+      <c r="E23" s="124">
         <v>650</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="118">
+      <c r="I23" s="117">
         <v>41474</v>
       </c>
-      <c r="J23" s="115" t="s">
+      <c r="J23" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3676,16 +3667,16 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="126">
+      <c r="E24" s="124">
         <v>7800</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="118">
+      <c r="I24" s="117">
         <v>41474</v>
       </c>
-      <c r="J24" s="115" t="s">
+      <c r="J24" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3702,7 +3693,7 @@
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="126">
+      <c r="E25" s="124">
         <v>1510.21</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3714,10 +3705,10 @@
       <c r="H25" s="2">
         <v>41497</v>
       </c>
-      <c r="I25" s="118">
+      <c r="I25" s="117">
         <v>41495</v>
       </c>
-      <c r="J25" s="115" t="s">
+      <c r="J25" s="114" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3734,7 +3725,7 @@
       <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="126">
+      <c r="E26" s="124">
         <v>5878.78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3746,10 +3737,10 @@
       <c r="H26" s="2">
         <v>41501</v>
       </c>
-      <c r="I26" s="118">
+      <c r="I26" s="117">
         <v>41501</v>
       </c>
-      <c r="J26" s="115" t="s">
+      <c r="J26" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3766,7 +3757,7 @@
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="126">
+      <c r="E27" s="124">
         <v>19.079999999999998</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3778,10 +3769,10 @@
       <c r="H27" s="2">
         <v>41501</v>
       </c>
-      <c r="I27" s="118">
+      <c r="I27" s="117">
         <v>41501</v>
       </c>
-      <c r="J27" s="115" t="s">
+      <c r="J27" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3798,7 +3789,7 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="126">
+      <c r="E28" s="124">
         <v>115.01</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3810,10 +3801,10 @@
       <c r="H28" s="2">
         <v>41501</v>
       </c>
-      <c r="I28" s="118">
+      <c r="I28" s="117">
         <v>41501</v>
       </c>
-      <c r="J28" s="115" t="s">
+      <c r="J28" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3830,7 +3821,7 @@
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="126">
+      <c r="E29" s="124">
         <v>8280.36</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3842,10 +3833,10 @@
       <c r="H29" s="2">
         <v>41502</v>
       </c>
-      <c r="I29" s="118">
+      <c r="I29" s="117">
         <v>41501</v>
       </c>
-      <c r="J29" s="115" t="s">
+      <c r="J29" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3862,7 +3853,7 @@
       <c r="D30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="126">
+      <c r="E30" s="124">
         <v>1657.43</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3874,10 +3865,10 @@
       <c r="H30" s="2">
         <v>41505</v>
       </c>
-      <c r="I30" s="118">
+      <c r="I30" s="117">
         <v>41502</v>
       </c>
-      <c r="J30" s="115" t="s">
+      <c r="J30" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3894,7 +3885,7 @@
       <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="126">
+      <c r="E31" s="124">
         <v>512.29999999999995</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3906,10 +3897,10 @@
       <c r="H31" s="2">
         <v>41509</v>
       </c>
-      <c r="I31" s="118">
+      <c r="I31" s="117">
         <v>41507</v>
       </c>
-      <c r="J31" s="115" t="s">
+      <c r="J31" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3926,7 +3917,7 @@
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="126">
+      <c r="E32" s="124">
         <v>10584</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3934,10 +3925,10 @@
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="118">
+      <c r="I32" s="117">
         <v>41507</v>
       </c>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3954,7 +3945,7 @@
       <c r="D33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="126">
+      <c r="E33" s="124">
         <v>7610.63</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -3966,10 +3957,10 @@
       <c r="H33" s="2">
         <v>41517</v>
       </c>
-      <c r="I33" s="118">
+      <c r="I33" s="117">
         <v>41515</v>
       </c>
-      <c r="J33" s="115" t="s">
+      <c r="J33" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3986,7 +3977,7 @@
       <c r="D34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="126">
+      <c r="E34" s="124">
         <v>992.96</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -3998,10 +3989,10 @@
       <c r="H34" s="2">
         <v>41495</v>
       </c>
-      <c r="I34" s="118">
+      <c r="I34" s="117">
         <v>41516</v>
       </c>
-      <c r="J34" s="115" t="s">
+      <c r="J34" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4018,7 +4009,7 @@
       <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="126">
+      <c r="E35" s="124">
         <v>335.18</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -4026,10 +4017,10 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="118">
+      <c r="I35" s="117">
         <v>41521</v>
       </c>
-      <c r="J35" s="115" t="s">
+      <c r="J35" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4046,7 +4037,7 @@
       <c r="D36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="126">
+      <c r="E36" s="124">
         <v>3813.05</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -4058,10 +4049,10 @@
       <c r="H36" s="2">
         <v>41519</v>
       </c>
-      <c r="I36" s="118">
+      <c r="I36" s="117">
         <v>41515</v>
       </c>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4078,7 +4069,7 @@
       <c r="D37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="126">
+      <c r="E37" s="124">
         <v>66.180000000000007</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4090,10 +4081,10 @@
       <c r="H37" s="2">
         <v>41516</v>
       </c>
-      <c r="I37" s="118">
+      <c r="I37" s="117">
         <v>41515</v>
       </c>
-      <c r="J37" s="115" t="s">
+      <c r="J37" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4110,7 +4101,7 @@
       <c r="D38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="126">
+      <c r="E38" s="124">
         <v>649.32000000000005</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -4122,10 +4113,10 @@
       <c r="H38" s="2">
         <v>41516</v>
       </c>
-      <c r="I38" s="118">
+      <c r="I38" s="117">
         <v>41515</v>
       </c>
-      <c r="J38" s="115" t="s">
+      <c r="J38" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4142,7 +4133,7 @@
       <c r="D39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="126">
+      <c r="E39" s="124">
         <v>3084.07</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -4154,10 +4145,10 @@
       <c r="H39" s="2">
         <v>41519</v>
       </c>
-      <c r="I39" s="118">
+      <c r="I39" s="117">
         <v>41516</v>
       </c>
-      <c r="J39" s="115" t="s">
+      <c r="J39" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4174,7 +4165,7 @@
       <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="126">
+      <c r="E40" s="124">
         <v>7010.82</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -4182,10 +4173,10 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="118">
+      <c r="I40" s="117">
         <v>41521</v>
       </c>
-      <c r="J40" s="115" t="s">
+      <c r="J40" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4202,7 +4193,7 @@
       <c r="D41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E41" s="126">
+      <c r="E41" s="124">
         <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -4210,10 +4201,10 @@
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="118">
+      <c r="I41" s="117">
         <v>41521</v>
       </c>
-      <c r="J41" s="115" t="s">
+      <c r="J41" s="114" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4230,7 +4221,7 @@
       <c r="D42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="126">
+      <c r="E42" s="124">
         <v>1415.36</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4242,10 +4233,10 @@
       <c r="H42" s="2">
         <v>41519</v>
       </c>
-      <c r="I42" s="118">
+      <c r="I42" s="117">
         <v>41521</v>
       </c>
-      <c r="J42" s="115" t="s">
+      <c r="J42" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4262,7 +4253,7 @@
       <c r="D43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="126">
+      <c r="E43" s="124">
         <v>4163.04</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4274,10 +4265,10 @@
       <c r="H43" s="2">
         <v>41518</v>
       </c>
-      <c r="I43" s="118">
+      <c r="I43" s="117">
         <v>41527</v>
       </c>
-      <c r="J43" s="115" t="s">
+      <c r="J43" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4294,7 +4285,7 @@
       <c r="D44" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="126">
+      <c r="E44" s="124">
         <v>1214.22</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4306,10 +4297,10 @@
       <c r="H44" s="2">
         <v>41518</v>
       </c>
-      <c r="I44" s="118">
+      <c r="I44" s="117">
         <v>41527</v>
       </c>
-      <c r="J44" s="115" t="s">
+      <c r="J44" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4326,7 +4317,7 @@
       <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="126">
+      <c r="E45" s="124">
         <v>227.55</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4338,57 +4329,58 @@
       <c r="H45" s="2">
         <v>41531</v>
       </c>
-      <c r="I45" s="118">
+      <c r="I45" s="117">
         <v>41528</v>
       </c>
-      <c r="J45" s="115" t="s">
+      <c r="J45" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E46" s="122">
+      <c r="E46" s="124">
         <v>360</v>
       </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2">
         <v>41537</v>
       </c>
-      <c r="I46" s="119">
+      <c r="I46" s="117">
         <v>41537</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E47" s="124">
         <v>2786.4</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="G47" s="2">
@@ -4397,30 +4389,30 @@
       <c r="H47" s="2">
         <v>41547</v>
       </c>
-      <c r="I47" s="119">
+      <c r="I47" s="117">
         <v>41547</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E48" s="122">
+      <c r="E48" s="124">
         <v>594.69000000000005</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>182</v>
       </c>
       <c r="G48" s="2">
@@ -4429,10 +4421,10 @@
       <c r="H48" s="2">
         <v>41550</v>
       </c>
-      <c r="I48" s="119">
+      <c r="I48" s="117">
         <v>41547</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4449,7 +4441,7 @@
       <c r="D49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="126">
+      <c r="E49" s="124">
         <v>2960</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4457,30 +4449,30 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="118">
+      <c r="I49" s="117">
         <v>41552</v>
       </c>
-      <c r="J49" s="115" t="s">
+      <c r="J49" s="114" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="122">
+      <c r="E50" s="124">
         <v>200</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G50" s="2">
@@ -4489,30 +4481,30 @@
       <c r="H50" s="2">
         <v>41549</v>
       </c>
-      <c r="I50" s="119">
+      <c r="I50" s="117">
         <v>41552</v>
       </c>
-      <c r="J50" s="115" t="s">
+      <c r="J50" s="114" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E51" s="122">
+      <c r="E51" s="124">
         <v>48.18</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G51" s="2">
@@ -4521,30 +4513,30 @@
       <c r="H51" s="2">
         <v>41548</v>
       </c>
-      <c r="I51" s="119">
+      <c r="I51" s="117">
         <v>41552</v>
       </c>
-      <c r="J51" s="115" t="s">
+      <c r="J51" s="114" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E52" s="122">
+      <c r="E52" s="124">
         <v>90</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G52" s="2">
@@ -4553,60 +4545,61 @@
       <c r="H52" s="2">
         <v>41547</v>
       </c>
-      <c r="I52" s="119">
+      <c r="I52" s="117">
         <v>41552</v>
       </c>
-      <c r="J52" s="115" t="s">
+      <c r="J52" s="114" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="122">
+      <c r="E53" s="124">
         <v>1000</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>191</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="119">
+      <c r="I53" s="117">
         <v>41555</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="114" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="122">
+      <c r="E54" s="124">
         <v>6500</v>
       </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="119"/>
+      <c r="I54" s="117"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
@@ -4621,19 +4614,19 @@
       <c r="D55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55" s="124">
         <v>2052</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="118"/>
+      <c r="I55" s="117"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4642,7 +4635,7 @@
       <c r="D56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E56" s="126">
+      <c r="E56" s="124">
         <v>1260.76</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -4650,18 +4643,18 @@
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="119">
+      <c r="I56" s="117">
         <v>41557</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4670,7 +4663,7 @@
       <c r="D57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="126">
+      <c r="E57" s="124">
         <v>2398.8000000000002</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -4682,10 +4675,10 @@
       <c r="H57" s="2">
         <v>41561</v>
       </c>
-      <c r="I57" s="119">
+      <c r="I57" s="117">
         <v>41558</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4702,7 +4695,7 @@
       <c r="D58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="126">
+      <c r="E58" s="124">
         <v>2413.2399999999998</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -4714,30 +4707,30 @@
       <c r="H58" s="2">
         <v>41530</v>
       </c>
-      <c r="I58" s="118">
+      <c r="I58" s="117">
         <v>41527</v>
       </c>
-      <c r="J58" s="115" t="s">
+      <c r="J58" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="122">
+      <c r="E59" s="124">
         <v>247.93</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>174</v>
       </c>
       <c r="G59" s="2">
@@ -4746,30 +4739,30 @@
       <c r="H59" s="2">
         <v>41537</v>
       </c>
-      <c r="I59" s="119">
+      <c r="I59" s="117">
         <v>41534</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="122">
+      <c r="E60" s="124">
         <v>257.38</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G60" s="2">
@@ -4778,10 +4771,10 @@
       <c r="H60" s="2">
         <v>41539</v>
       </c>
-      <c r="I60" s="119">
+      <c r="I60" s="117">
         <v>41536</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4798,7 +4791,7 @@
       <c r="D61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E61" s="133">
+      <c r="E61" s="124">
         <v>7792.51</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -4810,10 +4803,10 @@
       <c r="H61" s="2">
         <v>41536</v>
       </c>
-      <c r="I61" s="118">
+      <c r="I61" s="117">
         <v>41541</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4830,16 +4823,16 @@
       <c r="D62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="126">
+      <c r="E62" s="124">
         <v>10100</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="118">
+      <c r="I62" s="117">
         <v>41542</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4856,7 +4849,7 @@
       <c r="D63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="133">
+      <c r="E63" s="124">
         <v>4489.5</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -4868,10 +4861,10 @@
       <c r="H63" s="2">
         <v>41545</v>
       </c>
-      <c r="I63" s="118">
+      <c r="I63" s="117">
         <v>41542</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="114" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4888,13 +4881,13 @@
       <c r="D64" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="126">
+      <c r="E64" s="124">
         <v>5724</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="118"/>
+      <c r="I64" s="117"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
@@ -4909,245 +4902,300 @@
       <c r="D65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="126">
+      <c r="E65" s="124">
         <v>6372</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="118"/>
+      <c r="I65" s="117"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="122">
+      <c r="E66" s="124">
         <v>9249.7800000000007</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="119">
+      <c r="I66" s="117">
         <v>41557</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="122">
+      <c r="E67" s="124">
         <v>610</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>196</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="119">
+      <c r="I67" s="117">
         <v>41557</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E68" s="122">
+      <c r="E68" s="124">
         <v>1420.86</v>
       </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="119"/>
+      <c r="I68" s="117"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="122">
+      <c r="E69" s="124">
         <v>790</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>198</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="119">
+      <c r="I69" s="117">
         <v>41557</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E70" s="122">
+      <c r="E70" s="124">
         <v>1841.26</v>
       </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="119"/>
+      <c r="I70" s="117"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E71" s="122">
+      <c r="E71" s="124">
         <v>12076.41</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>200</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="119">
+      <c r="I71" s="117">
         <v>41557</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="1"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="119"/>
+      <c r="I72" s="117"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="119"/>
+      <c r="I73" s="117"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="119"/>
-    </row>
-    <row r="75" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A75" s="45" t="s">
+      <c r="I74" s="117"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="117"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="117"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="117"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="117"/>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A79" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="127">
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="125">
         <f>SUBTOTAL(109,[Kwota])</f>
         <v>168094.25</v>
       </c>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="120"/>
-      <c r="J75" s="116">
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="115">
         <f>SUBTOTAL(103,[Konto])</f>
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="125"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="112"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="125"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="121"/>
-      <c r="J100" s="112"/>
+    <row r="80" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="119"/>
+      <c r="J87" s="111"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="123"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="119"/>
+      <c r="J104" s="111"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A76:A83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A80:A87">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B83 B22:B62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B87 B22:B62">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A78">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5200,15 +5248,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="126" t="s">
         <v>164</v>
       </c>
       <c r="B4" t="s">
@@ -5231,114 +5279,114 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <v>200</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43">
         <v>8492</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>5197</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <v>2526</v>
       </c>
-      <c r="G5" s="130">
+      <c r="G5" s="128">
         <v>16415</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <v>34711.939999999995</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>10584</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <v>1050</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="130">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="128">
         <v>46345.939999999995</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>15046.789999999999</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>12140.82</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="130">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="128">
         <v>27187.61</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <v>15200.56</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>10100</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="130">
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="128">
         <v>25300.559999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43">
         <v>12096</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="130">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="128">
         <v>12096</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="43">
         <v>65159.289999999994</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="43">
         <v>44920.82</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <v>9542</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>5197</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <v>2526</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="129">
         <v>127345.10999999999</v>
       </c>
     </row>
@@ -5368,9 +5416,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -5405,7 +5453,7 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="43">
         <v>0</v>
       </c>
       <c r="E3">
@@ -5422,11 +5470,11 @@
       <c r="C4">
         <v>46700</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D3</f>
         <v>37600</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>9100</v>
       </c>
@@ -5444,11 +5492,11 @@
       <c r="B5">
         <v>37800</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D4</f>
         <v>75400</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="2">
         <v>41544</v>
       </c>
@@ -5463,11 +5511,11 @@
       <c r="C6" s="3">
         <v>25300</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D5</f>
         <v>118600</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-17900</v>
       </c>
@@ -5485,11 +5533,11 @@
       <c r="B7">
         <v>47500</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D6</f>
         <v>166100</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-47500</v>
       </c>
@@ -5504,15 +5552,15 @@
       <c r="B8">
         <v>32000</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D7</f>
         <v>198100</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-32000</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
@@ -5521,15 +5569,15 @@
       <c r="B9">
         <v>21600</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D8</f>
         <v>219700</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-21600</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
@@ -5538,11 +5586,11 @@
       <c r="B10">
         <v>9700</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D9</f>
         <v>229400</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-9700</v>
       </c>
@@ -5554,11 +5602,11 @@
       <c r="B11">
         <v>45700</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D10</f>
         <v>275100</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-45700</v>
       </c>
@@ -5570,11 +5618,11 @@
       <c r="B12">
         <v>16200</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D11</f>
         <v>291300</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-16200</v>
       </c>
@@ -5586,11 +5634,11 @@
       <c r="B13">
         <v>22200</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D12</f>
         <v>313500</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-22200</v>
       </c>
@@ -5602,11 +5650,11 @@
       <c r="B14">
         <v>39900</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D13</f>
         <v>353400</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-39900</v>
       </c>
@@ -5618,11 +5666,11 @@
       <c r="B15">
         <v>6500</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D14</f>
         <v>359900</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-6500</v>
       </c>
@@ -5634,11 +5682,11 @@
       <c r="B16">
         <v>31300</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D15</f>
         <v>391200</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-31300</v>
       </c>
@@ -5650,11 +5698,11 @@
       <c r="B17">
         <v>20000</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D16</f>
         <v>411200</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-20000</v>
       </c>
@@ -5666,11 +5714,11 @@
       <c r="B18">
         <v>31600</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+D17</f>
         <v>442800</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-31600</v>
       </c>
@@ -5679,11 +5727,11 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="132">
+      <c r="D19" s="130">
         <f>Tabela5[[#This Row],[Planowane]]+D18</f>
         <v>442800</v>
       </c>
-      <c r="E19" s="132"/>
+      <c r="E19" s="130"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -5753,10 +5801,10 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="93">
+      <c r="K2" s="92">
         <v>37600</v>
       </c>
     </row>
@@ -5784,10 +5832,10 @@
         <f>F3-2100</f>
         <v>5900</v>
       </c>
-      <c r="J3" s="94" t="s">
+      <c r="J3" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="94">
+      <c r="K3" s="93">
         <v>37800</v>
       </c>
     </row>
@@ -5812,10 +5860,10 @@
         <v>3200</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="94">
         <v>43200</v>
       </c>
     </row>
@@ -5840,10 +5888,10 @@
         <v>17800</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="95">
         <v>47500</v>
       </c>
     </row>
@@ -5864,10 +5912,10 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="97">
+      <c r="K6" s="96">
         <v>32000</v>
       </c>
     </row>
@@ -5892,10 +5940,10 @@
         <v>8600</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="98">
+      <c r="K7" s="97">
         <v>21600</v>
       </c>
     </row>
@@ -5921,64 +5969,64 @@
         <v>12400</v>
       </c>
       <c r="G8" s="35"/>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="98">
         <v>9700</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="51">
         <v>43200</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <f t="shared" si="0"/>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <f t="shared" ref="E9:E33" si="1">C9-F9</f>
         <v>43200</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="J9" s="100" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="J9" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="99">
         <v>45700</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="73">
+      <c r="A10" s="72">
         <v>9</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="73">
         <v>9700</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="74">
         <f t="shared" si="0"/>
         <v>2.1906052393857272E-2</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="75">
         <f t="shared" si="1"/>
         <v>9700</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-      <c r="J10" s="101" t="s">
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="J10" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="100">
         <v>16200</v>
       </c>
     </row>
@@ -6002,10 +6050,10 @@
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="102">
+      <c r="K11" s="101">
         <v>22200</v>
       </c>
     </row>
@@ -6029,37 +6077,37 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="40"/>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="103">
+      <c r="K12" s="102">
         <v>39900</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="56">
         <v>32000</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <f t="shared" si="0"/>
         <v>7.2267389340560068E-2</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="58">
         <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="J13" s="104" t="s">
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="J13" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="107">
+      <c r="K13" s="106">
         <v>6500</v>
       </c>
     </row>
@@ -6083,133 +6131,133 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
-      <c r="J14" s="105" t="s">
+      <c r="J14" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="60">
         <v>31300</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="83">
+      <c r="A15" s="82">
         <v>14</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="83">
         <v>6500</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="84">
         <f t="shared" si="0"/>
         <v>1.4679313459801264E-2</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="85">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="J15" s="106" t="s">
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="J15" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="106">
+      <c r="K15" s="105">
         <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="78">
+      <c r="A16" s="77">
         <v>15</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="78">
         <v>18900</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="79">
         <f t="shared" si="0"/>
         <v>4.2682926829268296E-2</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="80">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="J16" s="106" t="s">
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="J16" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="106">
+      <c r="K16" s="105">
         <v>31600</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="78">
+      <c r="A17" s="77">
         <v>16</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="78">
         <v>3300</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="79">
         <f t="shared" si="0"/>
         <v>7.4525745257452572E-3</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="80">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="K17">
         <f>SUM(K2:K16)</f>
         <v>442800</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="62">
+      <c r="A18" s="61">
         <v>17</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="65">
         <v>12000</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <f t="shared" si="0"/>
         <v>2.7100271002710029E-2</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="62">
+      <c r="A19" s="61">
         <v>18</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="65">
         <v>27900</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <f t="shared" si="0"/>
         <v>6.3008130081300809E-2</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="63">
         <f t="shared" si="1"/>
         <v>27900</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
@@ -6233,25 +6281,25 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="88">
+      <c r="A21" s="87">
         <v>20</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="89">
+      <c r="C21" s="88">
         <v>16200</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="89">
         <f t="shared" si="0"/>
         <v>3.6585365853658534E-2</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="90">
         <f t="shared" si="1"/>
         <v>16200</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="21">
@@ -6296,128 +6344,128 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <v>23</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69">
+      <c r="C24" s="67"/>
+      <c r="D24" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="71">
         <v>2700</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="68">
         <f t="shared" si="0"/>
         <v>6.0975609756097563E-3</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="69">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="71">
         <v>6700</v>
       </c>
-      <c r="D26" s="69">
+      <c r="D26" s="68">
         <f t="shared" si="0"/>
         <v>1.5130984643179765E-2</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="69">
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="71">
         <v>2200</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="68">
         <f t="shared" si="0"/>
         <v>4.9683830171635048E-3</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="69">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="71">
         <v>15700</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="68">
         <f t="shared" si="0"/>
         <v>3.5456187895212286E-2</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="69">
         <f t="shared" si="1"/>
         <v>15700</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="71">
         <v>18400</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="68">
         <f t="shared" si="0"/>
         <v>4.1553748870822041E-2</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="69">
         <f t="shared" si="1"/>
         <v>18400</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
@@ -6483,25 +6531,25 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="46">
+      <c r="A33" s="45">
         <v>27</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="46">
         <v>51600</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="47">
         <f t="shared" si="0"/>
         <v>0.11653116531165311</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="48">
         <f t="shared" si="1"/>
         <v>51600</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,13 +18,121 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="F36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Część faktury - druga część tej samej faktury w sekcji Ściany działowe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Druga czesc faktury na 216,87 w sekcji Okna
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Część faktury - druga część tej samej faktury w sekcji Fundamenty. Faktura razem na 7090,84</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Druga czesc faktury na 216,87 w sekcji Fundamenty
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="213">
   <si>
     <t>Opis</t>
   </si>
@@ -636,6 +744,33 @@
   </si>
   <si>
     <t>6599/T/10/2013</t>
+  </si>
+  <si>
+    <t>Drenaż</t>
+  </si>
+  <si>
+    <t>6922/T/10/2013</t>
+  </si>
+  <si>
+    <t>Styropian, gwoździe</t>
+  </si>
+  <si>
+    <t>6923/T/10/2013</t>
+  </si>
+  <si>
+    <t>2. Fundamenty</t>
+  </si>
+  <si>
+    <t>Drenaż - rura</t>
+  </si>
+  <si>
+    <t>Drenaż - folia</t>
+  </si>
+  <si>
+    <t>6931/T/10/2013</t>
+  </si>
+  <si>
+    <t>Żwir</t>
   </si>
 </sst>
 </file>
@@ -645,7 +780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +863,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1070,22 +1218,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1118,11 +1250,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1151,17 +1278,6 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color rgb="FFC00000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1289,9 +1405,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1415,6 +1528,41 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1446,6 +1594,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1664,25 +1813,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62648320"/>
-        <c:axId val="63136512"/>
+        <c:axId val="62501248"/>
+        <c:axId val="62502784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62648320"/>
+        <c:axId val="62501248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63136512"/>
+        <c:crossAx val="62502784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63136512"/>
+        <c:axId val="62502784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,20 +1840,21 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62648320"/>
+        <c:crossAx val="62501248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2513,7 +2663,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2606,14 +2756,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2622,8 +2772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J79" totalsRowCount="1">
-  <autoFilter ref="A1:J78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J87" totalsRowCount="1">
+  <autoFilter ref="A1:J86">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2635,16 +2785,16 @@
     <sortCondition ref="A1:A67"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="16"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="15"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="13"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="9"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2662,10 +2812,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="1">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="0"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -2961,11 +3111,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4026,7 +4176,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>86</v>
@@ -4035,30 +4185,30 @@
         <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="E36" s="124">
-        <v>3813.05</v>
+        <v>1764.84</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="G36" s="2">
-        <v>41512</v>
+        <v>41570</v>
       </c>
       <c r="H36" s="2">
-        <v>41519</v>
+        <v>41573</v>
       </c>
       <c r="I36" s="117">
-        <v>41515</v>
-      </c>
-      <c r="J36" s="114" t="s">
+        <v>41570</v>
+      </c>
+      <c r="J36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
@@ -4067,145 +4217,112 @@
         <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="E37" s="124">
-        <v>66.180000000000007</v>
+        <v>241.71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="G37" s="2">
-        <v>41513</v>
+        <v>41570</v>
       </c>
       <c r="H37" s="2">
-        <v>41516</v>
+        <v>41573</v>
       </c>
       <c r="I37" s="117">
-        <v>41515</v>
-      </c>
-      <c r="J37" s="114" t="s">
+        <v>41570</v>
+      </c>
+      <c r="J37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="E38" s="124">
-        <v>649.32000000000005</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H38" s="2">
-        <v>41516</v>
-      </c>
-      <c r="I38" s="117">
-        <v>41515</v>
-      </c>
-      <c r="J38" s="114" t="s">
-        <v>23</v>
-      </c>
+        <v>3800</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="117"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="124">
-        <v>3084.07</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H39" s="2">
-        <v>41519</v>
-      </c>
-      <c r="I39" s="117">
-        <v>41516</v>
-      </c>
-      <c r="J39" s="114" t="s">
-        <v>23</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E39" s="124"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="117"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="124">
-        <v>7010.82</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E40" s="124"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="117">
-        <v>41521</v>
-      </c>
-      <c r="J40" s="114" t="s">
-        <v>84</v>
-      </c>
+      <c r="I40" s="117"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="E41" s="124">
-        <v>54</v>
+        <v>69.88</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="G41" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H41" s="2">
+        <v>41573</v>
+      </c>
       <c r="I41" s="117">
-        <v>41521</v>
-      </c>
-      <c r="J41" s="114" t="s">
-        <v>84</v>
+        <v>41570</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4219,22 +4336,22 @@
         <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="E42" s="124">
-        <v>1415.36</v>
+        <v>3813.05</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G42" s="2">
-        <v>41516</v>
+        <v>41512</v>
       </c>
       <c r="H42" s="2">
         <v>41519</v>
       </c>
       <c r="I42" s="117">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J42" s="114" t="s">
         <v>23</v>
@@ -4251,22 +4368,22 @@
         <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E43" s="124">
-        <v>4163.04</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="G43" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H43" s="2">
+        <v>41516</v>
+      </c>
+      <c r="I43" s="117">
         <v>41515</v>
-      </c>
-      <c r="H43" s="2">
-        <v>41518</v>
-      </c>
-      <c r="I43" s="117">
-        <v>41527</v>
       </c>
       <c r="J43" s="114" t="s">
         <v>23</v>
@@ -4283,22 +4400,22 @@
         <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E44" s="124">
-        <v>1214.22</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="G44" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H44" s="2">
+        <v>41516</v>
+      </c>
+      <c r="I44" s="117">
         <v>41515</v>
-      </c>
-      <c r="H44" s="2">
-        <v>41518</v>
-      </c>
-      <c r="I44" s="117">
-        <v>41527</v>
       </c>
       <c r="J44" s="114" t="s">
         <v>23</v>
@@ -4315,22 +4432,22 @@
         <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E45" s="124">
-        <v>227.55</v>
+        <v>3084.07</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="G45" s="2">
-        <v>41528</v>
+        <v>41516</v>
       </c>
       <c r="H45" s="2">
-        <v>41531</v>
+        <v>41519</v>
       </c>
       <c r="I45" s="117">
-        <v>41528</v>
+        <v>41516</v>
       </c>
       <c r="J45" s="114" t="s">
         <v>23</v>
@@ -4341,27 +4458,27 @@
         <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="E46" s="124">
-        <v>360</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>7010.82</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2">
-        <v>41537</v>
-      </c>
+      <c r="H46" s="2"/>
       <c r="I46" s="117">
-        <v>41537</v>
+        <v>41521</v>
       </c>
       <c r="J46" s="114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4372,28 +4489,24 @@
         <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E47" s="124">
-        <v>2786.4</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" s="2">
-        <v>41544</v>
-      </c>
-      <c r="H47" s="2">
-        <v>41547</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="117">
-        <v>41547</v>
+        <v>41521</v>
       </c>
       <c r="J47" s="114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4407,22 +4520,22 @@
         <v>89</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E48" s="124">
-        <v>594.69000000000005</v>
+        <v>1415.36</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="G48" s="2">
-        <v>41547</v>
+        <v>41516</v>
       </c>
       <c r="H48" s="2">
-        <v>41550</v>
+        <v>41519</v>
       </c>
       <c r="I48" s="117">
-        <v>41547</v>
+        <v>41521</v>
       </c>
       <c r="J48" s="114" t="s">
         <v>23</v>
@@ -4433,27 +4546,31 @@
         <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E49" s="124">
-        <v>2960</v>
+        <v>4163.04</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H49" s="2">
+        <v>41518</v>
+      </c>
       <c r="I49" s="117">
-        <v>41552</v>
+        <v>41527</v>
       </c>
       <c r="J49" s="114" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4464,28 +4581,28 @@
         <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E50" s="124">
-        <v>200</v>
+        <v>1214.22</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G50" s="2">
-        <v>41549</v>
+        <v>41515</v>
       </c>
       <c r="H50" s="2">
-        <v>41549</v>
+        <v>41518</v>
       </c>
       <c r="I50" s="117">
-        <v>41552</v>
+        <v>41527</v>
       </c>
       <c r="J50" s="114" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -4496,28 +4613,28 @@
         <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="E51" s="124">
-        <v>48.18</v>
+        <v>227.55</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G51" s="2">
-        <v>41548</v>
+        <v>41528</v>
       </c>
       <c r="H51" s="2">
-        <v>41548</v>
+        <v>41531</v>
       </c>
       <c r="I51" s="117">
-        <v>41552</v>
+        <v>41528</v>
       </c>
       <c r="J51" s="114" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4531,25 +4648,21 @@
         <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E52" s="124">
-        <v>90</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="2">
-        <v>41547</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="I52" s="117">
-        <v>41552</v>
+        <v>41537</v>
       </c>
       <c r="J52" s="114" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4560,24 +4673,28 @@
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E53" s="124">
-        <v>1000</v>
+        <v>2786.4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="G53" s="2">
+        <v>41544</v>
+      </c>
+      <c r="H53" s="2">
+        <v>41547</v>
+      </c>
       <c r="I53" s="117">
-        <v>41555</v>
+        <v>41547</v>
       </c>
       <c r="J53" s="114" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4588,18 +4705,29 @@
         <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="E54" s="124">
-        <v>6500</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="117"/>
+        <v>594.69000000000005</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H54" s="2">
+        <v>41550</v>
+      </c>
+      <c r="I54" s="117">
+        <v>41547</v>
+      </c>
+      <c r="J54" s="114" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
@@ -4612,15 +4740,22 @@
         <v>158</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="124">
-        <v>2052</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>2960</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="117"/>
+      <c r="I55" s="117">
+        <v>41552</v>
+      </c>
+      <c r="J55" s="114" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
@@ -4630,24 +4765,28 @@
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E56" s="124">
-        <v>1260.76</v>
+        <v>200</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41549</v>
+      </c>
+      <c r="H56" s="2">
+        <v>41549</v>
+      </c>
       <c r="I56" s="117">
-        <v>41557</v>
+        <v>41552</v>
       </c>
       <c r="J56" s="114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4658,179 +4797,160 @@
         <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="E57" s="124">
-        <v>2398.8000000000002</v>
+        <v>48.18</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G57" s="2">
-        <v>41558</v>
+        <v>41548</v>
       </c>
       <c r="H57" s="2">
-        <v>41561</v>
+        <v>41548</v>
       </c>
       <c r="I57" s="117">
-        <v>41558</v>
+        <v>41552</v>
       </c>
       <c r="J57" s="114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="E58" s="124">
-        <v>2413.2399999999998</v>
+        <v>90</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G58" s="2">
-        <v>41527</v>
+        <v>41547</v>
       </c>
       <c r="H58" s="2">
-        <v>41530</v>
+        <v>41547</v>
       </c>
       <c r="I58" s="117">
-        <v>41527</v>
+        <v>41552</v>
       </c>
       <c r="J58" s="114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="E59" s="124">
-        <v>247.93</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H59" s="2">
-        <v>41537</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="117">
-        <v>41534</v>
+        <v>41555</v>
       </c>
       <c r="J59" s="114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E60" s="124">
-        <v>257.38</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G60" s="2">
-        <v>41536</v>
-      </c>
-      <c r="H60" s="2">
-        <v>41539</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="117">
-        <v>41536</v>
+        <v>41565</v>
       </c>
       <c r="J60" s="114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="E61" s="124">
-        <v>7792.51</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="2">
-        <v>41533</v>
-      </c>
-      <c r="H61" s="2">
-        <v>41536</v>
-      </c>
-      <c r="I61" s="117">
-        <v>41541</v>
-      </c>
-      <c r="J61" s="114" t="s">
-        <v>23</v>
-      </c>
+        <v>2052</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="117"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="E62" s="124">
-        <v>10100</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>1260.76</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="117">
-        <v>41542</v>
+        <v>41557</v>
       </c>
       <c r="J62" s="114" t="s">
         <v>23</v>
@@ -4838,7 +4958,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>86</v>
@@ -4847,43 +4967,33 @@
         <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E63" s="124">
-        <v>4489.5</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G63" s="2">
-        <v>41542</v>
+        <v>41558</v>
       </c>
       <c r="H63" s="2">
-        <v>41545</v>
+        <v>41561</v>
       </c>
       <c r="I63" s="117">
-        <v>41542</v>
+        <v>41558</v>
       </c>
       <c r="J63" s="114" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="124">
-        <v>5724</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="124"/>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -4891,48 +5001,63 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E65" s="124">
-        <v>6372</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="117"/>
+        <v>2413.2399999999998</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="2">
+        <v>41527</v>
+      </c>
+      <c r="H65" s="2">
+        <v>41530</v>
+      </c>
+      <c r="I65" s="117">
+        <v>41527</v>
+      </c>
+      <c r="J65" s="114" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="E66" s="124">
-        <v>9249.7800000000007</v>
+        <v>247.93</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="G66" s="2">
+        <v>41534</v>
+      </c>
+      <c r="H66" s="2">
+        <v>41537</v>
+      </c>
       <c r="I66" s="117">
-        <v>41557</v>
+        <v>41534</v>
       </c>
       <c r="J66" s="114" t="s">
         <v>23</v>
@@ -4940,27 +5065,31 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="E67" s="124">
-        <v>610</v>
+        <v>257.38</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="G67" s="2">
+        <v>41536</v>
+      </c>
+      <c r="H67" s="2">
+        <v>41539</v>
+      </c>
       <c r="I67" s="117">
-        <v>41557</v>
+        <v>41536</v>
       </c>
       <c r="J67" s="114" t="s">
         <v>23</v>
@@ -4968,48 +5097,57 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E68" s="124">
-        <v>1420.86</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="117"/>
+        <v>7792.51</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H68" s="2">
+        <v>41536</v>
+      </c>
+      <c r="I68" s="117">
+        <v>41541</v>
+      </c>
+      <c r="J68" s="114" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="E69" s="124">
-        <v>790</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="117">
-        <v>41557</v>
+        <v>41542</v>
       </c>
       <c r="J69" s="114" t="s">
         <v>23</v>
@@ -5017,192 +5155,433 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E70" s="124">
-        <v>1841.26</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="117"/>
+        <v>4489.5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H70" s="2">
+        <v>41545</v>
+      </c>
+      <c r="I70" s="117">
+        <v>41542</v>
+      </c>
+      <c r="J70" s="114" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="E71" s="124">
-        <v>12076.41</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>5724</v>
+      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="117">
-        <v>41557</v>
-      </c>
-      <c r="J71" s="114" t="s">
-        <v>23</v>
-      </c>
+      <c r="I71" s="117"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="124"/>
+      <c r="A72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="124">
+        <v>6372</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="117"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="124">
+        <v>9249.7800000000007</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="117"/>
+      <c r="I73" s="117">
+        <v>41557</v>
+      </c>
+      <c r="J73" s="114" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="124">
+        <v>610</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="117"/>
+      <c r="I74" s="117">
+        <v>41557</v>
+      </c>
+      <c r="J74" s="114" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="124"/>
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="124">
+        <v>1420.86</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="117"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" s="124">
+        <v>790</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="117"/>
+      <c r="I76" s="117">
+        <v>41557</v>
+      </c>
+      <c r="J76" s="114" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="124"/>
+      <c r="A77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="124">
+        <v>1841.26</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="117"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="124">
+        <v>12076.41</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="117"/>
-    </row>
-    <row r="79" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A79" s="44" t="s">
+      <c r="I78" s="117">
+        <v>41557</v>
+      </c>
+      <c r="J78" s="114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="124">
+        <v>5326</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H79" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I79" s="117">
+        <v>41570</v>
+      </c>
+      <c r="J79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="124"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="117"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="124">
+        <v>146.99</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H81" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I81" s="117">
+        <v>41570</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="117"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="117"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="117"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="117"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="117"/>
+    </row>
+    <row r="87" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A87" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="125">
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="125">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>168094.25</v>
-      </c>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="115">
+        <v>179443.66999999998</v>
+      </c>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="118"/>
+      <c r="J87" s="115">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="119"/>
-      <c r="J87" s="111"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="123"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="119"/>
-      <c r="J104" s="111"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="123"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="119"/>
+      <c r="J95" s="111"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="123"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="119"/>
+      <c r="J112" s="111"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A80:A87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A88:A95">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B87 B22:B62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88:B95 B22:B69 B80">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A86">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="0">
+    <comment ref="F83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="223">
   <si>
     <t>Opis</t>
   </si>
@@ -770,7 +770,37 @@
     <t>6931/T/10/2013</t>
   </si>
   <si>
-    <t>Żwir</t>
+    <t>drenaz nowak</t>
+  </si>
+  <si>
+    <t>drenaz piach</t>
+  </si>
+  <si>
+    <t>drenaz kamyki</t>
+  </si>
+  <si>
+    <t>sbb -reszta</t>
+  </si>
+  <si>
+    <t>zwrot manex</t>
+  </si>
+  <si>
+    <t>Zaprawa</t>
+  </si>
+  <si>
+    <t>6940/T/10/2013</t>
+  </si>
+  <si>
+    <t>Zelastwo</t>
+  </si>
+  <si>
+    <t>6945/T/10/2013</t>
+  </si>
+  <si>
+    <t>Bystrzycka</t>
+  </si>
+  <si>
+    <t>Drenaż - Żwir</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1624,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1813,25 +1842,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62501248"/>
-        <c:axId val="62502784"/>
+        <c:axId val="63097088"/>
+        <c:axId val="63963136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62501248"/>
+        <c:axId val="63097088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62502784"/>
+        <c:crossAx val="63963136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62502784"/>
+        <c:axId val="63963136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,21 +1869,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62501248"/>
+        <c:crossAx val="63097088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2772,8 +2800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J87" totalsRowCount="1">
-  <autoFilter ref="A1:J86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J89" totalsRowCount="1">
+  <autoFilter ref="A1:J88">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -3111,11 +3139,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4283,15 +4311,24 @@
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E40" s="124"/>
+        <v>222</v>
+      </c>
+      <c r="E40" s="124">
+        <v>700</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="117"/>
+      <c r="I40" s="117">
+        <v>41571</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
@@ -5418,23 +5455,36 @@
         <v>148</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" s="124"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="117"/>
+        <v>217</v>
+      </c>
+      <c r="E80" s="124">
+        <v>93.52</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G80" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H80" s="2">
+        <v>41574</v>
+      </c>
+      <c r="I80" s="117">
+        <v>41571</v>
+      </c>
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -5443,32 +5493,40 @@
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E81" s="124">
-        <v>146.99</v>
+        <v>290.98</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G81" s="2">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="H81" s="2">
-        <v>41573</v>
+        <v>41574</v>
       </c>
       <c r="I81" s="117">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="J81" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E82" s="124"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
@@ -5476,15 +5534,36 @@
       <c r="I82" s="117"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="117"/>
+      <c r="A83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" s="124">
+        <v>146.99</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G83" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H83" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I83" s="117">
+        <v>41570</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1"/>
@@ -5519,61 +5598,125 @@
       <c r="H86" s="2"/>
       <c r="I86" s="117"/>
     </row>
-    <row r="87" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A87" s="44" t="s">
+    <row r="87" spans="1:10">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="117"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="117"/>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A89" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="125">
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="125">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>179443.66999999998</v>
-      </c>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="115">
+        <v>180528.16999999998</v>
+      </c>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="118"/>
+      <c r="J89" s="115">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" thickTop="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="94" spans="1:10">
+      <c r="C94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94">
+        <v>3800</v>
+      </c>
+    </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="123"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="119"/>
-      <c r="J95" s="111"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="119"/>
-      <c r="J112" s="111"/>
+      <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3300</v>
+      </c>
+      <c r="E97" s="123"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="119"/>
+      <c r="J97" s="111"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="C98" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="110">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="D100">
+        <f>SUM(D94:D98)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="123"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="119"/>
+      <c r="J114" s="111"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A88:A95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A90:A97">
       <formula1>$M$4:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88:B95 B22:B69 B80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90:B97 B22:B69 B82">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A88">
       <formula1>$M$3:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -13,12 +13,12 @@
     <sheet name="Harmonogram DB " sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wydatki budowa'!$M$2:$M$9</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'Wydatki budowa'!$M$2:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wydatki budowa'!$M$2:$M$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'Wydatki budowa'!$M$2:$M$7</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -78,6 +78,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="F59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Trzecia czesc faktury na 216,87
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F79" authorId="0">
       <text>
         <r>
@@ -132,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="223">
   <si>
     <t>Opis</t>
   </si>
@@ -560,36 +585,9 @@
     <t>1. Fundamenty</t>
   </si>
   <si>
-    <t>2. Ściany nadziemia</t>
-  </si>
-  <si>
-    <t>3. Stropy, schody</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marek  </t>
   </si>
   <si>
-    <t>4. Dach</t>
-  </si>
-  <si>
-    <t>5. Ocieplenie</t>
-  </si>
-  <si>
-    <t>6. Okna i drzwi zewn</t>
-  </si>
-  <si>
-    <t>7. Ścianki działowe</t>
-  </si>
-  <si>
-    <t>8. Instalacje wew</t>
-  </si>
-  <si>
-    <t>9. Biały montaż</t>
-  </si>
-  <si>
-    <t>10. Tynki wewn, malowanie</t>
-  </si>
-  <si>
     <t>Wpis BZ, wypis KW</t>
   </si>
   <si>
@@ -704,9 +702,6 @@
     <t>Tartak</t>
   </si>
   <si>
-    <t>Drewno na więźbę-zaliczka</t>
-  </si>
-  <si>
     <t>dowód wpłaty</t>
   </si>
   <si>
@@ -752,15 +747,9 @@
     <t>6922/T/10/2013</t>
   </si>
   <si>
-    <t>Styropian, gwoździe</t>
-  </si>
-  <si>
     <t>6923/T/10/2013</t>
   </si>
   <si>
-    <t>2. Fundamenty</t>
-  </si>
-  <si>
     <t>Drenaż - rura</t>
   </si>
   <si>
@@ -770,30 +759,12 @@
     <t>6931/T/10/2013</t>
   </si>
   <si>
-    <t>drenaz nowak</t>
-  </si>
-  <si>
-    <t>drenaz piach</t>
-  </si>
-  <si>
-    <t>drenaz kamyki</t>
-  </si>
-  <si>
-    <t>sbb -reszta</t>
-  </si>
-  <si>
-    <t>zwrot manex</t>
-  </si>
-  <si>
     <t>Zaprawa</t>
   </si>
   <si>
     <t>6940/T/10/2013</t>
   </si>
   <si>
-    <t>Zelastwo</t>
-  </si>
-  <si>
     <t>6945/T/10/2013</t>
   </si>
   <si>
@@ -801,6 +772,60 @@
   </si>
   <si>
     <t>Drenaż - Żwir</t>
+  </si>
+  <si>
+    <t>2. Drenaż</t>
+  </si>
+  <si>
+    <t>3. Ściany nadziemia</t>
+  </si>
+  <si>
+    <t>4. Stropy, schody</t>
+  </si>
+  <si>
+    <t>5. Dach</t>
+  </si>
+  <si>
+    <t>6. Ocieplenie</t>
+  </si>
+  <si>
+    <t>7. Okna i drzwi zewn</t>
+  </si>
+  <si>
+    <t>8. Ścianki działowe</t>
+  </si>
+  <si>
+    <t>9. Instalacje wew</t>
+  </si>
+  <si>
+    <t>10. Biały montaż</t>
+  </si>
+  <si>
+    <t>11. Tynki wewn, malowanie</t>
+  </si>
+  <si>
+    <t>12. Podłogi, podłoża, posadzki</t>
+  </si>
+  <si>
+    <t>13. Drzwi wewn</t>
+  </si>
+  <si>
+    <t>14. Elewacja</t>
+  </si>
+  <si>
+    <t>15.Wentylacja mechaniczna</t>
+  </si>
+  <si>
+    <t>16. Zabudowa</t>
+  </si>
+  <si>
+    <t>Żelastwo</t>
+  </si>
+  <si>
+    <t>Więźba - zaliczka</t>
+  </si>
+  <si>
+    <t>Gwoździe</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1217,7 +1242,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1246,7 +1270,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -1559,6 +1583,36 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1624,6 +1678,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1634,7 +1689,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Etapy budowy'!$D$2</c:f>
+              <c:f>'Etapy budowy'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1651,9 +1706,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Etapy budowy'!$A$3:$A$19</c:f>
+              <c:f>'Etapy budowy'!$B$3:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>Zero</c:v>
                 </c:pt>
@@ -1661,45 +1716,48 @@
                   <c:v>Fundamenty</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Drenaż</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Ściany nadziemia</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Stropy, schody</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Dach</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Ocieplenie</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Okna i drzwi zewn</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Ścianki działowe</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Instalacje wew</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Biały montaż</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Tynki wewn, malowanie</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Podłogi, podłoża, posadzki</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Drzwi wewn</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Elewacja</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Wentylacja mechaniczna</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Zabudowa</c:v>
                 </c:pt>
               </c:strCache>
@@ -1707,10 +1765,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Etapy budowy'!$D$3:$D$19</c:f>
+              <c:f>'Etapy budowy'!$E$3:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1718,49 +1776,52 @@
                   <c:v>37600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75400</c:v>
+                  <c:v>47600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118600</c:v>
+                  <c:v>85400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166100</c:v>
+                  <c:v>128600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198100</c:v>
+                  <c:v>176100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219700</c:v>
+                  <c:v>208100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>229400</c:v>
+                  <c:v>229700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>275100</c:v>
+                  <c:v>239400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>291300</c:v>
+                  <c:v>285100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>313500</c:v>
+                  <c:v>301300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>353400</c:v>
+                  <c:v>323500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>359900</c:v>
+                  <c:v>363400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>391200</c:v>
+                  <c:v>369900</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>411200</c:v>
+                  <c:v>401200</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>442800</c:v>
+                  <c:v>421200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>442800</c:v>
+                  <c:v>452800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>452800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,7 +1832,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Etapy budowy'!$E$2</c:f>
+              <c:f>'Etapy budowy'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1788,53 +1849,53 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Etapy budowy'!$E$3:$E$19</c:f>
+              <c:f>'Etapy budowy'!$F$3:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-17900</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-47500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-21600</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-9700</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-45700</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-16200</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>-22200</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-39900</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>-6500</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-31300</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>-20000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>-31600</c:v>
                 </c:pt>
               </c:numCache>
@@ -1842,25 +1903,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63097088"/>
-        <c:axId val="63963136"/>
+        <c:axId val="74868224"/>
+        <c:axId val="74869760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63097088"/>
+        <c:axId val="74868224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63963136"/>
+        <c:crossAx val="74869760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63963136"/>
+        <c:axId val="74869760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,20 +1930,21 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63097088"/>
+        <c:crossAx val="74868224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1892,15 +1954,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1924,19 +1986,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41543.818344328705" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41574.521288773147" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="86">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Etap" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="12">
         <s v="0. Przed budową"/>
         <s v="1. Fundamenty"/>
-        <s v="2. Ściany nadziemia"/>
-        <s v="3. Stropy, schody"/>
-        <s v="4. Dach"/>
+        <s v="2. Drenaż"/>
+        <s v="3. Ściany nadziemia"/>
+        <s v="5. Dach"/>
+        <s v="4. Stropy, schody"/>
+        <s v="8. Ścianki działowe"/>
+        <s v="7. Okna i drzwi zewn"/>
         <m/>
+        <s v="2. Ściany nadziemia" u="1"/>
+        <s v="3. Stropy, schody" u="1"/>
+        <s v="4. Dach" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Typ" numFmtId="0">
@@ -1956,19 +2024,19 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Kwota" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="19.079999999999998" maxValue="10584"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="19.079999999999998" maxValue="12076.41"/>
     </cacheField>
     <cacheField name="Faktura numer" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-09-20T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-10-25T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-09-23T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-10-28T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-09-26T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-10-25T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1978,7 +2046,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="59">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="86">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2198,6 +2266,18 @@
   <r>
     <x v="0"/>
     <x v="2"/>
+    <s v="Sąd"/>
+    <s v="Wniosek o wpis do hipoteki"/>
+    <n v="260"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-08-23T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
     <s v="Bory"/>
     <s v="Wynagrodzenie Borek"/>
     <n v="450"/>
@@ -2208,15 +2288,39 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Sąd"/>
-    <s v="Wniosek o wpis do hipoteki"/>
-    <n v="260"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-08-23T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Geodeta"/>
+    <s v="Geodeta działka"/>
+    <n v="400"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-19T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Geodeta"/>
+    <s v="Geodeta budynek"/>
+    <n v="650"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-19T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Nowak"/>
+    <s v="Piasek"/>
+    <n v="7800"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-19T00:00:00"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2317,54 +2421,6 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
-    <s v="Geodeta"/>
-    <s v="Geodeta działka"/>
-    <n v="400"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-07-19T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Geodeta"/>
-    <s v="Geodeta budynek"/>
-    <n v="650"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-07-19T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Nowak"/>
-    <s v="Piasek"/>
-    <n v="7800"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-07-19T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Antoni Nowak"/>
-    <s v="Folia Nowak"/>
-    <n v="335.18"/>
-    <s v="698/2013"/>
-    <m/>
-    <m/>
-    <d v="2013-09-04T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="1"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Beton"/>
@@ -2388,43 +2444,91 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Antoni Nowak"/>
+    <s v="Folia Nowak"/>
+    <n v="335.18"/>
+    <s v="698/2013"/>
+    <m/>
+    <m/>
+    <d v="2013-09-04T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Drenaż"/>
+    <n v="1764.84"/>
+    <s v="6922/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Drenaż - rura"/>
+    <n v="241.71"/>
+    <s v="6931/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
-    <s v="Parter"/>
-    <n v="7010.82"/>
-    <s v="bez faktury"/>
-    <m/>
-    <m/>
-    <d v="2013-09-04T00:00:00"/>
-    <s v="gotówka"/>
+    <s v="Drenaż"/>
+    <n v="3800"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="Piasek"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <s v="Antoni Nowak"/>
-    <s v="Ściana kolankowa"/>
-    <n v="3078"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="3"/>
+    <s v="Bystrzycka"/>
+    <s v="Drenaż - Żwir"/>
+    <n v="700"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-10-24T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <s v="Antoni Nowak"/>
-    <s v="Mur poddasza"/>
-    <n v="2052"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Drenaż - folia"/>
+    <n v="69.88"/>
+    <s v="6923/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki"/>
@@ -2436,7 +2540,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Smoła"/>
@@ -2448,7 +2552,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki połówki"/>
@@ -2460,7 +2564,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Komin"/>
@@ -2472,7 +2576,19 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Parter"/>
+    <n v="7010.82"/>
+    <s v="bez faktury"/>
+    <m/>
+    <m/>
+    <d v="2013-09-04T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="3"/>
     <s v="Antoni Nowak"/>
     <s v="Zaprawa Nowak"/>
@@ -2484,7 +2600,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Nadproża"/>
@@ -2497,30 +2613,222 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
-    <s v="Antoni Nowak"/>
-    <s v="Strop"/>
-    <n v="10100"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-09-25T00:00:00"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Bloczki"/>
+    <n v="4163.04"/>
+    <s v="5379/T/08/2013"/>
+    <d v="2013-08-29T00:00:00"/>
+    <d v="2013-09-01T00:00:00"/>
+    <d v="2013-09-10T00:00:00"/>
     <s v="eb wsp"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
-    <s v="Beton"/>
-    <n v="4489.5"/>
-    <s v="6144/T/09/2013"/>
-    <d v="2013-08-25T00:00:00"/>
-    <d v="2013-08-28T00:00:00"/>
-    <d v="2013-08-25T00:00:00"/>
+    <s v="Bloczki"/>
+    <n v="1214.22"/>
+    <s v="5376/T/08/2013"/>
+    <d v="2013-08-29T00:00:00"/>
+    <d v="2013-09-01T00:00:00"/>
+    <d v="2013-09-10T00:00:00"/>
     <s v="eb wsp"/>
   </r>
   <r>
     <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="227.55"/>
+    <s v="5801/T/09/2013"/>
+    <d v="2013-09-11T00:00:00"/>
+    <d v="2013-09-14T00:00:00"/>
+    <d v="2013-09-11T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Antoni Nowak"/>
+    <s v="Beton na słupki"/>
+    <n v="360"/>
+    <m/>
+    <m/>
+    <d v="2013-09-20T00:00:00"/>
+    <d v="2013-09-20T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Bloczki"/>
+    <n v="2786.4"/>
+    <s v="6199/T/09/2013"/>
+    <d v="2013-09-27T00:00:00"/>
+    <d v="2013-09-30T00:00:00"/>
+    <d v="2013-09-30T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal piętro"/>
+    <n v="594.69000000000005"/>
+    <s v="6284/T/09/2013"/>
+    <d v="2013-09-30T00:00:00"/>
+    <d v="2013-10-03T00:00:00"/>
+    <d v="2013-09-30T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Ściana kolankowa"/>
+    <n v="2960"/>
+    <s v="bez faktury"/>
+    <m/>
+    <m/>
+    <d v="2013-10-05T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Antoni Nowak"/>
+    <s v="Kotwa murłata"/>
+    <n v="200"/>
+    <s v="paragon PWB"/>
+    <d v="2013-10-02T00:00:00"/>
+    <d v="2013-10-02T00:00:00"/>
+    <d v="2013-10-05T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Antoni Nowak"/>
+    <s v="Zaprawa  "/>
+    <n v="48.18"/>
+    <s v="paragon Castorama"/>
+    <d v="2013-10-01T00:00:00"/>
+    <d v="2013-10-01T00:00:00"/>
+    <d v="2013-10-05T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Antoni Nowak"/>
+    <s v="Zaprawa murarska"/>
+    <n v="90"/>
+    <s v="paragon Smolec"/>
+    <d v="2013-09-30T00:00:00"/>
+    <d v="2013-09-30T00:00:00"/>
+    <d v="2013-10-05T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="Tartak"/>
+    <s v="Więźba - zaliczka"/>
+    <n v="1000"/>
+    <s v="dowód wpłaty"/>
+    <m/>
+    <m/>
+    <d v="2013-10-08T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="Tartak"/>
+    <s v="Więźba"/>
+    <n v="6500"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-10-18T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Mur poddasza"/>
+    <n v="2052"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Beton na wieniec"/>
+    <n v="1260.76"/>
+    <s v="6568/T/10/2013"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Pustaki"/>
+    <n v="2398.8000000000002"/>
+    <s v="6599/T/10/2013"/>
+    <d v="2013-10-11T00:00:00"/>
+    <d v="2013-10-14T00:00:00"/>
+    <d v="2013-10-11T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="2413.2399999999998"/>
+    <s v="5732/T/09/2013"/>
+    <d v="2013-09-10T00:00:00"/>
+    <d v="2013-09-13T00:00:00"/>
+    <d v="2013-09-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="247.93"/>
+    <s v="5924/T/09/2013"/>
+    <d v="2013-09-17T00:00:00"/>
+    <d v="2013-09-20T00:00:00"/>
+    <d v="2013-09-17T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="257.38"/>
+    <s v="5991/T/09/2013"/>
+    <d v="2013-09-19T00:00:00"/>
+    <d v="2013-09-22T00:00:00"/>
+    <d v="2013-09-19T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Belki, pustaki"/>
@@ -2532,6 +2840,30 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="5"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Strop"/>
+    <n v="10100"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-09-25T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Beton"/>
+    <n v="4489.5"/>
+    <s v="6144/T/09/2013"/>
+    <d v="2013-09-25T00:00:00"/>
+    <d v="2013-09-28T00:00:00"/>
+    <d v="2013-09-25T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
     <x v="4"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
@@ -2556,91 +2888,151 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - dachówki"/>
+    <n v="9249.7800000000007"/>
+    <s v="zamówienie SB/002674"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - dodatki"/>
+    <n v="610"/>
+    <s v="zaliczka SB/002675"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - dodatki"/>
+    <n v="1420.86"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - Rynna"/>
+    <n v="790"/>
+    <s v="zaliczka   SB/002678"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - Rynna"/>
+    <n v="1841.26"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - Okna dachowe"/>
+    <n v="12076.41"/>
+    <s v="zamówienie SB/002677"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="3"/>
     <s v="Manex"/>
-    <s v="Bloczki"/>
-    <n v="4163.04"/>
-    <s v="5379/T/08/2013"/>
-    <d v="2013-08-29T00:00:00"/>
-    <d v="2013-09-01T00:00:00"/>
-    <d v="2013-09-10T00:00:00"/>
+    <s v="Pustaki"/>
+    <n v="5326"/>
+    <s v="6922/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="Manex"/>
-    <s v="Bloczki"/>
-    <n v="1214.22"/>
-    <s v="5376/T/08/2013"/>
-    <d v="2013-08-29T00:00:00"/>
-    <d v="2013-09-01T00:00:00"/>
-    <d v="2013-09-10T00:00:00"/>
+    <s v="Zaprawa"/>
+    <n v="93.52"/>
+    <s v="6940/T/10/2013"/>
+    <d v="2013-10-24T00:00:00"/>
+    <d v="2013-10-27T00:00:00"/>
+    <d v="2013-10-24T00:00:00"/>
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
-    <s v="Stal"/>
-    <n v="2413.2399999999998"/>
-    <s v="5732/T/09/2013"/>
-    <d v="2013-09-10T00:00:00"/>
-    <d v="2013-09-13T00:00:00"/>
-    <d v="2013-09-10T00:00:00"/>
+    <s v="Żelastwo"/>
+    <n v="290.98"/>
+    <s v="6945/T/10/2013"/>
+    <d v="2013-10-24T00:00:00"/>
+    <d v="2013-10-27T00:00:00"/>
+    <d v="2013-10-24T00:00:00"/>
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Ścianki działowe"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
     <x v="3"/>
     <s v="Manex"/>
-    <s v="Stal"/>
-    <n v="227.55"/>
-    <s v="5801/T/09/2013"/>
-    <d v="2013-09-11T00:00:00"/>
-    <d v="2013-09-14T00:00:00"/>
-    <d v="2013-09-11T00:00:00"/>
+    <s v="Styropian, gwoździe"/>
+    <n v="146.99"/>
+    <s v="6923/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Stal"/>
-    <n v="247.93"/>
-    <s v="5924/T/09/2013"/>
-    <d v="2013-09-17T00:00:00"/>
-    <d v="2013-09-20T00:00:00"/>
-    <d v="2013-09-17T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Antoni Nowak"/>
-    <s v="Beton na słupki"/>
-    <n v="360"/>
-    <m/>
-    <m/>
-    <d v="2013-09-20T00:00:00"/>
-    <d v="2013-09-20T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Stal"/>
-    <n v="257.38"/>
-    <s v="5991/T/09/2013"/>
-    <d v="2013-09-19T00:00:00"/>
-    <d v="2013-09-22T00:00:00"/>
-    <d v="2013-09-19T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
+    <x v="8"/>
     <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="5"/>
     <m/>
     <m/>
@@ -2652,7 +3044,19 @@
     <m/>
   </r>
   <r>
+    <x v="8"/>
     <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="5"/>
     <m/>
     <m/>
@@ -2664,19 +3068,7 @@
     <m/>
   </r>
   <r>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="8"/>
     <x v="5"/>
     <m/>
     <m/>
@@ -2691,17 +3083,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
-        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2737,7 +3135,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -2745,13 +3143,22 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="6"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -2784,14 +3191,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="19">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="18">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2802,7 +3209,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J89" totalsRowCount="1">
   <autoFilter ref="A1:J88">
-    <filterColumn colId="0"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="5. Dach"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -2817,20 +3228,20 @@
     <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
     <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
     <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
     <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
     <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
     <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="21" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A2:G19" totalsRowShown="0">
-  <autoFilter ref="A2:G19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="B2:H20" totalsRowShown="0">
+  <autoFilter ref="B2:H20">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -2840,10 +3251,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
-      <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+D2</calculatedColumnFormula>
+    <tableColumn id="4" name="Plan suma" dataDxfId="17">
+      <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="16"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -3142,8 +3553,8 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3152,12 +3563,12 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="120" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="119" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="116" customWidth="1"/>
-    <col min="10" max="10" width="11" style="114" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="115" customWidth="1"/>
+    <col min="10" max="10" width="11" style="113" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -3166,7 +3577,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -3178,7 +3589,7 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
@@ -3190,14 +3601,14 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -3210,16 +3621,16 @@
       <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="121">
+      <c r="E2" s="120">
         <v>2252</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="117">
+      <c r="I2" s="116">
         <v>41015</v>
       </c>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="113" t="s">
         <v>84</v>
       </c>
       <c r="L2" s="42" t="s">
@@ -3229,7 +3640,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3242,26 +3653,26 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="121">
+      <c r="E3" s="120">
         <v>650</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="117">
+      <c r="I3" s="116">
         <v>41100</v>
       </c>
-      <c r="J3" s="114" t="s">
+      <c r="J3" s="113" t="s">
         <v>84</v>
       </c>
       <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="112" t="s">
+      <c r="M3" s="111" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3274,26 +3685,26 @@
       <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="120">
         <v>2800</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="117">
+      <c r="I4" s="116">
         <v>41197</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="113" t="s">
         <v>84</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="111" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3306,26 +3717,26 @@
       <c r="D5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="121">
+      <c r="E5" s="120">
         <v>3000</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="117">
+      <c r="I5" s="116">
         <v>41351</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="113" t="s">
         <v>84</v>
       </c>
       <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3338,23 +3749,23 @@
       <c r="D6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="120">
         <v>148</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="117">
+      <c r="I6" s="116">
         <v>41351</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="112" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3364,26 +3775,26 @@
       <c r="C7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="120">
         <v>2142</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="117">
+      <c r="I7" s="116">
         <v>41352</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="112" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3396,23 +3807,23 @@
       <c r="D8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="121">
         <v>400</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="117">
+      <c r="I8" s="116">
         <v>41353</v>
       </c>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3423,25 +3834,25 @@
         <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="122">
+        <v>143</v>
+      </c>
+      <c r="E9" s="121">
         <v>260</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="117">
+      <c r="I9" s="116">
         <v>41360</v>
       </c>
-      <c r="J9" s="114" t="s">
+      <c r="J9" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -3454,23 +3865,23 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="121">
         <v>600</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="117">
+      <c r="I10" s="116">
         <v>41362</v>
       </c>
-      <c r="J10" s="114" t="s">
+      <c r="J10" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="112" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -3480,26 +3891,26 @@
       <c r="C11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="121">
         <v>416</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="117">
+      <c r="I11" s="116">
         <v>41367</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="112" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -3507,28 +3918,28 @@
         <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="121">
+      <c r="E12" s="120">
         <v>1000</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="117">
+      <c r="I12" s="116">
         <v>41372</v>
       </c>
-      <c r="J12" s="114" t="s">
+      <c r="J12" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3541,23 +3952,23 @@
       <c r="D13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="121">
         <v>1000</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="117">
+      <c r="I13" s="116">
         <v>41382</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="113" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="112" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3567,26 +3978,26 @@
       <c r="C14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="123">
+      <c r="E14" s="122">
         <v>150</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="117">
+      <c r="I14" s="116">
         <v>41391</v>
       </c>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="108" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14" s="112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3594,28 +4005,28 @@
         <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="123">
+      <c r="E15" s="122">
         <v>200</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <v>41404</v>
       </c>
-      <c r="J15" s="114" t="s">
+      <c r="J15" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15" s="112" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -3625,26 +4036,26 @@
       <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="122">
         <v>140</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="117">
+      <c r="I16" s="116">
         <v>41406</v>
       </c>
-      <c r="J16" s="114" t="s">
+      <c r="J16" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="112" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -3654,26 +4065,26 @@
       <c r="C17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="122">
         <v>200</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="117">
+      <c r="I17" s="116">
         <v>41428</v>
       </c>
-      <c r="J17" s="114" t="s">
+      <c r="J17" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="108" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -3683,26 +4094,26 @@
       <c r="C18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="123">
+      <c r="E18" s="122">
         <v>200</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="117">
+      <c r="I18" s="116">
         <v>41484</v>
       </c>
-      <c r="J18" s="114" t="s">
+      <c r="J18" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="108" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -3715,20 +4126,23 @@
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="123">
+      <c r="E19" s="122">
         <v>147</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="117">
+      <c r="I19" s="116">
         <v>41488</v>
       </c>
-      <c r="J19" s="114" t="s">
+      <c r="J19" s="113" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -3741,20 +4155,20 @@
       <c r="D20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="124">
+      <c r="E20" s="123">
         <v>260</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="117">
+      <c r="I20" s="116">
         <v>41509</v>
       </c>
-      <c r="J20" s="114" t="s">
+      <c r="J20" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -3767,20 +4181,20 @@
       <c r="D21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="124">
+      <c r="E21" s="123">
         <v>450</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="117">
+      <c r="I21" s="116">
         <v>41515</v>
       </c>
-      <c r="J21" s="114" t="s">
+      <c r="J21" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -3793,20 +4207,20 @@
       <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="124">
+      <c r="E22" s="123">
         <v>400</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="117">
+      <c r="I22" s="116">
         <v>41474</v>
       </c>
-      <c r="J22" s="114" t="s">
+      <c r="J22" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -3819,20 +4233,20 @@
       <c r="D23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="124">
+      <c r="E23" s="123">
         <v>650</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="117">
+      <c r="I23" s="116">
         <v>41474</v>
       </c>
-      <c r="J23" s="114" t="s">
+      <c r="J23" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -3845,20 +4259,20 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="124">
+      <c r="E24" s="123">
         <v>7800</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="117">
+      <c r="I24" s="116">
         <v>41474</v>
       </c>
-      <c r="J24" s="114" t="s">
+      <c r="J24" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -3871,7 +4285,7 @@
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="124">
+      <c r="E25" s="123">
         <v>1510.21</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3883,14 +4297,14 @@
       <c r="H25" s="2">
         <v>41497</v>
       </c>
-      <c r="I25" s="117">
+      <c r="I25" s="116">
         <v>41495</v>
       </c>
-      <c r="J25" s="114" t="s">
+      <c r="J25" s="113" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -3903,7 +4317,7 @@
       <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="124">
+      <c r="E26" s="123">
         <v>5878.78</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3915,14 +4329,14 @@
       <c r="H26" s="2">
         <v>41501</v>
       </c>
-      <c r="I26" s="117">
+      <c r="I26" s="116">
         <v>41501</v>
       </c>
-      <c r="J26" s="114" t="s">
+      <c r="J26" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -3935,7 +4349,7 @@
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="124">
+      <c r="E27" s="123">
         <v>19.079999999999998</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3947,14 +4361,14 @@
       <c r="H27" s="2">
         <v>41501</v>
       </c>
-      <c r="I27" s="117">
+      <c r="I27" s="116">
         <v>41501</v>
       </c>
-      <c r="J27" s="114" t="s">
+      <c r="J27" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -3967,7 +4381,7 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="124">
+      <c r="E28" s="123">
         <v>115.01</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3979,14 +4393,14 @@
       <c r="H28" s="2">
         <v>41501</v>
       </c>
-      <c r="I28" s="117">
+      <c r="I28" s="116">
         <v>41501</v>
       </c>
-      <c r="J28" s="114" t="s">
+      <c r="J28" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -3999,7 +4413,7 @@
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="124">
+      <c r="E29" s="123">
         <v>8280.36</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4011,14 +4425,14 @@
       <c r="H29" s="2">
         <v>41502</v>
       </c>
-      <c r="I29" s="117">
+      <c r="I29" s="116">
         <v>41501</v>
       </c>
-      <c r="J29" s="114" t="s">
+      <c r="J29" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -4031,7 +4445,7 @@
       <c r="D30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="124">
+      <c r="E30" s="123">
         <v>1657.43</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4043,14 +4457,14 @@
       <c r="H30" s="2">
         <v>41505</v>
       </c>
-      <c r="I30" s="117">
+      <c r="I30" s="116">
         <v>41502</v>
       </c>
-      <c r="J30" s="114" t="s">
+      <c r="J30" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -4063,7 +4477,7 @@
       <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="124">
+      <c r="E31" s="123">
         <v>512.29999999999995</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4075,14 +4489,14 @@
       <c r="H31" s="2">
         <v>41509</v>
       </c>
-      <c r="I31" s="117">
+      <c r="I31" s="116">
         <v>41507</v>
       </c>
-      <c r="J31" s="114" t="s">
+      <c r="J31" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -4090,27 +4504,27 @@
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="124">
+      <c r="E32" s="123">
         <v>10584</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="117">
+      <c r="I32" s="116">
         <v>41507</v>
       </c>
-      <c r="J32" s="114" t="s">
+      <c r="J32" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -4123,7 +4537,7 @@
       <c r="D33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="124">
+      <c r="E33" s="123">
         <v>7610.63</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4135,14 +4549,14 @@
       <c r="H33" s="2">
         <v>41517</v>
       </c>
-      <c r="I33" s="117">
+      <c r="I33" s="116">
         <v>41515</v>
       </c>
-      <c r="J33" s="114" t="s">
+      <c r="J33" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4155,7 +4569,7 @@
       <c r="D34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="124">
+      <c r="E34" s="123">
         <v>992.96</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4167,14 +4581,14 @@
       <c r="H34" s="2">
         <v>41495</v>
       </c>
-      <c r="I34" s="117">
+      <c r="I34" s="116">
         <v>41516</v>
       </c>
-      <c r="J34" s="114" t="s">
+      <c r="J34" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
@@ -4182,29 +4596,29 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="124">
+      <c r="E35" s="123">
         <v>335.18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="117">
+      <c r="I35" s="116">
         <v>41521</v>
       </c>
-      <c r="J35" s="114" t="s">
+      <c r="J35" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>86</v>
@@ -4213,13 +4627,13 @@
         <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="124">
+        <v>194</v>
+      </c>
+      <c r="E36" s="123">
         <v>1764.84</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G36" s="2">
         <v>41570</v>
@@ -4227,16 +4641,16 @@
       <c r="H36" s="2">
         <v>41573</v>
       </c>
-      <c r="I36" s="117">
+      <c r="I36" s="116">
         <v>41570</v>
       </c>
       <c r="J36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
@@ -4245,13 +4659,13 @@
         <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="124">
+        <v>197</v>
+      </c>
+      <c r="E37" s="123">
         <v>241.71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G37" s="2">
         <v>41570</v>
@@ -4259,35 +4673,35 @@
       <c r="H37" s="2">
         <v>41573</v>
       </c>
-      <c r="I37" s="117">
+      <c r="I37" s="116">
         <v>41570</v>
       </c>
       <c r="J37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="124">
+        <v>194</v>
+      </c>
+      <c r="E38" s="123">
         <v>3800</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="117"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="I38" s="116"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
@@ -4298,41 +4712,41 @@
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="124"/>
+      <c r="E39" s="123"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="117"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="I39" s="116"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="124">
+        <v>204</v>
+      </c>
+      <c r="E40" s="123">
         <v>700</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="117">
+      <c r="I40" s="116">
         <v>41571</v>
       </c>
       <c r="J40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>86</v>
@@ -4341,13 +4755,13 @@
         <v>89</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="124">
+        <v>198</v>
+      </c>
+      <c r="E41" s="123">
         <v>69.88</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G41" s="2">
         <v>41570</v>
@@ -4355,16 +4769,16 @@
       <c r="H41" s="2">
         <v>41573</v>
       </c>
-      <c r="I41" s="117">
+      <c r="I41" s="116">
         <v>41570</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>86</v>
@@ -4375,7 +4789,7 @@
       <c r="D42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="124">
+      <c r="E42" s="123">
         <v>3813.05</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4387,16 +4801,16 @@
       <c r="H42" s="2">
         <v>41519</v>
       </c>
-      <c r="I42" s="117">
+      <c r="I42" s="116">
         <v>41515</v>
       </c>
-      <c r="J42" s="114" t="s">
+      <c r="J42" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>86</v>
@@ -4407,7 +4821,7 @@
       <c r="D43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="124">
+      <c r="E43" s="123">
         <v>66.180000000000007</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4419,16 +4833,16 @@
       <c r="H43" s="2">
         <v>41516</v>
       </c>
-      <c r="I43" s="117">
+      <c r="I43" s="116">
         <v>41515</v>
       </c>
-      <c r="J43" s="114" t="s">
+      <c r="J43" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>86</v>
@@ -4439,7 +4853,7 @@
       <c r="D44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="124">
+      <c r="E44" s="123">
         <v>649.32000000000005</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4451,16 +4865,16 @@
       <c r="H44" s="2">
         <v>41516</v>
       </c>
-      <c r="I44" s="117">
+      <c r="I44" s="116">
         <v>41515</v>
       </c>
-      <c r="J44" s="114" t="s">
+      <c r="J44" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>86</v>
@@ -4471,7 +4885,7 @@
       <c r="D45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="124">
+      <c r="E45" s="123">
         <v>3084.07</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4483,72 +4897,72 @@
       <c r="H45" s="2">
         <v>41519</v>
       </c>
-      <c r="I45" s="117">
+      <c r="I45" s="116">
         <v>41516</v>
       </c>
-      <c r="J45" s="114" t="s">
+      <c r="J45" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="124">
+      <c r="E46" s="123">
         <v>7010.82</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="117">
+      <c r="I46" s="116">
         <v>41521</v>
       </c>
-      <c r="J46" s="114" t="s">
+      <c r="J46" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="124">
+        <v>146</v>
+      </c>
+      <c r="E47" s="123">
         <v>54</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="117">
+      <c r="I47" s="116">
         <v>41521</v>
       </c>
-      <c r="J47" s="114" t="s">
+      <c r="J47" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>86</v>
@@ -4557,13 +4971,13 @@
         <v>89</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="124">
+        <v>150</v>
+      </c>
+      <c r="E48" s="123">
         <v>1415.36</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G48" s="2">
         <v>41516</v>
@@ -4571,16 +4985,16 @@
       <c r="H48" s="2">
         <v>41519</v>
       </c>
-      <c r="I48" s="117">
+      <c r="I48" s="116">
         <v>41521</v>
       </c>
-      <c r="J48" s="114" t="s">
+      <c r="J48" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>86</v>
@@ -4589,13 +5003,13 @@
         <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="124">
+        <v>160</v>
+      </c>
+      <c r="E49" s="123">
         <v>4163.04</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G49" s="2">
         <v>41515</v>
@@ -4603,16 +5017,16 @@
       <c r="H49" s="2">
         <v>41518</v>
       </c>
-      <c r="I49" s="117">
+      <c r="I49" s="116">
         <v>41527</v>
       </c>
-      <c r="J49" s="114" t="s">
+      <c r="J49" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>86</v>
@@ -4621,13 +5035,13 @@
         <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="124">
+        <v>160</v>
+      </c>
+      <c r="E50" s="123">
         <v>1214.22</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G50" s="2">
         <v>41515</v>
@@ -4635,16 +5049,16 @@
       <c r="H50" s="2">
         <v>41518</v>
       </c>
-      <c r="I50" s="117">
+      <c r="I50" s="116">
         <v>41527</v>
       </c>
-      <c r="J50" s="114" t="s">
+      <c r="J50" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>86</v>
@@ -4655,11 +5069,11 @@
       <c r="D51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="124">
+      <c r="E51" s="123">
         <v>227.55</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G51" s="2">
         <v>41528</v>
@@ -4667,27 +5081,27 @@
       <c r="H51" s="2">
         <v>41531</v>
       </c>
-      <c r="I51" s="117">
+      <c r="I51" s="116">
         <v>41528</v>
       </c>
-      <c r="J51" s="114" t="s">
+      <c r="J51" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="124">
+        <v>166</v>
+      </c>
+      <c r="E52" s="123">
         <v>360</v>
       </c>
       <c r="F52" s="1"/>
@@ -4695,16 +5109,16 @@
       <c r="H52" s="2">
         <v>41537</v>
       </c>
-      <c r="I52" s="117">
+      <c r="I52" s="116">
         <v>41537</v>
       </c>
-      <c r="J52" s="114" t="s">
+      <c r="J52" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>86</v>
@@ -4713,13 +5127,13 @@
         <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="124">
+        <v>160</v>
+      </c>
+      <c r="E53" s="123">
         <v>2786.4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G53" s="2">
         <v>41544</v>
@@ -4727,16 +5141,16 @@
       <c r="H53" s="2">
         <v>41547</v>
       </c>
-      <c r="I53" s="117">
+      <c r="I53" s="116">
         <v>41547</v>
       </c>
-      <c r="J53" s="114" t="s">
+      <c r="J53" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>86</v>
@@ -4745,13 +5159,13 @@
         <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" s="124">
+        <v>172</v>
+      </c>
+      <c r="E54" s="123">
         <v>594.69000000000005</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G54" s="2">
         <v>41547</v>
@@ -4759,59 +5173,59 @@
       <c r="H54" s="2">
         <v>41550</v>
       </c>
-      <c r="I54" s="117">
+      <c r="I54" s="116">
         <v>41547</v>
       </c>
-      <c r="J54" s="114" t="s">
+      <c r="J54" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="124">
+      <c r="E55" s="123">
         <v>2960</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="117">
+      <c r="I55" s="116">
         <v>41552</v>
       </c>
-      <c r="J55" s="114" t="s">
+      <c r="J55" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="124">
+        <v>174</v>
+      </c>
+      <c r="E56" s="123">
         <v>200</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G56" s="2">
         <v>41549</v>
@@ -4819,31 +5233,31 @@
       <c r="H56" s="2">
         <v>41549</v>
       </c>
-      <c r="I56" s="117">
+      <c r="I56" s="116">
         <v>41552</v>
       </c>
-      <c r="J56" s="114" t="s">
+      <c r="J56" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="124">
+        <v>176</v>
+      </c>
+      <c r="E57" s="123">
         <v>48.18</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G57" s="2">
         <v>41548</v>
@@ -4851,31 +5265,31 @@
       <c r="H57" s="2">
         <v>41548</v>
       </c>
-      <c r="I57" s="117">
+      <c r="I57" s="116">
         <v>41552</v>
       </c>
-      <c r="J57" s="114" t="s">
+      <c r="J57" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="124">
+        <v>178</v>
+      </c>
+      <c r="E58" s="123">
         <v>90</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G58" s="2">
         <v>41547</v>
@@ -4883,119 +5297,123 @@
       <c r="H58" s="2">
         <v>41547</v>
       </c>
-      <c r="I58" s="117">
+      <c r="I58" s="116">
         <v>41552</v>
       </c>
-      <c r="J58" s="114" t="s">
+      <c r="J58" s="113" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="124">
-        <v>1000</v>
+        <v>222</v>
+      </c>
+      <c r="E59" s="123">
+        <v>86.1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="117">
-        <v>41555</v>
-      </c>
-      <c r="J59" s="114" t="s">
-        <v>84</v>
+        <v>196</v>
+      </c>
+      <c r="G59" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H59" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I59" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J59" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="124">
-        <v>6500</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="E60" s="123">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="117">
-        <v>41565</v>
-      </c>
-      <c r="J60" s="114" t="s">
+      <c r="I60" s="116">
+        <v>41555</v>
+      </c>
+      <c r="J60" s="113" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="124">
-        <v>2052</v>
+        <v>32</v>
+      </c>
+      <c r="E61" s="123">
+        <v>6500</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="117"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="I61" s="116">
+        <v>41565</v>
+      </c>
+      <c r="J61" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E62" s="124">
-        <v>1260.76</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E62" s="123">
+        <v>2052</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="117">
-        <v>41557</v>
-      </c>
-      <c r="J62" s="114" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="I62" s="116"/>
+    </row>
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>86</v>
@@ -5004,41 +5422,58 @@
         <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="123">
+        <v>1260.76</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J63" s="113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1">
+      <c r="A64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="124">
+      <c r="E64" s="123">
         <v>2398.8000000000002</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="2">
+      <c r="F64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64" s="2">
         <v>41558</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H64" s="2">
         <v>41561</v>
       </c>
-      <c r="I63" s="117">
+      <c r="I64" s="116">
         <v>41558</v>
       </c>
-      <c r="J63" s="114" t="s">
+      <c r="J64" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="117"/>
-    </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>86</v>
@@ -5049,11 +5484,11 @@
       <c r="D65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="124">
+      <c r="E65" s="123">
         <v>2413.2399999999998</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G65" s="2">
         <v>41527</v>
@@ -5061,16 +5496,16 @@
       <c r="H65" s="2">
         <v>41530</v>
       </c>
-      <c r="I65" s="117">
+      <c r="I65" s="116">
         <v>41527</v>
       </c>
-      <c r="J65" s="114" t="s">
+      <c r="J65" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>86</v>
@@ -5081,11 +5516,11 @@
       <c r="D66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="124">
+      <c r="E66" s="123">
         <v>247.93</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G66" s="2">
         <v>41534</v>
@@ -5093,16 +5528,16 @@
       <c r="H66" s="2">
         <v>41537</v>
       </c>
-      <c r="I66" s="117">
+      <c r="I66" s="116">
         <v>41534</v>
       </c>
-      <c r="J66" s="114" t="s">
+      <c r="J66" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>86</v>
@@ -5113,11 +5548,11 @@
       <c r="D67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="124">
+      <c r="E67" s="123">
         <v>257.38</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G67" s="2">
         <v>41536</v>
@@ -5125,16 +5560,16 @@
       <c r="H67" s="2">
         <v>41539</v>
       </c>
-      <c r="I67" s="117">
+      <c r="I67" s="116">
         <v>41536</v>
       </c>
-      <c r="J67" s="114" t="s">
+      <c r="J67" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="1" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>86</v>
@@ -5143,13 +5578,13 @@
         <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="124">
+        <v>168</v>
+      </c>
+      <c r="E68" s="123">
         <v>7792.51</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G68" s="2">
         <v>41533</v>
@@ -5157,42 +5592,42 @@
       <c r="H68" s="2">
         <v>41536</v>
       </c>
-      <c r="I68" s="117">
+      <c r="I68" s="116">
         <v>41541</v>
       </c>
-      <c r="J68" s="114" t="s">
+      <c r="J68" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="124">
+      <c r="E69" s="123">
         <v>10100</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="117">
+      <c r="I69" s="116">
         <v>41542</v>
       </c>
-      <c r="J69" s="114" t="s">
+      <c r="J69" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>86</v>
@@ -5203,11 +5638,11 @@
       <c r="D70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="124">
+      <c r="E70" s="123">
         <v>4489.5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G70" s="2">
         <v>41542</v>
@@ -5215,212 +5650,212 @@
       <c r="H70" s="2">
         <v>41545</v>
       </c>
-      <c r="I70" s="117">
+      <c r="I70" s="116">
         <v>41542</v>
       </c>
-      <c r="J70" s="114" t="s">
+      <c r="J70" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="124">
+      <c r="E71" s="123">
         <v>5724</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="117"/>
+      <c r="I71" s="116"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="124">
+      <c r="E72" s="123">
         <v>6372</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="117"/>
+      <c r="I72" s="116"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E73" s="124">
+        <v>183</v>
+      </c>
+      <c r="E73" s="123">
         <v>9249.7800000000007</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="117">
+      <c r="I73" s="116">
         <v>41557</v>
       </c>
-      <c r="J73" s="114" t="s">
+      <c r="J73" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E74" s="124">
+        <v>185</v>
+      </c>
+      <c r="E74" s="123">
         <v>610</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="117">
+      <c r="I74" s="116">
         <v>41557</v>
       </c>
-      <c r="J74" s="114" t="s">
+      <c r="J74" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E75" s="124">
+        <v>185</v>
+      </c>
+      <c r="E75" s="123">
         <v>1420.86</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="117"/>
+      <c r="I75" s="116"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="124">
+        <v>187</v>
+      </c>
+      <c r="E76" s="123">
         <v>790</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="117">
+      <c r="I76" s="116">
         <v>41557</v>
       </c>
-      <c r="J76" s="114" t="s">
+      <c r="J76" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E77" s="124">
+        <v>187</v>
+      </c>
+      <c r="E77" s="123">
         <v>1841.26</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="117"/>
+      <c r="I77" s="116"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="124">
+        <v>189</v>
+      </c>
+      <c r="E78" s="123">
         <v>12076.41</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="117">
+      <c r="I78" s="116">
         <v>41557</v>
       </c>
-      <c r="J78" s="114" t="s">
+      <c r="J78" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="1" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>86</v>
@@ -5431,11 +5866,11 @@
       <c r="D79" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="124">
+      <c r="E79" s="123">
         <v>5326</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G79" s="2">
         <v>41570</v>
@@ -5443,16 +5878,16 @@
       <c r="H79" s="2">
         <v>41573</v>
       </c>
-      <c r="I79" s="117">
+      <c r="I79" s="116">
         <v>41570</v>
       </c>
       <c r="J79" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="1" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>86</v>
@@ -5461,13 +5896,13 @@
         <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" s="124">
+        <v>200</v>
+      </c>
+      <c r="E80" s="123">
         <v>93.52</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G80" s="2">
         <v>41571</v>
@@ -5475,7 +5910,7 @@
       <c r="H80" s="2">
         <v>41574</v>
       </c>
-      <c r="I80" s="117">
+      <c r="I80" s="116">
         <v>41571</v>
       </c>
       <c r="J80" t="s">
@@ -5484,7 +5919,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -5493,13 +5928,13 @@
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="124">
+        <v>220</v>
+      </c>
+      <c r="E81" s="123">
         <v>290.98</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="G81" s="2">
         <v>41571</v>
@@ -5507,35 +5942,35 @@
       <c r="H81" s="2">
         <v>41574</v>
       </c>
-      <c r="I81" s="117">
+      <c r="I81" s="116">
         <v>41571</v>
       </c>
       <c r="J81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="1" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="124"/>
+      <c r="E82" s="123"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="117"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="I82" s="116"/>
+    </row>
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="1" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
@@ -5544,13 +5979,13 @@
         <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E83" s="124">
-        <v>146.99</v>
+        <v>22</v>
+      </c>
+      <c r="E83" s="123">
+        <v>60.89</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G83" s="2">
         <v>41570</v>
@@ -5558,67 +5993,67 @@
       <c r="H83" s="2">
         <v>41573</v>
       </c>
-      <c r="I83" s="117">
+      <c r="I83" s="116">
         <v>41570</v>
       </c>
       <c r="J83" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="124"/>
+      <c r="E84" s="123"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="117"/>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="I84" s="116"/>
+    </row>
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="124"/>
+      <c r="E85" s="123"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="117"/>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="I85" s="116"/>
+    </row>
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="124"/>
+      <c r="E86" s="123"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="117"/>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="I86" s="116"/>
+    </row>
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="124"/>
+      <c r="E87" s="123"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="117"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="I87" s="116"/>
+    </row>
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="124"/>
+      <c r="E88" s="123"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="117"/>
+      <c r="I88" s="116"/>
     </row>
     <row r="89" spans="1:10" ht="17.25" thickBot="1">
       <c r="A89" s="44" t="s">
@@ -5627,97 +6062,59 @@
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
-      <c r="E89" s="125">
+      <c r="E89" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>180528.16999999998</v>
+        <v>45961.390000000007</v>
       </c>
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
       <c r="H89" s="44"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="115">
+      <c r="I89" s="117"/>
+      <c r="J89" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="94" spans="1:10">
-      <c r="C94" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="C95" t="s">
-        <v>213</v>
-      </c>
-      <c r="D95">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="C96" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96">
-        <v>500</v>
-      </c>
-    </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="1">
-        <v>3300</v>
-      </c>
-      <c r="E97" s="123"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="122"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="119"/>
-      <c r="J97" s="111"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="110"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="C98" s="110" t="s">
-        <v>216</v>
-      </c>
-      <c r="D98" s="110">
-        <v>-1600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="D100">
-        <f>SUM(D94:D98)</f>
-        <v>8000</v>
-      </c>
+      <c r="C98" s="109"/>
+      <c r="D98" s="109"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="123"/>
+      <c r="E114" s="122"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="119"/>
-      <c r="J114" s="111"/>
+      <c r="I114" s="118"/>
+      <c r="J114" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A90:A97">
-      <formula1>$M$4:$M$18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90:B97 B22:B69 B82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90:B97 B82 B22:B69">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A90:A97">
+      <formula1>$M$4:$M$19</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A88">
-      <formula1>$M$3:$M$18</formula1>
+      <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5731,15 +6128,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:G10"/>
+  <dimension ref="A3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
@@ -5770,16 +6167,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="126" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>168</v>
+      <c r="A3" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="126" t="s">
-        <v>164</v>
+      <c r="A4" s="125" t="s">
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -5797,11 +6194,11 @@
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="126" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="43">
@@ -5817,12 +6214,12 @@
       <c r="F5" s="43">
         <v>2526</v>
       </c>
-      <c r="G5" s="128">
+      <c r="G5" s="127">
         <v>16415</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="126" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="43">
@@ -5836,80 +6233,129 @@
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
-      <c r="G6" s="128">
+      <c r="G6" s="127">
         <v>46345.939999999995</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127" t="s">
-        <v>142</v>
+      <c r="A7" s="126" t="s">
+        <v>205</v>
       </c>
       <c r="B7" s="43">
-        <v>15046.789999999999</v>
+        <v>2776.4300000000003</v>
       </c>
       <c r="C7" s="43">
-        <v>12140.82</v>
+        <v>3800</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
-      <c r="G7" s="128">
-        <v>27187.61</v>
+      <c r="G7" s="127">
+        <v>6576.43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="127" t="s">
-        <v>143</v>
+      <c r="A8" s="126" t="s">
+        <v>206</v>
       </c>
       <c r="B8" s="43">
-        <v>15200.56</v>
+        <v>22425.619999999995</v>
       </c>
       <c r="C8" s="43">
-        <v>10100</v>
+        <v>12022.82</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
-      <c r="G8" s="128">
-        <v>25300.559999999998</v>
+      <c r="G8" s="127">
+        <v>34448.439999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="127" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="43"/>
+      <c r="A9" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="43">
+        <v>15200.56</v>
+      </c>
       <c r="C9" s="43">
-        <v>12096</v>
+        <v>10100</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
-      <c r="G9" s="128">
+      <c r="G9" s="127">
+        <v>25300.559999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="43">
+        <v>33779.29</v>
+      </c>
+      <c r="C10" s="43">
         <v>12096</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="43">
-        <v>65159.289999999994</v>
-      </c>
-      <c r="C10" s="43">
-        <v>44920.82</v>
-      </c>
-      <c r="D10" s="43">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="127">
+        <v>45875.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="43">
+        <v>5419.52</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="127">
+        <v>5419.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="43">
+        <v>146.99</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="127">
+        <v>146.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="43">
+        <v>114660.35</v>
+      </c>
+      <c r="C13" s="43">
+        <v>48602.82</v>
+      </c>
+      <c r="D13" s="43">
         <v>9542</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E13" s="43">
         <v>5197</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F13" s="43">
         <v>2526</v>
       </c>
-      <c r="G10" s="129">
-        <v>127345.10999999999</v>
+      <c r="G13" s="128">
+        <v>180528.16999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5920,342 +6366,411 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="107"/>
+    <row r="1" spans="1:8">
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="D1" s="107"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>37600</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>46700</v>
       </c>
-      <c r="D4" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D3</f>
+      <c r="E4" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E3</f>
         <v>37600</v>
       </c>
-      <c r="E4" s="43">
+      <c r="F4" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>9100</v>
       </c>
-      <c r="F4" s="2">
-        <v>41499</v>
-      </c>
       <c r="G4" s="2">
         <v>41499</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="H4" s="2">
+        <v>41499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E4</f>
+        <v>47600</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="2">
+        <v>41575</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>37800</v>
       </c>
-      <c r="D5" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D4</f>
-        <v>75400</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="2">
+      <c r="E6" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E5</f>
+        <v>85400</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="2">
         <v>41544</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>97</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>43200</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D7" s="3">
         <v>25300</v>
       </c>
-      <c r="D6" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D5</f>
-        <v>118600</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="E7" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E6</f>
+        <v>128600</v>
+      </c>
+      <c r="F7" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-17900</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <v>41536</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H7" s="2">
         <v>41537</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>47500</v>
       </c>
-      <c r="D7" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D6</f>
-        <v>166100</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="E8" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E7</f>
+        <v>176100</v>
+      </c>
+      <c r="F8" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-47500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>41571</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>32000</v>
       </c>
-      <c r="D8" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D7</f>
-        <v>198100</v>
-      </c>
-      <c r="E8" s="43">
+      <c r="E9" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E8</f>
+        <v>208100</v>
+      </c>
+      <c r="F9" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-32000</v>
       </c>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>21600</v>
       </c>
-      <c r="D9" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D8</f>
-        <v>219700</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="E10" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E9</f>
+        <v>229700</v>
+      </c>
+      <c r="F10" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-21600</v>
       </c>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>9700</v>
       </c>
-      <c r="D10" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D9</f>
-        <v>229400</v>
-      </c>
-      <c r="E10" s="43">
+      <c r="E11" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E10</f>
+        <v>239400</v>
+      </c>
+      <c r="F11" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-9700</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>45700</v>
       </c>
-      <c r="D11" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D10</f>
-        <v>275100</v>
-      </c>
-      <c r="E11" s="43">
+      <c r="E12" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E11</f>
+        <v>285100</v>
+      </c>
+      <c r="F12" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-45700</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>16200</v>
       </c>
-      <c r="D12" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D11</f>
-        <v>291300</v>
-      </c>
-      <c r="E12" s="43">
+      <c r="E13" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E12</f>
+        <v>301300</v>
+      </c>
+      <c r="F13" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-16200</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>22200</v>
       </c>
-      <c r="D13" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D12</f>
-        <v>313500</v>
-      </c>
-      <c r="E13" s="43">
+      <c r="E14" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E13</f>
+        <v>323500</v>
+      </c>
+      <c r="F14" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-22200</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>39900</v>
       </c>
-      <c r="D14" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D13</f>
-        <v>353400</v>
-      </c>
-      <c r="E14" s="43">
+      <c r="E15" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E14</f>
+        <v>363400</v>
+      </c>
+      <c r="F15" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-39900</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B15">
+      <c r="C16">
         <v>6500</v>
       </c>
-      <c r="D15" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D14</f>
-        <v>359900</v>
-      </c>
-      <c r="E15" s="43">
+      <c r="E16" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E15</f>
+        <v>369900</v>
+      </c>
+      <c r="F16" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-6500</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="B16">
+      <c r="C17">
         <v>31300</v>
       </c>
-      <c r="D16" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D15</f>
-        <v>391200</v>
-      </c>
-      <c r="E16" s="43">
+      <c r="E17" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E16</f>
+        <v>401200</v>
+      </c>
+      <c r="F17" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-31300</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="B17">
+      <c r="C18">
         <v>20000</v>
       </c>
-      <c r="D17" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D16</f>
-        <v>411200</v>
-      </c>
-      <c r="E17" s="43">
+      <c r="E18" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E17</f>
+        <v>421200</v>
+      </c>
+      <c r="F18" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-20000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="B18">
+      <c r="C19">
         <v>31600</v>
       </c>
-      <c r="D18" s="43">
-        <f>Tabela5[[#This Row],[Planowane]]+D17</f>
-        <v>442800</v>
-      </c>
-      <c r="E18" s="43">
+      <c r="E19" s="43">
+        <f>Tabela5[[#This Row],[Planowane]]+E18</f>
+        <v>452800</v>
+      </c>
+      <c r="F19" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-31600</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="130">
-        <f>Tabela5[[#This Row],[Planowane]]+D18</f>
-        <v>442800</v>
-      </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="20" spans="1:8">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="129">
+        <f>Tabela5[[#This Row],[Planowane]]+E19</f>
+        <v>452800</v>
+      </c>
+      <c r="F20" s="129"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6272,7 +6787,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F36" authorId="0">
+    <comment ref="F37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0">
+    <comment ref="F42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="0">
+    <comment ref="F60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F79" authorId="0">
+    <comment ref="F80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="0">
+    <comment ref="F84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="224">
   <si>
     <t>Opis</t>
   </si>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>Gwoździe</t>
+  </si>
+  <si>
+    <t>7116/T/10/2013</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -1583,36 +1586,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1678,7 +1651,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1903,25 +1875,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74868224"/>
-        <c:axId val="74869760"/>
+        <c:axId val="62703872"/>
+        <c:axId val="62722048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74868224"/>
+        <c:axId val="62703872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74869760"/>
+        <c:crossAx val="62722048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74869760"/>
+        <c:axId val="62722048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,21 +1902,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74868224"/>
+        <c:crossAx val="62703872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3083,7 +3054,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -3191,14 +3162,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="19">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3207,13 +3178,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J89" totalsRowCount="1">
-  <autoFilter ref="A1:J88">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="5. Dach"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J90" totalsRowCount="1">
+  <autoFilter ref="A1:J89">
+    <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -3228,12 +3195,12 @@
     <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
     <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
     <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
     <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
     <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
     <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="21" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3251,10 +3218,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="17">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="16"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -3550,11 +3517,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3608,7 +3575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -3640,7 +3607,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3672,7 +3639,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3704,7 +3671,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3736,7 +3703,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3765,7 +3732,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3794,7 +3761,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3823,7 +3790,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3852,7 +3819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -3881,7 +3848,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -3910,7 +3877,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -3939,7 +3906,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -3968,7 +3935,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -3997,7 +3964,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -4026,7 +3993,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -4055,7 +4022,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -4084,7 +4051,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -4113,7 +4080,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -4142,7 +4109,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -4168,7 +4135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -4194,33 +4161,33 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="E22" s="123">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="116">
-        <v>41474</v>
-      </c>
-      <c r="J22" s="113" t="s">
+        <v>41575</v>
+      </c>
+      <c r="J22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -4231,10 +4198,10 @@
         <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="123">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
@@ -4246,21 +4213,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E24" s="123">
-        <v>7800</v>
+        <v>650</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
@@ -4272,7 +4239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -4280,31 +4247,25 @@
         <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E25" s="123">
-        <v>1510.21</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H25" s="2">
-        <v>41497</v>
-      </c>
+        <v>7800</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="116">
-        <v>41495</v>
+        <v>41474</v>
       </c>
       <c r="J25" s="113" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -4315,28 +4276,28 @@
         <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26" s="123">
-        <v>5878.78</v>
+        <v>1510.21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2">
         <v>41494</v>
       </c>
       <c r="H26" s="2">
-        <v>41501</v>
+        <v>41497</v>
       </c>
       <c r="I26" s="116">
-        <v>41501</v>
+        <v>41495</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -4347,16 +4308,16 @@
         <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="123">
-        <v>19.079999999999998</v>
+        <v>5878.78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2">
-        <v>41498</v>
+        <v>41494</v>
       </c>
       <c r="H27" s="2">
         <v>41501</v>
@@ -4368,7 +4329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -4379,13 +4340,13 @@
         <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E28" s="123">
-        <v>115.01</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2">
         <v>41498</v>
@@ -4400,7 +4361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -4411,19 +4372,19 @@
         <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E29" s="123">
-        <v>8280.36</v>
+        <v>115.01</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2">
-        <v>41499</v>
+        <v>41498</v>
       </c>
       <c r="H29" s="2">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="I29" s="116">
         <v>41501</v>
@@ -4432,7 +4393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -4443,28 +4404,28 @@
         <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E30" s="123">
-        <v>1657.43</v>
+        <v>8280.36</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G30" s="2">
+        <v>41499</v>
+      </c>
+      <c r="H30" s="2">
         <v>41502</v>
       </c>
-      <c r="H30" s="2">
-        <v>41505</v>
-      </c>
       <c r="I30" s="116">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="J30" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -4478,45 +4439,49 @@
         <v>17</v>
       </c>
       <c r="E31" s="123">
-        <v>512.29999999999995</v>
+        <v>1657.43</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" s="2">
         <v>41502</v>
       </c>
       <c r="H31" s="2">
-        <v>41509</v>
+        <v>41505</v>
       </c>
       <c r="I31" s="116">
-        <v>41507</v>
+        <v>41502</v>
       </c>
       <c r="J31" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E32" s="123">
-        <v>10584</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G32" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H32" s="2">
+        <v>41509</v>
+      </c>
       <c r="I32" s="116">
         <v>41507</v>
       </c>
@@ -4524,39 +4489,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E33" s="123">
-        <v>7610.63</v>
+        <v>10584</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="2">
-        <v>41514</v>
-      </c>
-      <c r="H33" s="2">
-        <v>41517</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="116">
-        <v>41515</v>
+        <v>41507</v>
       </c>
       <c r="J33" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4567,28 +4528,28 @@
         <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E34" s="123">
-        <v>992.96</v>
+        <v>7610.63</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G34" s="2">
-        <v>41492</v>
+        <v>41514</v>
       </c>
       <c r="H34" s="2">
-        <v>41495</v>
+        <v>41517</v>
       </c>
       <c r="I34" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J34" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
@@ -4596,59 +4557,59 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="E35" s="123">
-        <v>335.18</v>
+        <v>992.96</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="G35" s="2">
+        <v>41492</v>
+      </c>
+      <c r="H35" s="2">
+        <v>41495</v>
+      </c>
       <c r="I35" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J35" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="E36" s="123">
-        <v>1764.84</v>
+        <v>335.18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H36" s="2">
-        <v>41573</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1">
+        <v>41521</v>
+      </c>
+      <c r="J36" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>205</v>
       </c>
@@ -4659,13 +4620,13 @@
         <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E37" s="123">
-        <v>241.71</v>
+        <v>1764.84</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G37" s="2">
         <v>41570</v>
@@ -4680,71 +4641,77 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="123">
+        <v>241.71</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H38" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I38" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="123">
+      <c r="E39" s="123">
         <v>3800</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="116"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1">
-      <c r="A39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="123"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="116"/>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E40" s="123">
-        <v>700</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E40" s="123"/>
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1">
+      <c r="I40" s="116"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
@@ -4752,33 +4719,27 @@
         <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E41" s="123">
-        <v>69.88</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G41" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H41" s="2">
-        <v>41573</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="116">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>86</v>
@@ -4787,28 +4748,28 @@
         <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="E42" s="123">
-        <v>3813.05</v>
+        <v>69.88</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="G42" s="2">
-        <v>41512</v>
+        <v>41570</v>
       </c>
       <c r="H42" s="2">
-        <v>41519</v>
+        <v>41573</v>
       </c>
       <c r="I42" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J42" s="113" t="s">
+        <v>41570</v>
+      </c>
+      <c r="J42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>206</v>
       </c>
@@ -4819,19 +4780,19 @@
         <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="123">
-        <v>66.180000000000007</v>
+        <v>3813.05</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G43" s="2">
-        <v>41513</v>
+        <v>41512</v>
       </c>
       <c r="H43" s="2">
-        <v>41516</v>
+        <v>41519</v>
       </c>
       <c r="I43" s="116">
         <v>41515</v>
@@ -4840,7 +4801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>206</v>
       </c>
@@ -4851,13 +4812,13 @@
         <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E44" s="123">
-        <v>649.32000000000005</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G44" s="2">
         <v>41513</v>
@@ -4872,7 +4833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>206</v>
       </c>
@@ -4883,73 +4844,77 @@
         <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E45" s="123">
-        <v>3084.07</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G45" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H45" s="2">
         <v>41516</v>
       </c>
-      <c r="H45" s="2">
-        <v>41519</v>
-      </c>
       <c r="I45" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J45" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E46" s="123">
-        <v>7010.82</v>
+        <v>3084.07</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G46" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H46" s="2">
+        <v>41519</v>
+      </c>
       <c r="I46" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J46" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E47" s="123">
-        <v>54</v>
+        <v>7010.82</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -4960,7 +4925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>206</v>
       </c>
@@ -4968,31 +4933,27 @@
         <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E48" s="123">
-        <v>1415.36</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G48" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H48" s="2">
-        <v>41519</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="116">
         <v>41521</v>
       </c>
       <c r="J48" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>206</v>
       </c>
@@ -5003,28 +4964,28 @@
         <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E49" s="123">
-        <v>4163.04</v>
+        <v>1415.36</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G49" s="2">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="H49" s="2">
-        <v>41518</v>
+        <v>41519</v>
       </c>
       <c r="I49" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J49" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>206</v>
       </c>
@@ -5038,10 +4999,10 @@
         <v>160</v>
       </c>
       <c r="E50" s="123">
-        <v>1214.22</v>
+        <v>4163.04</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G50" s="2">
         <v>41515</v>
@@ -5056,7 +5017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>206</v>
       </c>
@@ -5067,28 +5028,28 @@
         <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E51" s="123">
-        <v>227.55</v>
+        <v>1214.22</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G51" s="2">
-        <v>41528</v>
+        <v>41515</v>
       </c>
       <c r="H51" s="2">
-        <v>41531</v>
+        <v>41518</v>
       </c>
       <c r="I51" s="116">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="J51" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -5096,27 +5057,31 @@
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E52" s="123">
-        <v>360</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="2"/>
+        <v>227.55</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="2">
+        <v>41528</v>
+      </c>
       <c r="H52" s="2">
-        <v>41537</v>
+        <v>41531</v>
       </c>
       <c r="I52" s="116">
-        <v>41537</v>
+        <v>41528</v>
       </c>
       <c r="J52" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>206</v>
       </c>
@@ -5124,31 +5089,27 @@
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E53" s="123">
-        <v>2786.4</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G53" s="2">
-        <v>41544</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="I53" s="116">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="J53" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
@@ -5159,19 +5120,19 @@
         <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E54" s="123">
-        <v>594.69000000000005</v>
+        <v>2786.4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G54" s="2">
+        <v>41544</v>
+      </c>
+      <c r="H54" s="2">
         <v>41547</v>
-      </c>
-      <c r="H54" s="2">
-        <v>41550</v>
       </c>
       <c r="I54" s="116">
         <v>41547</v>
@@ -5180,59 +5141,59 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="E55" s="123">
-        <v>2960</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G55" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H55" s="2">
+        <v>41550</v>
+      </c>
       <c r="I55" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J55" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="E56" s="123">
-        <v>200</v>
+        <v>2960</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="2">
-        <v>41549</v>
-      </c>
-      <c r="H56" s="2">
-        <v>41549</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="116">
         <v>41552</v>
       </c>
@@ -5240,7 +5201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
@@ -5251,19 +5212,19 @@
         <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E57" s="123">
-        <v>48.18</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G57" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="H57" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="I57" s="116">
         <v>41552</v>
@@ -5272,7 +5233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>206</v>
       </c>
@@ -5283,19 +5244,19 @@
         <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E58" s="123">
-        <v>90</v>
+        <v>48.18</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G58" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="H58" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="I58" s="116">
         <v>41552</v>
@@ -5306,34 +5267,34 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E59" s="123">
-        <v>86.1</v>
+        <v>90</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G59" s="2">
-        <v>41570</v>
+        <v>41547</v>
       </c>
       <c r="H59" s="2">
-        <v>41573</v>
+        <v>41547</v>
       </c>
       <c r="I59" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J59" t="s">
-        <v>23</v>
+        <v>41552</v>
+      </c>
+      <c r="J59" s="113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5344,24 +5305,28 @@
         <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E60" s="123">
-        <v>1000</v>
+        <v>86.1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="G60" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H60" s="2">
+        <v>41573</v>
+      </c>
       <c r="I60" s="116">
-        <v>41555</v>
-      </c>
-      <c r="J60" s="113" t="s">
-        <v>84</v>
+        <v>41570</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5375,71 +5340,71 @@
         <v>180</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="E61" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="116">
-        <v>41565</v>
+        <v>41555</v>
       </c>
       <c r="J61" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E62" s="123">
-        <v>2052</v>
+        <v>6500</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="116"/>
-    </row>
-    <row r="63" spans="1:10" hidden="1">
+      <c r="I62" s="116">
+        <v>41565</v>
+      </c>
+      <c r="J62" s="113" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="E63" s="123">
-        <v>1260.76</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>2052</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J63" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1">
+      <c r="I63" s="116"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>206</v>
       </c>
@@ -5450,30 +5415,26 @@
         <v>89</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="E64" s="123">
-        <v>2398.8000000000002</v>
+        <v>1260.76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G64" s="2">
-        <v>41558</v>
-      </c>
-      <c r="H64" s="2">
-        <v>41561</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="116">
-        <v>41558</v>
+        <v>41557</v>
       </c>
       <c r="J64" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>86</v>
@@ -5482,28 +5443,28 @@
         <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E65" s="123">
-        <v>2413.2399999999998</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G65" s="2">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="H65" s="2">
-        <v>41530</v>
+        <v>41561</v>
       </c>
       <c r="I65" s="116">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="J65" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>207</v>
       </c>
@@ -5517,25 +5478,25 @@
         <v>17</v>
       </c>
       <c r="E66" s="123">
-        <v>247.93</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G66" s="2">
-        <v>41534</v>
+        <v>41527</v>
       </c>
       <c r="H66" s="2">
-        <v>41537</v>
+        <v>41530</v>
       </c>
       <c r="I66" s="116">
-        <v>41534</v>
+        <v>41527</v>
       </c>
       <c r="J66" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
@@ -5549,25 +5510,25 @@
         <v>17</v>
       </c>
       <c r="E67" s="123">
-        <v>257.38</v>
+        <v>247.93</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G67" s="2">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="H67" s="2">
-        <v>41539</v>
+        <v>41537</v>
       </c>
       <c r="I67" s="116">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="J67" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
@@ -5578,78 +5539,78 @@
         <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E68" s="123">
-        <v>7792.51</v>
+        <v>257.38</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G68" s="2">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="H68" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I68" s="116">
         <v>41536</v>
-      </c>
-      <c r="I68" s="116">
-        <v>41541</v>
       </c>
       <c r="J68" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="E69" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+        <v>7792.51</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H69" s="2">
+        <v>41536</v>
+      </c>
       <c r="I69" s="116">
-        <v>41542</v>
+        <v>41541</v>
       </c>
       <c r="J69" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E70" s="123">
-        <v>4489.5</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G70" s="2">
-        <v>41542</v>
-      </c>
-      <c r="H70" s="2">
-        <v>41545</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="116">
         <v>41542</v>
       </c>
@@ -5659,24 +5620,35 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E71" s="123">
-        <v>5724</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="116"/>
+        <v>4489.5</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H71" s="2">
+        <v>41545</v>
+      </c>
+      <c r="I71" s="116">
+        <v>41542</v>
+      </c>
+      <c r="J71" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
@@ -5689,10 +5661,10 @@
         <v>149</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E72" s="123">
-        <v>6372</v>
+        <v>5724</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
@@ -5704,28 +5676,21 @@
         <v>208</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="E73" s="123">
-        <v>9249.7800000000007</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J73" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I73" s="116"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
@@ -5738,13 +5703,13 @@
         <v>182</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74" s="123">
-        <v>610</v>
+        <v>9249.7800000000007</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -5769,12 +5734,19 @@
         <v>185</v>
       </c>
       <c r="E75" s="123">
-        <v>1420.86</v>
-      </c>
-      <c r="F75" s="1"/>
+        <v>610</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="116"/>
+      <c r="I75" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J75" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
@@ -5787,22 +5759,15 @@
         <v>182</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E76" s="123">
-        <v>790</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>1420.86</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J76" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I76" s="116"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
@@ -5818,12 +5783,19 @@
         <v>187</v>
       </c>
       <c r="E77" s="123">
-        <v>1841.26</v>
-      </c>
-      <c r="F77" s="1"/>
+        <v>790</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="116"/>
+      <c r="I77" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J77" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
@@ -5836,56 +5808,45 @@
         <v>182</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E78" s="123">
-        <v>12076.41</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>1841.26</v>
+      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J78" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1">
+      <c r="I78" s="116"/>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E79" s="123">
-        <v>5326</v>
+        <v>12076.41</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G79" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H79" s="2">
-        <v>41573</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J79" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J79" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>211</v>
       </c>
@@ -5896,22 +5857,22 @@
         <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="E80" s="123">
-        <v>93.52</v>
+        <v>5326</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G80" s="2">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="H80" s="2">
-        <v>41574</v>
+        <v>41573</v>
       </c>
       <c r="I80" s="116">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="J80" t="s">
         <v>23</v>
@@ -5919,7 +5880,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -5928,13 +5889,13 @@
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E81" s="123">
-        <v>290.98</v>
+        <v>93.52</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G81" s="2">
         <v>41571</v>
@@ -5949,80 +5910,122 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="123">
+        <v>290.98</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H82" s="2">
+        <v>41574</v>
+      </c>
+      <c r="I82" s="116">
+        <v>41571</v>
+      </c>
+      <c r="J82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="123"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="116"/>
-    </row>
-    <row r="83" spans="1:10" hidden="1">
-      <c r="A83" s="1" t="s">
+      <c r="E83" s="123"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="116"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="123">
+      <c r="E84" s="123">
         <v>60.89</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G84" s="2">
         <v>41570</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H84" s="2">
         <v>41573</v>
       </c>
-      <c r="I83" s="116">
+      <c r="I84" s="116">
         <v>41570</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="116"/>
-    </row>
-    <row r="85" spans="1:10" hidden="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="116"/>
-    </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="123">
+        <v>84.89</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H85" s="2">
+        <v>41580</v>
+      </c>
+      <c r="I85" s="116">
+        <v>41577</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6033,7 +6036,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="116"/>
     </row>
-    <row r="87" spans="1:10" hidden="1">
+    <row r="87" spans="1:10">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6044,7 +6047,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="116"/>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6055,65 +6058,76 @@
       <c r="H88" s="2"/>
       <c r="I88" s="116"/>
     </row>
-    <row r="89" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A89" s="44" t="s">
+    <row r="89" spans="1:10">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="123"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="116"/>
+    </row>
+    <row r="90" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A90" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="124">
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>45961.390000000007</v>
-      </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="114">
+        <v>181153.06</v>
+      </c>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="117"/>
+      <c r="J90" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="118"/>
-      <c r="J97" s="110"/>
-    </row>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickTop="1"/>
     <row r="98" spans="1:10">
-      <c r="C98" s="109"/>
-      <c r="D98" s="109"/>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="122"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="118"/>
-      <c r="J114" s="110"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="118"/>
+      <c r="J98" s="110"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="C99" s="109"/>
+      <c r="D99" s="109"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="118"/>
+      <c r="J115" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90:B97 B82 B22:B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91:B98 B83 B23:B70">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A90:A97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A91:A98">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A89">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F37" authorId="0">
+    <comment ref="F38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="0">
+    <comment ref="F43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cz 3/3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="0">
+    <comment ref="F82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,11 +147,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Część faktury - druga część tej samej faktury w sekcji Fundamenty. Faktura razem na 7090,84</t>
+cz 1/3</t>
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="0">
+    <comment ref="F83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,12 +176,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="F85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Część faktury - druga część tej samej faktury w sekcji Fundamenty. Faktura razem na 7090,84</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F88" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cz 2/3</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="227">
   <si>
     <t>Opis</t>
   </si>
@@ -829,6 +901,15 @@
   </si>
   <si>
     <t>7116/T/10/2013</t>
+  </si>
+  <si>
+    <t>7184/T/11/2013</t>
+  </si>
+  <si>
+    <t>7206/T/11/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rura  </t>
   </si>
 </sst>
 </file>
@@ -1831,6 +1912,9 @@
                 <c:pt idx="1">
                   <c:v>9100</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3352</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>-17900</c:v>
                 </c:pt>
@@ -1875,25 +1959,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62703872"/>
-        <c:axId val="62722048"/>
+        <c:axId val="52228480"/>
+        <c:axId val="52230016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62703872"/>
+        <c:axId val="52228480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62722048"/>
+        <c:crossAx val="52230016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62722048"/>
+        <c:axId val="52230016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,7 +1986,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62703872"/>
+        <c:crossAx val="52228480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1915,7 +1999,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1957,7 +2041,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41574.521288773147" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="86">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41581.973627199077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="88">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -1973,9 +2057,9 @@
         <s v="8. Ścianki działowe"/>
         <s v="7. Okna i drzwi zewn"/>
         <m/>
+        <s v="4. Dach" u="1"/>
         <s v="2. Ściany nadziemia" u="1"/>
         <s v="3. Stropy, schody" u="1"/>
-        <s v="4. Dach" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Typ" numFmtId="0">
@@ -2001,13 +2085,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-10-25T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-10-31T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-10-28T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-11-03T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-10-25T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-10-31T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2017,7 +2101,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="86">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="88">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2256,6 +2340,18 @@
     <m/>
     <m/>
     <d v="2013-08-29T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Bory"/>
+    <s v="Wynagrodzenie Borek"/>
+    <n v="540"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-10-28T00:00:00"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2705,6 +2801,18 @@
   <r>
     <x v="4"/>
     <x v="3"/>
+    <s v="Manex"/>
+    <s v="Gwoździe"/>
+    <n v="86.1"/>
+    <s v="6923/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
     <s v="Tartak"/>
     <s v="Więźba - zaliczka"/>
     <n v="1000"/>
@@ -2982,8 +3090,8 @@
     <x v="7"/>
     <x v="3"/>
     <s v="Manex"/>
-    <s v="Styropian, gwoździe"/>
-    <n v="146.99"/>
+    <s v="Styropian"/>
+    <n v="60.89"/>
     <s v="6923/T/10/2013"/>
     <d v="2013-10-23T00:00:00"/>
     <d v="2013-10-26T00:00:00"/>
@@ -2991,16 +3099,16 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Styropian"/>
+    <n v="84.89"/>
+    <s v="7116/T/10/2013"/>
+    <d v="2013-10-30T00:00:00"/>
+    <d v="2013-11-02T00:00:00"/>
+    <d v="2013-10-30T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="8"/>
@@ -3061,9 +3169,9 @@
       <items count="13">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="9"/>
         <item m="1" x="10"/>
         <item m="1" x="11"/>
+        <item m="1" x="9"/>
         <item x="8"/>
         <item x="2"/>
         <item x="3"/>
@@ -3178,8 +3286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J90" totalsRowCount="1">
-  <autoFilter ref="A1:J89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J92" totalsRowCount="1">
+  <autoFilter ref="A1:J91">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -3187,8 +3295,8 @@
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
-  <sortState ref="A2:J67">
-    <sortCondition ref="A1:A67"/>
+  <sortState ref="A2:J91">
+    <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
@@ -3517,11 +3625,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4611,35 +4719,20 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="123">
-        <v>1764.84</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H37" s="2">
-        <v>41573</v>
-      </c>
-      <c r="I37" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J37" t="s">
-        <v>23</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E37" s="123"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="116"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
@@ -4652,13 +4745,13 @@
         <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E38" s="123">
-        <v>241.71</v>
+        <v>1764.84</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G38" s="2">
         <v>41570</v>
@@ -4678,34 +4771,49 @@
         <v>205</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E39" s="123">
-        <v>3800</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="116"/>
+        <v>241.71</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H39" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I39" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="123"/>
+        <v>194</v>
+      </c>
+      <c r="E40" s="123">
+        <v>3800</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4771,7 +4879,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>86</v>
@@ -4780,24 +4888,24 @@
         <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="E43" s="123">
-        <v>3813.05</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="G43" s="2">
-        <v>41512</v>
+        <v>41582</v>
       </c>
       <c r="H43" s="2">
-        <v>41519</v>
+        <v>41585</v>
       </c>
       <c r="I43" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J43" s="113" t="s">
+        <v>41582</v>
+      </c>
+      <c r="J43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4812,19 +4920,19 @@
         <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" s="123">
-        <v>66.180000000000007</v>
+        <v>3813.05</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G44" s="2">
-        <v>41513</v>
+        <v>41512</v>
       </c>
       <c r="H44" s="2">
-        <v>41516</v>
+        <v>41519</v>
       </c>
       <c r="I44" s="116">
         <v>41515</v>
@@ -4844,13 +4952,13 @@
         <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E45" s="123">
-        <v>649.32000000000005</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G45" s="2">
         <v>41513</v>
@@ -4876,22 +4984,22 @@
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E46" s="123">
-        <v>3084.07</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G46" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H46" s="2">
         <v>41516</v>
       </c>
-      <c r="H46" s="2">
-        <v>41519</v>
-      </c>
       <c r="I46" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J46" s="113" t="s">
         <v>23</v>
@@ -4902,27 +5010,31 @@
         <v>206</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E47" s="123">
-        <v>7010.82</v>
+        <v>3084.07</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G47" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H47" s="2">
+        <v>41519</v>
+      </c>
       <c r="I47" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J47" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4930,19 +5042,19 @@
         <v>206</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E48" s="123">
-        <v>54</v>
+        <v>7010.82</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -4961,28 +5073,24 @@
         <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E49" s="123">
-        <v>1415.36</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G49" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H49" s="2">
-        <v>41519</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="116">
         <v>41521</v>
       </c>
       <c r="J49" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4996,22 +5104,22 @@
         <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E50" s="123">
-        <v>4163.04</v>
+        <v>1415.36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G50" s="2">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="H50" s="2">
-        <v>41518</v>
+        <v>41519</v>
       </c>
       <c r="I50" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J50" s="113" t="s">
         <v>23</v>
@@ -5031,10 +5139,10 @@
         <v>160</v>
       </c>
       <c r="E51" s="123">
-        <v>1214.22</v>
+        <v>4163.04</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51" s="2">
         <v>41515</v>
@@ -5060,22 +5168,22 @@
         <v>89</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E52" s="123">
-        <v>227.55</v>
+        <v>1214.22</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2">
-        <v>41528</v>
+        <v>41515</v>
       </c>
       <c r="H52" s="2">
-        <v>41531</v>
+        <v>41518</v>
       </c>
       <c r="I52" s="116">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="J52" s="113" t="s">
         <v>23</v>
@@ -5089,21 +5197,25 @@
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E53" s="123">
-        <v>360</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="2"/>
+        <v>227.55</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="2">
+        <v>41528</v>
+      </c>
       <c r="H53" s="2">
-        <v>41537</v>
+        <v>41531</v>
       </c>
       <c r="I53" s="116">
-        <v>41537</v>
+        <v>41528</v>
       </c>
       <c r="J53" s="113" t="s">
         <v>23</v>
@@ -5117,25 +5229,21 @@
         <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E54" s="123">
-        <v>2786.4</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="2">
-        <v>41544</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="I54" s="116">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="J54" s="113" t="s">
         <v>23</v>
@@ -5152,19 +5260,19 @@
         <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E55" s="123">
-        <v>594.69000000000005</v>
+        <v>2786.4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G55" s="2">
+        <v>41544</v>
+      </c>
+      <c r="H55" s="2">
         <v>41547</v>
-      </c>
-      <c r="H55" s="2">
-        <v>41550</v>
       </c>
       <c r="I55" s="116">
         <v>41547</v>
@@ -5178,27 +5286,31 @@
         <v>206</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="E56" s="123">
-        <v>2960</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H56" s="2">
+        <v>41550</v>
+      </c>
       <c r="I56" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J56" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5206,26 +5318,22 @@
         <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="E57" s="123">
-        <v>200</v>
+        <v>2960</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="2">
-        <v>41549</v>
-      </c>
-      <c r="H57" s="2">
-        <v>41549</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="116">
         <v>41552</v>
       </c>
@@ -5244,19 +5352,19 @@
         <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E58" s="123">
-        <v>48.18</v>
+        <v>200</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G58" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="H58" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="I58" s="116">
         <v>41552</v>
@@ -5276,19 +5384,19 @@
         <v>149</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E59" s="123">
-        <v>90</v>
+        <v>48.18</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G59" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="H59" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="I59" s="116">
         <v>41552</v>
@@ -5299,88 +5407,90 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E60" s="123">
-        <v>86.1</v>
+        <v>90</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G60" s="2">
-        <v>41570</v>
+        <v>41547</v>
       </c>
       <c r="H60" s="2">
-        <v>41573</v>
+        <v>41547</v>
       </c>
       <c r="I60" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J60" t="s">
-        <v>23</v>
+        <v>41552</v>
+      </c>
+      <c r="J60" s="113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="E61" s="123">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="116">
-        <v>41555</v>
-      </c>
-      <c r="J61" s="113" t="s">
+        <v>41578</v>
+      </c>
+      <c r="J61" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="E62" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>1260.76</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="116">
-        <v>41565</v>
+        <v>41557</v>
       </c>
       <c r="J62" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5388,25 +5498,36 @@
         <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E63" s="123">
-        <v>2052</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="116"/>
+        <v>2398.8000000000002</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="2">
+        <v>41558</v>
+      </c>
+      <c r="H63" s="2">
+        <v>41561</v>
+      </c>
+      <c r="I63" s="116">
+        <v>41558</v>
+      </c>
+      <c r="J63" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>86</v>
@@ -5415,18 +5536,22 @@
         <v>89</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="E64" s="123">
-        <v>1260.76</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="G64" s="2">
+        <v>41527</v>
+      </c>
+      <c r="H64" s="2">
+        <v>41530</v>
+      </c>
       <c r="I64" s="116">
-        <v>41557</v>
+        <v>41527</v>
       </c>
       <c r="J64" s="113" t="s">
         <v>23</v>
@@ -5434,7 +5559,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>86</v>
@@ -5443,22 +5568,22 @@
         <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E65" s="123">
-        <v>2398.8000000000002</v>
+        <v>247.93</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G65" s="2">
-        <v>41558</v>
+        <v>41534</v>
       </c>
       <c r="H65" s="2">
-        <v>41561</v>
+        <v>41537</v>
       </c>
       <c r="I65" s="116">
-        <v>41558</v>
+        <v>41534</v>
       </c>
       <c r="J65" s="113" t="s">
         <v>23</v>
@@ -5478,19 +5603,19 @@
         <v>17</v>
       </c>
       <c r="E66" s="123">
-        <v>2413.2399999999998</v>
+        <v>257.38</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G66" s="2">
-        <v>41527</v>
+        <v>41536</v>
       </c>
       <c r="H66" s="2">
-        <v>41530</v>
+        <v>41539</v>
       </c>
       <c r="I66" s="116">
-        <v>41527</v>
+        <v>41536</v>
       </c>
       <c r="J66" s="113" t="s">
         <v>23</v>
@@ -5507,22 +5632,22 @@
         <v>89</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E67" s="123">
-        <v>247.93</v>
+        <v>7792.51</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G67" s="2">
-        <v>41534</v>
+        <v>41533</v>
       </c>
       <c r="H67" s="2">
-        <v>41537</v>
+        <v>41536</v>
       </c>
       <c r="I67" s="116">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="J67" s="113" t="s">
         <v>23</v>
@@ -5533,28 +5658,22 @@
         <v>207</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E68" s="123">
-        <v>257.38</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G68" s="2">
-        <v>41536</v>
-      </c>
-      <c r="H68" s="2">
-        <v>41539</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="116">
-        <v>41536</v>
+        <v>41542</v>
       </c>
       <c r="J68" s="113" t="s">
         <v>23</v>
@@ -5571,22 +5690,22 @@
         <v>89</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="E69" s="123">
-        <v>7792.51</v>
+        <v>4489.5</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G69" s="2">
-        <v>41533</v>
+        <v>41542</v>
       </c>
       <c r="H69" s="2">
-        <v>41536</v>
+        <v>41545</v>
       </c>
       <c r="I69" s="116">
-        <v>41541</v>
+        <v>41542</v>
       </c>
       <c r="J69" s="113" t="s">
         <v>23</v>
@@ -5594,60 +5713,62 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="E70" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+        <v>86.1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H70" s="2">
+        <v>41573</v>
+      </c>
       <c r="I70" s="116">
-        <v>41542</v>
-      </c>
-      <c r="J70" s="113" t="s">
+        <v>41570</v>
+      </c>
+      <c r="J70" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="E71" s="123">
-        <v>4489.5</v>
+        <v>1000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G71" s="2">
-        <v>41542</v>
-      </c>
-      <c r="H71" s="2">
-        <v>41545</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="116">
-        <v>41542</v>
+        <v>41555</v>
       </c>
       <c r="J71" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -5655,21 +5776,26 @@
         <v>208</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E72" s="123">
-        <v>5724</v>
+        <v>6500</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="116"/>
+      <c r="I72" s="116">
+        <v>41565</v>
+      </c>
+      <c r="J72" s="113" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
@@ -5682,10 +5808,10 @@
         <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E73" s="123">
-        <v>6372</v>
+        <v>5724</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
@@ -5697,28 +5823,21 @@
         <v>208</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="E74" s="123">
-        <v>9249.7800000000007</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J74" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I74" s="116"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
@@ -5731,13 +5850,13 @@
         <v>182</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E75" s="123">
-        <v>610</v>
+        <v>9249.7800000000007</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -5762,12 +5881,19 @@
         <v>185</v>
       </c>
       <c r="E76" s="123">
-        <v>1420.86</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>610</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="116"/>
+      <c r="I76" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J76" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
@@ -5780,22 +5906,15 @@
         <v>182</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E77" s="123">
-        <v>790</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>1420.86</v>
+      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J77" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I77" s="116"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
@@ -5811,12 +5930,19 @@
         <v>187</v>
       </c>
       <c r="E78" s="123">
-        <v>1841.26</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>790</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="116"/>
+      <c r="I78" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J78" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
@@ -5829,58 +5955,47 @@
         <v>182</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E79" s="123">
-        <v>12076.41</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>1841.26</v>
+      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J79" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I79" s="116"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="E80" s="123">
-        <v>5326</v>
+        <v>12076.41</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G80" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H80" s="2">
-        <v>41573</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J80" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J80" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -5889,13 +6004,13 @@
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E81" s="123">
-        <v>93.52</v>
+        <v>290.98</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G81" s="2">
         <v>41571</v>
@@ -5912,7 +6027,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>86</v>
@@ -5921,22 +6036,22 @@
         <v>89</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E82" s="123">
-        <v>290.98</v>
+        <v>312.33</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G82" s="2">
-        <v>41571</v>
+        <v>41582</v>
       </c>
       <c r="H82" s="2">
-        <v>41574</v>
+        <v>41585</v>
       </c>
       <c r="I82" s="116">
-        <v>41571</v>
+        <v>41582</v>
       </c>
       <c r="J82" t="s">
         <v>23</v>
@@ -5944,22 +6059,35 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="123"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="116"/>
+        <v>22</v>
+      </c>
+      <c r="E83" s="123">
+        <v>60.89</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H83" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I83" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
@@ -5975,19 +6103,19 @@
         <v>22</v>
       </c>
       <c r="E84" s="123">
-        <v>60.89</v>
+        <v>84.89</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="G84" s="2">
-        <v>41570</v>
+        <v>41577</v>
       </c>
       <c r="H84" s="2">
-        <v>41573</v>
+        <v>41580</v>
       </c>
       <c r="I84" s="116">
-        <v>41570</v>
+        <v>41577</v>
       </c>
       <c r="J84" t="s">
         <v>23</v>
@@ -5995,7 +6123,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>86</v>
@@ -6004,43 +6132,72 @@
         <v>89</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="E85" s="123">
-        <v>84.89</v>
+        <v>5326</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="G85" s="2">
-        <v>41577</v>
+        <v>41570</v>
       </c>
       <c r="H85" s="2">
-        <v>41580</v>
+        <v>41573</v>
       </c>
       <c r="I85" s="116">
-        <v>41577</v>
+        <v>41570</v>
       </c>
       <c r="J85" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="116"/>
+      <c r="A86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="123">
+        <v>93.52</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G86" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H86" s="2">
+        <v>41574</v>
+      </c>
+      <c r="I86" s="116">
+        <v>41571</v>
+      </c>
+      <c r="J86" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E87" s="123"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
@@ -6048,86 +6205,150 @@
       <c r="I87" s="116"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="116"/>
+      <c r="A88" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88" s="123">
+        <v>227.67</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G88" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H88" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I88" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="116"/>
-    </row>
-    <row r="90" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A90" s="44" t="s">
+      <c r="A89" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="123">
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H89" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I89" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="123"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="116"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="123"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="116"/>
+    </row>
+    <row r="92" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A92" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="124">
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>181153.06</v>
-      </c>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="117"/>
-      <c r="J90" s="114">
+        <v>182896.02</v>
+      </c>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="117"/>
+      <c r="J92" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="118"/>
-      <c r="J98" s="110"/>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="C99" s="109"/>
-      <c r="D99" s="109"/>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="118"/>
-      <c r="J115" s="110"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="122"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="118"/>
+      <c r="J100" s="110"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="122"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="118"/>
+      <c r="J117" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91:B98 B83 B23:B70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93:B100 B83 B23:B70 B87">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A91:A98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A93:A100">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A91">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -6145,7 +6366,7 @@
   <dimension ref="A3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6226,10 +6447,10 @@
         <v>5197</v>
       </c>
       <c r="F5" s="43">
-        <v>2526</v>
+        <v>3066</v>
       </c>
       <c r="G5" s="127">
-        <v>16415</v>
+        <v>16955</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6307,7 +6528,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="43">
-        <v>33779.29</v>
+        <v>33865.390000000007</v>
       </c>
       <c r="C10" s="43">
         <v>12096</v>
@@ -6316,7 +6537,7 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="127">
-        <v>45875.29</v>
+        <v>45961.390000000007</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6339,14 +6560,14 @@
         <v>210</v>
       </c>
       <c r="B12" s="43">
-        <v>146.99</v>
+        <v>145.78</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="127">
-        <v>146.99</v>
+        <v>145.78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6354,7 +6575,7 @@
         <v>156</v>
       </c>
       <c r="B13" s="43">
-        <v>114660.35</v>
+        <v>114745.24</v>
       </c>
       <c r="C13" s="43">
         <v>48602.82</v>
@@ -6366,10 +6587,10 @@
         <v>5197</v>
       </c>
       <c r="F13" s="43">
-        <v>2526</v>
+        <v>3066</v>
       </c>
       <c r="G13" s="128">
-        <v>180528.16999999998</v>
+        <v>181153.06</v>
       </c>
     </row>
   </sheetData>
@@ -6383,7 +6604,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6504,13 +6725,22 @@
       <c r="C6">
         <v>37800</v>
       </c>
+      <c r="D6">
+        <v>34448</v>
+      </c>
       <c r="E6" s="43">
         <f>Tabela5[[#This Row],[Planowane]]+E5</f>
         <v>85400</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="43">
+        <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
+        <v>-3352</v>
+      </c>
       <c r="G6" s="2">
         <v>41544</v>
+      </c>
+      <c r="H6" s="2">
+        <v>41578</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6601,7 +6831,9 @@
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-21600</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="2">
+        <v>41614</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
@@ -6620,6 +6852,9 @@
       <c r="F11" s="43">
         <f>Tabela5[[#This Row],[Rzeczywiste]]-Tabela5[[#This Row],[Planowane]]</f>
         <v>-9700</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41586</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F38" authorId="0">
+    <comment ref="F37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="0">
+    <comment ref="F40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="0">
+    <comment ref="F74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="0">
+    <comment ref="F88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="0">
+    <comment ref="F90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F85" authorId="0">
+    <comment ref="F93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="0">
+    <comment ref="F96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="241">
   <si>
     <t>Opis</t>
   </si>
@@ -910,6 +910,48 @@
   </si>
   <si>
     <t xml:space="preserve">Rura  </t>
+  </si>
+  <si>
+    <t>Docieplenie styropianem</t>
+  </si>
+  <si>
+    <t>Murek taras</t>
+  </si>
+  <si>
+    <t>Ściana kominek</t>
+  </si>
+  <si>
+    <t>Docieplenie koci taras</t>
+  </si>
+  <si>
+    <t>Zmnijeszenie drzwi balkonowych</t>
+  </si>
+  <si>
+    <t>Ścianki działowe 126m2</t>
+  </si>
+  <si>
+    <t>Suchy beton</t>
+  </si>
+  <si>
+    <t>Ocieplenie tarasiku</t>
+  </si>
+  <si>
+    <t>7214/T/11/2013</t>
+  </si>
+  <si>
+    <t>Płyty osb na brame dziewic</t>
+  </si>
+  <si>
+    <t>7274/T/11/2013</t>
+  </si>
+  <si>
+    <t>Rożne</t>
+  </si>
+  <si>
+    <t>Rozne</t>
+  </si>
+  <si>
+    <t>Różne</t>
   </si>
 </sst>
 </file>
@@ -1959,25 +2001,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52228480"/>
-        <c:axId val="52230016"/>
+        <c:axId val="63101184"/>
+        <c:axId val="63119360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52228480"/>
+        <c:axId val="63101184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52230016"/>
+        <c:crossAx val="63119360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52230016"/>
+        <c:axId val="63119360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +2028,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52228480"/>
+        <c:crossAx val="63101184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1999,7 +2041,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3286,12 +3328,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J92" totalsRowCount="1">
-  <autoFilter ref="A1:J91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J103" totalsRowCount="1">
+  <autoFilter ref="A1:J102">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="7274/T/11/2013"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
@@ -3625,11 +3672,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3683,7 +3730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -3715,7 +3762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3747,7 +3794,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3779,7 +3826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3811,7 +3858,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3840,7 +3887,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3869,7 +3916,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3898,7 +3945,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3927,7 +3974,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -3956,7 +4003,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -3985,7 +4032,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -4014,7 +4061,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4043,7 +4090,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -4072,7 +4119,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -4101,7 +4148,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -4130,7 +4177,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -4159,7 +4206,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -4188,7 +4235,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -4217,7 +4264,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -4243,7 +4290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -4269,7 +4316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="1" t="s">
         <v>140</v>
       </c>
@@ -4295,7 +4342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -4321,7 +4368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -4347,7 +4394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -4373,7 +4420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -4405,7 +4452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -4437,7 +4484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -4469,7 +4516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -4501,7 +4548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -4533,7 +4580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -4565,7 +4612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -4597,7 +4644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -4625,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4657,7 +4704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
@@ -4689,7 +4736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -4717,24 +4764,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="123"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="116"/>
-    </row>
-    <row r="38" spans="1:10">
+        <v>194</v>
+      </c>
+      <c r="E37" s="123">
+        <v>1764.84</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H37" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I37" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1" t="s">
         <v>205</v>
       </c>
@@ -4745,13 +4807,13 @@
         <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E38" s="123">
-        <v>1764.84</v>
+        <v>241.71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G38" s="2">
         <v>41570</v>
@@ -4766,7 +4828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="1" t="s">
         <v>205</v>
       </c>
@@ -4774,52 +4836,57 @@
         <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E39" s="123">
-        <v>241.71</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H39" s="2">
-        <v>41573</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="116">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="J39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E40" s="123">
-        <v>3800</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="116"/>
-    </row>
-    <row r="41" spans="1:10">
+        <v>69.88</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H40" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I40" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
@@ -4827,57 +4894,57 @@
         <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="E41" s="123">
-        <v>700</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+        <v>40.619999999999997</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H41" s="2">
+        <v>41585</v>
+      </c>
       <c r="I41" s="116">
-        <v>41571</v>
+        <v>41582</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E42" s="123">
-        <v>69.88</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H42" s="2">
-        <v>41573</v>
-      </c>
+        <v>3800</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="116">
-        <v>41570</v>
+        <v>41466</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="1" t="s">
         <v>205</v>
       </c>
@@ -4885,65 +4952,53 @@
         <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="E43" s="123">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G43" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H43" s="2">
+        <v>400</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="116">
         <v>41585</v>
       </c>
-      <c r="I43" s="116">
-        <v>41582</v>
-      </c>
       <c r="J43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E44" s="123">
-        <v>3813.05</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="2">
-        <v>41512</v>
-      </c>
-      <c r="H44" s="2">
-        <v>41519</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J44" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J44" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>86</v>
@@ -4952,28 +5007,28 @@
         <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="E45" s="123">
-        <v>66.180000000000007</v>
+        <v>118.51</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="G45" s="2">
-        <v>41513</v>
+        <v>41585</v>
       </c>
       <c r="H45" s="2">
-        <v>41516</v>
+        <v>41588</v>
       </c>
       <c r="I45" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J45" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="1" t="s">
         <v>206</v>
       </c>
@@ -4984,19 +5039,19 @@
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E46" s="123">
-        <v>649.32000000000005</v>
+        <v>3813.05</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G46" s="2">
-        <v>41513</v>
+        <v>41512</v>
       </c>
       <c r="H46" s="2">
-        <v>41516</v>
+        <v>41519</v>
       </c>
       <c r="I46" s="116">
         <v>41515</v>
@@ -5005,7 +5060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="1" t="s">
         <v>206</v>
       </c>
@@ -5016,56 +5071,60 @@
         <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E47" s="123">
-        <v>3084.07</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G47" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H47" s="2">
         <v>41516</v>
       </c>
-      <c r="H47" s="2">
-        <v>41519</v>
-      </c>
       <c r="I47" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J47" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="E48" s="123">
-        <v>7010.82</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G48" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H48" s="2">
+        <v>41516</v>
+      </c>
       <c r="I48" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J48" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1" t="s">
         <v>206</v>
       </c>
@@ -5073,59 +5132,59 @@
         <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E49" s="123">
-        <v>54</v>
+        <v>3084.07</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H49" s="2">
+        <v>41519</v>
+      </c>
       <c r="I49" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J49" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="E50" s="123">
-        <v>1415.36</v>
+        <v>7010.82</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H50" s="2">
-        <v>41519</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="116">
         <v>41521</v>
       </c>
       <c r="J50" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="1" t="s">
         <v>206</v>
       </c>
@@ -5133,31 +5192,27 @@
         <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E51" s="123">
-        <v>4163.04</v>
+        <v>54</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H51" s="2">
-        <v>41518</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J51" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -5168,28 +5223,28 @@
         <v>89</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E52" s="123">
-        <v>1214.22</v>
+        <v>1415.36</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G52" s="2">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="H52" s="2">
-        <v>41518</v>
+        <v>41519</v>
       </c>
       <c r="I52" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J52" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="1" t="s">
         <v>206</v>
       </c>
@@ -5200,28 +5255,28 @@
         <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E53" s="123">
-        <v>227.55</v>
+        <v>4163.04</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G53" s="2">
-        <v>41528</v>
+        <v>41515</v>
       </c>
       <c r="H53" s="2">
-        <v>41531</v>
+        <v>41518</v>
       </c>
       <c r="I53" s="116">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="J53" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
@@ -5229,27 +5284,31 @@
         <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E54" s="123">
-        <v>360</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="2"/>
+        <v>1214.22</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="2">
+        <v>41515</v>
+      </c>
       <c r="H54" s="2">
-        <v>41537</v>
+        <v>41518</v>
       </c>
       <c r="I54" s="116">
-        <v>41537</v>
+        <v>41527</v>
       </c>
       <c r="J54" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="1" t="s">
         <v>206</v>
       </c>
@@ -5260,28 +5319,28 @@
         <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="E55" s="123">
-        <v>2786.4</v>
+        <v>227.55</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G55" s="2">
-        <v>41544</v>
+        <v>41528</v>
       </c>
       <c r="H55" s="2">
-        <v>41547</v>
+        <v>41531</v>
       </c>
       <c r="I55" s="116">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="J55" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="1" t="s">
         <v>206</v>
       </c>
@@ -5289,59 +5348,59 @@
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E56" s="123">
-        <v>594.69000000000005</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G56" s="2">
-        <v>41547</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="2">
-        <v>41550</v>
+        <v>41537</v>
       </c>
       <c r="I56" s="116">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="J56" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E57" s="123">
-        <v>2960</v>
+        <v>2786.4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41544</v>
+      </c>
+      <c r="H57" s="2">
+        <v>41547</v>
+      </c>
       <c r="I57" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J57" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="1" t="s">
         <v>206</v>
       </c>
@@ -5349,55 +5408,51 @@
         <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E58" s="123">
-        <v>200</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G58" s="2">
-        <v>41549</v>
+        <v>41547</v>
       </c>
       <c r="H58" s="2">
-        <v>41549</v>
+        <v>41550</v>
       </c>
       <c r="I58" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J58" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="E59" s="123">
-        <v>48.18</v>
+        <v>2960</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G59" s="2">
-        <v>41548</v>
-      </c>
-      <c r="H59" s="2">
-        <v>41548</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="116">
         <v>41552</v>
       </c>
@@ -5405,7 +5460,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="1" t="s">
         <v>206</v>
       </c>
@@ -5416,19 +5471,19 @@
         <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E60" s="123">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G60" s="2">
-        <v>41547</v>
+        <v>41549</v>
       </c>
       <c r="H60" s="2">
-        <v>41547</v>
+        <v>41549</v>
       </c>
       <c r="I60" s="116">
         <v>41552</v>
@@ -5437,35 +5492,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="E61" s="123">
-        <v>2000</v>
+        <v>48.18</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G61" s="2">
+        <v>41548</v>
+      </c>
+      <c r="H61" s="2">
+        <v>41548</v>
+      </c>
       <c r="I61" s="116">
-        <v>41578</v>
-      </c>
-      <c r="J61" t="s">
+        <v>41552</v>
+      </c>
+      <c r="J61" s="113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="1" t="s">
         <v>206</v>
       </c>
@@ -5473,61 +5532,61 @@
         <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E62" s="123">
-        <v>1260.76</v>
+        <v>90</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G62" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H62" s="2">
+        <v>41547</v>
+      </c>
       <c r="I62" s="116">
-        <v>41557</v>
+        <v>41552</v>
       </c>
       <c r="J62" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="E63" s="123">
-        <v>2398.8000000000002</v>
+        <v>2000</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" s="2">
-        <v>41558</v>
-      </c>
-      <c r="H63" s="2">
-        <v>41561</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="116">
-        <v>41558</v>
-      </c>
-      <c r="J63" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>41578</v>
+      </c>
+      <c r="J63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>86</v>
@@ -5536,30 +5595,26 @@
         <v>89</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="E64" s="123">
-        <v>2413.2399999999998</v>
+        <v>1260.76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="2">
-        <v>41527</v>
-      </c>
-      <c r="H64" s="2">
-        <v>41530</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="116">
-        <v>41527</v>
+        <v>41557</v>
       </c>
       <c r="J64" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>86</v>
@@ -5568,62 +5623,56 @@
         <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E65" s="123">
-        <v>247.93</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="G65" s="2">
-        <v>41534</v>
+        <v>41558</v>
       </c>
       <c r="H65" s="2">
-        <v>41537</v>
+        <v>41561</v>
       </c>
       <c r="I65" s="116">
-        <v>41534</v>
+        <v>41558</v>
       </c>
       <c r="J65" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="E66" s="123">
-        <v>257.38</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G66" s="2">
-        <v>41536</v>
-      </c>
-      <c r="H66" s="2">
-        <v>41539</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="116">
-        <v>41536</v>
-      </c>
-      <c r="J66" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>41585</v>
+      </c>
+      <c r="J66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>86</v>
@@ -5632,54 +5681,60 @@
         <v>89</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="E67" s="123">
-        <v>7792.51</v>
+        <v>192.4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="G67" s="2">
-        <v>41533</v>
+        <v>41583</v>
       </c>
       <c r="H67" s="2">
-        <v>41536</v>
+        <v>41586</v>
       </c>
       <c r="I67" s="116">
-        <v>41541</v>
-      </c>
-      <c r="J67" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E68" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+        <v>2413.2399999999998</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="2">
+        <v>41527</v>
+      </c>
+      <c r="H68" s="2">
+        <v>41530</v>
+      </c>
       <c r="I68" s="116">
-        <v>41542</v>
+        <v>41527</v>
       </c>
       <c r="J68" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -5690,30 +5745,30 @@
         <v>89</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E69" s="123">
-        <v>4489.5</v>
+        <v>247.93</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G69" s="2">
-        <v>41542</v>
+        <v>41534</v>
       </c>
       <c r="H69" s="2">
-        <v>41545</v>
+        <v>41537</v>
       </c>
       <c r="I69" s="116">
-        <v>41542</v>
+        <v>41534</v>
       </c>
       <c r="J69" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>86</v>
@@ -5722,124 +5777,150 @@
         <v>89</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="E70" s="123">
-        <v>86.1</v>
+        <v>257.38</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="G70" s="2">
-        <v>41570</v>
+        <v>41536</v>
       </c>
       <c r="H70" s="2">
-        <v>41573</v>
+        <v>41539</v>
       </c>
       <c r="I70" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J70" t="s">
+        <v>41536</v>
+      </c>
+      <c r="J70" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E71" s="123">
-        <v>1000</v>
+        <v>7792.51</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="G71" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H71" s="2">
+        <v>41536</v>
+      </c>
       <c r="I71" s="116">
-        <v>41555</v>
+        <v>41541</v>
       </c>
       <c r="J71" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E72" s="123">
-        <v>6500</v>
+        <v>10100</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="116">
-        <v>41565</v>
+        <v>41542</v>
       </c>
       <c r="J72" s="113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E73" s="123">
-        <v>5724</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="116"/>
-    </row>
-    <row r="74" spans="1:10">
+        <v>4489.5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H73" s="2">
+        <v>41545</v>
+      </c>
+      <c r="I73" s="116">
+        <v>41542</v>
+      </c>
+      <c r="J73" s="113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="E74" s="123">
-        <v>6372</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="116"/>
-    </row>
-    <row r="75" spans="1:10">
+        <v>86.1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H74" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I74" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -5847,27 +5928,27 @@
         <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="E75" s="123">
-        <v>9249.7800000000007</v>
+        <v>1000</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="116">
-        <v>41557</v>
+        <v>41555</v>
       </c>
       <c r="J75" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="1" t="s">
         <v>208</v>
       </c>
@@ -5875,76 +5956,74 @@
         <v>86</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="E76" s="123">
-        <v>610</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="116">
-        <v>41557</v>
+        <v>41565</v>
       </c>
       <c r="J76" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="E77" s="123">
-        <v>1420.86</v>
-      </c>
-      <c r="F77" s="1"/>
+        <v>5640</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="116"/>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="I77" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="E78" s="123">
-        <v>790</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J78" s="113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="I78" s="116"/>
+    </row>
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="1" t="s">
         <v>208</v>
       </c>
@@ -5955,17 +6034,24 @@
         <v>182</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E79" s="123">
-        <v>1841.26</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>9249.7800000000007</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="116"/>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="I79" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J79" s="113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="1" t="s">
         <v>208</v>
       </c>
@@ -5976,13 +6062,13 @@
         <v>182</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E80" s="123">
-        <v>12076.41</v>
+        <v>610</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -5993,7 +6079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -6001,129 +6087,99 @@
         <v>86</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E81" s="123">
-        <v>290.98</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G81" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H81" s="2">
-        <v>41574</v>
-      </c>
-      <c r="I81" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>1420.86</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="116"/>
+    </row>
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="E82" s="123">
-        <v>312.33</v>
+        <v>790</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G82" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H82" s="2">
-        <v>41585</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
       <c r="I82" s="116">
-        <v>41582</v>
-      </c>
-      <c r="J82" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J82" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="E83" s="123">
-        <v>60.89</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G83" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H83" s="2">
-        <v>41573</v>
-      </c>
-      <c r="I83" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>1841.26</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="116"/>
+    </row>
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="E84" s="123">
-        <v>84.89</v>
+        <v>12076.41</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G84" s="2">
-        <v>41577</v>
-      </c>
-      <c r="H84" s="2">
-        <v>41580</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="116">
-        <v>41577</v>
-      </c>
-      <c r="J84" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J84" s="113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>86</v>
@@ -6132,30 +6188,30 @@
         <v>89</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="E85" s="123">
-        <v>5326</v>
+        <v>290.98</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G85" s="2">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="H85" s="2">
-        <v>41573</v>
+        <v>41574</v>
       </c>
       <c r="I85" s="116">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="J85" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
@@ -6164,22 +6220,22 @@
         <v>89</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="E86" s="123">
-        <v>93.52</v>
+        <v>888</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="G86" s="2">
-        <v>41571</v>
+        <v>41583</v>
       </c>
       <c r="H86" s="2">
-        <v>41574</v>
+        <v>41586</v>
       </c>
       <c r="I86" s="116">
-        <v>41571</v>
+        <v>41586</v>
       </c>
       <c r="J86" t="s">
         <v>23</v>
@@ -6187,26 +6243,39 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E87" s="123"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="116"/>
-    </row>
-    <row r="88" spans="1:10">
+        <v>239</v>
+      </c>
+      <c r="E87" s="123">
+        <v>367.84</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G87" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H87" s="2">
+        <v>41588</v>
+      </c>
+      <c r="I87" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
@@ -6215,10 +6284,10 @@
         <v>89</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E88" s="123">
-        <v>227.67</v>
+        <v>312.33</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>224</v>
@@ -6236,119 +6305,462 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" s="123">
+        <v>200</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1">
+      <c r="A90" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="123">
+        <v>60.89</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H90" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I90" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1">
+      <c r="A91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="123">
+        <v>84.89</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G91" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H91" s="2">
+        <v>41580</v>
+      </c>
+      <c r="I91" s="116">
+        <v>41577</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1">
+      <c r="A92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="123">
+        <v>180</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1">
+      <c r="A93" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="123">
+      <c r="E93" s="123">
+        <v>5326</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G93" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H93" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I93" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1">
+      <c r="A94" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E94" s="123">
+        <v>93.52</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G94" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H94" s="2">
+        <v>41574</v>
+      </c>
+      <c r="I94" s="116">
+        <v>41571</v>
+      </c>
+      <c r="J94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1">
+      <c r="A95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E95" s="123">
+        <v>4400</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1">
+      <c r="A96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="123">
+        <v>227.67</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G96" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H96" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I96" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1">
+      <c r="A97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="123">
         <v>1214.3399999999999</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G97" s="2">
         <v>41582</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H97" s="2">
         <v>41585</v>
       </c>
-      <c r="I89" s="116">
+      <c r="I97" s="116">
         <v>41582</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="123"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="116"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="116"/>
-    </row>
-    <row r="92" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A92" s="44" t="s">
+    <row r="98" spans="1:10" hidden="1">
+      <c r="A98" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="123">
         <v>90</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="124">
+      <c r="F98" s="1"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1">
+      <c r="A99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="123">
+        <v>120</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1">
+      <c r="A100" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H100" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I100" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" s="123">
+        <v>272.37</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G101" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H101" s="2">
+        <v>41588</v>
+      </c>
+      <c r="I101" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="123"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="116"/>
+    </row>
+    <row r="103" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A103" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>182896.02</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="117"/>
-      <c r="J92" s="114">
+        <v>758.72</v>
+      </c>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="117"/>
+      <c r="J103" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="118"/>
-      <c r="J100" s="110"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="C101" s="109"/>
-      <c r="D101" s="109"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="122"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="118"/>
-      <c r="J117" s="110"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="122"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="118"/>
+      <c r="J111" s="110"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="C112" s="109"/>
+      <c r="D112" s="109"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="122"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="118"/>
+      <c r="J128" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93:B100 B83 B23:B70 B87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104:B111 B90 B98:B99 B95 B23:B74">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A93:A100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A104:A111">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A102">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="241">
   <si>
     <t>Opis</t>
   </si>
@@ -1396,7 +1396,17 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1709,6 +1719,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1774,6 +1794,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2001,25 +2022,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63101184"/>
-        <c:axId val="63119360"/>
+        <c:axId val="61528320"/>
+        <c:axId val="61550592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63101184"/>
+        <c:axId val="61528320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63119360"/>
+        <c:crossAx val="61550592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63119360"/>
+        <c:axId val="61550592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,20 +2049,21 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63101184"/>
+        <c:crossAx val="61528320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000511" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000511" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2083,21 +2105,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41581.973627199077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="88">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41587.408808564818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="101">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Etap" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="13">
         <s v="0. Przed budową"/>
         <s v="1. Fundamenty"/>
         <s v="2. Drenaż"/>
         <s v="3. Ściany nadziemia"/>
+        <s v="6. Ocieplenie"/>
+        <s v="4. Stropy, schody"/>
         <s v="5. Dach"/>
-        <s v="4. Stropy, schody"/>
+        <s v="7. Okna i drzwi zewn"/>
         <s v="8. Ścianki działowe"/>
-        <s v="7. Okna i drzwi zewn"/>
         <m/>
         <s v="4. Dach" u="1"/>
         <s v="2. Ściany nadziemia" u="1"/>
@@ -2127,13 +2150,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-10-31T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-11-08T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-11-03T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-11-11T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-10-31T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-11-09T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2143,7 +2166,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="88">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="101">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2590,30 +2613,6 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <s v="Antoni Nowak"/>
-    <s v="Drenaż"/>
-    <n v="3800"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <m/>
-    <s v="Piasek"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
     <x v="3"/>
     <s v="Bystrzycka"/>
     <s v="Drenaż - Żwir"/>
@@ -2637,6 +2636,66 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Rura  "/>
+    <n v="40.619999999999997"/>
+    <s v="7184/T/11/2013"/>
+    <d v="2013-11-04T00:00:00"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-04T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Drenaż"/>
+    <n v="3800"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-07-11T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Nowak"/>
+    <s v="Piasek"/>
+    <n v="400"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Nowak"/>
+    <s v="Suchy beton"/>
+    <n v="450"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Rożne"/>
+    <n v="118.51"/>
+    <s v="7274/T/11/2013"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-10T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
@@ -2841,52 +2900,16 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Gwoździe"/>
-    <n v="86.1"/>
-    <s v="6923/T/10/2013"/>
-    <d v="2013-10-23T00:00:00"/>
-    <d v="2013-10-26T00:00:00"/>
-    <d v="2013-10-23T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="Tartak"/>
-    <s v="Więźba - zaliczka"/>
-    <n v="1000"/>
-    <s v="dowód wpłaty"/>
-    <m/>
-    <m/>
-    <d v="2013-10-08T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <s v="Tartak"/>
-    <s v="Więźba"/>
-    <n v="6500"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-10-18T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
     <x v="3"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Mur poddasza"/>
-    <n v="2052"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2000"/>
+    <s v="bez faktury"/>
+    <m/>
+    <m/>
+    <d v="2013-10-31T00:00:00"/>
+    <s v="gotówka"/>
   </r>
   <r>
     <x v="3"/>
@@ -2913,6 +2936,30 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Zmnijeszenie drzwi balkonowych"/>
+    <n v="120"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Ocieplenie tarasiku"/>
+    <n v="192.4"/>
+    <s v="7214/T/11/2013"/>
+    <d v="2013-11-05T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
     <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
@@ -2985,19 +3032,55 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Gwoździe"/>
+    <n v="86.1"/>
+    <s v="6923/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Tartak"/>
+    <s v="Więźba - zaliczka"/>
+    <n v="1000"/>
+    <s v="dowód wpłaty"/>
+    <m/>
+    <m/>
+    <d v="2013-10-08T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Tartak"/>
+    <s v="Więźba"/>
+    <n v="6500"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-10-18T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Więźba"/>
-    <n v="5724"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <n v="5640"/>
+    <s v="bez faktury"/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Dach"/>
@@ -3009,7 +3092,7 @@
     <m/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="SBB Bielany"/>
     <s v="Dach - dachówki"/>
@@ -3021,7 +3104,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="SBB Bielany"/>
     <s v="Dach - dodatki"/>
@@ -3033,7 +3116,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="SBB Bielany"/>
     <s v="Dach - dodatki"/>
@@ -3045,7 +3128,7 @@
     <m/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="SBB Bielany"/>
     <s v="Dach - Rynna"/>
@@ -3057,7 +3140,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="SBB Bielany"/>
     <s v="Dach - Rynna"/>
@@ -3069,7 +3152,7 @@
     <m/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="6"/>
     <x v="3"/>
     <s v="SBB Bielany"/>
     <s v="Dach - Okna dachowe"/>
@@ -3082,30 +3165,6 @@
   </r>
   <r>
     <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Pustaki"/>
-    <n v="5326"/>
-    <s v="6922/T/10/2013"/>
-    <d v="2013-10-23T00:00:00"/>
-    <d v="2013-10-26T00:00:00"/>
-    <d v="2013-10-23T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Zaprawa"/>
-    <n v="93.52"/>
-    <s v="6940/T/10/2013"/>
-    <d v="2013-10-24T00:00:00"/>
-    <d v="2013-10-27T00:00:00"/>
-    <d v="2013-10-24T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Żelastwo"/>
@@ -3118,15 +3177,51 @@
   </r>
   <r>
     <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Płyty osb na brame dziewic"/>
+    <n v="888"/>
+    <s v="7214/T/11/2013"/>
+    <d v="2013-11-05T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Rozne"/>
+    <n v="367.84"/>
+    <s v="7274/T/11/2013"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-10T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Styropian"/>
+    <n v="312.33"/>
+    <s v="7184/T/11/2013"/>
+    <d v="2013-11-04T00:00:00"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-04T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
-    <s v="Ścianki działowe"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Docieplenie koci taras"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
   </r>
   <r>
     <x v="7"/>
@@ -3153,43 +3248,127 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Docieplenie styropianem"/>
+    <n v="180"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
     <x v="8"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Pustaki"/>
+    <n v="5326"/>
+    <s v="6922/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Zaprawa"/>
+    <n v="93.52"/>
+    <s v="6940/T/10/2013"/>
+    <d v="2013-10-24T00:00:00"/>
+    <d v="2013-10-27T00:00:00"/>
+    <d v="2013-10-24T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Ścianki działowe 126m2"/>
+    <n v="4400"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
   </r>
   <r>
     <x v="8"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Ścianki działowe"/>
+    <n v="227.67"/>
+    <s v="7184/T/11/2013"/>
+    <d v="2013-11-04T00:00:00"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-04T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Pustaki"/>
+    <n v="1214.3399999999999"/>
+    <s v="7206/T/11/2013"/>
+    <d v="2013-11-04T00:00:00"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-04T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Murek taras"/>
+    <n v="90"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Ściana kominek"/>
+    <n v="120"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Pustaki"/>
+    <n v="257.45999999999998"/>
+    <s v="7214/T/11/2013"/>
+    <d v="2013-11-05T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Różne"/>
+    <n v="272.37"/>
+    <s v="7274/T/11/2013"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-10T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="5"/>
     <m/>
     <m/>
@@ -3204,23 +3383,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="14">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item x="3"/>
         <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
         <item x="8"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3256,7 +3436,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -3264,7 +3444,10 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="7"/>
@@ -3312,14 +3495,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="17">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="16">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3334,11 +3517,7 @@
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="7274/T/11/2013"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
@@ -3346,16 +3525,16 @@
     <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="19" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3373,10 +3552,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+    <tableColumn id="4" name="Plan suma" dataDxfId="15">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="14"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -3674,9 +3853,9 @@
   </sheetPr>
   <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3730,7 +3909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -3762,7 +3941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -3794,7 +3973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3826,7 +4005,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
@@ -3858,7 +4037,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -3887,7 +4066,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -3916,7 +4095,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>140</v>
       </c>
@@ -3945,7 +4124,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3974,7 +4153,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>140</v>
       </c>
@@ -4003,7 +4182,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -4032,7 +4211,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -4061,7 +4240,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4090,7 +4269,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -4119,7 +4298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -4148,7 +4327,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -4177,7 +4356,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -4206,7 +4385,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -4235,7 +4414,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -4264,7 +4443,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -4290,7 +4469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
@@ -4316,7 +4495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>140</v>
       </c>
@@ -4342,7 +4521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -4368,7 +4547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -4394,7 +4573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -4420,7 +4599,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -4452,7 +4631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1">
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -4484,7 +4663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -4516,7 +4695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -4548,7 +4727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -4580,7 +4759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -4612,7 +4791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
@@ -4644,7 +4823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
@@ -4672,7 +4851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4704,7 +4883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
@@ -4736,7 +4915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -4764,7 +4943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>205</v>
       </c>
@@ -4796,7 +4975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>205</v>
       </c>
@@ -4828,7 +5007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>205</v>
       </c>
@@ -4854,7 +5033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
@@ -4886,7 +5065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
@@ -4918,7 +5097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>205</v>
       </c>
@@ -4938,13 +5117,13 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="116">
-        <v>41466</v>
+        <v>41585</v>
       </c>
       <c r="J42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>205</v>
       </c>
@@ -4970,7 +5149,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>205</v>
       </c>
@@ -5028,7 +5207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>206</v>
       </c>
@@ -5060,7 +5239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>206</v>
       </c>
@@ -5092,7 +5271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>206</v>
       </c>
@@ -5124,7 +5303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>206</v>
       </c>
@@ -5156,7 +5335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>206</v>
       </c>
@@ -5184,7 +5363,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>206</v>
       </c>
@@ -5212,7 +5391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -5244,7 +5423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>206</v>
       </c>
@@ -5276,7 +5455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
@@ -5308,7 +5487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1">
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>206</v>
       </c>
@@ -5340,7 +5519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1">
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>206</v>
       </c>
@@ -5368,7 +5547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1">
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
@@ -5400,7 +5579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>206</v>
       </c>
@@ -5432,7 +5611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1">
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>206</v>
       </c>
@@ -5460,7 +5639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>206</v>
       </c>
@@ -5492,7 +5671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>206</v>
       </c>
@@ -5524,7 +5703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1">
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>206</v>
       </c>
@@ -5556,7 +5735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>206</v>
       </c>
@@ -5584,7 +5763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>206</v>
       </c>
@@ -5612,7 +5791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>206</v>
       </c>
@@ -5644,7 +5823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1">
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>206</v>
       </c>
@@ -5670,7 +5849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1">
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>209</v>
       </c>
@@ -5702,7 +5881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
@@ -5734,7 +5913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -5766,7 +5945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
@@ -5798,7 +5977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>207</v>
       </c>
@@ -5830,7 +6009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
@@ -5856,7 +6035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
@@ -5888,7 +6067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
@@ -5920,7 +6099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1">
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -5948,7 +6127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1">
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>208</v>
       </c>
@@ -5974,7 +6153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1">
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>208</v>
       </c>
@@ -6002,7 +6181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1">
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>208</v>
       </c>
@@ -6023,7 +6202,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="116"/>
     </row>
-    <row r="79" spans="1:10" hidden="1">
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>208</v>
       </c>
@@ -6051,7 +6230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1">
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>208</v>
       </c>
@@ -6079,7 +6258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>208</v>
       </c>
@@ -6100,7 +6279,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="116"/>
     </row>
-    <row r="82" spans="1:10" hidden="1">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>208</v>
       </c>
@@ -6128,7 +6307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>208</v>
       </c>
@@ -6149,7 +6328,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="116"/>
     </row>
-    <row r="84" spans="1:10" hidden="1">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>208</v>
       </c>
@@ -6177,7 +6356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>208</v>
       </c>
@@ -6209,7 +6388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>208</v>
       </c>
@@ -6273,7 +6452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1">
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
         <v>209</v>
       </c>
@@ -6305,7 +6484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1">
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
         <v>209</v>
       </c>
@@ -6331,7 +6510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>210</v>
       </c>
@@ -6363,7 +6542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1">
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
         <v>210</v>
       </c>
@@ -6395,7 +6574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>210</v>
       </c>
@@ -6421,7 +6600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1">
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>211</v>
       </c>
@@ -6453,7 +6632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1">
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>211</v>
       </c>
@@ -6485,7 +6664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1">
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>211</v>
       </c>
@@ -6511,7 +6690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1">
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>211</v>
       </c>
@@ -6543,7 +6722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>211</v>
       </c>
@@ -6575,7 +6754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1">
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>211</v>
       </c>
@@ -6601,7 +6780,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>211</v>
       </c>
@@ -6627,7 +6806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1">
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>211</v>
       </c>
@@ -6691,7 +6870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1">
+    <row r="102" spans="1:10">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6711,7 +6890,7 @@
       <c r="D103" s="44"/>
       <c r="E103" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>758.72</v>
+        <v>190868.6</v>
       </c>
       <c r="F103" s="44"/>
       <c r="G103" s="44"/>
@@ -6719,7 +6898,7 @@
       <c r="I103" s="117"/>
       <c r="J103" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" thickTop="1"/>
@@ -6775,10 +6954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:G13"/>
+  <dimension ref="A3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6889,7 +7068,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="43">
-        <v>2776.4300000000003</v>
+        <v>3785.5600000000004</v>
       </c>
       <c r="C7" s="43">
         <v>3800</v>
@@ -6898,7 +7077,7 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="127">
-        <v>6576.43</v>
+        <v>7585.56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6909,13 +7088,13 @@
         <v>22425.619999999995</v>
       </c>
       <c r="C8" s="43">
-        <v>12022.82</v>
+        <v>12090.82</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="127">
-        <v>34448.439999999995</v>
+        <v>34516.439999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6940,31 +7119,33 @@
         <v>208</v>
       </c>
       <c r="B10" s="43">
-        <v>33865.390000000007</v>
+        <v>35121.230000000003</v>
       </c>
       <c r="C10" s="43">
-        <v>12096</v>
+        <v>12012</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="127">
-        <v>45961.390000000007</v>
+        <v>47133.23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="126" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="43">
-        <v>5419.52</v>
-      </c>
-      <c r="C11" s="43"/>
+        <v>504.73</v>
+      </c>
+      <c r="C11" s="43">
+        <v>200</v>
+      </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="127">
-        <v>5419.52</v>
+        <v>704.73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6974,35 +7155,54 @@
       <c r="B12" s="43">
         <v>145.78</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="43">
+        <v>180</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="127">
-        <v>145.78</v>
+        <v>325.77999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="43">
+        <v>7391.3600000000006</v>
+      </c>
+      <c r="C13" s="43">
+        <v>4610</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="127">
+        <v>12001.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="43">
-        <v>114745.24</v>
-      </c>
-      <c r="C13" s="43">
-        <v>48602.82</v>
-      </c>
-      <c r="D13" s="43">
+      <c r="B14" s="43">
+        <v>119486.78</v>
+      </c>
+      <c r="C14" s="43">
+        <v>53576.82</v>
+      </c>
+      <c r="D14" s="43">
         <v>9542</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E14" s="43">
         <v>5197</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F14" s="43">
         <v>3066</v>
       </c>
-      <c r="G13" s="128">
-        <v>181153.06</v>
+      <c r="G14" s="128">
+        <v>190868.60000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7015,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="Wydatki budowa" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="0">
+    <comment ref="F90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F90" authorId="0">
+    <comment ref="F92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F93" authorId="0">
+    <comment ref="F95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F96" authorId="0">
+    <comment ref="F98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="245">
   <si>
     <t>Opis</t>
   </si>
@@ -952,6 +952,18 @@
   </si>
   <si>
     <t>Różne</t>
+  </si>
+  <si>
+    <t>7389/T/11/2013</t>
+  </si>
+  <si>
+    <t>Dachblach</t>
+  </si>
+  <si>
+    <t>Blacha</t>
+  </si>
+  <si>
+    <t>ZK 506/2013</t>
   </si>
 </sst>
 </file>
@@ -1396,17 +1408,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -1719,16 +1721,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2022,25 +2014,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61528320"/>
-        <c:axId val="61550592"/>
+        <c:axId val="63096704"/>
+        <c:axId val="63098240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61528320"/>
+        <c:axId val="63096704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61550592"/>
+        <c:crossAx val="63098240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61550592"/>
+        <c:axId val="63098240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2041,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61528320"/>
+        <c:crossAx val="63096704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,7 +2055,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3383,7 +3375,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3495,14 +3487,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="17">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3511,8 +3503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J103" totalsRowCount="1">
-  <autoFilter ref="A1:J102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J105" totalsRowCount="1">
+  <autoFilter ref="A1:J104">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -3525,16 +3517,16 @@
     <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="19" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="18" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3552,10 +3544,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="15">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="14"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -3851,11 +3843,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6454,7 +6446,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
@@ -6463,56 +6455,53 @@
         <v>89</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="E88" s="123">
-        <v>312.33</v>
+        <v>760.18</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G88" s="2">
-        <v>41582</v>
+        <v>41591</v>
       </c>
       <c r="H88" s="2">
-        <v>41585</v>
-      </c>
-      <c r="I88" s="116">
-        <v>41582</v>
-      </c>
-      <c r="J88" t="s">
-        <v>23</v>
-      </c>
+        <v>41594</v>
+      </c>
+      <c r="I88" s="116"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E89" s="123">
-        <v>200</v>
-      </c>
-      <c r="F89" s="1"/>
+        <v>929.88</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="116">
-        <v>41585</v>
+        <v>41592</v>
       </c>
       <c r="J89" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>86</v>
@@ -6524,19 +6513,19 @@
         <v>22</v>
       </c>
       <c r="E90" s="123">
-        <v>60.89</v>
+        <v>312.33</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G90" s="2">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="H90" s="2">
-        <v>41573</v>
+        <v>41585</v>
       </c>
       <c r="I90" s="116">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="J90" t="s">
         <v>23</v>
@@ -6544,34 +6533,28 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="E91" s="123">
-        <v>84.89</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G91" s="2">
-        <v>41577</v>
-      </c>
-      <c r="H91" s="2">
-        <v>41580</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="116">
-        <v>41577</v>
+        <v>41585</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -6579,30 +6562,36 @@
         <v>210</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E92" s="123">
-        <v>180</v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+        <v>60.89</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H92" s="2">
+        <v>41573</v>
+      </c>
       <c r="I92" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J92" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>86</v>
@@ -6611,22 +6600,22 @@
         <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E93" s="123">
-        <v>5326</v>
+        <v>84.89</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="G93" s="2">
-        <v>41570</v>
+        <v>41577</v>
       </c>
       <c r="H93" s="2">
-        <v>41573</v>
+        <v>41580</v>
       </c>
       <c r="I93" s="116">
-        <v>41570</v>
+        <v>41577</v>
       </c>
       <c r="J93" t="s">
         <v>23</v>
@@ -6634,34 +6623,28 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E94" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G94" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H94" s="2">
-        <v>41574</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
       <c r="I94" s="116">
-        <v>41571</v>
+        <v>41585</v>
       </c>
       <c r="J94" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -6669,25 +6652,31 @@
         <v>211</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E95" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+        <v>5326</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G95" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H95" s="2">
+        <v>41573</v>
+      </c>
       <c r="I95" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J95" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6701,22 +6690,22 @@
         <v>89</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="E96" s="123">
-        <v>227.67</v>
+        <v>93.52</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G96" s="2">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="H96" s="2">
-        <v>41585</v>
+        <v>41574</v>
       </c>
       <c r="I96" s="116">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="J96" t="s">
         <v>23</v>
@@ -6727,31 +6716,25 @@
         <v>211</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E97" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G97" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H97" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="116">
         <v>41585</v>
       </c>
-      <c r="I97" s="116">
-        <v>41582</v>
-      </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6759,25 +6742,31 @@
         <v>211</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="E98" s="123">
-        <v>90</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+        <v>227.67</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G98" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H98" s="2">
+        <v>41585</v>
+      </c>
       <c r="I98" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J98" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6785,25 +6774,31 @@
         <v>211</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="E99" s="123">
-        <v>120</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H99" s="2">
+        <v>41585</v>
+      </c>
       <c r="I99" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J99" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6811,31 +6806,25 @@
         <v>211</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="E100" s="123">
-        <v>257.45999999999998</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G100" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H100" s="2">
-        <v>41586</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
       <c r="I100" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6843,103 +6832,161 @@
         <v>211</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="123">
+        <v>120</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G102" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H102" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I102" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="123">
+      <c r="E103" s="123">
         <v>272.37</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G103" s="2">
         <v>41585</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H103" s="2">
         <v>41588</v>
       </c>
-      <c r="I101" s="116">
+      <c r="I103" s="116">
         <v>41586</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J103" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="116"/>
-    </row>
-    <row r="103" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A103" s="44" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="123"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="116"/>
+    </row>
+    <row r="105" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A105" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="124">
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>190868.6</v>
-      </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="117"/>
-      <c r="J103" s="114">
+        <v>192558.66</v>
+      </c>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="117"/>
+      <c r="J105" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="111" spans="1:10">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="122"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="118"/>
-      <c r="J111" s="110"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="C112" s="109"/>
-      <c r="D112" s="109"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="118"/>
-      <c r="J128" s="110"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="122"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="118"/>
+      <c r="J113" s="110"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="C114" s="109"/>
+      <c r="D114" s="109"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="122"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="118"/>
+      <c r="J130" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104:B111 B90 B98:B99 B95 B23:B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106:B113 B92 B100:B101 B97 B23:B74">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A104:A111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A106:A113">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A104">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -7215,7 +7262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0">
+    <comment ref="F75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F90" authorId="0">
+    <comment ref="F92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F92" authorId="0">
+    <comment ref="F94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F95" authorId="0">
+    <comment ref="F97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F98" authorId="0">
+    <comment ref="F100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="248">
   <si>
     <t>Opis</t>
   </si>
@@ -964,6 +964,15 @@
   </si>
   <si>
     <t>ZK 506/2013</t>
+  </si>
+  <si>
+    <t>Kiełczów</t>
+  </si>
+  <si>
+    <t>Otoczaki</t>
+  </si>
+  <si>
+    <t>7485/T/11/2013</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2014,25 +2022,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63096704"/>
-        <c:axId val="63098240"/>
+        <c:axId val="62703872"/>
+        <c:axId val="62726144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63096704"/>
+        <c:axId val="62703872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63098240"/>
+        <c:crossAx val="62726144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63098240"/>
+        <c:axId val="62726144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,21 +2049,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63096704"/>
+        <c:crossAx val="62703872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3503,8 +3510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J105" totalsRowCount="1">
-  <autoFilter ref="A1:J104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J107" totalsRowCount="1">
+  <autoFilter ref="A1:J106">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -3843,11 +3850,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5201,35 +5208,24 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="E46" s="123">
-        <v>3813.05</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="2">
-        <v>41512</v>
-      </c>
-      <c r="H46" s="2">
-        <v>41519</v>
-      </c>
-      <c r="I46" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J46" s="113" t="s">
-        <v>23</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="116"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
@@ -5242,19 +5238,19 @@
         <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="123">
-        <v>66.180000000000007</v>
+        <v>3813.05</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G47" s="2">
-        <v>41513</v>
+        <v>41512</v>
       </c>
       <c r="H47" s="2">
-        <v>41516</v>
+        <v>41519</v>
       </c>
       <c r="I47" s="116">
         <v>41515</v>
@@ -5274,13 +5270,13 @@
         <v>89</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" s="123">
-        <v>649.32000000000005</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G48" s="2">
         <v>41513</v>
@@ -5306,22 +5302,22 @@
         <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E49" s="123">
-        <v>3084.07</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G49" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H49" s="2">
         <v>41516</v>
       </c>
-      <c r="H49" s="2">
-        <v>41519</v>
-      </c>
       <c r="I49" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J49" s="113" t="s">
         <v>23</v>
@@ -5332,27 +5328,31 @@
         <v>206</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E50" s="123">
-        <v>7010.82</v>
+        <v>3084.07</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G50" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H50" s="2">
+        <v>41519</v>
+      </c>
       <c r="I50" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J50" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5360,19 +5360,19 @@
         <v>206</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E51" s="123">
-        <v>54</v>
+        <v>7010.82</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -5391,28 +5391,24 @@
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E52" s="123">
-        <v>1415.36</v>
+        <v>54</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H52" s="2">
-        <v>41519</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="116">
         <v>41521</v>
       </c>
       <c r="J52" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5426,22 +5422,22 @@
         <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E53" s="123">
-        <v>4163.04</v>
+        <v>1415.36</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G53" s="2">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="H53" s="2">
-        <v>41518</v>
+        <v>41519</v>
       </c>
       <c r="I53" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J53" s="113" t="s">
         <v>23</v>
@@ -5461,10 +5457,10 @@
         <v>160</v>
       </c>
       <c r="E54" s="123">
-        <v>1214.22</v>
+        <v>4163.04</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G54" s="2">
         <v>41515</v>
@@ -5490,22 +5486,22 @@
         <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E55" s="123">
-        <v>227.55</v>
+        <v>1214.22</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G55" s="2">
-        <v>41528</v>
+        <v>41515</v>
       </c>
       <c r="H55" s="2">
-        <v>41531</v>
+        <v>41518</v>
       </c>
       <c r="I55" s="116">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="J55" s="113" t="s">
         <v>23</v>
@@ -5519,21 +5515,25 @@
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E56" s="123">
-        <v>360</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
+        <v>227.55</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41528</v>
+      </c>
       <c r="H56" s="2">
-        <v>41537</v>
+        <v>41531</v>
       </c>
       <c r="I56" s="116">
-        <v>41537</v>
+        <v>41528</v>
       </c>
       <c r="J56" s="113" t="s">
         <v>23</v>
@@ -5547,25 +5547,21 @@
         <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E57" s="123">
-        <v>2786.4</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G57" s="2">
-        <v>41544</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="I57" s="116">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="J57" s="113" t="s">
         <v>23</v>
@@ -5582,19 +5578,19 @@
         <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E58" s="123">
-        <v>594.69000000000005</v>
+        <v>2786.4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G58" s="2">
+        <v>41544</v>
+      </c>
+      <c r="H58" s="2">
         <v>41547</v>
-      </c>
-      <c r="H58" s="2">
-        <v>41550</v>
       </c>
       <c r="I58" s="116">
         <v>41547</v>
@@ -5608,27 +5604,31 @@
         <v>206</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="E59" s="123">
-        <v>2960</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G59" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H59" s="2">
+        <v>41550</v>
+      </c>
       <c r="I59" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J59" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5636,26 +5636,22 @@
         <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="E60" s="123">
-        <v>200</v>
+        <v>2960</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="2">
-        <v>41549</v>
-      </c>
-      <c r="H60" s="2">
-        <v>41549</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="116">
         <v>41552</v>
       </c>
@@ -5674,19 +5670,19 @@
         <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E61" s="123">
-        <v>48.18</v>
+        <v>200</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G61" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="H61" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="I61" s="116">
         <v>41552</v>
@@ -5706,19 +5702,19 @@
         <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E62" s="123">
-        <v>90</v>
+        <v>48.18</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G62" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="H62" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="I62" s="116">
         <v>41552</v>
@@ -5732,26 +5728,30 @@
         <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="E63" s="123">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G63" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H63" s="2">
+        <v>41547</v>
+      </c>
       <c r="I63" s="116">
-        <v>41578</v>
-      </c>
-      <c r="J63" t="s">
+        <v>41552</v>
+      </c>
+      <c r="J63" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5760,27 +5760,27 @@
         <v>206</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="E64" s="123">
-        <v>1260.76</v>
+        <v>2000</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J64" s="113" t="s">
-        <v>23</v>
+        <v>41578</v>
+      </c>
+      <c r="J64" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5794,22 +5794,18 @@
         <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="E65" s="123">
-        <v>2398.8000000000002</v>
+        <v>1260.76</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" s="2">
-        <v>41558</v>
-      </c>
-      <c r="H65" s="2">
-        <v>41561</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="116">
-        <v>41558</v>
+        <v>41557</v>
       </c>
       <c r="J65" s="113" t="s">
         <v>23</v>
@@ -5820,62 +5816,62 @@
         <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="E66" s="123">
-        <v>120</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+        <v>2398.8000000000002</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" s="2">
+        <v>41558</v>
+      </c>
+      <c r="H66" s="2">
+        <v>41561</v>
+      </c>
       <c r="I66" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J66" t="s">
-        <v>84</v>
+        <v>41558</v>
+      </c>
+      <c r="J66" s="113" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E67" s="123">
-        <v>192.4</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G67" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H67" s="2">
-        <v>41586</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J67" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>86</v>
@@ -5884,24 +5880,24 @@
         <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E68" s="123">
-        <v>2413.2399999999998</v>
+        <v>192.4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="G68" s="2">
-        <v>41527</v>
+        <v>41583</v>
       </c>
       <c r="H68" s="2">
-        <v>41530</v>
+        <v>41586</v>
       </c>
       <c r="I68" s="116">
-        <v>41527</v>
-      </c>
-      <c r="J68" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J68" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5919,19 +5915,19 @@
         <v>17</v>
       </c>
       <c r="E69" s="123">
-        <v>247.93</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G69" s="2">
-        <v>41534</v>
+        <v>41527</v>
       </c>
       <c r="H69" s="2">
-        <v>41537</v>
+        <v>41530</v>
       </c>
       <c r="I69" s="116">
-        <v>41534</v>
+        <v>41527</v>
       </c>
       <c r="J69" s="113" t="s">
         <v>23</v>
@@ -5951,19 +5947,19 @@
         <v>17</v>
       </c>
       <c r="E70" s="123">
-        <v>257.38</v>
+        <v>247.93</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G70" s="2">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="H70" s="2">
-        <v>41539</v>
+        <v>41537</v>
       </c>
       <c r="I70" s="116">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="J70" s="113" t="s">
         <v>23</v>
@@ -5980,22 +5976,22 @@
         <v>89</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E71" s="123">
-        <v>7792.51</v>
+        <v>257.38</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G71" s="2">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="H71" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I71" s="116">
         <v>41536</v>
-      </c>
-      <c r="I71" s="116">
-        <v>41541</v>
       </c>
       <c r="J71" s="113" t="s">
         <v>23</v>
@@ -6006,22 +6002,28 @@
         <v>207</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="E72" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+        <v>7792.51</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G72" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H72" s="2">
+        <v>41536</v>
+      </c>
       <c r="I72" s="116">
-        <v>41542</v>
+        <v>41541</v>
       </c>
       <c r="J72" s="113" t="s">
         <v>23</v>
@@ -6032,26 +6034,20 @@
         <v>207</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E73" s="123">
-        <v>4489.5</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G73" s="2">
-        <v>41542</v>
-      </c>
-      <c r="H73" s="2">
-        <v>41545</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="116">
         <v>41542</v>
       </c>
@@ -6061,7 +6057,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
@@ -6070,24 +6066,24 @@
         <v>89</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="E74" s="123">
-        <v>86.1</v>
+        <v>4489.5</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G74" s="2">
-        <v>41570</v>
+        <v>41542</v>
       </c>
       <c r="H74" s="2">
-        <v>41573</v>
+        <v>41545</v>
       </c>
       <c r="I74" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J74" t="s">
+        <v>41542</v>
+      </c>
+      <c r="J74" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6099,24 +6095,28 @@
         <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E75" s="123">
-        <v>1000</v>
+        <v>86.1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="G75" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H75" s="2">
+        <v>41573</v>
+      </c>
       <c r="I75" s="116">
-        <v>41555</v>
-      </c>
-      <c r="J75" s="113" t="s">
-        <v>84</v>
+        <v>41570</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -6130,16 +6130,18 @@
         <v>180</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="E76" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="116">
-        <v>41565</v>
+        <v>41555</v>
       </c>
       <c r="J76" s="113" t="s">
         <v>84</v>
@@ -6150,26 +6152,24 @@
         <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E77" s="123">
-        <v>5640</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J77" t="s">
+        <v>41565</v>
+      </c>
+      <c r="J77" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6184,43 +6184,43 @@
         <v>149</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" s="123">
-        <v>6372</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>5640</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="116"/>
+      <c r="I78" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J78" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="E79" s="123">
-        <v>9249.7800000000007</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J79" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I79" s="116"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
@@ -6233,13 +6233,13 @@
         <v>182</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E80" s="123">
-        <v>610</v>
+        <v>9249.7800000000007</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -6264,12 +6264,19 @@
         <v>185</v>
       </c>
       <c r="E81" s="123">
-        <v>1420.86</v>
-      </c>
-      <c r="F81" s="1"/>
+        <v>610</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="116"/>
+      <c r="I81" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J81" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
@@ -6282,22 +6289,15 @@
         <v>182</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E82" s="123">
-        <v>790</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>1420.86</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J82" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I82" s="116"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
@@ -6313,12 +6313,19 @@
         <v>187</v>
       </c>
       <c r="E83" s="123">
-        <v>1841.26</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>790</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="116"/>
+      <c r="I83" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J83" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
@@ -6331,22 +6338,15 @@
         <v>182</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E84" s="123">
-        <v>12076.41</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>1841.26</v>
+      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J84" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I84" s="116"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
@@ -6356,27 +6356,23 @@
         <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="E85" s="123">
-        <v>290.98</v>
+        <v>12076.41</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G85" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H85" s="2">
-        <v>41574</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J85" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J85" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6391,22 +6387,22 @@
         <v>89</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E86" s="123">
-        <v>888</v>
+        <v>290.98</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="G86" s="2">
-        <v>41583</v>
+        <v>41571</v>
       </c>
       <c r="H86" s="2">
-        <v>41586</v>
+        <v>41574</v>
       </c>
       <c r="I86" s="116">
-        <v>41586</v>
+        <v>41571</v>
       </c>
       <c r="J86" t="s">
         <v>23</v>
@@ -6423,19 +6419,19 @@
         <v>89</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E87" s="123">
-        <v>367.84</v>
+        <v>888</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G87" s="2">
-        <v>41585</v>
+        <v>41583</v>
       </c>
       <c r="H87" s="2">
-        <v>41588</v>
+        <v>41586</v>
       </c>
       <c r="I87" s="116">
         <v>41586</v>
@@ -6458,18 +6454,23 @@
         <v>239</v>
       </c>
       <c r="E88" s="123">
-        <v>760.18</v>
+        <v>367.84</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G88" s="2">
-        <v>41591</v>
+        <v>41585</v>
       </c>
       <c r="H88" s="2">
-        <v>41594</v>
-      </c>
-      <c r="I88" s="116"/>
+        <v>41588</v>
+      </c>
+      <c r="I88" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
@@ -6479,21 +6480,25 @@
         <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E89" s="123">
-        <v>929.88</v>
+        <v>760.18</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="G89" s="2">
+        <v>41591</v>
+      </c>
+      <c r="H89" s="2">
+        <v>41594</v>
+      </c>
       <c r="I89" s="116">
-        <v>41592</v>
+        <v>41595</v>
       </c>
       <c r="J89" t="s">
         <v>23</v>
@@ -6501,31 +6506,27 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="E90" s="123">
-        <v>312.33</v>
+        <v>929.88</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G90" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H90" s="2">
-        <v>41585</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
       <c r="I90" s="116">
-        <v>41582</v>
+        <v>41592</v>
       </c>
       <c r="J90" t="s">
         <v>23</v>
@@ -6533,33 +6534,39 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="E91" s="123">
-        <v>200</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+        <v>104.7</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G91" s="2">
+        <v>41596</v>
+      </c>
+      <c r="H91" s="2">
+        <v>41599</v>
+      </c>
       <c r="I91" s="116">
-        <v>41585</v>
+        <v>41596</v>
       </c>
       <c r="J91" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>86</v>
@@ -6571,19 +6578,19 @@
         <v>22</v>
       </c>
       <c r="E92" s="123">
-        <v>60.89</v>
+        <v>312.33</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G92" s="2">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="H92" s="2">
-        <v>41573</v>
+        <v>41585</v>
       </c>
       <c r="I92" s="116">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="J92" t="s">
         <v>23</v>
@@ -6591,34 +6598,28 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="E93" s="123">
-        <v>84.89</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G93" s="2">
-        <v>41577</v>
-      </c>
-      <c r="H93" s="2">
-        <v>41580</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
       <c r="I93" s="116">
-        <v>41577</v>
+        <v>41585</v>
       </c>
       <c r="J93" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -6626,30 +6627,36 @@
         <v>210</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E94" s="123">
-        <v>180</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+        <v>60.89</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H94" s="2">
+        <v>41573</v>
+      </c>
       <c r="I94" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J94" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>86</v>
@@ -6658,22 +6665,22 @@
         <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E95" s="123">
-        <v>5326</v>
+        <v>84.89</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="G95" s="2">
-        <v>41570</v>
+        <v>41577</v>
       </c>
       <c r="H95" s="2">
-        <v>41573</v>
+        <v>41580</v>
       </c>
       <c r="I95" s="116">
-        <v>41570</v>
+        <v>41577</v>
       </c>
       <c r="J95" t="s">
         <v>23</v>
@@ -6681,34 +6688,28 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E96" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G96" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H96" s="2">
-        <v>41574</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="116">
-        <v>41571</v>
+        <v>41585</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6716,25 +6717,31 @@
         <v>211</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E97" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+        <v>5326</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H97" s="2">
+        <v>41573</v>
+      </c>
       <c r="I97" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J97" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6748,22 +6755,22 @@
         <v>89</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="E98" s="123">
-        <v>227.67</v>
+        <v>93.52</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G98" s="2">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="H98" s="2">
-        <v>41585</v>
+        <v>41574</v>
       </c>
       <c r="I98" s="116">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="J98" t="s">
         <v>23</v>
@@ -6774,31 +6781,25 @@
         <v>211</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E99" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G99" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H99" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="116">
         <v>41585</v>
       </c>
-      <c r="I99" s="116">
-        <v>41582</v>
-      </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6806,25 +6807,31 @@
         <v>211</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="E100" s="123">
-        <v>90</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+        <v>227.67</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G100" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H100" s="2">
+        <v>41585</v>
+      </c>
       <c r="I100" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J100" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6832,25 +6839,31 @@
         <v>211</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="E101" s="123">
-        <v>120</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H101" s="2">
+        <v>41585</v>
+      </c>
       <c r="I101" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J101" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6858,31 +6871,25 @@
         <v>211</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="E102" s="123">
-        <v>257.45999999999998</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G102" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H102" s="2">
-        <v>41586</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
       <c r="I102" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J102" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -6890,103 +6897,161 @@
         <v>211</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" s="123">
+        <v>120</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G104" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H104" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I104" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E103" s="123">
+      <c r="E105" s="123">
         <v>272.37</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G105" s="2">
         <v>41585</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H105" s="2">
         <v>41588</v>
       </c>
-      <c r="I103" s="116">
+      <c r="I105" s="116">
         <v>41586</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J105" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="123"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="116"/>
-    </row>
-    <row r="105" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A105" s="44" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="123"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="116"/>
+    </row>
+    <row r="107" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A107" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="124">
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>192558.66</v>
-      </c>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="117"/>
-      <c r="J105" s="114">
+        <v>193743.35999999999</v>
+      </c>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="117"/>
+      <c r="J107" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="113" spans="1:10">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="122"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="118"/>
-      <c r="J113" s="110"/>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="C114" s="109"/>
-      <c r="D114" s="109"/>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="122"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="118"/>
-      <c r="J130" s="110"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="118"/>
+      <c r="J115" s="110"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="C116" s="109"/>
+      <c r="D116" s="109"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="118"/>
+      <c r="J132" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106:B113 B92 B100:B101 B97 B23:B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108:B115 B94 B102:B103 B99 B23:B75">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A106:A113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A108:A115">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A106">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F37" authorId="0">
+    <comment ref="F40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0">
+    <comment ref="F43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0">
+    <comment ref="F44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F75" authorId="0">
+    <comment ref="F78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F92" authorId="0">
+    <comment ref="F96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F94" authorId="0">
+    <comment ref="F98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F97" authorId="0">
+    <comment ref="F103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F100" authorId="0">
+    <comment ref="F106" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="258">
   <si>
     <t>Opis</t>
   </si>
@@ -973,6 +973,36 @@
   </si>
   <si>
     <t>7485/T/11/2013</t>
+  </si>
+  <si>
+    <t>Kielich przyścienny</t>
+  </si>
+  <si>
+    <t>MA/2013/11/0273</t>
+  </si>
+  <si>
+    <t>JACK</t>
+  </si>
+  <si>
+    <t>Przyłącze wod-kan</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>Zajęcia pasa ruchu</t>
+  </si>
+  <si>
+    <t>Opłata przyłączeniowa</t>
+  </si>
+  <si>
+    <t>Prokad</t>
+  </si>
+  <si>
+    <t>Brama garażowa - zaliczka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brama garażowa  </t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1447,17 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2022,25 +2062,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62703872"/>
-        <c:axId val="62726144"/>
+        <c:axId val="63101184"/>
+        <c:axId val="63774720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62703872"/>
+        <c:axId val="63101184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62726144"/>
+        <c:crossAx val="63774720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62726144"/>
+        <c:axId val="63774720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2089,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62703872"/>
+        <c:crossAx val="63101184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,7 +2102,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2104,7 +2144,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41587.408808564818" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="101">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41603.408114467595" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="111">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -2121,9 +2161,9 @@
         <s v="7. Okna i drzwi zewn"/>
         <s v="8. Ścianki działowe"/>
         <m/>
-        <s v="4. Dach" u="1"/>
         <s v="2. Ściany nadziemia" u="1"/>
         <s v="3. Stropy, schody" u="1"/>
+        <s v="4. Dach" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Typ" numFmtId="0">
@@ -2149,13 +2189,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-11-08T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-11-21T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-11-11T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-11-24T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-11-09T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-11-25T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2165,7 +2205,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="101">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="111">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2417,6 +2457,42 @@
     <m/>
     <d v="2013-10-28T00:00:00"/>
     <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="JACK"/>
+    <s v="Przyłącze wod-kan"/>
+    <n v="10500"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-23T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="ZGK"/>
+    <s v="Opłata przyłączeniowa"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="UM"/>
+    <s v="Zajęcia pasa ruchu"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -2655,7 +2731,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-07-11T00:00:00"/>
+    <d v="2013-11-07T00:00:00"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2695,6 +2771,18 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Kiełczów"/>
+    <s v="Otoczaki"/>
+    <n v="1080"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="3"/>
     <s v="Manex"/>
@@ -3199,6 +3287,54 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Rozne"/>
+    <n v="760.18"/>
+    <s v="7389/T/11/2013"/>
+    <d v="2013-11-13T00:00:00"/>
+    <d v="2013-11-16T00:00:00"/>
+    <d v="2013-11-17T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Dachblach"/>
+    <s v="Blacha"/>
+    <n v="929.88"/>
+    <s v="ZK 506/2013"/>
+    <m/>
+    <m/>
+    <d v="2013-11-14T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Folia"/>
+    <n v="104.7"/>
+    <s v="7485/T/11/2013"/>
+    <d v="2013-11-18T00:00:00"/>
+    <d v="2013-11-21T00:00:00"/>
+    <d v="2013-11-18T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Kielich przyścienny"/>
+    <n v="120"/>
+    <s v="MA/2013/11/0273"/>
+    <d v="2013-11-20T00:00:00"/>
+    <d v="2013-11-23T00:00:00"/>
+    <d v="2013-11-21T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
     <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
@@ -3259,6 +3395,30 @@
     <s v="gotówka"/>
   </r>
   <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Prokad"/>
+    <s v="Brama garażowa - zaliczka"/>
+    <n v="1323"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-24T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Prokad"/>
+    <s v="Brama garażowa  "/>
+    <n v="3086"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="8"/>
     <x v="3"/>
     <s v="Manex"/>
@@ -3382,7 +3542,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3390,10 +3550,10 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="10"/>
         <item m="1" x="11"/>
+        <item x="3"/>
         <item m="1" x="12"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
         <item x="5"/>
         <item x="6"/>
         <item x="4"/>
@@ -3494,14 +3654,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="15">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="14">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3510,8 +3670,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J107" totalsRowCount="1">
-  <autoFilter ref="A1:J106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J113" totalsRowCount="1">
+  <autoFilter ref="A1:J112">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -3524,16 +3684,16 @@
     <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3551,10 +3711,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="11">
+    <tableColumn id="4" name="Plan suma" dataDxfId="13">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="12"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -3850,11 +4010,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J92" sqref="J92"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4522,112 +4682,92 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="E23" s="123">
-        <v>400</v>
+        <v>10500</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="116">
-        <v>41474</v>
-      </c>
-      <c r="J23" s="113" t="s">
-        <v>84</v>
+        <v>41601</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="123">
-        <v>650</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="E24" s="123"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="116">
-        <v>41474</v>
-      </c>
-      <c r="J24" s="113" t="s">
-        <v>84</v>
-      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="116"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="123">
-        <v>7800</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E25" s="123"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="116">
-        <v>41474</v>
-      </c>
-      <c r="J25" s="113" t="s">
-        <v>84</v>
-      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="116"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E26" s="123">
-        <v>1510.21</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H26" s="2">
-        <v>41497</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="116">
-        <v>41495</v>
+        <v>41474</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4635,31 +4775,25 @@
         <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E27" s="123">
-        <v>5878.78</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H27" s="2">
-        <v>41501</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="116">
-        <v>41501</v>
+        <v>41474</v>
       </c>
       <c r="J27" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4670,28 +4804,22 @@
         <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E28" s="123">
-        <v>19.079999999999998</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="2">
-        <v>41498</v>
-      </c>
-      <c r="H28" s="2">
-        <v>41501</v>
-      </c>
+        <v>7800</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="116">
-        <v>41501</v>
+        <v>41474</v>
       </c>
       <c r="J28" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4708,22 +4836,22 @@
         <v>14</v>
       </c>
       <c r="E29" s="123">
-        <v>115.01</v>
+        <v>1510.21</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
-        <v>41498</v>
+        <v>41494</v>
       </c>
       <c r="H29" s="2">
-        <v>41501</v>
+        <v>41497</v>
       </c>
       <c r="I29" s="116">
-        <v>41501</v>
+        <v>41495</v>
       </c>
       <c r="J29" s="113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4737,19 +4865,19 @@
         <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E30" s="123">
-        <v>8280.36</v>
+        <v>5878.78</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2">
-        <v>41499</v>
+        <v>41494</v>
       </c>
       <c r="H30" s="2">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="I30" s="116">
         <v>41501</v>
@@ -4769,22 +4897,22 @@
         <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" s="123">
-        <v>1657.43</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2">
-        <v>41502</v>
+        <v>41498</v>
       </c>
       <c r="H31" s="2">
-        <v>41505</v>
+        <v>41501</v>
       </c>
       <c r="I31" s="116">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="J31" s="113" t="s">
         <v>23</v>
@@ -4801,22 +4929,22 @@
         <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="123">
-        <v>512.29999999999995</v>
+        <v>115.01</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2">
-        <v>41502</v>
+        <v>41498</v>
       </c>
       <c r="H32" s="2">
-        <v>41509</v>
+        <v>41501</v>
       </c>
       <c r="I32" s="116">
-        <v>41507</v>
+        <v>41501</v>
       </c>
       <c r="J32" s="113" t="s">
         <v>23</v>
@@ -4827,24 +4955,28 @@
         <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E33" s="123">
-        <v>10584</v>
+        <v>8280.36</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G33" s="2">
+        <v>41499</v>
+      </c>
+      <c r="H33" s="2">
+        <v>41502</v>
+      </c>
       <c r="I33" s="116">
-        <v>41507</v>
+        <v>41501</v>
       </c>
       <c r="J33" s="113" t="s">
         <v>23</v>
@@ -4861,22 +4993,22 @@
         <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E34" s="123">
-        <v>7610.63</v>
+        <v>1657.43</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="G34" s="2">
-        <v>41514</v>
+        <v>41502</v>
       </c>
       <c r="H34" s="2">
-        <v>41517</v>
+        <v>41505</v>
       </c>
       <c r="I34" s="116">
-        <v>41515</v>
+        <v>41502</v>
       </c>
       <c r="J34" s="113" t="s">
         <v>23</v>
@@ -4893,22 +5025,22 @@
         <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E35" s="123">
-        <v>992.96</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2">
-        <v>41492</v>
+        <v>41502</v>
       </c>
       <c r="H35" s="2">
-        <v>41495</v>
+        <v>41509</v>
       </c>
       <c r="I35" s="116">
-        <v>41516</v>
+        <v>41507</v>
       </c>
       <c r="J35" s="113" t="s">
         <v>23</v>
@@ -4919,32 +5051,32 @@
         <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E36" s="123">
-        <v>335.18</v>
+        <v>10584</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="116">
-        <v>41521</v>
+        <v>41507</v>
       </c>
       <c r="J36" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
@@ -4953,30 +5085,30 @@
         <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E37" s="123">
-        <v>1764.84</v>
+        <v>7610.63</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="G37" s="2">
-        <v>41570</v>
+        <v>41514</v>
       </c>
       <c r="H37" s="2">
-        <v>41573</v>
+        <v>41517</v>
       </c>
       <c r="I37" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J37" t="s">
+        <v>41515</v>
+      </c>
+      <c r="J37" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>86</v>
@@ -4985,51 +5117,53 @@
         <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="E38" s="123">
-        <v>241.71</v>
+        <v>992.96</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="G38" s="2">
-        <v>41570</v>
+        <v>41492</v>
       </c>
       <c r="H38" s="2">
-        <v>41573</v>
+        <v>41495</v>
       </c>
       <c r="I38" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J38" t="s">
+        <v>41516</v>
+      </c>
+      <c r="J38" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="E39" s="123">
-        <v>700</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>335.18</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J39" t="s">
-        <v>23</v>
+        <v>41521</v>
+      </c>
+      <c r="J39" s="113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5043,13 +5177,13 @@
         <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E40" s="123">
-        <v>69.88</v>
+        <v>1764.84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" s="2">
         <v>41570</v>
@@ -5075,22 +5209,22 @@
         <v>89</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="E41" s="123">
-        <v>40.619999999999997</v>
+        <v>241.71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G41" s="2">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="H41" s="2">
-        <v>41585</v>
+        <v>41573</v>
       </c>
       <c r="I41" s="116">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="J41" t="s">
         <v>23</v>
@@ -5101,25 +5235,25 @@
         <v>205</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E42" s="123">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="116">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5130,22 +5264,28 @@
         <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="E43" s="123">
-        <v>400</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>69.88</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H43" s="2">
+        <v>41573</v>
+      </c>
       <c r="I43" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5156,22 +5296,28 @@
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E44" s="123">
-        <v>450</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>40.619999999999997</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H44" s="2">
+        <v>41585</v>
+      </c>
       <c r="I44" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J44" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5179,31 +5325,25 @@
         <v>205</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E45" s="123">
-        <v>118.51</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G45" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="116">
         <v>41585</v>
       </c>
-      <c r="H45" s="2">
-        <v>41588</v>
-      </c>
-      <c r="I45" s="116">
-        <v>41586</v>
-      </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5214,54 +5354,53 @@
         <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="E46" s="123">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="116"/>
+      <c r="I46" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J46" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E47" s="123">
-        <v>3813.05</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" s="2">
-        <v>41512</v>
-      </c>
-      <c r="H47" s="2">
-        <v>41519</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J47" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J47" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>86</v>
@@ -5270,58 +5409,47 @@
         <v>89</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="E48" s="123">
-        <v>66.180000000000007</v>
+        <v>118.51</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="G48" s="2">
-        <v>41513</v>
+        <v>41585</v>
       </c>
       <c r="H48" s="2">
-        <v>41516</v>
+        <v>41588</v>
       </c>
       <c r="I48" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J48" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="E49" s="123">
-        <v>649.32000000000005</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H49" s="2">
-        <v>41516</v>
-      </c>
-      <c r="I49" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J49" s="113" t="s">
-        <v>23</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="116"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
@@ -5334,22 +5462,22 @@
         <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E50" s="123">
-        <v>3084.07</v>
+        <v>3813.05</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G50" s="2">
-        <v>41516</v>
+        <v>41512</v>
       </c>
       <c r="H50" s="2">
         <v>41519</v>
       </c>
       <c r="I50" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J50" s="113" t="s">
         <v>23</v>
@@ -5360,27 +5488,31 @@
         <v>206</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E51" s="123">
-        <v>7010.82</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="G51" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H51" s="2">
+        <v>41516</v>
+      </c>
       <c r="I51" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J51" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5391,24 +5523,28 @@
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="E52" s="123">
-        <v>54</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G52" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H52" s="2">
+        <v>41516</v>
+      </c>
       <c r="I52" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J52" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5422,13 +5558,13 @@
         <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="E53" s="123">
-        <v>1415.36</v>
+        <v>3084.07</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G53" s="2">
         <v>41516</v>
@@ -5437,7 +5573,7 @@
         <v>41519</v>
       </c>
       <c r="I53" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J53" s="113" t="s">
         <v>23</v>
@@ -5448,31 +5584,27 @@
         <v>206</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="E54" s="123">
-        <v>4163.04</v>
+        <v>7010.82</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G54" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H54" s="2">
-        <v>41518</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J54" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5483,28 +5615,24 @@
         <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E55" s="123">
-        <v>1214.22</v>
+        <v>54</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H55" s="2">
-        <v>41518</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J55" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5518,22 +5646,22 @@
         <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="E56" s="123">
-        <v>227.55</v>
+        <v>1415.36</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G56" s="2">
-        <v>41528</v>
+        <v>41516</v>
       </c>
       <c r="H56" s="2">
-        <v>41531</v>
+        <v>41519</v>
       </c>
       <c r="I56" s="116">
-        <v>41528</v>
+        <v>41521</v>
       </c>
       <c r="J56" s="113" t="s">
         <v>23</v>
@@ -5547,21 +5675,25 @@
         <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E57" s="123">
-        <v>360</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2"/>
+        <v>4163.04</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41515</v>
+      </c>
       <c r="H57" s="2">
-        <v>41537</v>
+        <v>41518</v>
       </c>
       <c r="I57" s="116">
-        <v>41537</v>
+        <v>41527</v>
       </c>
       <c r="J57" s="113" t="s">
         <v>23</v>
@@ -5581,19 +5713,19 @@
         <v>160</v>
       </c>
       <c r="E58" s="123">
-        <v>2786.4</v>
+        <v>1214.22</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G58" s="2">
-        <v>41544</v>
+        <v>41515</v>
       </c>
       <c r="H58" s="2">
-        <v>41547</v>
+        <v>41518</v>
       </c>
       <c r="I58" s="116">
-        <v>41547</v>
+        <v>41527</v>
       </c>
       <c r="J58" s="113" t="s">
         <v>23</v>
@@ -5610,22 +5742,22 @@
         <v>89</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E59" s="123">
-        <v>594.69000000000005</v>
+        <v>227.55</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G59" s="2">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="H59" s="2">
-        <v>41550</v>
+        <v>41531</v>
       </c>
       <c r="I59" s="116">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="J59" s="113" t="s">
         <v>23</v>
@@ -5636,27 +5768,27 @@
         <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E60" s="123">
-        <v>2960</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <v>41537</v>
+      </c>
       <c r="I60" s="116">
-        <v>41552</v>
+        <v>41537</v>
       </c>
       <c r="J60" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5667,28 +5799,28 @@
         <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E61" s="123">
-        <v>200</v>
+        <v>2786.4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G61" s="2">
-        <v>41549</v>
+        <v>41544</v>
       </c>
       <c r="H61" s="2">
-        <v>41549</v>
+        <v>41547</v>
       </c>
       <c r="I61" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J61" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -5699,28 +5831,28 @@
         <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E62" s="123">
-        <v>48.18</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G62" s="2">
-        <v>41548</v>
+        <v>41547</v>
       </c>
       <c r="H62" s="2">
-        <v>41548</v>
+        <v>41550</v>
       </c>
       <c r="I62" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J62" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5728,26 +5860,22 @@
         <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E63" s="123">
-        <v>90</v>
+        <v>2960</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" s="2">
-        <v>41547</v>
-      </c>
-      <c r="H63" s="2">
-        <v>41547</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="116">
         <v>41552</v>
       </c>
@@ -5760,26 +5888,30 @@
         <v>206</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E64" s="123">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="G64" s="2">
+        <v>41549</v>
+      </c>
+      <c r="H64" s="2">
+        <v>41549</v>
+      </c>
       <c r="I64" s="116">
-        <v>41578</v>
-      </c>
-      <c r="J64" t="s">
+        <v>41552</v>
+      </c>
+      <c r="J64" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5791,24 +5923,28 @@
         <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E65" s="123">
-        <v>1260.76</v>
+        <v>48.18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G65" s="2">
+        <v>41548</v>
+      </c>
+      <c r="H65" s="2">
+        <v>41548</v>
+      </c>
       <c r="I65" s="116">
-        <v>41557</v>
+        <v>41552</v>
       </c>
       <c r="J65" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5819,28 +5955,28 @@
         <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="E66" s="123">
-        <v>2398.8000000000002</v>
+        <v>90</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G66" s="2">
-        <v>41558</v>
+        <v>41547</v>
       </c>
       <c r="H66" s="2">
-        <v>41561</v>
+        <v>41547</v>
       </c>
       <c r="I66" s="116">
-        <v>41558</v>
+        <v>41552</v>
       </c>
       <c r="J66" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5854,16 +5990,18 @@
         <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="E67" s="123">
-        <v>120</v>
-      </c>
-      <c r="F67" s="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="116">
-        <v>41585</v>
+        <v>41578</v>
       </c>
       <c r="J67" t="s">
         <v>84</v>
@@ -5871,7 +6009,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>86</v>
@@ -5880,30 +6018,26 @@
         <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="E68" s="123">
-        <v>192.4</v>
+        <v>1260.76</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G68" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H68" s="2">
-        <v>41586</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J68" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J68" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>86</v>
@@ -5912,22 +6046,22 @@
         <v>89</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E69" s="123">
-        <v>2413.2399999999998</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G69" s="2">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="H69" s="2">
-        <v>41530</v>
+        <v>41561</v>
       </c>
       <c r="I69" s="116">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="J69" s="113" t="s">
         <v>23</v>
@@ -5935,39 +6069,33 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="E70" s="123">
-        <v>247.93</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H70" s="2">
-        <v>41537</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="116">
-        <v>41534</v>
-      </c>
-      <c r="J70" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J70" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>86</v>
@@ -5976,24 +6104,24 @@
         <v>89</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E71" s="123">
-        <v>257.38</v>
+        <v>192.4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="G71" s="2">
-        <v>41536</v>
+        <v>41583</v>
       </c>
       <c r="H71" s="2">
-        <v>41539</v>
+        <v>41586</v>
       </c>
       <c r="I71" s="116">
-        <v>41536</v>
-      </c>
-      <c r="J71" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J71" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6008,22 +6136,22 @@
         <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E72" s="123">
-        <v>7792.51</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G72" s="2">
-        <v>41533</v>
+        <v>41527</v>
       </c>
       <c r="H72" s="2">
-        <v>41536</v>
+        <v>41530</v>
       </c>
       <c r="I72" s="116">
-        <v>41541</v>
+        <v>41527</v>
       </c>
       <c r="J72" s="113" t="s">
         <v>23</v>
@@ -6034,22 +6162,28 @@
         <v>207</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E73" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+        <v>247.93</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G73" s="2">
+        <v>41534</v>
+      </c>
+      <c r="H73" s="2">
+        <v>41537</v>
+      </c>
       <c r="I73" s="116">
-        <v>41542</v>
+        <v>41534</v>
       </c>
       <c r="J73" s="113" t="s">
         <v>23</v>
@@ -6066,22 +6200,22 @@
         <v>89</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E74" s="123">
-        <v>4489.5</v>
+        <v>257.38</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G74" s="2">
-        <v>41542</v>
+        <v>41536</v>
       </c>
       <c r="H74" s="2">
-        <v>41545</v>
+        <v>41539</v>
       </c>
       <c r="I74" s="116">
-        <v>41542</v>
+        <v>41536</v>
       </c>
       <c r="J74" s="113" t="s">
         <v>23</v>
@@ -6089,7 +6223,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
@@ -6098,79 +6232,83 @@
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="E75" s="123">
-        <v>86.1</v>
+        <v>7792.51</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G75" s="2">
-        <v>41570</v>
+        <v>41533</v>
       </c>
       <c r="H75" s="2">
-        <v>41573</v>
+        <v>41536</v>
       </c>
       <c r="I75" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J75" t="s">
+        <v>41541</v>
+      </c>
+      <c r="J75" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="E76" s="123">
-        <v>1000</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="116">
-        <v>41555</v>
+        <v>41542</v>
       </c>
       <c r="J76" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E77" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+        <v>4489.5</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G77" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H77" s="2">
+        <v>41545</v>
+      </c>
       <c r="I77" s="116">
-        <v>41565</v>
+        <v>41542</v>
       </c>
       <c r="J77" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6178,27 +6316,31 @@
         <v>208</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E78" s="123">
-        <v>5640</v>
+        <v>86.1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="G78" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H78" s="2">
+        <v>41573</v>
+      </c>
       <c r="I78" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J78" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6206,21 +6348,28 @@
         <v>208</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="E79" s="123">
-        <v>6372</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="116"/>
+      <c r="I79" s="116">
+        <v>41555</v>
+      </c>
+      <c r="J79" s="113" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
@@ -6230,24 +6379,22 @@
         <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="E80" s="123">
-        <v>9249.7800000000007</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F80" s="1"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="116">
-        <v>41557</v>
+        <v>41565</v>
       </c>
       <c r="J80" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -6255,27 +6402,27 @@
         <v>208</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="E81" s="123">
-        <v>610</v>
+        <v>5640</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J81" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J81" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -6283,16 +6430,16 @@
         <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="E82" s="123">
-        <v>1420.86</v>
+        <v>6372</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
@@ -6310,13 +6457,13 @@
         <v>182</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E83" s="123">
-        <v>790</v>
+        <v>9249.7800000000007</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -6338,15 +6485,22 @@
         <v>182</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E84" s="123">
-        <v>1841.26</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>610</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="116"/>
+      <c r="I84" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J84" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
@@ -6359,22 +6513,15 @@
         <v>182</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E85" s="123">
-        <v>12076.41</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>1420.86</v>
+      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J85" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I85" s="116"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
@@ -6384,27 +6531,23 @@
         <v>86</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="E86" s="123">
-        <v>290.98</v>
+        <v>790</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G86" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H86" s="2">
-        <v>41574</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J86" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J86" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6416,29 +6559,18 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="E87" s="123">
-        <v>888</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G87" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H87" s="2">
-        <v>41586</v>
-      </c>
-      <c r="I87" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J87" t="s">
-        <v>23</v>
-      </c>
+        <v>1841.26</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="116"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
@@ -6448,27 +6580,23 @@
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="E88" s="123">
-        <v>367.84</v>
+        <v>12076.41</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G88" s="2">
-        <v>41585</v>
-      </c>
-      <c r="H88" s="2">
-        <v>41588</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J88" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J88" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6483,22 +6611,22 @@
         <v>89</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E89" s="123">
-        <v>760.18</v>
+        <v>290.98</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G89" s="2">
-        <v>41591</v>
+        <v>41571</v>
       </c>
       <c r="H89" s="2">
-        <v>41594</v>
+        <v>41574</v>
       </c>
       <c r="I89" s="116">
-        <v>41595</v>
+        <v>41571</v>
       </c>
       <c r="J89" t="s">
         <v>23</v>
@@ -6512,21 +6640,25 @@
         <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E90" s="123">
-        <v>929.88</v>
+        <v>888</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="G90" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H90" s="2">
+        <v>41586</v>
+      </c>
       <c r="I90" s="116">
-        <v>41592</v>
+        <v>41586</v>
       </c>
       <c r="J90" t="s">
         <v>23</v>
@@ -6543,22 +6675,22 @@
         <v>89</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E91" s="123">
-        <v>104.7</v>
+        <v>367.84</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G91" s="2">
-        <v>41596</v>
+        <v>41585</v>
       </c>
       <c r="H91" s="2">
-        <v>41599</v>
+        <v>41588</v>
       </c>
       <c r="I91" s="116">
-        <v>41596</v>
+        <v>41586</v>
       </c>
       <c r="J91" t="s">
         <v>23</v>
@@ -6566,7 +6698,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>86</v>
@@ -6575,22 +6707,22 @@
         <v>89</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="E92" s="123">
-        <v>312.33</v>
+        <v>760.18</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G92" s="2">
-        <v>41582</v>
+        <v>41591</v>
       </c>
       <c r="H92" s="2">
-        <v>41585</v>
+        <v>41594</v>
       </c>
       <c r="I92" s="116">
-        <v>41582</v>
+        <v>41595</v>
       </c>
       <c r="J92" t="s">
         <v>23</v>
@@ -6598,33 +6730,35 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E93" s="123">
-        <v>200</v>
-      </c>
-      <c r="F93" s="1"/>
+        <v>929.88</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="116">
-        <v>41585</v>
+        <v>41592</v>
       </c>
       <c r="J93" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>86</v>
@@ -6633,22 +6767,22 @@
         <v>89</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E94" s="123">
-        <v>60.89</v>
+        <v>104.7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="G94" s="2">
-        <v>41570</v>
+        <v>41596</v>
       </c>
       <c r="H94" s="2">
-        <v>41573</v>
+        <v>41599</v>
       </c>
       <c r="I94" s="116">
-        <v>41570</v>
+        <v>41596</v>
       </c>
       <c r="J94" t="s">
         <v>23</v>
@@ -6656,31 +6790,31 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="E95" s="123">
-        <v>84.89</v>
+        <v>120</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="G95" s="2">
-        <v>41577</v>
+        <v>41598</v>
       </c>
       <c r="H95" s="2">
-        <v>41580</v>
+        <v>41601</v>
       </c>
       <c r="I95" s="116">
-        <v>41577</v>
+        <v>41599</v>
       </c>
       <c r="J95" t="s">
         <v>23</v>
@@ -6688,65 +6822,65 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E96" s="123">
-        <v>180</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+        <v>312.33</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G96" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H96" s="2">
+        <v>41585</v>
+      </c>
       <c r="I96" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J96" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="E97" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G97" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H97" s="2">
-        <v>41573</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="116">
-        <v>41570</v>
+        <v>41585</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>86</v>
@@ -6755,22 +6889,22 @@
         <v>89</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="E98" s="123">
-        <v>93.52</v>
+        <v>60.89</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G98" s="2">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="H98" s="2">
-        <v>41574</v>
+        <v>41573</v>
       </c>
       <c r="I98" s="116">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="J98" t="s">
         <v>23</v>
@@ -6778,89 +6912,83 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="E99" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+        <v>84.89</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G99" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H99" s="2">
+        <v>41580</v>
+      </c>
       <c r="I99" s="116">
-        <v>41585</v>
+        <v>41577</v>
       </c>
       <c r="J99" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="E100" s="123">
-        <v>227.67</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G100" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H100" s="2">
+        <v>180</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="116">
         <v>41585</v>
       </c>
-      <c r="I100" s="116">
-        <v>41582</v>
-      </c>
       <c r="J100" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="E101" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G101" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H101" s="2">
-        <v>41585</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
       <c r="I101" s="116">
-        <v>41582</v>
+        <v>41602</v>
       </c>
       <c r="J101" t="s">
         <v>23</v>
@@ -6868,54 +6996,55 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="E102" s="123">
-        <v>90</v>
+        <v>3086</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-      <c r="I102" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J102" t="s">
-        <v>84</v>
-      </c>
+      <c r="I102" s="116"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="E103" s="123">
-        <v>120</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+        <v>5326</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G103" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H103" s="2">
+        <v>41573</v>
+      </c>
       <c r="I103" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J103" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -6929,22 +7058,22 @@
         <v>89</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="E104" s="123">
-        <v>257.45999999999998</v>
+        <v>93.52</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="G104" s="2">
-        <v>41583</v>
+        <v>41571</v>
       </c>
       <c r="H104" s="2">
-        <v>41586</v>
+        <v>41574</v>
       </c>
       <c r="I104" s="116">
-        <v>41586</v>
+        <v>41571</v>
       </c>
       <c r="J104" t="s">
         <v>23</v>
@@ -6955,103 +7084,277 @@
         <v>211</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" s="123">
+        <v>4400</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106" s="123">
+        <v>227.67</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G106" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H106" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I106" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="123">
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H107" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I107" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E108" s="123">
+        <v>90</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" s="123">
+        <v>120</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G110" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H110" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I110" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E105" s="123">
+      <c r="E111" s="123">
         <v>272.37</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G111" s="2">
         <v>41585</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H111" s="2">
         <v>41588</v>
       </c>
-      <c r="I105" s="116">
+      <c r="I111" s="116">
         <v>41586</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J111" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="116"/>
-    </row>
-    <row r="107" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A107" s="44" t="s">
+    <row r="112" spans="1:10">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="123"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="116"/>
+    </row>
+    <row r="113" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A113" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="124">
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>193743.35999999999</v>
-      </c>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="117"/>
-      <c r="J107" s="114">
+        <v>208772.36</v>
+      </c>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="117"/>
+      <c r="J113" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="115" spans="1:10">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="118"/>
-      <c r="J115" s="110"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="C116" s="109"/>
-      <c r="D116" s="109"/>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="122"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="118"/>
-      <c r="J132" s="110"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="122"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="118"/>
+      <c r="J121" s="110"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="C122" s="109"/>
+      <c r="D122" s="109"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="122"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="118"/>
+      <c r="J138" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108:B115 B94 B102:B103 B99 B23:B75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114:B121 B98 B108:B109 B105 B26:B78">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A108:A115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A114:A121">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A112">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -7069,7 +7372,7 @@
   <dimension ref="A3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7144,7 +7447,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43">
-        <v>8492</v>
+        <v>18992</v>
       </c>
       <c r="E5" s="43">
         <v>5197</v>
@@ -7153,7 +7456,7 @@
         <v>3066</v>
       </c>
       <c r="G5" s="127">
-        <v>16955</v>
+        <v>27455</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7180,7 +7483,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="43">
-        <v>3785.5600000000004</v>
+        <v>4865.5600000000004</v>
       </c>
       <c r="C7" s="43">
         <v>3800</v>
@@ -7189,7 +7492,7 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="127">
-        <v>7585.56</v>
+        <v>8665.5600000000013</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7231,7 +7534,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="43">
-        <v>35121.230000000003</v>
+        <v>37035.99</v>
       </c>
       <c r="C10" s="43">
         <v>12012</v>
@@ -7240,7 +7543,7 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="127">
-        <v>47133.23</v>
+        <v>49047.99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7265,7 +7568,7 @@
         <v>210</v>
       </c>
       <c r="B12" s="43">
-        <v>145.78</v>
+        <v>4554.78</v>
       </c>
       <c r="C12" s="43">
         <v>180</v>
@@ -7274,7 +7577,7 @@
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="127">
-        <v>325.77999999999997</v>
+        <v>4734.78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7299,13 +7602,13 @@
         <v>156</v>
       </c>
       <c r="B14" s="43">
-        <v>119486.78</v>
+        <v>126890.53999999998</v>
       </c>
       <c r="C14" s="43">
         <v>53576.82</v>
       </c>
       <c r="D14" s="43">
-        <v>9542</v>
+        <v>20042</v>
       </c>
       <c r="E14" s="43">
         <v>5197</v>
@@ -7314,7 +7617,7 @@
         <v>3066</v>
       </c>
       <c r="G14" s="128">
-        <v>190868.60000000003</v>
+        <v>208772.36</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F103" authorId="0">
+    <comment ref="F105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F106" authorId="0">
+    <comment ref="F108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="261">
   <si>
     <t>Opis</t>
   </si>
@@ -1003,6 +1003,15 @@
   </si>
   <si>
     <t xml:space="preserve">Brama garażowa  </t>
+  </si>
+  <si>
+    <t>Extherm</t>
+  </si>
+  <si>
+    <t>Okna zaliczka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okna  </t>
   </si>
 </sst>
 </file>
@@ -1447,17 +1456,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -2062,25 +2061,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63101184"/>
-        <c:axId val="63774720"/>
+        <c:axId val="73505408"/>
+        <c:axId val="73798016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63101184"/>
+        <c:axId val="73505408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63774720"/>
+        <c:crossAx val="73798016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63774720"/>
+        <c:axId val="73798016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2088,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63101184"/>
+        <c:crossAx val="73505408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2102,7 +2101,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3542,7 +3541,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3654,14 +3653,14 @@
     <dataField name="Suma z Kwota" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="13">
       <pivotArea field="0" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="12">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3670,8 +3669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J113" totalsRowCount="1">
-  <autoFilter ref="A1:J112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J115" totalsRowCount="1">
+  <autoFilter ref="A1:J114">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -3684,16 +3683,16 @@
     <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Typ" totalsRowDxfId="10"/>
-    <tableColumn id="10" name="Dostawca" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="Opis" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="6"/>
-    <tableColumn id="8" name="Data faktury" totalsRowDxfId="5"/>
-    <tableColumn id="11" name="Data płatności" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Zapłacono" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="10" name="Dostawca" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Opis" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Kwota" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Faktura numer" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Data faktury" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Data płatności" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Zapłacono" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="Konto" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3711,10 +3710,10 @@
     <tableColumn id="1" name="Kolumna1"/>
     <tableColumn id="2" name="Planowane"/>
     <tableColumn id="3" name="Rzeczywiste"/>
-    <tableColumn id="4" name="Plan suma" dataDxfId="13">
+    <tableColumn id="4" name="Plan suma" dataDxfId="11">
       <calculatedColumnFormula>Tabela5[[#This Row],[Planowane]]+E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rzecz różnica" dataDxfId="12"/>
+    <tableColumn id="6" name="Rzecz różnica" dataDxfId="10"/>
     <tableColumn id="7" name="Plan"/>
     <tableColumn id="5" name="Realizacja"/>
   </tableColumns>
@@ -4010,11 +4009,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7017,31 +7016,25 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="E103" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G103" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H103" s="2">
-        <v>41573</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
       <c r="I103" s="116">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="J103" t="s">
         <v>23</v>
@@ -7049,60 +7042,55 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E104" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G104" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H104" s="2">
-        <v>41574</v>
-      </c>
-      <c r="I104" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J104" t="s">
-        <v>23</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="116"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E105" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+        <v>5326</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H105" s="2">
+        <v>41573</v>
+      </c>
       <c r="I105" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J105" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7116,22 +7104,22 @@
         <v>89</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="E106" s="123">
-        <v>227.67</v>
+        <v>93.52</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G106" s="2">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="H106" s="2">
-        <v>41585</v>
+        <v>41574</v>
       </c>
       <c r="I106" s="116">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="J106" t="s">
         <v>23</v>
@@ -7142,31 +7130,25 @@
         <v>211</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E107" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G107" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H107" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="116">
         <v>41585</v>
       </c>
-      <c r="I107" s="116">
-        <v>41582</v>
-      </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7174,25 +7156,31 @@
         <v>211</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="E108" s="123">
-        <v>90</v>
-      </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+        <v>227.67</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G108" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H108" s="2">
+        <v>41585</v>
+      </c>
       <c r="I108" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J108" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -7200,25 +7188,31 @@
         <v>211</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="E109" s="123">
-        <v>120</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G109" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H109" s="2">
+        <v>41585</v>
+      </c>
       <c r="I109" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J109" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7226,31 +7220,25 @@
         <v>211</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="E110" s="123">
-        <v>257.45999999999998</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G110" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H110" s="2">
-        <v>41586</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
       <c r="I110" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -7258,103 +7246,161 @@
         <v>211</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="123">
+        <v>120</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G112" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H112" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I112" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="123">
+      <c r="E113" s="123">
         <v>272.37</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G113" s="2">
         <v>41585</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H113" s="2">
         <v>41588</v>
       </c>
-      <c r="I111" s="116">
+      <c r="I113" s="116">
         <v>41586</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J113" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="116"/>
-    </row>
-    <row r="113" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A113" s="44" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="123"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="116"/>
+    </row>
+    <row r="115" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A115" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="124">
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>208772.36</v>
-      </c>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="117"/>
-      <c r="J113" s="114">
+        <v>225882.36</v>
+      </c>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="117"/>
+      <c r="J115" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="121" spans="1:10">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="122"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="118"/>
-      <c r="J121" s="110"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="C122" s="109"/>
-      <c r="D122" s="109"/>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="122"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="118"/>
-      <c r="J138" s="110"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="122"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="118"/>
+      <c r="J123" s="110"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="C124" s="109"/>
+      <c r="D124" s="109"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="122"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="118"/>
+      <c r="J140" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114:B121 B98 B108:B109 B105 B26:B78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116:B123 B98 B110:B111 B107 B26:B78">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A114:A121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A116:A123">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A114">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F40" authorId="0">
+    <comment ref="F42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0">
+    <comment ref="F46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F78" authorId="0">
+    <comment ref="F81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F96" authorId="0">
+    <comment ref="F100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F98" authorId="0">
+    <comment ref="F102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F105" authorId="0">
+    <comment ref="F109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F108" authorId="0">
+    <comment ref="F112" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="266">
   <si>
     <t>Opis</t>
   </si>
@@ -1012,6 +1012,21 @@
   </si>
   <si>
     <t xml:space="preserve">Okna  </t>
+  </si>
+  <si>
+    <t>Umieszczenie przyłacza. Opłata roczna</t>
+  </si>
+  <si>
+    <t>Opłata za odebranie przyłączy</t>
+  </si>
+  <si>
+    <t>Kaucja za worki</t>
+  </si>
+  <si>
+    <t>Dodatkowe dachówki i gąsiory</t>
+  </si>
+  <si>
+    <t>SB/003383</t>
   </si>
 </sst>
 </file>
@@ -2061,25 +2076,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73505408"/>
-        <c:axId val="73798016"/>
+        <c:axId val="62839040"/>
+        <c:axId val="63713280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73505408"/>
+        <c:axId val="62839040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73798016"/>
+        <c:crossAx val="63713280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73798016"/>
+        <c:axId val="63713280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2103,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73505408"/>
+        <c:crossAx val="62839040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2101,7 +2116,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3541,7 +3556,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3669,8 +3684,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J115" totalsRowCount="1">
-  <autoFilter ref="A1:J114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J119" totalsRowCount="1">
+  <autoFilter ref="A1:J118">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4009,11 +4024,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4732,10 +4747,10 @@
         <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E25" s="123"/>
       <c r="F25" s="1"/>
@@ -4745,54 +4760,54 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="E26" s="123">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="116">
-        <v>41474</v>
-      </c>
-      <c r="J26" s="113" t="s">
-        <v>84</v>
+        <v>41605</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="E27" s="123">
-        <v>650</v>
+        <v>22.19</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="116">
-        <v>41474</v>
-      </c>
-      <c r="J27" s="113" t="s">
-        <v>84</v>
+        <v>41605</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4800,16 +4815,16 @@
         <v>141</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E28" s="123">
-        <v>7800</v>
+        <v>400</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
@@ -4826,31 +4841,25 @@
         <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E29" s="123">
-        <v>1510.21</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H29" s="2">
-        <v>41497</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="116">
-        <v>41495</v>
+        <v>41474</v>
       </c>
       <c r="J29" s="113" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4861,28 +4870,22 @@
         <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E30" s="123">
-        <v>5878.78</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H30" s="2">
-        <v>41501</v>
-      </c>
+        <v>7800</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="116">
-        <v>41501</v>
+        <v>41474</v>
       </c>
       <c r="J30" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4896,25 +4899,25 @@
         <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31" s="123">
-        <v>19.079999999999998</v>
+        <v>1510.21</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2">
-        <v>41498</v>
+        <v>41494</v>
       </c>
       <c r="H31" s="2">
-        <v>41501</v>
+        <v>41497</v>
       </c>
       <c r="I31" s="116">
-        <v>41501</v>
+        <v>41495</v>
       </c>
       <c r="J31" s="113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4928,16 +4931,16 @@
         <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E32" s="123">
-        <v>115.01</v>
+        <v>5878.78</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2">
-        <v>41498</v>
+        <v>41494</v>
       </c>
       <c r="H32" s="2">
         <v>41501</v>
@@ -4960,19 +4963,19 @@
         <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E33" s="123">
-        <v>8280.36</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2">
-        <v>41499</v>
+        <v>41498</v>
       </c>
       <c r="H33" s="2">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="I33" s="116">
         <v>41501</v>
@@ -4992,22 +4995,22 @@
         <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E34" s="123">
-        <v>1657.43</v>
+        <v>115.01</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2">
-        <v>41502</v>
+        <v>41498</v>
       </c>
       <c r="H34" s="2">
-        <v>41505</v>
+        <v>41501</v>
       </c>
       <c r="I34" s="116">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="J34" s="113" t="s">
         <v>23</v>
@@ -5024,22 +5027,22 @@
         <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E35" s="123">
-        <v>512.29999999999995</v>
+        <v>8280.36</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2">
+        <v>41499</v>
+      </c>
+      <c r="H35" s="2">
         <v>41502</v>
       </c>
-      <c r="H35" s="2">
-        <v>41509</v>
-      </c>
       <c r="I35" s="116">
-        <v>41507</v>
+        <v>41501</v>
       </c>
       <c r="J35" s="113" t="s">
         <v>23</v>
@@ -5050,24 +5053,28 @@
         <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E36" s="123">
-        <v>10584</v>
+        <v>1657.43</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="G36" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H36" s="2">
+        <v>41505</v>
+      </c>
       <c r="I36" s="116">
-        <v>41507</v>
+        <v>41502</v>
       </c>
       <c r="J36" s="113" t="s">
         <v>23</v>
@@ -5084,22 +5091,22 @@
         <v>89</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E37" s="123">
-        <v>7610.63</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="G37" s="2">
-        <v>41514</v>
+        <v>41502</v>
       </c>
       <c r="H37" s="2">
-        <v>41517</v>
+        <v>41509</v>
       </c>
       <c r="I37" s="116">
-        <v>41515</v>
+        <v>41507</v>
       </c>
       <c r="J37" s="113" t="s">
         <v>23</v>
@@ -5110,28 +5117,24 @@
         <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="E38" s="123">
-        <v>992.96</v>
+        <v>10584</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="2">
-        <v>41492</v>
-      </c>
-      <c r="H38" s="2">
-        <v>41495</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="116">
-        <v>41516</v>
+        <v>41507</v>
       </c>
       <c r="J38" s="113" t="s">
         <v>23</v>
@@ -5145,29 +5148,33 @@
         <v>86</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E39" s="123">
-        <v>335.18</v>
+        <v>7610.63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="G39" s="2">
+        <v>41514</v>
+      </c>
+      <c r="H39" s="2">
+        <v>41517</v>
+      </c>
       <c r="I39" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J39" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>86</v>
@@ -5176,57 +5183,53 @@
         <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="E40" s="123">
-        <v>1764.84</v>
+        <v>992.96</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="G40" s="2">
-        <v>41570</v>
+        <v>41492</v>
       </c>
       <c r="H40" s="2">
-        <v>41573</v>
+        <v>41495</v>
       </c>
       <c r="I40" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J40" t="s">
+        <v>41516</v>
+      </c>
+      <c r="J40" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="E41" s="123">
-        <v>241.71</v>
+        <v>335.18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H41" s="2">
-        <v>41573</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J41" t="s">
-        <v>23</v>
+        <v>41521</v>
+      </c>
+      <c r="J41" s="113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5237,19 +5240,25 @@
         <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E42" s="123">
-        <v>700</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+        <v>1764.84</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H42" s="2">
+        <v>41573</v>
+      </c>
       <c r="I42" s="116">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="J42" t="s">
         <v>23</v>
@@ -5266,13 +5275,13 @@
         <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E43" s="123">
-        <v>69.88</v>
+        <v>241.71</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G43" s="2">
         <v>41570</v>
@@ -5295,25 +5304,19 @@
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E44" s="123">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G44" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H44" s="2">
-        <v>41585</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="116">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -5324,25 +5327,31 @@
         <v>205</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E45" s="123">
-        <v>3800</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+        <v>69.88</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H45" s="2">
+        <v>41573</v>
+      </c>
       <c r="I45" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J45" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5353,22 +5362,28 @@
         <v>86</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="E46" s="123">
-        <v>400</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>40.619999999999997</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H46" s="2">
+        <v>41585</v>
+      </c>
       <c r="I46" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5376,16 +5391,16 @@
         <v>205</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="E47" s="123">
-        <v>450</v>
+        <v>3800</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2"/>
@@ -5405,28 +5420,22 @@
         <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="E48" s="123">
-        <v>118.51</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G48" s="2">
+        <v>400</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="116">
         <v>41585</v>
       </c>
-      <c r="H48" s="2">
-        <v>41588</v>
-      </c>
-      <c r="I48" s="116">
-        <v>41586</v>
-      </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5437,22 +5446,27 @@
         <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E49" s="123">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="116"/>
+      <c r="I49" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>86</v>
@@ -5461,88 +5475,76 @@
         <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="E50" s="123">
-        <v>3813.05</v>
+        <v>118.51</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="G50" s="2">
-        <v>41512</v>
+        <v>41585</v>
       </c>
       <c r="H50" s="2">
-        <v>41519</v>
+        <v>41588</v>
       </c>
       <c r="I50" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J50" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="E51" s="123">
-        <v>66.180000000000007</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H51" s="2">
-        <v>41516</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J51" s="113" t="s">
+        <v>41598</v>
+      </c>
+      <c r="J51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="E52" s="123">
-        <v>649.32000000000005</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H52" s="2">
-        <v>41516</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J52" s="113" t="s">
+        <v>41598</v>
+      </c>
+      <c r="J52" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5557,22 +5559,22 @@
         <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E53" s="123">
-        <v>3084.07</v>
+        <v>3813.05</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G53" s="2">
-        <v>41516</v>
+        <v>41512</v>
       </c>
       <c r="H53" s="2">
         <v>41519</v>
       </c>
       <c r="I53" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J53" s="113" t="s">
         <v>23</v>
@@ -5583,27 +5585,31 @@
         <v>206</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E54" s="123">
-        <v>7010.82</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="G54" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H54" s="2">
+        <v>41516</v>
+      </c>
       <c r="I54" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J54" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5614,24 +5620,28 @@
         <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="E55" s="123">
-        <v>54</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G55" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H55" s="2">
+        <v>41516</v>
+      </c>
       <c r="I55" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J55" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5645,13 +5655,13 @@
         <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="E56" s="123">
-        <v>1415.36</v>
+        <v>3084.07</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G56" s="2">
         <v>41516</v>
@@ -5660,7 +5670,7 @@
         <v>41519</v>
       </c>
       <c r="I56" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J56" s="113" t="s">
         <v>23</v>
@@ -5671,31 +5681,27 @@
         <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="E57" s="123">
-        <v>4163.04</v>
+        <v>7010.82</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H57" s="2">
-        <v>41518</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J57" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5706,28 +5712,24 @@
         <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E58" s="123">
-        <v>1214.22</v>
+        <v>54</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G58" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H58" s="2">
-        <v>41518</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J58" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5741,22 +5743,22 @@
         <v>89</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="E59" s="123">
-        <v>227.55</v>
+        <v>1415.36</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G59" s="2">
-        <v>41528</v>
+        <v>41516</v>
       </c>
       <c r="H59" s="2">
-        <v>41531</v>
+        <v>41519</v>
       </c>
       <c r="I59" s="116">
-        <v>41528</v>
+        <v>41521</v>
       </c>
       <c r="J59" s="113" t="s">
         <v>23</v>
@@ -5770,21 +5772,25 @@
         <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E60" s="123">
-        <v>360</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="2"/>
+        <v>4163.04</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="2">
+        <v>41515</v>
+      </c>
       <c r="H60" s="2">
-        <v>41537</v>
+        <v>41518</v>
       </c>
       <c r="I60" s="116">
-        <v>41537</v>
+        <v>41527</v>
       </c>
       <c r="J60" s="113" t="s">
         <v>23</v>
@@ -5804,19 +5810,19 @@
         <v>160</v>
       </c>
       <c r="E61" s="123">
-        <v>2786.4</v>
+        <v>1214.22</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G61" s="2">
-        <v>41544</v>
+        <v>41515</v>
       </c>
       <c r="H61" s="2">
-        <v>41547</v>
+        <v>41518</v>
       </c>
       <c r="I61" s="116">
-        <v>41547</v>
+        <v>41527</v>
       </c>
       <c r="J61" s="113" t="s">
         <v>23</v>
@@ -5833,22 +5839,22 @@
         <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E62" s="123">
-        <v>594.69000000000005</v>
+        <v>227.55</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G62" s="2">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="H62" s="2">
-        <v>41550</v>
+        <v>41531</v>
       </c>
       <c r="I62" s="116">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="J62" s="113" t="s">
         <v>23</v>
@@ -5859,27 +5865,27 @@
         <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E63" s="123">
-        <v>2960</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <v>41537</v>
+      </c>
       <c r="I63" s="116">
-        <v>41552</v>
+        <v>41537</v>
       </c>
       <c r="J63" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5890,28 +5896,28 @@
         <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E64" s="123">
-        <v>200</v>
+        <v>2786.4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G64" s="2">
-        <v>41549</v>
+        <v>41544</v>
       </c>
       <c r="H64" s="2">
-        <v>41549</v>
+        <v>41547</v>
       </c>
       <c r="I64" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J64" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5922,28 +5928,28 @@
         <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E65" s="123">
-        <v>48.18</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G65" s="2">
-        <v>41548</v>
+        <v>41547</v>
       </c>
       <c r="H65" s="2">
-        <v>41548</v>
+        <v>41550</v>
       </c>
       <c r="I65" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J65" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5951,26 +5957,22 @@
         <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E66" s="123">
-        <v>90</v>
+        <v>2960</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G66" s="2">
-        <v>41547</v>
-      </c>
-      <c r="H66" s="2">
-        <v>41547</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="116">
         <v>41552</v>
       </c>
@@ -5983,26 +5985,30 @@
         <v>206</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E67" s="123">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="G67" s="2">
+        <v>41549</v>
+      </c>
+      <c r="H67" s="2">
+        <v>41549</v>
+      </c>
       <c r="I67" s="116">
-        <v>41578</v>
-      </c>
-      <c r="J67" t="s">
+        <v>41552</v>
+      </c>
+      <c r="J67" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6014,24 +6020,28 @@
         <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E68" s="123">
-        <v>1260.76</v>
+        <v>48.18</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G68" s="2">
+        <v>41548</v>
+      </c>
+      <c r="H68" s="2">
+        <v>41548</v>
+      </c>
       <c r="I68" s="116">
-        <v>41557</v>
+        <v>41552</v>
       </c>
       <c r="J68" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -6042,28 +6052,28 @@
         <v>86</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="E69" s="123">
-        <v>2398.8000000000002</v>
+        <v>90</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G69" s="2">
-        <v>41558</v>
+        <v>41547</v>
       </c>
       <c r="H69" s="2">
-        <v>41561</v>
+        <v>41547</v>
       </c>
       <c r="I69" s="116">
-        <v>41558</v>
+        <v>41552</v>
       </c>
       <c r="J69" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -6077,16 +6087,18 @@
         <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="E70" s="123">
-        <v>120</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="116">
-        <v>41585</v>
+        <v>41578</v>
       </c>
       <c r="J70" t="s">
         <v>84</v>
@@ -6094,7 +6106,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>86</v>
@@ -6103,30 +6115,26 @@
         <v>89</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="E71" s="123">
-        <v>192.4</v>
+        <v>1260.76</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G71" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H71" s="2">
-        <v>41586</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J71" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J71" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>86</v>
@@ -6135,22 +6143,22 @@
         <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E72" s="123">
-        <v>2413.2399999999998</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G72" s="2">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="H72" s="2">
-        <v>41530</v>
+        <v>41561</v>
       </c>
       <c r="I72" s="116">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="J72" s="113" t="s">
         <v>23</v>
@@ -6158,39 +6166,33 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="E73" s="123">
-        <v>247.93</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H73" s="2">
-        <v>41537</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="116">
-        <v>41534</v>
-      </c>
-      <c r="J73" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J73" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>86</v>
@@ -6199,24 +6201,24 @@
         <v>89</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E74" s="123">
-        <v>257.38</v>
+        <v>192.4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="G74" s="2">
-        <v>41536</v>
+        <v>41583</v>
       </c>
       <c r="H74" s="2">
-        <v>41539</v>
+        <v>41586</v>
       </c>
       <c r="I74" s="116">
-        <v>41536</v>
-      </c>
-      <c r="J74" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J74" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6231,22 +6233,22 @@
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E75" s="123">
-        <v>7792.51</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G75" s="2">
-        <v>41533</v>
+        <v>41527</v>
       </c>
       <c r="H75" s="2">
-        <v>41536</v>
+        <v>41530</v>
       </c>
       <c r="I75" s="116">
-        <v>41541</v>
+        <v>41527</v>
       </c>
       <c r="J75" s="113" t="s">
         <v>23</v>
@@ -6257,22 +6259,28 @@
         <v>207</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E76" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+        <v>247.93</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="2">
+        <v>41534</v>
+      </c>
+      <c r="H76" s="2">
+        <v>41537</v>
+      </c>
       <c r="I76" s="116">
-        <v>41542</v>
+        <v>41534</v>
       </c>
       <c r="J76" s="113" t="s">
         <v>23</v>
@@ -6289,22 +6297,22 @@
         <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E77" s="123">
-        <v>4489.5</v>
+        <v>257.38</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G77" s="2">
-        <v>41542</v>
+        <v>41536</v>
       </c>
       <c r="H77" s="2">
-        <v>41545</v>
+        <v>41539</v>
       </c>
       <c r="I77" s="116">
-        <v>41542</v>
+        <v>41536</v>
       </c>
       <c r="J77" s="113" t="s">
         <v>23</v>
@@ -6312,7 +6320,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>86</v>
@@ -6321,79 +6329,83 @@
         <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="E78" s="123">
-        <v>86.1</v>
+        <v>7792.51</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G78" s="2">
-        <v>41570</v>
+        <v>41533</v>
       </c>
       <c r="H78" s="2">
-        <v>41573</v>
+        <v>41536</v>
       </c>
       <c r="I78" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J78" t="s">
+        <v>41541</v>
+      </c>
+      <c r="J78" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="E79" s="123">
-        <v>1000</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="116">
-        <v>41555</v>
+        <v>41542</v>
       </c>
       <c r="J79" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E80" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+        <v>4489.5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H80" s="2">
+        <v>41545</v>
+      </c>
       <c r="I80" s="116">
-        <v>41565</v>
+        <v>41542</v>
       </c>
       <c r="J80" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -6401,27 +6413,31 @@
         <v>208</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E81" s="123">
-        <v>5640</v>
+        <v>86.1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="G81" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H81" s="2">
+        <v>41573</v>
+      </c>
       <c r="I81" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J81" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -6429,21 +6445,28 @@
         <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="E82" s="123">
-        <v>6372</v>
-      </c>
-      <c r="F82" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="116"/>
+      <c r="I82" s="116">
+        <v>41555</v>
+      </c>
+      <c r="J82" s="113" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
@@ -6453,24 +6476,22 @@
         <v>86</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="E83" s="123">
-        <v>9249.7800000000007</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="116">
-        <v>41557</v>
+        <v>41565</v>
       </c>
       <c r="J83" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -6478,27 +6499,27 @@
         <v>208</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="E84" s="123">
-        <v>610</v>
+        <v>5640</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J84" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J84" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6506,16 +6527,16 @@
         <v>208</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="E85" s="123">
-        <v>1420.86</v>
+        <v>6372</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
@@ -6533,13 +6554,13 @@
         <v>182</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E86" s="123">
-        <v>790</v>
+        <v>9249.7800000000007</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -6561,15 +6582,22 @@
         <v>182</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E87" s="123">
-        <v>1841.26</v>
-      </c>
-      <c r="F87" s="1"/>
+        <v>610</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="116"/>
+      <c r="I87" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J87" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
@@ -6582,22 +6610,15 @@
         <v>182</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E88" s="123">
-        <v>12076.41</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>1420.86</v>
+      </c>
+      <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J88" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I88" s="116"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
@@ -6607,27 +6628,23 @@
         <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="E89" s="123">
-        <v>290.98</v>
+        <v>790</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G89" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H89" s="2">
-        <v>41574</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J89" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J89" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6639,29 +6656,18 @@
         <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="E90" s="123">
-        <v>888</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G90" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H90" s="2">
-        <v>41586</v>
-      </c>
-      <c r="I90" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J90" t="s">
-        <v>23</v>
-      </c>
+        <v>1841.26</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="116"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
@@ -6671,27 +6677,23 @@
         <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="E91" s="123">
-        <v>367.84</v>
+        <v>12076.41</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G91" s="2">
-        <v>41585</v>
-      </c>
-      <c r="H91" s="2">
-        <v>41588</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J91" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J91" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6706,22 +6708,22 @@
         <v>89</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E92" s="123">
-        <v>760.18</v>
+        <v>290.98</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="G92" s="2">
-        <v>41591</v>
+        <v>41571</v>
       </c>
       <c r="H92" s="2">
-        <v>41594</v>
+        <v>41574</v>
       </c>
       <c r="I92" s="116">
-        <v>41595</v>
+        <v>41571</v>
       </c>
       <c r="J92" t="s">
         <v>23</v>
@@ -6735,21 +6737,25 @@
         <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E93" s="123">
-        <v>929.88</v>
+        <v>888</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="G93" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H93" s="2">
+        <v>41586</v>
+      </c>
       <c r="I93" s="116">
-        <v>41592</v>
+        <v>41586</v>
       </c>
       <c r="J93" t="s">
         <v>23</v>
@@ -6766,22 +6772,22 @@
         <v>89</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E94" s="123">
-        <v>104.7</v>
+        <v>367.84</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G94" s="2">
-        <v>41596</v>
+        <v>41585</v>
       </c>
       <c r="H94" s="2">
-        <v>41599</v>
+        <v>41588</v>
       </c>
       <c r="I94" s="116">
-        <v>41596</v>
+        <v>41586</v>
       </c>
       <c r="J94" t="s">
         <v>23</v>
@@ -6795,25 +6801,25 @@
         <v>86</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E95" s="123">
-        <v>120</v>
+        <v>760.18</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G95" s="2">
-        <v>41598</v>
+        <v>41591</v>
       </c>
       <c r="H95" s="2">
-        <v>41601</v>
+        <v>41594</v>
       </c>
       <c r="I95" s="116">
-        <v>41599</v>
+        <v>41595</v>
       </c>
       <c r="J95" t="s">
         <v>23</v>
@@ -6821,31 +6827,27 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="E96" s="123">
-        <v>312.33</v>
+        <v>929.88</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G96" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H96" s="2">
-        <v>41585</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="116">
-        <v>41582</v>
+        <v>41592</v>
       </c>
       <c r="J96" t="s">
         <v>23</v>
@@ -6853,57 +6855,63 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="E97" s="123">
-        <v>200</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+        <v>104.7</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G97" s="2">
+        <v>41596</v>
+      </c>
+      <c r="H97" s="2">
+        <v>41599</v>
+      </c>
       <c r="I97" s="116">
-        <v>41585</v>
+        <v>41596</v>
       </c>
       <c r="J97" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="E98" s="123">
-        <v>60.89</v>
+        <v>120</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="G98" s="2">
-        <v>41570</v>
+        <v>41598</v>
       </c>
       <c r="H98" s="2">
-        <v>41573</v>
+        <v>41601</v>
       </c>
       <c r="I98" s="116">
-        <v>41570</v>
+        <v>41599</v>
       </c>
       <c r="J98" t="s">
         <v>23</v>
@@ -6911,31 +6919,31 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="E99" s="123">
-        <v>84.89</v>
+        <v>960.45</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="G99" s="2">
-        <v>41577</v>
+        <v>41600</v>
       </c>
       <c r="H99" s="2">
-        <v>41580</v>
+        <v>41600</v>
       </c>
       <c r="I99" s="116">
-        <v>41577</v>
+        <v>41605</v>
       </c>
       <c r="J99" t="s">
         <v>23</v>
@@ -6943,54 +6951,60 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E100" s="123">
-        <v>180</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+        <v>312.33</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G100" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H100" s="2">
+        <v>41585</v>
+      </c>
       <c r="I100" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J100" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="E101" s="123">
-        <v>1323</v>
+        <v>200</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="116">
-        <v>41602</v>
+        <v>41585</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -7001,18 +7015,29 @@
         <v>86</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="E102" s="123">
-        <v>3086</v>
-      </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="116"/>
+        <v>60.89</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H102" s="2">
+        <v>41573</v>
+      </c>
+      <c r="I102" s="116">
+        <v>41570</v>
+      </c>
+      <c r="J102" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
@@ -7022,19 +7047,25 @@
         <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="E103" s="123">
-        <v>8555</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+        <v>84.89</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G103" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H103" s="2">
+        <v>41580</v>
+      </c>
       <c r="I103" s="116">
-        <v>41582</v>
+        <v>41577</v>
       </c>
       <c r="J103" t="s">
         <v>23</v>
@@ -7045,49 +7076,48 @@
         <v>210</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="E104" s="123">
-        <v>8555</v>
+        <v>180</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-      <c r="I104" s="116"/>
+      <c r="I104" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J104" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="E105" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G105" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H105" s="2">
-        <v>41573</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
       <c r="I105" s="116">
-        <v>41570</v>
+        <v>41602</v>
       </c>
       <c r="J105" t="s">
         <v>23</v>
@@ -7095,93 +7125,71 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="E106" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G106" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H106" s="2">
-        <v>41574</v>
-      </c>
-      <c r="I106" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J106" t="s">
-        <v>23</v>
-      </c>
+        <v>3086</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="116"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E107" s="123">
-        <v>4400</v>
+        <v>8555</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J107" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="E108" s="123">
-        <v>227.67</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G108" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H108" s="2">
-        <v>41585</v>
-      </c>
-      <c r="I108" s="116">
-        <v>41582</v>
-      </c>
-      <c r="J108" t="s">
-        <v>23</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="116"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
@@ -7197,19 +7205,19 @@
         <v>104</v>
       </c>
       <c r="E109" s="123">
-        <v>1214.3399999999999</v>
+        <v>5326</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="G109" s="2">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="H109" s="2">
-        <v>41585</v>
+        <v>41573</v>
       </c>
       <c r="I109" s="116">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="J109" t="s">
         <v>23</v>
@@ -7220,25 +7228,31 @@
         <v>211</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E110" s="123">
-        <v>90</v>
-      </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+        <v>93.52</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G110" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H110" s="2">
+        <v>41574</v>
+      </c>
       <c r="I110" s="116">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="J110" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -7252,10 +7266,10 @@
         <v>149</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E111" s="123">
-        <v>120</v>
+        <v>4400</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
@@ -7278,22 +7292,22 @@
         <v>89</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="E112" s="123">
-        <v>257.45999999999998</v>
+        <v>227.67</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G112" s="2">
-        <v>41583</v>
+        <v>41582</v>
       </c>
       <c r="H112" s="2">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="I112" s="116">
-        <v>41586</v>
+        <v>41582</v>
       </c>
       <c r="J112" t="s">
         <v>23</v>
@@ -7310,97 +7324,213 @@
         <v>89</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="E113" s="123">
-        <v>272.37</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G113" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H113" s="2">
         <v>41585</v>
       </c>
-      <c r="H113" s="2">
-        <v>41588</v>
-      </c>
       <c r="I113" s="116">
-        <v>41586</v>
+        <v>41582</v>
       </c>
       <c r="J113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="123"/>
+      <c r="A114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E114" s="123">
+        <v>90</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="116"/>
-    </row>
-    <row r="115" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A115" s="44" t="s">
+      <c r="I114" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" s="123">
+        <v>120</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G116" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H116" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I116" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" s="123">
+        <v>272.37</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G117" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H117" s="2">
+        <v>41588</v>
+      </c>
+      <c r="I117" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="116"/>
+    </row>
+    <row r="119" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A119" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="124">
+      <c r="B119" s="44"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>225882.36</v>
-      </c>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="117"/>
-      <c r="J115" s="114">
+        <v>227001</v>
+      </c>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="117"/>
+      <c r="J119" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="123" spans="1:10">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="122"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="118"/>
-      <c r="J123" s="110"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="C124" s="109"/>
-      <c r="D124" s="109"/>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="122"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="118"/>
-      <c r="J140" s="110"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="122"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="118"/>
+      <c r="J127" s="110"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="C128" s="109"/>
+      <c r="D128" s="109"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="122"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="118"/>
+      <c r="J144" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B116:B123 B98 B110:B111 B107 B26:B78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120:B127 B102 B114:B115 B111 B28:B81">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A116:A123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A120:A127">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A118">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F42" authorId="0">
+    <comment ref="F43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="F46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0">
+    <comment ref="F47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="0">
+    <comment ref="F82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F100" authorId="0">
+    <comment ref="F102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F102" authorId="0">
+    <comment ref="F104" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F109" authorId="0">
+    <comment ref="F111" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="0">
+    <comment ref="F114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="270">
   <si>
     <t>Opis</t>
   </si>
@@ -993,9 +993,6 @@
     <t>Zajęcia pasa ruchu</t>
   </si>
   <si>
-    <t>Opłata przyłączeniowa</t>
-  </si>
-  <si>
     <t>Prokad</t>
   </si>
   <si>
@@ -1017,9 +1014,6 @@
     <t>Umieszczenie przyłacza. Opłata roczna</t>
   </si>
   <si>
-    <t>Opłata za odebranie przyłączy</t>
-  </si>
-  <si>
     <t>Kaucja za worki</t>
   </si>
   <si>
@@ -1027,6 +1021,24 @@
   </si>
   <si>
     <t>SB/003383</t>
+  </si>
+  <si>
+    <t>Odbiór przyłącza wod-kan</t>
+  </si>
+  <si>
+    <t>ZGK Kąty</t>
+  </si>
+  <si>
+    <t>Wpięcie przył. kan.</t>
+  </si>
+  <si>
+    <t>Wpięcie przył. wod.</t>
+  </si>
+  <si>
+    <t>Fakro</t>
+  </si>
+  <si>
+    <t>Zwrot - Okna promocja</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1467,6 +1479,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2076,25 +2089,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62839040"/>
-        <c:axId val="63713280"/>
+        <c:axId val="62707968"/>
+        <c:axId val="63578112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62839040"/>
+        <c:axId val="62707968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63713280"/>
+        <c:crossAx val="63578112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63713280"/>
+        <c:axId val="63578112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2116,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62839040"/>
+        <c:crossAx val="62707968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2116,7 +2129,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000655" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000655" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3684,8 +3697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J119" totalsRowCount="1">
-  <autoFilter ref="A1:J118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J121" totalsRowCount="1">
+  <autoFilter ref="A1:J120">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4024,11 +4037,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4728,16 +4741,23 @@
         <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="123"/>
+        <v>253</v>
+      </c>
+      <c r="E24" s="123">
+        <v>36</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="116"/>
+      <c r="I24" s="116">
+        <v>41605</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
@@ -4747,16 +4767,23 @@
         <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E25" s="123"/>
+        <v>260</v>
+      </c>
+      <c r="E25" s="123">
+        <v>22.19</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="116"/>
+      <c r="I25" s="116">
+        <v>41605</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
@@ -4766,19 +4793,23 @@
         <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E26" s="123">
-        <v>36</v>
+        <v>184.5</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="130">
+        <v>41603</v>
+      </c>
+      <c r="H26" s="130">
+        <v>41617</v>
+      </c>
       <c r="I26" s="116">
-        <v>41605</v>
+        <v>41606</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
@@ -4792,19 +4823,23 @@
         <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E27" s="123">
-        <v>22.19</v>
+        <v>387.45</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="130">
+        <v>41603</v>
+      </c>
+      <c r="H27" s="130">
+        <v>41617</v>
+      </c>
       <c r="I27" s="116">
-        <v>41605</v>
+        <v>41606</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -4812,28 +4847,32 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="E28" s="123">
-        <v>400</v>
+        <v>159.9</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="130">
+        <v>41603</v>
+      </c>
+      <c r="H28" s="130">
+        <v>41617</v>
+      </c>
       <c r="I28" s="116">
-        <v>41474</v>
-      </c>
-      <c r="J28" s="113" t="s">
-        <v>84</v>
+        <v>41606</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4847,10 +4886,10 @@
         <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="123">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
@@ -4867,16 +4906,16 @@
         <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E30" s="123">
-        <v>7800</v>
+        <v>650</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
@@ -4896,28 +4935,22 @@
         <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E31" s="123">
-        <v>1510.21</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2">
-        <v>41494</v>
-      </c>
-      <c r="H31" s="2">
-        <v>41497</v>
-      </c>
+        <v>7800</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="116">
-        <v>41495</v>
+        <v>41474</v>
       </c>
       <c r="J31" s="113" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4931,25 +4964,25 @@
         <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="123">
-        <v>5878.78</v>
+        <v>1510.21</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2">
         <v>41494</v>
       </c>
       <c r="H32" s="2">
-        <v>41501</v>
+        <v>41497</v>
       </c>
       <c r="I32" s="116">
-        <v>41501</v>
+        <v>41495</v>
       </c>
       <c r="J32" s="113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4963,16 +4996,16 @@
         <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="123">
-        <v>19.079999999999998</v>
+        <v>5878.78</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2">
-        <v>41498</v>
+        <v>41494</v>
       </c>
       <c r="H33" s="2">
         <v>41501</v>
@@ -4995,13 +5028,13 @@
         <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E34" s="123">
-        <v>115.01</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" s="2">
         <v>41498</v>
@@ -5027,19 +5060,19 @@
         <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35" s="123">
-        <v>8280.36</v>
+        <v>115.01</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2">
-        <v>41499</v>
+        <v>41498</v>
       </c>
       <c r="H35" s="2">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="I35" s="116">
         <v>41501</v>
@@ -5059,22 +5092,22 @@
         <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E36" s="123">
-        <v>1657.43</v>
+        <v>8280.36</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2">
+        <v>41499</v>
+      </c>
+      <c r="H36" s="2">
         <v>41502</v>
       </c>
-      <c r="H36" s="2">
-        <v>41505</v>
-      </c>
       <c r="I36" s="116">
-        <v>41502</v>
+        <v>41501</v>
       </c>
       <c r="J36" s="113" t="s">
         <v>23</v>
@@ -5094,19 +5127,19 @@
         <v>17</v>
       </c>
       <c r="E37" s="123">
-        <v>512.29999999999995</v>
+        <v>1657.43</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2">
         <v>41502</v>
       </c>
       <c r="H37" s="2">
-        <v>41509</v>
+        <v>41505</v>
       </c>
       <c r="I37" s="116">
-        <v>41507</v>
+        <v>41502</v>
       </c>
       <c r="J37" s="113" t="s">
         <v>23</v>
@@ -5117,22 +5150,26 @@
         <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E38" s="123">
-        <v>10584</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="G38" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H38" s="2">
+        <v>41509</v>
+      </c>
       <c r="I38" s="116">
         <v>41507</v>
       </c>
@@ -5145,28 +5182,24 @@
         <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E39" s="123">
-        <v>7610.63</v>
+        <v>10584</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="2">
-        <v>41514</v>
-      </c>
-      <c r="H39" s="2">
-        <v>41517</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="116">
-        <v>41515</v>
+        <v>41507</v>
       </c>
       <c r="J39" s="113" t="s">
         <v>23</v>
@@ -5183,22 +5216,22 @@
         <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E40" s="123">
-        <v>992.96</v>
+        <v>7610.63</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G40" s="2">
-        <v>41492</v>
+        <v>41514</v>
       </c>
       <c r="H40" s="2">
-        <v>41495</v>
+        <v>41517</v>
       </c>
       <c r="I40" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J40" s="113" t="s">
         <v>23</v>
@@ -5212,56 +5245,56 @@
         <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="E41" s="123">
-        <v>335.18</v>
+        <v>992.96</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="G41" s="2">
+        <v>41492</v>
+      </c>
+      <c r="H41" s="2">
+        <v>41495</v>
+      </c>
       <c r="I41" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J41" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="E42" s="123">
-        <v>1764.84</v>
+        <v>335.18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H42" s="2">
-        <v>41573</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J42" t="s">
-        <v>23</v>
+        <v>41521</v>
+      </c>
+      <c r="J42" s="113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5275,13 +5308,13 @@
         <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E43" s="123">
-        <v>241.71</v>
+        <v>1764.84</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G43" s="2">
         <v>41570</v>
@@ -5304,19 +5337,25 @@
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E44" s="123">
-        <v>700</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>241.71</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H44" s="2">
+        <v>41573</v>
+      </c>
       <c r="I44" s="116">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -5330,25 +5369,19 @@
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E45" s="123">
-        <v>69.88</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H45" s="2">
-        <v>41573</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="116">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -5365,22 +5398,22 @@
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E46" s="123">
-        <v>40.619999999999997</v>
+        <v>69.88</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G46" s="2">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="H46" s="2">
-        <v>41585</v>
+        <v>41573</v>
       </c>
       <c r="I46" s="116">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
@@ -5391,25 +5424,31 @@
         <v>205</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E47" s="123">
-        <v>3800</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+        <v>40.619999999999997</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H47" s="2">
+        <v>41585</v>
+      </c>
       <c r="I47" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5417,16 +5456,16 @@
         <v>205</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="E48" s="123">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
@@ -5449,10 +5488,10 @@
         <v>35</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>233</v>
+        <v>8</v>
       </c>
       <c r="E49" s="123">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="2"/>
@@ -5472,28 +5511,22 @@
         <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E50" s="123">
-        <v>118.51</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G50" s="2">
+        <v>450</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="116">
         <v>41585</v>
       </c>
-      <c r="H50" s="2">
-        <v>41588</v>
-      </c>
-      <c r="I50" s="116">
-        <v>41586</v>
-      </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5504,19 +5537,25 @@
         <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E51" s="123">
-        <v>1080</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+        <v>118.51</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H51" s="2">
+        <v>41588</v>
+      </c>
       <c r="I51" s="116">
-        <v>41598</v>
+        <v>41586</v>
       </c>
       <c r="J51" t="s">
         <v>23</v>
@@ -5533,10 +5572,10 @@
         <v>245</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E52" s="123">
-        <v>100</v>
+        <v>1080</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
@@ -5550,33 +5589,27 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="E53" s="123">
-        <v>3813.05</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="2">
-        <v>41512</v>
-      </c>
-      <c r="H53" s="2">
-        <v>41519</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J53" s="113" t="s">
+        <v>41598</v>
+      </c>
+      <c r="J53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5591,19 +5624,19 @@
         <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E54" s="123">
-        <v>66.180000000000007</v>
+        <v>3813.05</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G54" s="2">
-        <v>41513</v>
+        <v>41512</v>
       </c>
       <c r="H54" s="2">
-        <v>41516</v>
+        <v>41519</v>
       </c>
       <c r="I54" s="116">
         <v>41515</v>
@@ -5623,13 +5656,13 @@
         <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" s="123">
-        <v>649.32000000000005</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G55" s="2">
         <v>41513</v>
@@ -5655,22 +5688,22 @@
         <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E56" s="123">
-        <v>3084.07</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H56" s="2">
         <v>41516</v>
       </c>
-      <c r="H56" s="2">
-        <v>41519</v>
-      </c>
       <c r="I56" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J56" s="113" t="s">
         <v>23</v>
@@ -5681,27 +5714,31 @@
         <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E57" s="123">
-        <v>7010.82</v>
+        <v>3084.07</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G57" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H57" s="2">
+        <v>41519</v>
+      </c>
       <c r="I57" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J57" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5709,19 +5746,19 @@
         <v>206</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E58" s="123">
-        <v>54</v>
+        <v>7010.82</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -5740,28 +5777,24 @@
         <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E59" s="123">
-        <v>1415.36</v>
+        <v>54</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H59" s="2">
-        <v>41519</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="116">
         <v>41521</v>
       </c>
       <c r="J59" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5775,22 +5808,22 @@
         <v>89</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E60" s="123">
-        <v>4163.04</v>
+        <v>1415.36</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G60" s="2">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="H60" s="2">
-        <v>41518</v>
+        <v>41519</v>
       </c>
       <c r="I60" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J60" s="113" t="s">
         <v>23</v>
@@ -5810,10 +5843,10 @@
         <v>160</v>
       </c>
       <c r="E61" s="123">
-        <v>1214.22</v>
+        <v>4163.04</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G61" s="2">
         <v>41515</v>
@@ -5839,22 +5872,22 @@
         <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E62" s="123">
-        <v>227.55</v>
+        <v>1214.22</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62" s="2">
-        <v>41528</v>
+        <v>41515</v>
       </c>
       <c r="H62" s="2">
-        <v>41531</v>
+        <v>41518</v>
       </c>
       <c r="I62" s="116">
-        <v>41528</v>
+        <v>41527</v>
       </c>
       <c r="J62" s="113" t="s">
         <v>23</v>
@@ -5868,21 +5901,25 @@
         <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="E63" s="123">
-        <v>360</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2"/>
+        <v>227.55</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G63" s="2">
+        <v>41528</v>
+      </c>
       <c r="H63" s="2">
-        <v>41537</v>
+        <v>41531</v>
       </c>
       <c r="I63" s="116">
-        <v>41537</v>
+        <v>41528</v>
       </c>
       <c r="J63" s="113" t="s">
         <v>23</v>
@@ -5896,25 +5933,21 @@
         <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E64" s="123">
-        <v>2786.4</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G64" s="2">
-        <v>41544</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="I64" s="116">
-        <v>41547</v>
+        <v>41537</v>
       </c>
       <c r="J64" s="113" t="s">
         <v>23</v>
@@ -5931,19 +5964,19 @@
         <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E65" s="123">
-        <v>594.69000000000005</v>
+        <v>2786.4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G65" s="2">
+        <v>41544</v>
+      </c>
+      <c r="H65" s="2">
         <v>41547</v>
-      </c>
-      <c r="H65" s="2">
-        <v>41550</v>
       </c>
       <c r="I65" s="116">
         <v>41547</v>
@@ -5957,27 +5990,31 @@
         <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="E66" s="123">
-        <v>2960</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G66" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H66" s="2">
+        <v>41550</v>
+      </c>
       <c r="I66" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J66" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5985,26 +6022,22 @@
         <v>206</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="E67" s="123">
-        <v>200</v>
+        <v>2960</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G67" s="2">
-        <v>41549</v>
-      </c>
-      <c r="H67" s="2">
-        <v>41549</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="116">
         <v>41552</v>
       </c>
@@ -6023,19 +6056,19 @@
         <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E68" s="123">
-        <v>48.18</v>
+        <v>200</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G68" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="H68" s="2">
-        <v>41548</v>
+        <v>41549</v>
       </c>
       <c r="I68" s="116">
         <v>41552</v>
@@ -6055,19 +6088,19 @@
         <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E69" s="123">
-        <v>90</v>
+        <v>48.18</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G69" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="H69" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="I69" s="116">
         <v>41552</v>
@@ -6081,26 +6114,30 @@
         <v>206</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="E70" s="123">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G70" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H70" s="2">
+        <v>41547</v>
+      </c>
       <c r="I70" s="116">
-        <v>41578</v>
-      </c>
-      <c r="J70" t="s">
+        <v>41552</v>
+      </c>
+      <c r="J70" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6109,27 +6146,27 @@
         <v>206</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="E71" s="123">
-        <v>1260.76</v>
+        <v>2000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J71" s="113" t="s">
-        <v>23</v>
+        <v>41578</v>
+      </c>
+      <c r="J71" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -6143,22 +6180,18 @@
         <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="E72" s="123">
-        <v>2398.8000000000002</v>
+        <v>1260.76</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G72" s="2">
-        <v>41558</v>
-      </c>
-      <c r="H72" s="2">
-        <v>41561</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="116">
-        <v>41558</v>
+        <v>41557</v>
       </c>
       <c r="J72" s="113" t="s">
         <v>23</v>
@@ -6169,62 +6202,62 @@
         <v>206</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="E73" s="123">
-        <v>120</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+        <v>2398.8000000000002</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" s="2">
+        <v>41558</v>
+      </c>
+      <c r="H73" s="2">
+        <v>41561</v>
+      </c>
       <c r="I73" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J73" t="s">
-        <v>84</v>
+        <v>41558</v>
+      </c>
+      <c r="J73" s="113" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E74" s="123">
-        <v>192.4</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H74" s="2">
-        <v>41586</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J74" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
@@ -6233,24 +6266,24 @@
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E75" s="123">
-        <v>2413.2399999999998</v>
+        <v>192.4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="G75" s="2">
-        <v>41527</v>
+        <v>41583</v>
       </c>
       <c r="H75" s="2">
-        <v>41530</v>
+        <v>41586</v>
       </c>
       <c r="I75" s="116">
-        <v>41527</v>
-      </c>
-      <c r="J75" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J75" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6268,19 +6301,19 @@
         <v>17</v>
       </c>
       <c r="E76" s="123">
-        <v>247.93</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G76" s="2">
-        <v>41534</v>
+        <v>41527</v>
       </c>
       <c r="H76" s="2">
-        <v>41537</v>
+        <v>41530</v>
       </c>
       <c r="I76" s="116">
-        <v>41534</v>
+        <v>41527</v>
       </c>
       <c r="J76" s="113" t="s">
         <v>23</v>
@@ -6300,19 +6333,19 @@
         <v>17</v>
       </c>
       <c r="E77" s="123">
-        <v>257.38</v>
+        <v>247.93</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G77" s="2">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="H77" s="2">
-        <v>41539</v>
+        <v>41537</v>
       </c>
       <c r="I77" s="116">
-        <v>41536</v>
+        <v>41534</v>
       </c>
       <c r="J77" s="113" t="s">
         <v>23</v>
@@ -6329,22 +6362,22 @@
         <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E78" s="123">
-        <v>7792.51</v>
+        <v>257.38</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G78" s="2">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="H78" s="2">
+        <v>41539</v>
+      </c>
+      <c r="I78" s="116">
         <v>41536</v>
-      </c>
-      <c r="I78" s="116">
-        <v>41541</v>
       </c>
       <c r="J78" s="113" t="s">
         <v>23</v>
@@ -6355,22 +6388,28 @@
         <v>207</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="E79" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+        <v>7792.51</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" s="2">
+        <v>41533</v>
+      </c>
+      <c r="H79" s="2">
+        <v>41536</v>
+      </c>
       <c r="I79" s="116">
-        <v>41542</v>
+        <v>41541</v>
       </c>
       <c r="J79" s="113" t="s">
         <v>23</v>
@@ -6381,26 +6420,20 @@
         <v>207</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E80" s="123">
-        <v>4489.5</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G80" s="2">
-        <v>41542</v>
-      </c>
-      <c r="H80" s="2">
-        <v>41545</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="116">
         <v>41542</v>
       </c>
@@ -6410,7 +6443,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -6419,24 +6452,24 @@
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="E81" s="123">
-        <v>86.1</v>
+        <v>4489.5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G81" s="2">
-        <v>41570</v>
+        <v>41542</v>
       </c>
       <c r="H81" s="2">
-        <v>41573</v>
+        <v>41545</v>
       </c>
       <c r="I81" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J81" t="s">
+        <v>41542</v>
+      </c>
+      <c r="J81" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6448,24 +6481,28 @@
         <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E82" s="123">
-        <v>1000</v>
+        <v>86.1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="G82" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H82" s="2">
+        <v>41573</v>
+      </c>
       <c r="I82" s="116">
-        <v>41555</v>
-      </c>
-      <c r="J82" s="113" t="s">
-        <v>84</v>
+        <v>41570</v>
+      </c>
+      <c r="J82" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -6479,16 +6516,18 @@
         <v>180</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="E83" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="116">
-        <v>41565</v>
+        <v>41555</v>
       </c>
       <c r="J83" s="113" t="s">
         <v>84</v>
@@ -6499,26 +6538,24 @@
         <v>208</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E84" s="123">
-        <v>5640</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J84" t="s">
+        <v>41565</v>
+      </c>
+      <c r="J84" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6533,43 +6570,43 @@
         <v>149</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E85" s="123">
-        <v>6372</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>5640</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="116"/>
+      <c r="I85" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J85" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="E86" s="123">
-        <v>9249.7800000000007</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F86" s="1"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J86" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I86" s="116"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
@@ -6582,13 +6619,13 @@
         <v>182</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E87" s="123">
-        <v>610</v>
+        <v>9249.7800000000007</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -6613,12 +6650,19 @@
         <v>185</v>
       </c>
       <c r="E88" s="123">
-        <v>1420.86</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>610</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="116"/>
+      <c r="I88" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J88" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
@@ -6631,22 +6675,15 @@
         <v>182</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E89" s="123">
-        <v>790</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>1420.86</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J89" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I89" s="116"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
@@ -6662,12 +6699,19 @@
         <v>187</v>
       </c>
       <c r="E90" s="123">
-        <v>1841.26</v>
-      </c>
-      <c r="F90" s="1"/>
+        <v>790</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="116"/>
+      <c r="I90" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J90" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
@@ -6680,22 +6724,15 @@
         <v>182</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E91" s="123">
-        <v>12076.41</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>1841.26</v>
+      </c>
+      <c r="F91" s="1"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J91" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I91" s="116"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
@@ -6705,27 +6742,23 @@
         <v>86</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="E92" s="123">
-        <v>290.98</v>
+        <v>12076.41</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G92" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H92" s="2">
-        <v>41574</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
       <c r="I92" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J92" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J92" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6737,28 +6770,19 @@
         <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="E93" s="123">
-        <v>888</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G93" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H93" s="2">
-        <v>41586</v>
-      </c>
+        <v>-2500</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
       <c r="I93" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J93" t="s">
-        <v>23</v>
+        <v>41607</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -6772,22 +6796,22 @@
         <v>89</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E94" s="123">
-        <v>367.84</v>
+        <v>290.98</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="G94" s="2">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="H94" s="2">
-        <v>41588</v>
+        <v>41574</v>
       </c>
       <c r="I94" s="116">
-        <v>41586</v>
+        <v>41571</v>
       </c>
       <c r="J94" t="s">
         <v>23</v>
@@ -6804,22 +6828,22 @@
         <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E95" s="123">
-        <v>760.18</v>
+        <v>888</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G95" s="2">
-        <v>41591</v>
+        <v>41583</v>
       </c>
       <c r="H95" s="2">
-        <v>41594</v>
+        <v>41586</v>
       </c>
       <c r="I95" s="116">
-        <v>41595</v>
+        <v>41586</v>
       </c>
       <c r="J95" t="s">
         <v>23</v>
@@ -6833,21 +6857,25 @@
         <v>86</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E96" s="123">
-        <v>929.88</v>
+        <v>367.84</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="G96" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H96" s="2">
+        <v>41588</v>
+      </c>
       <c r="I96" s="116">
-        <v>41592</v>
+        <v>41586</v>
       </c>
       <c r="J96" t="s">
         <v>23</v>
@@ -6864,22 +6892,22 @@
         <v>89</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E97" s="123">
-        <v>104.7</v>
+        <v>760.18</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G97" s="2">
-        <v>41596</v>
+        <v>41591</v>
       </c>
       <c r="H97" s="2">
-        <v>41599</v>
+        <v>41594</v>
       </c>
       <c r="I97" s="116">
-        <v>41596</v>
+        <v>41595</v>
       </c>
       <c r="J97" t="s">
         <v>23</v>
@@ -6893,25 +6921,21 @@
         <v>86</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E98" s="123">
-        <v>120</v>
+        <v>929.88</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G98" s="2">
-        <v>41598</v>
-      </c>
-      <c r="H98" s="2">
-        <v>41601</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="116">
-        <v>41599</v>
+        <v>41592</v>
       </c>
       <c r="J98" t="s">
         <v>23</v>
@@ -6925,25 +6949,25 @@
         <v>86</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="E99" s="123">
-        <v>960.45</v>
+        <v>104.7</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G99" s="2">
-        <v>41600</v>
+        <v>41596</v>
       </c>
       <c r="H99" s="2">
-        <v>41600</v>
+        <v>41599</v>
       </c>
       <c r="I99" s="116">
-        <v>41605</v>
+        <v>41596</v>
       </c>
       <c r="J99" t="s">
         <v>23</v>
@@ -6951,31 +6975,31 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="E100" s="123">
-        <v>312.33</v>
+        <v>120</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G100" s="2">
-        <v>41582</v>
+        <v>41598</v>
       </c>
       <c r="H100" s="2">
-        <v>41585</v>
+        <v>41601</v>
       </c>
       <c r="I100" s="116">
-        <v>41582</v>
+        <v>41599</v>
       </c>
       <c r="J100" t="s">
         <v>23</v>
@@ -6983,33 +7007,39 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E101" s="123">
-        <v>200</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+        <v>960.45</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G101" s="2">
+        <v>41600</v>
+      </c>
+      <c r="H101" s="2">
+        <v>41600</v>
+      </c>
       <c r="I101" s="116">
-        <v>41585</v>
+        <v>41605</v>
       </c>
       <c r="J101" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>86</v>
@@ -7021,19 +7051,19 @@
         <v>22</v>
       </c>
       <c r="E102" s="123">
-        <v>60.89</v>
+        <v>312.33</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G102" s="2">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="H102" s="2">
-        <v>41573</v>
+        <v>41585</v>
       </c>
       <c r="I102" s="116">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="J102" t="s">
         <v>23</v>
@@ -7041,34 +7071,28 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="E103" s="123">
-        <v>84.89</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G103" s="2">
-        <v>41577</v>
-      </c>
-      <c r="H103" s="2">
-        <v>41580</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
       <c r="I103" s="116">
-        <v>41577</v>
+        <v>41585</v>
       </c>
       <c r="J103" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7076,25 +7100,31 @@
         <v>210</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E104" s="123">
-        <v>180</v>
-      </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+        <v>60.89</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G104" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H104" s="2">
+        <v>41573</v>
+      </c>
       <c r="I104" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J104" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7105,19 +7135,25 @@
         <v>86</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="E105" s="123">
-        <v>1323</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+        <v>84.89</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G105" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H105" s="2">
+        <v>41580</v>
+      </c>
       <c r="I105" s="116">
-        <v>41602</v>
+        <v>41577</v>
       </c>
       <c r="J105" t="s">
         <v>23</v>
@@ -7128,21 +7164,26 @@
         <v>210</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="E106" s="123">
-        <v>3086</v>
+        <v>180</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
-      <c r="I106" s="116"/>
+      <c r="I106" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J106" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
@@ -7152,19 +7193,19 @@
         <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E107" s="123">
-        <v>8555</v>
+        <v>1323</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="116">
-        <v>41582</v>
+        <v>41602</v>
       </c>
       <c r="J107" t="s">
         <v>23</v>
@@ -7178,13 +7219,13 @@
         <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E108" s="123">
-        <v>8555</v>
+        <v>3086</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="2"/>
@@ -7193,31 +7234,25 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="E109" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G109" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H109" s="2">
-        <v>41573</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
       <c r="I109" s="116">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="J109" t="s">
         <v>23</v>
@@ -7225,60 +7260,55 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="E110" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G110" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H110" s="2">
-        <v>41574</v>
-      </c>
-      <c r="I110" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J110" t="s">
-        <v>23</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="116"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E111" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+        <v>5326</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G111" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H111" s="2">
+        <v>41573</v>
+      </c>
       <c r="I111" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J111" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -7292,22 +7322,22 @@
         <v>89</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="E112" s="123">
-        <v>227.67</v>
+        <v>93.52</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G112" s="2">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="H112" s="2">
-        <v>41585</v>
+        <v>41574</v>
       </c>
       <c r="I112" s="116">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="J112" t="s">
         <v>23</v>
@@ -7318,31 +7348,25 @@
         <v>211</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E113" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G113" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H113" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="116">
         <v>41585</v>
       </c>
-      <c r="I113" s="116">
-        <v>41582</v>
-      </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -7350,25 +7374,31 @@
         <v>211</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="E114" s="123">
-        <v>90</v>
-      </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+        <v>227.67</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G114" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H114" s="2">
+        <v>41585</v>
+      </c>
       <c r="I114" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J114" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7376,25 +7406,31 @@
         <v>211</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="E115" s="123">
-        <v>120</v>
-      </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G115" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H115" s="2">
+        <v>41585</v>
+      </c>
       <c r="I115" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J115" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -7402,31 +7438,25 @@
         <v>211</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="E116" s="123">
-        <v>257.45999999999998</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G116" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H116" s="2">
-        <v>41586</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
       <c r="I116" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7434,103 +7464,161 @@
         <v>211</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E117" s="123">
+        <v>120</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E118" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G118" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H118" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I118" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E117" s="123">
+      <c r="E119" s="123">
         <v>272.37</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G119" s="2">
         <v>41585</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H119" s="2">
         <v>41588</v>
       </c>
-      <c r="I117" s="116">
+      <c r="I119" s="116">
         <v>41586</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J119" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="123"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="116"/>
-    </row>
-    <row r="119" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A119" s="44" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="123"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="116"/>
+    </row>
+    <row r="121" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A121" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B119" s="44"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="124">
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>227001</v>
-      </c>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="44"/>
-      <c r="I119" s="117"/>
-      <c r="J119" s="114">
+        <v>225232.85000000003</v>
+      </c>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="117"/>
+      <c r="J121" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="127" spans="1:10">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="122"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="118"/>
-      <c r="J127" s="110"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="C128" s="109"/>
-      <c r="D128" s="109"/>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="122"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="118"/>
-      <c r="J144" s="110"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="122"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="118"/>
+      <c r="J129" s="110"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="C130" s="109"/>
+      <c r="D130" s="109"/>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="118"/>
+      <c r="J146" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B120:B127 B102 B114:B115 B111 B28:B81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122:B129 B104 B116:B117 B113 B29:B82">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A120:A127">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A122:A129">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A120">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -37,7 +37,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -46,7 +47,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 Część faktury - druga część tej samej faktury w sekcji Ściany działowe</t>
@@ -61,7 +63,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -70,7 +73,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 Druga czesc faktury na 216,87 w sekcji Okna
@@ -86,7 +90,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -95,7 +100,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 cz 3/3</t>
@@ -110,7 +116,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -119,7 +126,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 Trzecia czesc faktury na 216,87
@@ -135,7 +143,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -144,14 +153,15 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 cz 1/3</t>
         </r>
       </text>
     </comment>
-    <comment ref="F104" authorId="0">
+    <comment ref="F107" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +169,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -168,7 +179,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 Druga czesc faktury na 216,87 w sekcji Fundamenty
@@ -176,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F111" authorId="0">
+    <comment ref="F116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +196,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -193,14 +206,15 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 Część faktury - druga część tej samej faktury w sekcji Fundamenty. Faktura razem na 7090,84</t>
         </r>
       </text>
     </comment>
-    <comment ref="F114" authorId="0">
+    <comment ref="F119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +222,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>Autor:</t>
         </r>
@@ -217,7 +232,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 cz 2/3</t>
@@ -229,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="278">
   <si>
     <t>Opis</t>
   </si>
@@ -1008,9 +1024,6 @@
     <t>Okna zaliczka</t>
   </si>
   <si>
-    <t xml:space="preserve">Okna  </t>
-  </si>
-  <si>
     <t>Umieszczenie przyłacza. Opłata roczna</t>
   </si>
   <si>
@@ -1039,6 +1052,33 @@
   </si>
   <si>
     <t>Zwrot - Okna promocja</t>
+  </si>
+  <si>
+    <t>Drzwi ogrodowe - zaliczka</t>
+  </si>
+  <si>
+    <t>Okna - faktura</t>
+  </si>
+  <si>
+    <t>Drzwi ogrodowe - faktura</t>
+  </si>
+  <si>
+    <t>Styropian elewacja</t>
+  </si>
+  <si>
+    <t>7814/T/12/2013</t>
+  </si>
+  <si>
+    <t>Dodatki</t>
+  </si>
+  <si>
+    <t>7773/T/11/2013</t>
+  </si>
+  <si>
+    <t>7859/T/12/2013</t>
+  </si>
+  <si>
+    <t>1149/2013</t>
   </si>
 </sst>
 </file>
@@ -1136,14 +1176,16 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2089,25 +2131,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62707968"/>
-        <c:axId val="63578112"/>
+        <c:axId val="63097088"/>
+        <c:axId val="63971328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62707968"/>
+        <c:axId val="63097088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63578112"/>
+        <c:crossAx val="63971328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63578112"/>
+        <c:axId val="63971328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2158,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62707968"/>
+        <c:crossAx val="63097088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2129,7 +2171,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000655" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000655" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000699" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000699" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2171,7 +2213,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41603.408114467595" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="111">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41608.875174074077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="119">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -2210,19 +2252,19 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Kwota" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="19.079999999999998" maxValue="12076.41"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-2500" maxValue="12076.41"/>
     </cacheField>
     <cacheField name="Faktura numer" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-11-21T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-11-26T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-11-24T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-12-10T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-11-25T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-11-30T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2232,7 +2274,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="111">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="119">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2500,26 +2542,62 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="ZGK"/>
-    <s v="Opłata przyłączeniowa"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="UM"/>
+    <s v="Zajęcia pasa ruchu"/>
+    <n v="36"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-27T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <s v="UM"/>
-    <s v="Zajęcia pasa ruchu"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Umieszczenie przyłacza. Opłata roczna"/>
+    <n v="22.19"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-27T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="ZGK Kąty"/>
+    <s v="Odbiór przyłącza wod-kan"/>
+    <n v="184.5"/>
+    <m/>
+    <d v="2013-11-25T00:00:00"/>
+    <d v="2013-12-09T00:00:00"/>
+    <d v="2013-11-28T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="ZGK Kąty"/>
+    <s v="Wpięcie przył. wod."/>
+    <n v="387.45"/>
+    <m/>
+    <d v="2013-11-25T00:00:00"/>
+    <d v="2013-12-09T00:00:00"/>
+    <d v="2013-11-28T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="ZGK Kąty"/>
+    <s v="Wpięcie przył. kan."/>
+    <n v="159.9"/>
+    <m/>
+    <d v="2013-11-25T00:00:00"/>
+    <d v="2013-12-09T00:00:00"/>
+    <d v="2013-11-28T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="1"/>
@@ -2806,8 +2884,20 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
+    <d v="2013-11-20T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Kiełczów"/>
+    <s v="Kaucja za worki"/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-20T00:00:00"/>
+    <s v="eb wsp"/>
   </r>
   <r>
     <x v="3"/>
@@ -3280,6 +3370,18 @@
   <r>
     <x v="6"/>
     <x v="3"/>
+    <s v="Fakro"/>
+    <s v="Zwrot - Okna promocja"/>
+    <n v="-2500"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
     <s v="Manex"/>
     <s v="Żelastwo"/>
     <n v="290.98"/>
@@ -3362,6 +3464,18 @@
     <s v="eb wsp"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dodatkowe dachówki i gąsiory"/>
+    <n v="960.45"/>
+    <s v="SB/003383"/>
+    <d v="2013-11-22T00:00:00"/>
+    <d v="2013-11-22T00:00:00"/>
+    <d v="2013-11-27T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
     <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
@@ -3439,6 +3553,30 @@
     <s v="Prokad"/>
     <s v="Brama garażowa  "/>
     <n v="3086"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Extherm"/>
+    <s v="Okna zaliczka"/>
+    <n v="8555"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-04T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Extherm"/>
+    <s v="Okna  "/>
+    <n v="8555"/>
     <m/>
     <m/>
     <m/>
@@ -3697,8 +3835,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J121" totalsRowCount="1">
-  <autoFilter ref="A1:J120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J126" totalsRowCount="1">
+  <autoFilter ref="A1:J125">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4037,11 +4175,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4770,7 +4908,7 @@
         <v>252</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E25" s="123">
         <v>22.19</v>
@@ -4793,10 +4931,10 @@
         <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E26" s="123">
         <v>184.5</v>
@@ -4823,10 +4961,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E27" s="123">
         <v>387.45</v>
@@ -4853,10 +4991,10 @@
         <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E28" s="123">
         <v>159.9</v>
@@ -5598,7 +5736,7 @@
         <v>245</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" s="123">
         <v>100</v>
@@ -6770,10 +6908,10 @@
         <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E93" s="123">
         <v>-2500</v>
@@ -7016,13 +7154,13 @@
         <v>182</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E101" s="123">
         <v>960.45</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G101" s="2">
         <v>41600</v>
@@ -7097,7 +7235,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>86</v>
@@ -7106,22 +7244,22 @@
         <v>89</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="E104" s="123">
-        <v>60.89</v>
+        <v>7781.55</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="G104" s="2">
-        <v>41570</v>
+        <v>41610</v>
       </c>
       <c r="H104" s="2">
-        <v>41573</v>
+        <v>41613</v>
       </c>
       <c r="I104" s="116">
-        <v>41570</v>
+        <v>41613</v>
       </c>
       <c r="J104" t="s">
         <v>23</v>
@@ -7129,7 +7267,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>86</v>
@@ -7138,22 +7276,22 @@
         <v>89</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="E105" s="123">
-        <v>84.89</v>
+        <v>4842.8500000000004</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="G105" s="2">
-        <v>41577</v>
+        <v>41607</v>
       </c>
       <c r="H105" s="2">
-        <v>41580</v>
+        <v>41614</v>
       </c>
       <c r="I105" s="116">
-        <v>41577</v>
+        <v>41613</v>
       </c>
       <c r="J105" t="s">
         <v>23</v>
@@ -7161,28 +7299,34 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="E106" s="123">
-        <v>180</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+        <v>1467.55</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G106" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H106" s="2">
+        <v>41615</v>
+      </c>
       <c r="I106" s="116">
-        <v>41585</v>
+        <v>41613</v>
       </c>
       <c r="J106" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7193,19 +7337,25 @@
         <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="E107" s="123">
-        <v>1323</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+        <v>60.89</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G107" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H107" s="2">
+        <v>41573</v>
+      </c>
       <c r="I107" s="116">
-        <v>41602</v>
+        <v>41570</v>
       </c>
       <c r="J107" t="s">
         <v>23</v>
@@ -7219,43 +7369,54 @@
         <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="E108" s="123">
-        <v>3086</v>
-      </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="116"/>
+        <v>84.89</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G108" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H108" s="2">
+        <v>41580</v>
+      </c>
+      <c r="I108" s="116">
+        <v>41577</v>
+      </c>
+      <c r="J108" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>257</v>
+        <v>149</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="E109" s="123">
-        <v>8555</v>
+        <v>180</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="116">
-        <v>41582</v>
+        <v>41585</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7266,78 +7427,66 @@
         <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E110" s="123">
-        <v>8555</v>
+        <v>1323</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="116"/>
+      <c r="I110" s="116">
+        <v>41602</v>
+      </c>
+      <c r="J110" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="E111" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G111" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H111" s="2">
-        <v>41573</v>
-      </c>
-      <c r="I111" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J111" t="s">
-        <v>23</v>
-      </c>
+        <v>3086</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="116"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="E112" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G112" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H112" s="2">
-        <v>41574</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
       <c r="I112" s="116">
-        <v>41571</v>
+        <v>41582</v>
       </c>
       <c r="J112" t="s">
         <v>23</v>
@@ -7345,57 +7494,57 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="E113" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+        <v>8555</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G113" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H113" s="2">
+        <v>41615</v>
+      </c>
       <c r="I113" s="116">
-        <v>41585</v>
+        <v>41613</v>
       </c>
       <c r="J113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="E114" s="123">
-        <v>227.67</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G114" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H114" s="2">
-        <v>41585</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
       <c r="I114" s="116">
-        <v>41582</v>
+        <v>41611</v>
       </c>
       <c r="J114" t="s">
         <v>23</v>
@@ -7403,60 +7552,57 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="E115" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G115" s="2">
-        <v>41582</v>
-      </c>
+        <v>1276</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="2">
-        <v>41585</v>
-      </c>
-      <c r="I115" s="116">
-        <v>41582</v>
-      </c>
-      <c r="J115" t="s">
-        <v>23</v>
-      </c>
+        <v>41614</v>
+      </c>
+      <c r="I115" s="116"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="E116" s="123">
-        <v>90</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+        <v>5326</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G116" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H116" s="2">
+        <v>41573</v>
+      </c>
       <c r="I116" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J116" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7464,25 +7610,31 @@
         <v>211</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="E117" s="123">
-        <v>120</v>
-      </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+        <v>93.52</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G117" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H117" s="2">
+        <v>41574</v>
+      </c>
       <c r="I117" s="116">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="J117" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7490,31 +7642,25 @@
         <v>211</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E118" s="123">
-        <v>257.45999999999998</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G118" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H118" s="2">
-        <v>41586</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
       <c r="I118" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7528,97 +7674,245 @@
         <v>89</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="E119" s="123">
-        <v>272.37</v>
+        <v>227.67</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G119" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H119" s="2">
         <v>41585</v>
       </c>
-      <c r="H119" s="2">
-        <v>41588</v>
-      </c>
       <c r="I119" s="116">
-        <v>41586</v>
+        <v>41582</v>
       </c>
       <c r="J119" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="123"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="116"/>
-    </row>
-    <row r="121" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A121" s="44" t="s">
+      <c r="A120" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" s="123">
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G120" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H120" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I120" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E121" s="123">
         <v>90</v>
       </c>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="124">
+      <c r="F121" s="1"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122" s="123">
+        <v>120</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G123" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H123" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I123" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E124" s="123">
+        <v>272.37</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G124" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H124" s="2">
+        <v>41588</v>
+      </c>
+      <c r="I124" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="123"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="116"/>
+    </row>
+    <row r="126" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A126" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="44"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>225232.85000000003</v>
-      </c>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="117"/>
-      <c r="J121" s="114">
+        <v>241147.80000000002</v>
+      </c>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="117"/>
+      <c r="J126" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="129" spans="1:10">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="122"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="118"/>
-      <c r="J129" s="110"/>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="C130" s="109"/>
-      <c r="D130" s="109"/>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="118"/>
-      <c r="J146" s="110"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="122"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="118"/>
+      <c r="J134" s="110"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="C135" s="109"/>
+      <c r="D135" s="109"/>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="122"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="118"/>
+      <c r="J151" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122:B129 B104 B116:B117 B113 B29:B82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127:B134 B107 B121:B122 B118 B29:B82">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A122:A129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A127:A134">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A125">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -7636,7 +7930,7 @@
   <dimension ref="A3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7644,7 +7938,7 @@
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -7711,7 +8005,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43">
-        <v>18992</v>
+        <v>19782.04</v>
       </c>
       <c r="E5" s="43">
         <v>5197</v>
@@ -7720,7 +8014,7 @@
         <v>3066</v>
       </c>
       <c r="G5" s="127">
-        <v>27455</v>
+        <v>28245.040000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7747,7 +8041,7 @@
         <v>205</v>
       </c>
       <c r="B7" s="43">
-        <v>4865.5600000000004</v>
+        <v>4965.5600000000004</v>
       </c>
       <c r="C7" s="43">
         <v>3800</v>
@@ -7756,7 +8050,7 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="127">
-        <v>8665.5600000000013</v>
+        <v>8765.5600000000013</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7798,7 +8092,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="43">
-        <v>37035.99</v>
+        <v>35496.439999999995</v>
       </c>
       <c r="C10" s="43">
         <v>12012</v>
@@ -7807,7 +8101,7 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="127">
-        <v>49047.99</v>
+        <v>47508.439999999995</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7832,7 +8126,7 @@
         <v>210</v>
       </c>
       <c r="B12" s="43">
-        <v>4554.78</v>
+        <v>21664.78</v>
       </c>
       <c r="C12" s="43">
         <v>180</v>
@@ -7841,7 +8135,7 @@
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="127">
-        <v>4734.78</v>
+        <v>21844.78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7866,13 +8160,13 @@
         <v>156</v>
       </c>
       <c r="B14" s="43">
-        <v>126890.53999999998</v>
+        <v>142560.99</v>
       </c>
       <c r="C14" s="43">
         <v>53576.82</v>
       </c>
       <c r="D14" s="43">
-        <v>20042</v>
+        <v>20832.04</v>
       </c>
       <c r="E14" s="43">
         <v>5197</v>
@@ -7881,7 +8175,7 @@
         <v>3066</v>
       </c>
       <c r="G14" s="128">
-        <v>208772.36</v>
+        <v>225232.84999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7894,7 +8188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F43" authorId="0">
+    <comment ref="F46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0">
+    <comment ref="F49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0">
+    <comment ref="F50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="0">
+    <comment ref="F84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F102" authorId="0">
+    <comment ref="F105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F107" authorId="0">
+    <comment ref="F112" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F116" authorId="0">
+    <comment ref="F123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F119" authorId="0">
+    <comment ref="F126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="286">
   <si>
     <t>Opis</t>
   </si>
@@ -1079,6 +1079,30 @@
   </si>
   <si>
     <t>1149/2013</t>
+  </si>
+  <si>
+    <t>Ocieplenie budynku</t>
+  </si>
+  <si>
+    <t>Ocieplenie garaż</t>
+  </si>
+  <si>
+    <t>Prysznic</t>
+  </si>
+  <si>
+    <t>Posadzka tars</t>
+  </si>
+  <si>
+    <t>Beton na taras</t>
+  </si>
+  <si>
+    <t>Otynkowanie garażu</t>
+  </si>
+  <si>
+    <t>Lubin</t>
+  </si>
+  <si>
+    <t>Drzwi zewn.tymczasowe</t>
   </si>
 </sst>
 </file>
@@ -2131,11 +2155,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63097088"/>
+        <c:axId val="63101184"/>
         <c:axId val="63971328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63097088"/>
+        <c:axId val="63101184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2182,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63097088"/>
+        <c:crossAx val="63101184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,7 +2195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000699" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000699" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000722" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000722" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2213,23 +2237,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41608.875174074077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="119">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41615.637318518522" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="129">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Etap" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
+      <sharedItems containsBlank="1" count="15">
         <s v="0. Przed budową"/>
         <s v="1. Fundamenty"/>
+        <s v="11. Tynki wewn, malowanie"/>
+        <s v="12. Podłogi, podłoża, posadzki"/>
         <s v="2. Drenaż"/>
         <s v="3. Ściany nadziemia"/>
-        <s v="6. Ocieplenie"/>
         <s v="4. Stropy, schody"/>
         <s v="5. Dach"/>
+        <s v="6. Ocieplenie"/>
         <s v="7. Okna i drzwi zewn"/>
         <s v="8. Ścianki działowe"/>
-        <m/>
+        <m u="1"/>
         <s v="2. Ściany nadziemia" u="1"/>
         <s v="3. Stropy, schody" u="1"/>
         <s v="4. Dach" u="1"/>
@@ -2242,29 +2268,29 @@
         <s v="Koszty kredytu"/>
         <s v="Materiał"/>
         <s v="Wykonawca"/>
-        <m/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dostawca" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Opis" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Kwota" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-2500" maxValue="12076.41"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2500" maxValue="12076.41"/>
     </cacheField>
     <cacheField name="Faktura numer" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-11-26T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-12-05T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-12-10T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-11-30T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-12-08T00:00:00"/>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2274,7 +2300,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="119">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="129">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2769,6 +2795,42 @@
   </r>
   <r>
     <x v="2"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Otynkowanie garażu"/>
+    <n v="70"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-12-07T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Posadzka tars"/>
+    <n v="270"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-12-07T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Antoni Nowak"/>
+    <s v="Beton na taras"/>
+    <n v="500"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-12-07T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Drenaż"/>
@@ -2780,7 +2842,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Drenaż - rura"/>
@@ -2792,7 +2854,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Bystrzycka"/>
     <s v="Drenaż - Żwir"/>
@@ -2804,7 +2866,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Drenaż - folia"/>
@@ -2816,7 +2878,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Rura  "/>
@@ -2828,7 +2890,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Drenaż"/>
@@ -2840,7 +2902,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Nowak"/>
     <s v="Piasek"/>
@@ -2852,7 +2914,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Nowak"/>
     <s v="Suchy beton"/>
@@ -2864,7 +2926,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Rożne"/>
@@ -2876,7 +2938,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Kiełczów"/>
     <s v="Otoczaki"/>
@@ -2888,7 +2950,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="4"/>
     <x v="3"/>
     <s v="Kiełczów"/>
     <s v="Kaucja za worki"/>
@@ -2900,7 +2962,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki"/>
@@ -2912,7 +2974,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Smoła"/>
@@ -2924,7 +2986,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki połówki"/>
@@ -2936,7 +2998,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Komin"/>
@@ -2948,7 +3010,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Parter"/>
@@ -2960,7 +3022,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Antoni Nowak"/>
     <s v="Zaprawa Nowak"/>
@@ -2972,7 +3034,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Nadproża"/>
@@ -2984,7 +3046,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Bloczki"/>
@@ -2996,7 +3058,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Bloczki"/>
@@ -3008,7 +3070,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Stal"/>
@@ -3020,7 +3082,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Antoni Nowak"/>
     <s v="Beton na słupki"/>
@@ -3032,7 +3094,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Bloczki"/>
@@ -3044,7 +3106,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Stal piętro"/>
@@ -3056,7 +3118,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Ściana kolankowa"/>
@@ -3068,7 +3130,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Antoni Nowak"/>
     <s v="Kotwa murłata"/>
@@ -3080,7 +3142,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Antoni Nowak"/>
     <s v="Zaprawa  "/>
@@ -3092,7 +3154,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Antoni Nowak"/>
     <s v="Zaprawa murarska"/>
@@ -3104,7 +3166,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Mur poddasza"/>
@@ -3116,7 +3178,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Beton na wieniec"/>
@@ -3128,7 +3190,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki"/>
@@ -3140,7 +3202,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Zmnijeszenie drzwi balkonowych"/>
@@ -3152,7 +3214,319 @@
     <s v="gotówka"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="2413.2399999999998"/>
+    <s v="5732/T/09/2013"/>
+    <d v="2013-09-10T00:00:00"/>
+    <d v="2013-09-13T00:00:00"/>
+    <d v="2013-09-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="247.93"/>
+    <s v="5924/T/09/2013"/>
+    <d v="2013-09-17T00:00:00"/>
+    <d v="2013-09-20T00:00:00"/>
+    <d v="2013-09-17T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Stal"/>
+    <n v="257.38"/>
+    <s v="5991/T/09/2013"/>
+    <d v="2013-09-19T00:00:00"/>
+    <d v="2013-09-22T00:00:00"/>
+    <d v="2013-09-19T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Belki, pustaki"/>
+    <n v="7792.51"/>
+    <s v="5889/T/09/2013"/>
+    <d v="2013-09-16T00:00:00"/>
+    <d v="2013-09-19T00:00:00"/>
+    <d v="2013-09-24T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Strop"/>
+    <n v="10100"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-09-25T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Beton"/>
+    <n v="4489.5"/>
+    <s v="6144/T/09/2013"/>
+    <d v="2013-09-25T00:00:00"/>
+    <d v="2013-09-28T00:00:00"/>
+    <d v="2013-09-25T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Gwoździe"/>
+    <n v="86.1"/>
+    <s v="6923/T/10/2013"/>
+    <d v="2013-10-23T00:00:00"/>
+    <d v="2013-10-26T00:00:00"/>
+    <d v="2013-10-23T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Tartak"/>
+    <s v="Więźba - zaliczka"/>
+    <n v="1000"/>
+    <s v="dowód wpłaty"/>
+    <m/>
+    <m/>
+    <d v="2013-10-08T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Tartak"/>
+    <s v="Więźba"/>
+    <n v="6500"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-10-18T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Więźba"/>
+    <n v="5640"/>
+    <s v="bez faktury"/>
+    <m/>
+    <m/>
+    <d v="2013-11-07T00:00:00"/>
+    <s v="gotówka"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Dach"/>
+    <n v="6372"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - dachówki"/>
+    <n v="9249.7800000000007"/>
+    <s v="zamówienie SB/002674"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - dodatki"/>
+    <n v="610"/>
+    <s v="zaliczka SB/002675"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - dodatki"/>
+    <n v="1420.86"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - Rynna"/>
+    <n v="790"/>
+    <s v="zaliczka   SB/002678"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - Rynna"/>
+    <n v="1841.26"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dach - Okna dachowe"/>
+    <n v="12076.41"/>
+    <s v="zamówienie SB/002677"/>
+    <m/>
+    <m/>
+    <d v="2013-10-10T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Fakro"/>
+    <s v="Zwrot - Okna promocja"/>
+    <n v="-2500"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-11-29T00:00:00"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Żelastwo"/>
+    <n v="290.98"/>
+    <s v="6945/T/10/2013"/>
+    <d v="2013-10-24T00:00:00"/>
+    <d v="2013-10-27T00:00:00"/>
+    <d v="2013-10-24T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Płyty osb na brame dziewic"/>
+    <n v="888"/>
+    <s v="7214/T/11/2013"/>
+    <d v="2013-11-05T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Rozne"/>
+    <n v="367.84"/>
+    <s v="7274/T/11/2013"/>
+    <d v="2013-11-07T00:00:00"/>
+    <d v="2013-11-10T00:00:00"/>
+    <d v="2013-11-08T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Rozne"/>
+    <n v="760.18"/>
+    <s v="7389/T/11/2013"/>
+    <d v="2013-11-13T00:00:00"/>
+    <d v="2013-11-16T00:00:00"/>
+    <d v="2013-11-17T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Dachblach"/>
+    <s v="Blacha"/>
+    <n v="929.88"/>
+    <s v="ZK 506/2013"/>
+    <m/>
+    <m/>
+    <d v="2013-11-14T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Folia"/>
+    <n v="104.7"/>
+    <s v="7485/T/11/2013"/>
+    <d v="2013-11-18T00:00:00"/>
+    <d v="2013-11-21T00:00:00"/>
+    <d v="2013-11-18T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Kielich przyścienny"/>
+    <n v="120"/>
+    <s v="MA/2013/11/0273"/>
+    <d v="2013-11-20T00:00:00"/>
+    <d v="2013-11-23T00:00:00"/>
+    <d v="2013-11-21T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="SBB Bielany"/>
+    <s v="Dodatkowe dachówki i gąsiory"/>
+    <n v="960.45"/>
+    <s v="SB/003383"/>
+    <d v="2013-11-22T00:00:00"/>
+    <d v="2013-11-22T00:00:00"/>
+    <d v="2013-11-27T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Ocieplenie tarasiku"/>
@@ -3164,319 +3538,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Stal"/>
-    <n v="2413.2399999999998"/>
-    <s v="5732/T/09/2013"/>
-    <d v="2013-09-10T00:00:00"/>
-    <d v="2013-09-13T00:00:00"/>
-    <d v="2013-09-10T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Stal"/>
-    <n v="247.93"/>
-    <s v="5924/T/09/2013"/>
-    <d v="2013-09-17T00:00:00"/>
-    <d v="2013-09-20T00:00:00"/>
-    <d v="2013-09-17T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Stal"/>
-    <n v="257.38"/>
-    <s v="5991/T/09/2013"/>
-    <d v="2013-09-19T00:00:00"/>
-    <d v="2013-09-22T00:00:00"/>
-    <d v="2013-09-19T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Belki, pustaki"/>
-    <n v="7792.51"/>
-    <s v="5889/T/09/2013"/>
-    <d v="2013-09-16T00:00:00"/>
-    <d v="2013-09-19T00:00:00"/>
-    <d v="2013-09-24T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <s v="Antoni Nowak"/>
-    <s v="Strop"/>
-    <n v="10100"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-09-25T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Beton"/>
-    <n v="4489.5"/>
-    <s v="6144/T/09/2013"/>
-    <d v="2013-09-25T00:00:00"/>
-    <d v="2013-09-28T00:00:00"/>
-    <d v="2013-09-25T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Gwoździe"/>
-    <n v="86.1"/>
-    <s v="6923/T/10/2013"/>
-    <d v="2013-10-23T00:00:00"/>
-    <d v="2013-10-26T00:00:00"/>
-    <d v="2013-10-23T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Tartak"/>
-    <s v="Więźba - zaliczka"/>
-    <n v="1000"/>
-    <s v="dowód wpłaty"/>
-    <m/>
-    <m/>
-    <d v="2013-10-08T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Tartak"/>
-    <s v="Więźba"/>
-    <n v="6500"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-10-18T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <s v="Antoni Nowak"/>
-    <s v="Więźba"/>
-    <n v="5640"/>
-    <s v="bez faktury"/>
-    <m/>
-    <m/>
-    <d v="2013-11-07T00:00:00"/>
-    <s v="gotówka"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <s v="Antoni Nowak"/>
-    <s v="Dach"/>
-    <n v="6372"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Dach - dachówki"/>
-    <n v="9249.7800000000007"/>
-    <s v="zamówienie SB/002674"/>
-    <m/>
-    <m/>
-    <d v="2013-10-10T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Dach - dodatki"/>
-    <n v="610"/>
-    <s v="zaliczka SB/002675"/>
-    <m/>
-    <m/>
-    <d v="2013-10-10T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Dach - dodatki"/>
-    <n v="1420.86"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Dach - Rynna"/>
-    <n v="790"/>
-    <s v="zaliczka   SB/002678"/>
-    <m/>
-    <m/>
-    <d v="2013-10-10T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Dach - Rynna"/>
-    <n v="1841.26"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Dach - Okna dachowe"/>
-    <n v="12076.41"/>
-    <s v="zamówienie SB/002677"/>
-    <m/>
-    <m/>
-    <d v="2013-10-10T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Fakro"/>
-    <s v="Zwrot - Okna promocja"/>
-    <n v="-2500"/>
-    <m/>
-    <m/>
-    <m/>
-    <d v="2013-11-29T00:00:00"/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Żelastwo"/>
-    <n v="290.98"/>
-    <s v="6945/T/10/2013"/>
-    <d v="2013-10-24T00:00:00"/>
-    <d v="2013-10-27T00:00:00"/>
-    <d v="2013-10-24T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Płyty osb na brame dziewic"/>
-    <n v="888"/>
-    <s v="7214/T/11/2013"/>
-    <d v="2013-11-05T00:00:00"/>
-    <d v="2013-11-08T00:00:00"/>
-    <d v="2013-11-08T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Rozne"/>
-    <n v="367.84"/>
-    <s v="7274/T/11/2013"/>
-    <d v="2013-11-07T00:00:00"/>
-    <d v="2013-11-10T00:00:00"/>
-    <d v="2013-11-08T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Rozne"/>
-    <n v="760.18"/>
-    <s v="7389/T/11/2013"/>
-    <d v="2013-11-13T00:00:00"/>
-    <d v="2013-11-16T00:00:00"/>
-    <d v="2013-11-17T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Dachblach"/>
-    <s v="Blacha"/>
-    <n v="929.88"/>
-    <s v="ZK 506/2013"/>
-    <m/>
-    <m/>
-    <d v="2013-11-14T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="Manex"/>
-    <s v="Folia"/>
-    <n v="104.7"/>
-    <s v="7485/T/11/2013"/>
-    <d v="2013-11-18T00:00:00"/>
-    <d v="2013-11-21T00:00:00"/>
-    <d v="2013-11-18T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Kielich przyścienny"/>
-    <n v="120"/>
-    <s v="MA/2013/11/0273"/>
-    <d v="2013-11-20T00:00:00"/>
-    <d v="2013-11-23T00:00:00"/>
-    <d v="2013-11-21T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <s v="SBB Bielany"/>
-    <s v="Dodatkowe dachówki i gąsiory"/>
-    <n v="960.45"/>
-    <s v="SB/003383"/>
-    <d v="2013-11-22T00:00:00"/>
-    <d v="2013-11-22T00:00:00"/>
-    <d v="2013-11-27T00:00:00"/>
-    <s v="eb wsp"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="8"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Styropian"/>
@@ -3488,7 +3550,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="8"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Docieplenie koci taras"/>
@@ -3500,7 +3562,67 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Styropian elewacja"/>
+    <n v="7781.55"/>
+    <s v="7814/T/12/2013"/>
+    <d v="2013-12-02T00:00:00"/>
+    <d v="2013-12-05T00:00:00"/>
+    <d v="2013-12-05T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Dodatki"/>
+    <n v="4842.8500000000004"/>
+    <s v="7773/T/11/2013"/>
+    <d v="2013-11-29T00:00:00"/>
+    <d v="2013-12-06T00:00:00"/>
+    <d v="2013-12-05T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Manex"/>
+    <s v="Dodatki"/>
+    <n v="1467.55"/>
+    <s v="7859/T/12/2013"/>
+    <d v="2013-12-04T00:00:00"/>
+    <d v="2013-12-07T00:00:00"/>
+    <d v="2013-12-05T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Ocieplenie budynku"/>
+    <n v="7000"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Ocieplenie garaż"/>
+    <n v="1470"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-12-07T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Styropian"/>
@@ -3512,7 +3634,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="9"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Styropian"/>
@@ -3524,7 +3646,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="9"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Docieplenie styropianem"/>
@@ -3536,7 +3658,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="9"/>
     <x v="3"/>
     <s v="Prokad"/>
     <s v="Brama garażowa - zaliczka"/>
@@ -3548,7 +3670,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="9"/>
     <x v="3"/>
     <s v="Prokad"/>
     <s v="Brama garażowa  "/>
@@ -3560,7 +3682,7 @@
     <m/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="9"/>
     <x v="3"/>
     <s v="Extherm"/>
     <s v="Okna zaliczka"/>
@@ -3572,19 +3694,55 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="9"/>
     <x v="3"/>
     <s v="Extherm"/>
-    <s v="Okna  "/>
+    <s v="Okna - faktura"/>
     <n v="8555"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
+    <s v="1149/2013"/>
+    <d v="2013-12-04T00:00:00"/>
+    <d v="2013-12-07T00:00:00"/>
+    <d v="2013-12-05T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <s v="Prokad"/>
+    <s v="Drzwi ogrodowe - zaliczka"/>
+    <n v="547"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-12-03T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <s v="Prokad"/>
+    <s v="Drzwi ogrodowe - faktura"/>
+    <n v="1276"/>
+    <m/>
+    <m/>
+    <d v="2013-12-06T00:00:00"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <s v="Antoni Nowak"/>
+    <s v="Prysznic"/>
+    <n v="190"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2013-12-07T00:00:00"/>
+    <s v="eb wsp"/>
+  </r>
+  <r>
+    <x v="10"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki"/>
@@ -3596,7 +3754,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Zaprawa"/>
@@ -3608,7 +3766,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Ścianki działowe 126m2"/>
@@ -3620,7 +3778,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Ścianki działowe"/>
@@ -3632,7 +3790,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki"/>
@@ -3644,7 +3802,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Murek taras"/>
@@ -3656,7 +3814,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="4"/>
     <s v="Antoni Nowak"/>
     <s v="Ściana kominek"/>
@@ -3668,7 +3826,7 @@
     <s v="gotówka"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Pustaki"/>
@@ -3680,7 +3838,7 @@
     <s v="eb wsp"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="10"/>
     <x v="3"/>
     <s v="Manex"/>
     <s v="Różne"/>
@@ -3691,40 +3849,30 @@
     <d v="2013-11-08T00:00:00"/>
     <s v="eb wsp"/>
   </r>
-  <r>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="14">
+      <items count="16">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
         <item x="3"/>
+        <item x="4"/>
         <item m="1" x="12"/>
+        <item m="1" x="13"/>
         <item x="5"/>
+        <item m="1" x="14"/>
         <item x="6"/>
-        <item x="4"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
+        <item m="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3735,7 +3883,7 @@
         <item x="0"/>
         <item x="1"/>
         <item x="4"/>
-        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" m="1" x="5"/>
         <item t="default" sd="0"/>
       </items>
       <autoSortScope>
@@ -3760,7 +3908,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -3771,13 +3919,13 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i>
       <x v="9"/>
@@ -3787,6 +3935,12 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -3835,8 +3989,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J126" totalsRowCount="1">
-  <autoFilter ref="A1:J125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J132" totalsRowCount="1">
+  <autoFilter ref="A1:J131">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -3845,8 +3999,8 @@
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
-  <sortState ref="A2:J91">
-    <sortCondition ref="A1:A91"/>
+  <sortState ref="A2:J130">
+    <sortCondition ref="A1:A130"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
@@ -4175,11 +4329,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5437,31 +5591,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="E43" s="123">
-        <v>1764.84</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H43" s="2">
-        <v>41573</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="116">
-        <v>41570</v>
+        <v>41615</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -5469,31 +5617,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="E44" s="123">
-        <v>241.71</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G44" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H44" s="2">
-        <v>41573</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="116">
-        <v>41570</v>
+        <v>41615</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -5501,25 +5643,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="E45" s="123">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="116">
-        <v>41571</v>
+        <v>41615</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -5536,13 +5678,13 @@
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E46" s="123">
-        <v>69.88</v>
+        <v>1764.84</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G46" s="2">
         <v>41570</v>
@@ -5568,22 +5710,22 @@
         <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="E47" s="123">
-        <v>40.619999999999997</v>
+        <v>241.71</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G47" s="2">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="H47" s="2">
-        <v>41585</v>
+        <v>41573</v>
       </c>
       <c r="I47" s="116">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -5594,25 +5736,25 @@
         <v>205</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E48" s="123">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="116">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="J48" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5623,22 +5765,28 @@
         <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="E49" s="123">
-        <v>400</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+        <v>69.88</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H49" s="2">
+        <v>41573</v>
+      </c>
       <c r="I49" s="116">
-        <v>41585</v>
+        <v>41570</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5649,22 +5797,28 @@
         <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E50" s="123">
-        <v>450</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+        <v>40.619999999999997</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H50" s="2">
+        <v>41585</v>
+      </c>
       <c r="I50" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J50" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5672,31 +5826,25 @@
         <v>205</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E51" s="123">
-        <v>118.51</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="116">
         <v>41585</v>
       </c>
-      <c r="H51" s="2">
-        <v>41588</v>
-      </c>
-      <c r="I51" s="116">
-        <v>41586</v>
-      </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5707,22 +5855,22 @@
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="E52" s="123">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="116">
-        <v>41598</v>
+        <v>41585</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5733,27 +5881,27 @@
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="E53" s="123">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="116">
-        <v>41598</v>
+        <v>41585</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>86</v>
@@ -5762,88 +5910,76 @@
         <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="E54" s="123">
-        <v>3813.05</v>
+        <v>118.51</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="G54" s="2">
-        <v>41512</v>
+        <v>41585</v>
       </c>
       <c r="H54" s="2">
-        <v>41519</v>
+        <v>41588</v>
       </c>
       <c r="I54" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J54" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="E55" s="123">
-        <v>66.180000000000007</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H55" s="2">
-        <v>41516</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J55" s="113" t="s">
+        <v>41598</v>
+      </c>
+      <c r="J55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="E56" s="123">
-        <v>649.32000000000005</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H56" s="2">
-        <v>41516</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="116">
-        <v>41515</v>
-      </c>
-      <c r="J56" s="113" t="s">
+        <v>41598</v>
+      </c>
+      <c r="J56" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5858,22 +5994,22 @@
         <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E57" s="123">
-        <v>3084.07</v>
+        <v>3813.05</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G57" s="2">
-        <v>41516</v>
+        <v>41512</v>
       </c>
       <c r="H57" s="2">
         <v>41519</v>
       </c>
       <c r="I57" s="116">
-        <v>41516</v>
+        <v>41515</v>
       </c>
       <c r="J57" s="113" t="s">
         <v>23</v>
@@ -5884,27 +6020,31 @@
         <v>206</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E58" s="123">
-        <v>7010.82</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="G58" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H58" s="2">
+        <v>41516</v>
+      </c>
       <c r="I58" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J58" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5915,24 +6055,28 @@
         <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="E59" s="123">
-        <v>54</v>
+        <v>649.32000000000005</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G59" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H59" s="2">
+        <v>41516</v>
+      </c>
       <c r="I59" s="116">
-        <v>41521</v>
+        <v>41515</v>
       </c>
       <c r="J59" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5946,13 +6090,13 @@
         <v>89</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="E60" s="123">
-        <v>1415.36</v>
+        <v>3084.07</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G60" s="2">
         <v>41516</v>
@@ -5961,7 +6105,7 @@
         <v>41519</v>
       </c>
       <c r="I60" s="116">
-        <v>41521</v>
+        <v>41516</v>
       </c>
       <c r="J60" s="113" t="s">
         <v>23</v>
@@ -5972,31 +6116,27 @@
         <v>206</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="E61" s="123">
-        <v>4163.04</v>
+        <v>7010.82</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G61" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H61" s="2">
-        <v>41518</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J61" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -6007,28 +6147,24 @@
         <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E62" s="123">
-        <v>1214.22</v>
+        <v>54</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G62" s="2">
-        <v>41515</v>
-      </c>
-      <c r="H62" s="2">
-        <v>41518</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="116">
-        <v>41527</v>
+        <v>41521</v>
       </c>
       <c r="J62" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6042,22 +6178,22 @@
         <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="E63" s="123">
-        <v>227.55</v>
+        <v>1415.36</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G63" s="2">
-        <v>41528</v>
+        <v>41516</v>
       </c>
       <c r="H63" s="2">
-        <v>41531</v>
+        <v>41519</v>
       </c>
       <c r="I63" s="116">
-        <v>41528</v>
+        <v>41521</v>
       </c>
       <c r="J63" s="113" t="s">
         <v>23</v>
@@ -6071,21 +6207,25 @@
         <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E64" s="123">
-        <v>360</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2"/>
+        <v>4163.04</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G64" s="2">
+        <v>41515</v>
+      </c>
       <c r="H64" s="2">
-        <v>41537</v>
+        <v>41518</v>
       </c>
       <c r="I64" s="116">
-        <v>41537</v>
+        <v>41527</v>
       </c>
       <c r="J64" s="113" t="s">
         <v>23</v>
@@ -6105,19 +6245,19 @@
         <v>160</v>
       </c>
       <c r="E65" s="123">
-        <v>2786.4</v>
+        <v>1214.22</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G65" s="2">
-        <v>41544</v>
+        <v>41515</v>
       </c>
       <c r="H65" s="2">
-        <v>41547</v>
+        <v>41518</v>
       </c>
       <c r="I65" s="116">
-        <v>41547</v>
+        <v>41527</v>
       </c>
       <c r="J65" s="113" t="s">
         <v>23</v>
@@ -6134,22 +6274,22 @@
         <v>89</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E66" s="123">
-        <v>594.69000000000005</v>
+        <v>227.55</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G66" s="2">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="H66" s="2">
-        <v>41550</v>
+        <v>41531</v>
       </c>
       <c r="I66" s="116">
-        <v>41547</v>
+        <v>41528</v>
       </c>
       <c r="J66" s="113" t="s">
         <v>23</v>
@@ -6160,27 +6300,27 @@
         <v>206</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="E67" s="123">
-        <v>2960</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <v>41537</v>
+      </c>
       <c r="I67" s="116">
-        <v>41552</v>
+        <v>41537</v>
       </c>
       <c r="J67" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -6191,28 +6331,28 @@
         <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E68" s="123">
-        <v>200</v>
+        <v>2786.4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G68" s="2">
-        <v>41549</v>
+        <v>41544</v>
       </c>
       <c r="H68" s="2">
-        <v>41549</v>
+        <v>41547</v>
       </c>
       <c r="I68" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J68" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -6223,28 +6363,28 @@
         <v>86</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E69" s="123">
-        <v>48.18</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G69" s="2">
-        <v>41548</v>
+        <v>41547</v>
       </c>
       <c r="H69" s="2">
-        <v>41548</v>
+        <v>41550</v>
       </c>
       <c r="I69" s="116">
-        <v>41552</v>
+        <v>41547</v>
       </c>
       <c r="J69" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -6252,26 +6392,22 @@
         <v>206</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E70" s="123">
-        <v>90</v>
+        <v>2960</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G70" s="2">
-        <v>41547</v>
-      </c>
-      <c r="H70" s="2">
-        <v>41547</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="116">
         <v>41552</v>
       </c>
@@ -6284,26 +6420,30 @@
         <v>206</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="E71" s="123">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="G71" s="2">
+        <v>41549</v>
+      </c>
+      <c r="H71" s="2">
+        <v>41549</v>
+      </c>
       <c r="I71" s="116">
-        <v>41578</v>
-      </c>
-      <c r="J71" t="s">
+        <v>41552</v>
+      </c>
+      <c r="J71" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6315,24 +6455,28 @@
         <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E72" s="123">
-        <v>1260.76</v>
+        <v>48.18</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G72" s="2">
+        <v>41548</v>
+      </c>
+      <c r="H72" s="2">
+        <v>41548</v>
+      </c>
       <c r="I72" s="116">
-        <v>41557</v>
+        <v>41552</v>
       </c>
       <c r="J72" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6343,28 +6487,28 @@
         <v>86</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="E73" s="123">
-        <v>2398.8000000000002</v>
+        <v>90</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G73" s="2">
-        <v>41558</v>
+        <v>41547</v>
       </c>
       <c r="H73" s="2">
-        <v>41561</v>
+        <v>41547</v>
       </c>
       <c r="I73" s="116">
-        <v>41558</v>
+        <v>41552</v>
       </c>
       <c r="J73" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -6378,16 +6522,18 @@
         <v>149</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="E74" s="123">
-        <v>120</v>
-      </c>
-      <c r="F74" s="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="116">
-        <v>41585</v>
+        <v>41578</v>
       </c>
       <c r="J74" t="s">
         <v>84</v>
@@ -6395,7 +6541,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
@@ -6404,30 +6550,26 @@
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="E75" s="123">
-        <v>192.4</v>
+        <v>1260.76</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G75" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H75" s="2">
-        <v>41586</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J75" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J75" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>86</v>
@@ -6436,22 +6578,22 @@
         <v>89</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E76" s="123">
-        <v>2413.2399999999998</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G76" s="2">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="H76" s="2">
-        <v>41530</v>
+        <v>41561</v>
       </c>
       <c r="I76" s="116">
-        <v>41527</v>
+        <v>41558</v>
       </c>
       <c r="J76" s="113" t="s">
         <v>23</v>
@@ -6459,34 +6601,28 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="E77" s="123">
-        <v>247.93</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G77" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H77" s="2">
-        <v>41537</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="116">
-        <v>41534</v>
-      </c>
-      <c r="J77" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J77" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6503,19 +6639,19 @@
         <v>17</v>
       </c>
       <c r="E78" s="123">
-        <v>257.38</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G78" s="2">
-        <v>41536</v>
+        <v>41527</v>
       </c>
       <c r="H78" s="2">
-        <v>41539</v>
+        <v>41530</v>
       </c>
       <c r="I78" s="116">
-        <v>41536</v>
+        <v>41527</v>
       </c>
       <c r="J78" s="113" t="s">
         <v>23</v>
@@ -6532,22 +6668,22 @@
         <v>89</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E79" s="123">
-        <v>7792.51</v>
+        <v>247.93</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G79" s="2">
-        <v>41533</v>
+        <v>41534</v>
       </c>
       <c r="H79" s="2">
-        <v>41536</v>
+        <v>41537</v>
       </c>
       <c r="I79" s="116">
-        <v>41541</v>
+        <v>41534</v>
       </c>
       <c r="J79" s="113" t="s">
         <v>23</v>
@@ -6558,22 +6694,28 @@
         <v>207</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E80" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+        <v>257.38</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G80" s="2">
+        <v>41536</v>
+      </c>
+      <c r="H80" s="2">
+        <v>41539</v>
+      </c>
       <c r="I80" s="116">
-        <v>41542</v>
+        <v>41536</v>
       </c>
       <c r="J80" s="113" t="s">
         <v>23</v>
@@ -6590,22 +6732,22 @@
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E81" s="123">
-        <v>4489.5</v>
+        <v>7792.51</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G81" s="2">
-        <v>41542</v>
+        <v>41533</v>
       </c>
       <c r="H81" s="2">
-        <v>41545</v>
+        <v>41536</v>
       </c>
       <c r="I81" s="116">
-        <v>41542</v>
+        <v>41541</v>
       </c>
       <c r="J81" s="113" t="s">
         <v>23</v>
@@ -6613,62 +6755,60 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="E82" s="123">
-        <v>86.1</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G82" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H82" s="2">
-        <v>41573</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
       <c r="I82" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J82" t="s">
+        <v>41542</v>
+      </c>
+      <c r="J82" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="E83" s="123">
-        <v>1000</v>
+        <v>4489.5</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="G83" s="2">
+        <v>41542</v>
+      </c>
+      <c r="H83" s="2">
+        <v>41545</v>
+      </c>
       <c r="I83" s="116">
-        <v>41555</v>
+        <v>41542</v>
       </c>
       <c r="J83" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -6679,22 +6819,28 @@
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E84" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+        <v>86.1</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H84" s="2">
+        <v>41573</v>
+      </c>
       <c r="I84" s="116">
-        <v>41565</v>
-      </c>
-      <c r="J84" s="113" t="s">
-        <v>84</v>
+        <v>41570</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6702,26 +6848,26 @@
         <v>208</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="E85" s="123">
-        <v>5640</v>
+        <v>1000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J85" t="s">
+        <v>41555</v>
+      </c>
+      <c r="J85" s="113" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6730,48 +6876,53 @@
         <v>208</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E86" s="123">
-        <v>6372</v>
+        <v>6500</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="116"/>
+      <c r="I86" s="116">
+        <v>41565</v>
+      </c>
+      <c r="J86" s="113" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="E87" s="123">
-        <v>9249.7800000000007</v>
+        <v>5640</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J87" s="113" t="s">
-        <v>23</v>
+        <v>41585</v>
+      </c>
+      <c r="J87" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -6779,28 +6930,21 @@
         <v>208</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="E88" s="123">
-        <v>610</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J88" s="113" t="s">
-        <v>23</v>
-      </c>
+      <c r="I88" s="116"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
@@ -6813,15 +6957,22 @@
         <v>182</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E89" s="123">
-        <v>1420.86</v>
-      </c>
-      <c r="F89" s="1"/>
+        <v>9249.7800000000007</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="116"/>
+      <c r="I89" s="116">
+        <v>41557</v>
+      </c>
+      <c r="J89" s="113" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
@@ -6834,13 +6985,13 @@
         <v>182</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E90" s="123">
-        <v>790</v>
+        <v>610</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -6862,10 +7013,10 @@
         <v>182</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E91" s="123">
-        <v>1841.26</v>
+        <v>1420.86</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
@@ -6883,13 +7034,13 @@
         <v>182</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E92" s="123">
-        <v>12076.41</v>
+        <v>790</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -6908,20 +7059,18 @@
         <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="E93" s="123">
-        <v>-2500</v>
+        <v>1841.26</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="116">
-        <v>41607</v>
-      </c>
+      <c r="I93" s="116"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
@@ -6931,27 +7080,23 @@
         <v>86</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="E94" s="123">
-        <v>290.98</v>
+        <v>12076.41</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G94" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H94" s="2">
-        <v>41574</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
       <c r="I94" s="116">
-        <v>41571</v>
-      </c>
-      <c r="J94" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J94" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6963,28 +7108,19 @@
         <v>86</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E95" s="123">
-        <v>888</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G95" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H95" s="2">
-        <v>41586</v>
-      </c>
+        <v>-2500</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J95" t="s">
-        <v>23</v>
+        <v>41607</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6998,22 +7134,22 @@
         <v>89</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E96" s="123">
-        <v>367.84</v>
+        <v>290.98</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="G96" s="2">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="H96" s="2">
-        <v>41588</v>
+        <v>41574</v>
       </c>
       <c r="I96" s="116">
-        <v>41586</v>
+        <v>41571</v>
       </c>
       <c r="J96" t="s">
         <v>23</v>
@@ -7030,22 +7166,22 @@
         <v>89</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E97" s="123">
-        <v>760.18</v>
+        <v>888</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G97" s="2">
-        <v>41591</v>
+        <v>41583</v>
       </c>
       <c r="H97" s="2">
-        <v>41594</v>
+        <v>41586</v>
       </c>
       <c r="I97" s="116">
-        <v>41595</v>
+        <v>41586</v>
       </c>
       <c r="J97" t="s">
         <v>23</v>
@@ -7059,21 +7195,25 @@
         <v>86</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E98" s="123">
-        <v>929.88</v>
+        <v>367.84</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="G98" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H98" s="2">
+        <v>41588</v>
+      </c>
       <c r="I98" s="116">
-        <v>41592</v>
+        <v>41586</v>
       </c>
       <c r="J98" t="s">
         <v>23</v>
@@ -7090,22 +7230,22 @@
         <v>89</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="E99" s="123">
-        <v>104.7</v>
+        <v>760.18</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G99" s="2">
-        <v>41596</v>
+        <v>41591</v>
       </c>
       <c r="H99" s="2">
-        <v>41599</v>
+        <v>41594</v>
       </c>
       <c r="I99" s="116">
-        <v>41596</v>
+        <v>41595</v>
       </c>
       <c r="J99" t="s">
         <v>23</v>
@@ -7119,25 +7259,21 @@
         <v>86</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E100" s="123">
-        <v>120</v>
+        <v>929.88</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G100" s="2">
-        <v>41598</v>
-      </c>
-      <c r="H100" s="2">
-        <v>41601</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
       <c r="I100" s="116">
-        <v>41599</v>
+        <v>41592</v>
       </c>
       <c r="J100" t="s">
         <v>23</v>
@@ -7151,25 +7287,25 @@
         <v>86</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="E101" s="123">
-        <v>960.45</v>
+        <v>104.7</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G101" s="2">
-        <v>41600</v>
+        <v>41596</v>
       </c>
       <c r="H101" s="2">
-        <v>41600</v>
+        <v>41599</v>
       </c>
       <c r="I101" s="116">
-        <v>41605</v>
+        <v>41596</v>
       </c>
       <c r="J101" t="s">
         <v>23</v>
@@ -7177,31 +7313,31 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="E102" s="123">
-        <v>312.33</v>
+        <v>120</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G102" s="2">
-        <v>41582</v>
+        <v>41598</v>
       </c>
       <c r="H102" s="2">
-        <v>41585</v>
+        <v>41601</v>
       </c>
       <c r="I102" s="116">
-        <v>41582</v>
+        <v>41599</v>
       </c>
       <c r="J102" t="s">
         <v>23</v>
@@ -7209,28 +7345,34 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E103" s="123">
-        <v>200</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+        <v>960.45</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G103" s="2">
+        <v>41600</v>
+      </c>
+      <c r="H103" s="2">
+        <v>41600</v>
+      </c>
       <c r="I103" s="116">
-        <v>41585</v>
+        <v>41605</v>
       </c>
       <c r="J103" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7244,22 +7386,22 @@
         <v>89</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="E104" s="123">
-        <v>7781.55</v>
+        <v>192.4</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="G104" s="2">
-        <v>41610</v>
+        <v>41583</v>
       </c>
       <c r="H104" s="2">
-        <v>41613</v>
+        <v>41586</v>
       </c>
       <c r="I104" s="116">
-        <v>41613</v>
+        <v>41586</v>
       </c>
       <c r="J104" t="s">
         <v>23</v>
@@ -7276,22 +7418,22 @@
         <v>89</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="E105" s="123">
-        <v>4842.8500000000004</v>
+        <v>312.33</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="G105" s="2">
-        <v>41607</v>
+        <v>41582</v>
       </c>
       <c r="H105" s="2">
-        <v>41614</v>
+        <v>41585</v>
       </c>
       <c r="I105" s="116">
-        <v>41613</v>
+        <v>41582</v>
       </c>
       <c r="J105" t="s">
         <v>23</v>
@@ -7302,36 +7444,30 @@
         <v>209</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="E106" s="123">
-        <v>1467.55</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G106" s="2">
-        <v>41612</v>
-      </c>
-      <c r="H106" s="2">
-        <v>41615</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="116">
-        <v>41613</v>
+        <v>41585</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>86</v>
@@ -7340,22 +7476,22 @@
         <v>89</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="E107" s="123">
-        <v>60.89</v>
+        <v>7781.55</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="G107" s="2">
-        <v>41570</v>
+        <v>41610</v>
       </c>
       <c r="H107" s="2">
-        <v>41573</v>
+        <v>41613</v>
       </c>
       <c r="I107" s="116">
-        <v>41570</v>
+        <v>41613</v>
       </c>
       <c r="J107" t="s">
         <v>23</v>
@@ -7363,7 +7499,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>86</v>
@@ -7372,22 +7508,22 @@
         <v>89</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="E108" s="123">
-        <v>84.89</v>
+        <v>4842.8500000000004</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="G108" s="2">
-        <v>41577</v>
+        <v>41607</v>
       </c>
       <c r="H108" s="2">
-        <v>41580</v>
+        <v>41614</v>
       </c>
       <c r="I108" s="116">
-        <v>41577</v>
+        <v>41613</v>
       </c>
       <c r="J108" t="s">
         <v>23</v>
@@ -7395,76 +7531,83 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="E109" s="123">
-        <v>180</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+        <v>1467.55</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G109" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H109" s="2">
+        <v>41615</v>
+      </c>
       <c r="I109" s="116">
-        <v>41585</v>
+        <v>41613</v>
       </c>
       <c r="J109" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E110" s="123">
-        <v>1323</v>
+        <f>200*35</f>
+        <v>7000</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="116">
-        <v>41602</v>
-      </c>
-      <c r="J110" t="s">
-        <v>23</v>
-      </c>
+      <c r="I110" s="116"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="E111" s="123">
-        <v>3086</v>
+        <v>1470</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="116"/>
+      <c r="I111" s="116">
+        <v>41615</v>
+      </c>
+      <c r="J111" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
@@ -7474,19 +7617,25 @@
         <v>86</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="E112" s="123">
-        <v>8555</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+        <v>60.89</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G112" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H112" s="2">
+        <v>41573</v>
+      </c>
       <c r="I112" s="116">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="J112" t="s">
         <v>23</v>
@@ -7500,25 +7649,25 @@
         <v>86</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="E113" s="123">
-        <v>8555</v>
+        <v>84.89</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="G113" s="2">
-        <v>41612</v>
+        <v>41577</v>
       </c>
       <c r="H113" s="2">
-        <v>41615</v>
+        <v>41580</v>
       </c>
       <c r="I113" s="116">
-        <v>41613</v>
+        <v>41577</v>
       </c>
       <c r="J113" t="s">
         <v>23</v>
@@ -7529,25 +7678,25 @@
         <v>210</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E114" s="123">
-        <v>547</v>
+        <v>180</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="116">
-        <v>41611</v>
+        <v>41585</v>
       </c>
       <c r="J114" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7561,77 +7710,63 @@
         <v>254</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E115" s="123">
-        <v>1276</v>
+        <v>1323</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="2">
-        <v>41614</v>
-      </c>
-      <c r="I115" s="116"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="116">
+        <v>41602</v>
+      </c>
+      <c r="J115" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="E116" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G116" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H116" s="2">
-        <v>41573</v>
-      </c>
-      <c r="I116" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J116" t="s">
-        <v>23</v>
-      </c>
+        <v>3086</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="116"/>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="E117" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G117" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H117" s="2">
-        <v>41574</v>
-      </c>
+        <v>8555</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
       <c r="I117" s="116">
-        <v>41571</v>
+        <v>41582</v>
       </c>
       <c r="J117" t="s">
         <v>23</v>
@@ -7639,57 +7774,57 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="E118" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+        <v>8555</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G118" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H118" s="2">
+        <v>41615</v>
+      </c>
       <c r="I118" s="116">
-        <v>41585</v>
+        <v>41613</v>
       </c>
       <c r="J118" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="E119" s="123">
-        <v>227.67</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G119" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H119" s="2">
-        <v>41585</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
       <c r="I119" s="116">
-        <v>41582</v>
+        <v>41611</v>
       </c>
       <c r="J119" t="s">
         <v>23</v>
@@ -7697,60 +7832,51 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="E120" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G120" s="2">
-        <v>41582</v>
-      </c>
+        <v>1276</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="2">
-        <v>41585</v>
-      </c>
-      <c r="I120" s="116">
-        <v>41582</v>
-      </c>
-      <c r="J120" t="s">
-        <v>23</v>
-      </c>
+        <v>41614</v>
+      </c>
+      <c r="I120" s="116"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="E121" s="123">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="116">
-        <v>41585</v>
+        <v>41615</v>
       </c>
       <c r="J121" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -7764,19 +7890,19 @@
         <v>149</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="E122" s="123">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="116">
-        <v>41585</v>
+        <v>41615</v>
       </c>
       <c r="J122" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7793,19 +7919,19 @@
         <v>104</v>
       </c>
       <c r="E123" s="123">
-        <v>257.45999999999998</v>
+        <v>5326</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G123" s="2">
-        <v>41583</v>
+        <v>41570</v>
       </c>
       <c r="H123" s="2">
-        <v>41586</v>
+        <v>41573</v>
       </c>
       <c r="I123" s="116">
-        <v>41586</v>
+        <v>41570</v>
       </c>
       <c r="J123" t="s">
         <v>23</v>
@@ -7822,97 +7948,292 @@
         <v>89</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E124" s="123">
-        <v>272.37</v>
+        <v>93.52</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="G124" s="2">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="H124" s="2">
-        <v>41588</v>
+        <v>41574</v>
       </c>
       <c r="I124" s="116">
-        <v>41586</v>
+        <v>41571</v>
       </c>
       <c r="J124" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="123"/>
+      <c r="A125" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" s="123">
+        <v>4400</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="116"/>
-    </row>
-    <row r="126" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A126" s="44" t="s">
+      <c r="I125" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="123">
+        <v>227.67</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G126" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H126" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I126" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="123">
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G127" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H127" s="2">
+        <v>41585</v>
+      </c>
+      <c r="I127" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" s="123">
         <v>90</v>
       </c>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="124">
+      <c r="F128" s="1"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J128" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E129" s="123">
+        <v>120</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E130" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G130" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H130" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I130" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E131" s="123">
+        <v>272.37</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G131" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H131" s="2">
+        <v>41588</v>
+      </c>
+      <c r="I131" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A132" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" s="44"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>241147.80000000002</v>
-      </c>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="117"/>
-      <c r="J126" s="114">
+        <v>250697.8</v>
+      </c>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="117"/>
+      <c r="J132" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="134" spans="1:10">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="122"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="118"/>
-      <c r="J134" s="110"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="C135" s="109"/>
-      <c r="D135" s="109"/>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="122"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="118"/>
-      <c r="J151" s="110"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="122"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="118"/>
+      <c r="J140" s="110"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="C141" s="109"/>
+      <c r="D141" s="109"/>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="122"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="118"/>
+      <c r="J157" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127:B134 B107 B121:B122 B118 B29:B82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133:B140 B110 B125:B126 B122 B29:B83">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A127:A134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A133:A140">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A125">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A131">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -7927,15 +8248,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:G14"/>
+  <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -8038,144 +8359,176 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="126" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="43">
-        <v>4965.5600000000004</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="43">
-        <v>3800</v>
+        <v>70</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="127">
-        <v>8765.5600000000013</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="126" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B8" s="43">
-        <v>22425.619999999995</v>
+        <v>500</v>
       </c>
       <c r="C8" s="43">
-        <v>12090.82</v>
+        <v>270</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="127">
-        <v>34516.439999999995</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="126" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="43">
-        <v>15200.56</v>
+        <v>4965.5600000000004</v>
       </c>
       <c r="C9" s="43">
-        <v>10100</v>
+        <v>3800</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="127">
-        <v>25300.559999999998</v>
+        <v>8765.5600000000013</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="126" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="43">
-        <v>35496.439999999995</v>
+        <v>22425.619999999995</v>
       </c>
       <c r="C10" s="43">
-        <v>12012</v>
+        <v>12090.82</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="127">
-        <v>47508.439999999995</v>
+        <v>34516.439999999995</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="126" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="43">
-        <v>504.73</v>
+        <v>15200.56</v>
       </c>
       <c r="C11" s="43">
-        <v>200</v>
+        <v>10100</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="127">
-        <v>704.73</v>
+        <v>25300.559999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="43">
-        <v>21664.78</v>
+        <v>35496.439999999995</v>
       </c>
       <c r="C12" s="43">
-        <v>180</v>
+        <v>12012</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
       <c r="G12" s="127">
-        <v>21844.78</v>
+        <v>47508.439999999995</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="126" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" s="43">
-        <v>7391.3600000000006</v>
+        <v>14596.68</v>
       </c>
       <c r="C13" s="43">
-        <v>4610</v>
+        <v>8670</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="127">
-        <v>12001.36</v>
+        <v>23266.68</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="43">
+        <v>23487.78</v>
+      </c>
+      <c r="C14" s="43">
+        <v>180</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="127">
+        <v>23667.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="43">
+        <v>7391.3600000000006</v>
+      </c>
+      <c r="C15" s="43">
+        <v>4800</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="127">
+        <v>12191.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="43">
-        <v>142560.99</v>
-      </c>
-      <c r="C14" s="43">
-        <v>53576.82</v>
-      </c>
-      <c r="D14" s="43">
+      <c r="B16" s="43">
+        <v>158975.94</v>
+      </c>
+      <c r="C16" s="43">
+        <v>62576.82</v>
+      </c>
+      <c r="D16" s="43">
         <v>20832.04</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E16" s="43">
         <v>5197</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F16" s="43">
         <v>3066</v>
       </c>
-      <c r="G14" s="128">
-        <v>225232.84999999998</v>
+      <c r="G16" s="128">
+        <v>250647.8</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F105" authorId="0">
+    <comment ref="F106" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="0">
+    <comment ref="F115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F123" authorId="0">
+    <comment ref="F126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F126" authorId="0">
+    <comment ref="F129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="294">
   <si>
     <t>Opis</t>
   </si>
@@ -1103,6 +1103,30 @@
   </si>
   <si>
     <t>Drzwi zewn.tymczasowe</t>
+  </si>
+  <si>
+    <t>Styropian, dodatki</t>
+  </si>
+  <si>
+    <t>7918/T/12/2013</t>
+  </si>
+  <si>
+    <t>SB/003600</t>
+  </si>
+  <si>
+    <t>Gąsior, kołnierz</t>
+  </si>
+  <si>
+    <t>Styropian, papa</t>
+  </si>
+  <si>
+    <t>7963/T/12/2013</t>
+  </si>
+  <si>
+    <t>MA/2013/10/0232</t>
+  </si>
+  <si>
+    <t>MA/2013/10/0231</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2219,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000722" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000722" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000744" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000744" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3989,8 +4013,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J132" totalsRowCount="1">
-  <autoFilter ref="A1:J131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J135" totalsRowCount="1">
+  <autoFilter ref="A1:J134">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4329,11 +4353,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7018,10 +7042,17 @@
       <c r="E91" s="123">
         <v>1420.86</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="116"/>
+      <c r="I91" s="116">
+        <v>41618</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
@@ -7067,10 +7098,17 @@
       <c r="E93" s="123">
         <v>1841.26</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="116"/>
+      <c r="I93" s="116">
+        <v>41618</v>
+      </c>
+      <c r="J93" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
@@ -7377,31 +7415,29 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="E104" s="123">
-        <v>192.4</v>
+        <v>690.74</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="G104" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H104" s="2">
-        <v>41586</v>
-      </c>
+        <v>41617</v>
+      </c>
+      <c r="H104" s="2"/>
       <c r="I104" s="116">
-        <v>41586</v>
+        <v>41618</v>
       </c>
       <c r="J104" t="s">
         <v>23</v>
@@ -7418,22 +7454,22 @@
         <v>89</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="E105" s="123">
-        <v>312.33</v>
+        <v>192.4</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="G105" s="2">
-        <v>41582</v>
+        <v>41583</v>
       </c>
       <c r="H105" s="2">
-        <v>41585</v>
+        <v>41586</v>
       </c>
       <c r="I105" s="116">
-        <v>41582</v>
+        <v>41586</v>
       </c>
       <c r="J105" t="s">
         <v>23</v>
@@ -7444,25 +7480,31 @@
         <v>209</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="E106" s="123">
-        <v>200</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+        <v>312.33</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G106" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H106" s="2">
+        <v>41585</v>
+      </c>
       <c r="I106" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J106" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7470,31 +7512,25 @@
         <v>209</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="E107" s="123">
-        <v>7781.55</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G107" s="2">
-        <v>41610</v>
-      </c>
-      <c r="H107" s="2">
-        <v>41613</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
       <c r="I107" s="116">
-        <v>41613</v>
+        <v>41585</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7508,19 +7544,19 @@
         <v>89</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E108" s="123">
-        <v>4842.8500000000004</v>
+        <v>7781.55</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G108" s="2">
-        <v>41607</v>
+        <v>41610</v>
       </c>
       <c r="H108" s="2">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="I108" s="116">
         <v>41613</v>
@@ -7543,16 +7579,16 @@
         <v>274</v>
       </c>
       <c r="E109" s="123">
-        <v>1467.55</v>
+        <v>4842.8500000000004</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G109" s="2">
-        <v>41612</v>
+        <v>41607</v>
       </c>
       <c r="H109" s="2">
-        <v>41615</v>
+        <v>41614</v>
       </c>
       <c r="I109" s="116">
         <v>41613</v>
@@ -7566,22 +7602,32 @@
         <v>209</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E110" s="123">
-        <f>200*35</f>
-        <v>7000</v>
-      </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="116"/>
+        <v>1467.55</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G110" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H110" s="2">
+        <v>41615</v>
+      </c>
+      <c r="I110" s="116">
+        <v>41613</v>
+      </c>
+      <c r="J110" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
@@ -7594,48 +7640,38 @@
         <v>149</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E111" s="123">
-        <v>1470</v>
+        <f>200*35</f>
+        <v>7000</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="116">
-        <v>41615</v>
-      </c>
-      <c r="J111" t="s">
-        <v>23</v>
-      </c>
+      <c r="I111" s="116"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="E112" s="123">
-        <v>60.89</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G112" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H112" s="2">
-        <v>41573</v>
-      </c>
+        <v>1470</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
       <c r="I112" s="116">
-        <v>41570</v>
+        <v>41615</v>
       </c>
       <c r="J112" t="s">
         <v>23</v>
@@ -7643,7 +7679,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>86</v>
@@ -7652,22 +7688,22 @@
         <v>89</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="E113" s="123">
-        <v>84.89</v>
+        <v>296.64</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="G113" s="2">
-        <v>41577</v>
+        <v>41614</v>
       </c>
       <c r="H113" s="2">
-        <v>41580</v>
+        <v>41617</v>
       </c>
       <c r="I113" s="116">
-        <v>41577</v>
+        <v>41618</v>
       </c>
       <c r="J113" t="s">
         <v>23</v>
@@ -7675,28 +7711,34 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="E114" s="123">
-        <v>180</v>
-      </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+        <v>851.37</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G114" s="2">
+        <v>41618</v>
+      </c>
+      <c r="H114" s="2">
+        <v>41621</v>
+      </c>
       <c r="I114" s="116">
-        <v>41585</v>
+        <v>41618</v>
       </c>
       <c r="J114" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7707,19 +7749,25 @@
         <v>86</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="E115" s="123">
-        <v>1323</v>
-      </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+        <v>60.89</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G115" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H115" s="2">
+        <v>41573</v>
+      </c>
       <c r="I115" s="116">
-        <v>41602</v>
+        <v>41570</v>
       </c>
       <c r="J115" t="s">
         <v>23</v>
@@ -7733,43 +7781,54 @@
         <v>86</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="E116" s="123">
-        <v>3086</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="116"/>
+        <v>84.89</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G116" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H116" s="2">
+        <v>41580</v>
+      </c>
+      <c r="I116" s="116">
+        <v>41577</v>
+      </c>
+      <c r="J116" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>257</v>
+        <v>149</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="E117" s="123">
-        <v>8555</v>
+        <v>180</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="116">
-        <v>41582</v>
+        <v>41585</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7780,25 +7839,19 @@
         <v>86</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E118" s="123">
-        <v>8555</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G118" s="2">
-        <v>41612</v>
-      </c>
-      <c r="H118" s="2">
-        <v>41615</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
       <c r="I118" s="116">
-        <v>41613</v>
+        <v>41602</v>
       </c>
       <c r="J118" t="s">
         <v>23</v>
@@ -7815,20 +7868,15 @@
         <v>254</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E119" s="123">
-        <v>547</v>
+        <v>3086</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="116">
-        <v>41611</v>
-      </c>
-      <c r="J119" t="s">
-        <v>23</v>
-      </c>
+      <c r="I119" s="116"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
@@ -7838,20 +7886,23 @@
         <v>86</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E120" s="123">
-        <v>1276</v>
+        <v>8555</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="2">
-        <v>41614</v>
-      </c>
-      <c r="I120" s="116"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="116">
+        <v>41582</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
@@ -7861,19 +7912,25 @@
         <v>86</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E121" s="123">
-        <v>50</v>
-      </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+        <v>8555</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G121" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H121" s="2">
+        <v>41615</v>
+      </c>
       <c r="I121" s="116">
-        <v>41615</v>
+        <v>41613</v>
       </c>
       <c r="J121" t="s">
         <v>23</v>
@@ -7881,25 +7938,25 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E122" s="123">
-        <v>190</v>
+        <v>547</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="116">
-        <v>41615</v>
+        <v>41611</v>
       </c>
       <c r="J122" t="s">
         <v>23</v>
@@ -7907,63 +7964,48 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="E123" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G123" s="2">
-        <v>41570</v>
-      </c>
+        <v>1276</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="2">
-        <v>41573</v>
-      </c>
-      <c r="I123" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J123" t="s">
-        <v>23</v>
-      </c>
+        <v>41619</v>
+      </c>
+      <c r="I123" s="116"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="E124" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G124" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H124" s="2">
-        <v>41574</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
       <c r="I124" s="116">
-        <v>41571</v>
+        <v>41615</v>
       </c>
       <c r="J124" t="s">
         <v>23</v>
@@ -7980,19 +8022,19 @@
         <v>149</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="E125" s="123">
-        <v>4400</v>
+        <v>190</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="116">
-        <v>41585</v>
+        <v>41615</v>
       </c>
       <c r="J125" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -8006,22 +8048,22 @@
         <v>89</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E126" s="123">
-        <v>227.67</v>
+        <v>5326</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G126" s="2">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="H126" s="2">
-        <v>41585</v>
+        <v>41573</v>
       </c>
       <c r="I126" s="116">
-        <v>41582</v>
+        <v>41570</v>
       </c>
       <c r="J126" t="s">
         <v>23</v>
@@ -8038,22 +8080,22 @@
         <v>89</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="E127" s="123">
-        <v>1214.3399999999999</v>
+        <v>93.52</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G127" s="2">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="H127" s="2">
-        <v>41585</v>
+        <v>41574</v>
       </c>
       <c r="I127" s="116">
-        <v>41582</v>
+        <v>41571</v>
       </c>
       <c r="J127" t="s">
         <v>23</v>
@@ -8070,10 +8112,10 @@
         <v>149</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E128" s="123">
-        <v>90</v>
+        <v>4400</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="2"/>
@@ -8090,25 +8132,31 @@
         <v>211</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="E129" s="123">
-        <v>120</v>
-      </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+        <v>227.67</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G129" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H129" s="2">
+        <v>41585</v>
+      </c>
       <c r="I129" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J129" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -8125,19 +8173,19 @@
         <v>104</v>
       </c>
       <c r="E130" s="123">
-        <v>257.45999999999998</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G130" s="2">
-        <v>41583</v>
+        <v>41582</v>
       </c>
       <c r="H130" s="2">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="I130" s="116">
-        <v>41586</v>
+        <v>41582</v>
       </c>
       <c r="J130" t="s">
         <v>23</v>
@@ -8148,92 +8196,176 @@
         <v>211</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E131" s="123">
+        <v>90</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E132" s="123">
+        <v>120</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="116">
+        <v>41585</v>
+      </c>
+      <c r="J132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E133" s="123">
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G133" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H133" s="2">
+        <v>41586</v>
+      </c>
+      <c r="I133" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E131" s="123">
+      <c r="E134" s="123">
         <v>272.37</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G134" s="2">
         <v>41585</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H134" s="2">
         <v>41588</v>
       </c>
-      <c r="I131" s="116">
+      <c r="I134" s="116">
         <v>41586</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J134" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A132" s="44" t="s">
+    <row r="135" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A135" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="124">
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>250697.8</v>
-      </c>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="117"/>
-      <c r="J132" s="114">
+        <v>252536.55</v>
+      </c>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="117"/>
+      <c r="J135" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="140" spans="1:10">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="122"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="118"/>
-      <c r="J140" s="110"/>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="C141" s="109"/>
-      <c r="D141" s="109"/>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="122"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="118"/>
-      <c r="J157" s="110"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="122"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="118"/>
+      <c r="J143" s="110"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="C144" s="109"/>
+      <c r="D144" s="109"/>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="122"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="118"/>
+      <c r="J160" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133:B140 B110 B125:B126 B122 B29:B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136:B143 B111 B128:B129 B125 B29:B83">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A133:A140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A136:A143">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A134">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F115" authorId="0">
+    <comment ref="F116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F126" authorId="0">
+    <comment ref="F127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F129" authorId="0">
+    <comment ref="F130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="295">
   <si>
     <t>Opis</t>
   </si>
@@ -1127,6 +1127,9 @@
   </si>
   <si>
     <t>MA/2013/10/0231</t>
+  </si>
+  <si>
+    <t>7995/T/12/2013</t>
   </si>
 </sst>
 </file>
@@ -2179,25 +2182,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63101184"/>
-        <c:axId val="63971328"/>
+        <c:axId val="52715520"/>
+        <c:axId val="52717056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63101184"/>
+        <c:axId val="52715520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63971328"/>
+        <c:crossAx val="52717056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63971328"/>
+        <c:axId val="52717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2209,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63101184"/>
+        <c:crossAx val="52715520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2219,7 +2222,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000744" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000744" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000755" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000755" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4013,8 +4016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J135" totalsRowCount="1">
-  <autoFilter ref="A1:J134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J136" totalsRowCount="1">
+  <autoFilter ref="A1:J135">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4353,11 +4356,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7743,7 +7746,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>86</v>
@@ -7755,23 +7758,18 @@
         <v>22</v>
       </c>
       <c r="E115" s="123">
-        <v>60.89</v>
+        <v>160.52000000000001</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="G115" s="2">
-        <v>41570</v>
+        <v>41619</v>
       </c>
       <c r="H115" s="2">
-        <v>41573</v>
-      </c>
-      <c r="I115" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J115" t="s">
-        <v>23</v>
-      </c>
+        <v>41622</v>
+      </c>
+      <c r="I115" s="116"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
@@ -7787,19 +7785,19 @@
         <v>22</v>
       </c>
       <c r="E116" s="123">
-        <v>84.89</v>
+        <v>60.89</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="G116" s="2">
-        <v>41577</v>
+        <v>41570</v>
       </c>
       <c r="H116" s="2">
-        <v>41580</v>
+        <v>41573</v>
       </c>
       <c r="I116" s="116">
-        <v>41577</v>
+        <v>41570</v>
       </c>
       <c r="J116" t="s">
         <v>23</v>
@@ -7810,25 +7808,31 @@
         <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E117" s="123">
-        <v>180</v>
-      </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+        <v>84.89</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G117" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H117" s="2">
+        <v>41580</v>
+      </c>
       <c r="I117" s="116">
-        <v>41585</v>
+        <v>41577</v>
       </c>
       <c r="J117" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7836,25 +7840,25 @@
         <v>210</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="E118" s="123">
-        <v>1323</v>
+        <v>180</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="116">
-        <v>41602</v>
+        <v>41585</v>
       </c>
       <c r="J118" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7868,15 +7872,20 @@
         <v>254</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E119" s="123">
-        <v>3086</v>
+        <v>1323</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="116"/>
+      <c r="I119" s="116">
+        <v>41602</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
@@ -7886,23 +7895,18 @@
         <v>86</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E120" s="123">
-        <v>8555</v>
+        <v>3086</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-      <c r="I120" s="116">
-        <v>41582</v>
-      </c>
-      <c r="J120" t="s">
-        <v>23</v>
-      </c>
+      <c r="I120" s="116"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
@@ -7915,22 +7919,16 @@
         <v>257</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E121" s="123">
         <v>8555</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G121" s="2">
-        <v>41612</v>
-      </c>
-      <c r="H121" s="2">
-        <v>41615</v>
-      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
       <c r="I121" s="116">
-        <v>41613</v>
+        <v>41582</v>
       </c>
       <c r="J121" t="s">
         <v>23</v>
@@ -7944,19 +7942,25 @@
         <v>86</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E122" s="123">
-        <v>547</v>
-      </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+        <v>8555</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G122" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H122" s="2">
+        <v>41615</v>
+      </c>
       <c r="I122" s="116">
-        <v>41611</v>
+        <v>41613</v>
       </c>
       <c r="J122" t="s">
         <v>23</v>
@@ -7973,17 +7977,20 @@
         <v>254</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E123" s="123">
-        <v>1276</v>
+        <v>547</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="2">
-        <v>41619</v>
-      </c>
-      <c r="I123" s="116"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="116">
+        <v>41611</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
@@ -7993,39 +8000,36 @@
         <v>86</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E124" s="123">
-        <v>50</v>
+        <v>1276</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="116">
-        <v>41615</v>
-      </c>
-      <c r="J124" t="s">
-        <v>23</v>
-      </c>
+      <c r="H124" s="2">
+        <v>41619</v>
+      </c>
+      <c r="I124" s="116"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E125" s="123">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="2"/>
@@ -8042,28 +8046,22 @@
         <v>211</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="E126" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G126" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H126" s="2">
-        <v>41573</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
       <c r="I126" s="116">
-        <v>41570</v>
+        <v>41615</v>
       </c>
       <c r="J126" t="s">
         <v>23</v>
@@ -8080,22 +8078,22 @@
         <v>89</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="E127" s="123">
-        <v>93.52</v>
+        <v>5326</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G127" s="2">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="H127" s="2">
-        <v>41574</v>
+        <v>41573</v>
       </c>
       <c r="I127" s="116">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="J127" t="s">
         <v>23</v>
@@ -8106,25 +8104,31 @@
         <v>211</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="E128" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+        <v>93.52</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G128" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H128" s="2">
+        <v>41574</v>
+      </c>
       <c r="I128" s="116">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="J128" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -8132,31 +8136,25 @@
         <v>211</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="E129" s="123">
-        <v>227.67</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G129" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H129" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="116">
         <v>41585</v>
       </c>
-      <c r="I129" s="116">
-        <v>41582</v>
-      </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -8170,13 +8168,13 @@
         <v>89</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="E130" s="123">
-        <v>1214.3399999999999</v>
+        <v>227.67</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G130" s="2">
         <v>41582</v>
@@ -8196,25 +8194,31 @@
         <v>211</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="E131" s="123">
-        <v>90</v>
-      </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G131" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H131" s="2">
+        <v>41585</v>
+      </c>
       <c r="I131" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J131" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -8228,10 +8232,10 @@
         <v>149</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E132" s="123">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="2"/>
@@ -8248,31 +8252,25 @@
         <v>211</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="E133" s="123">
-        <v>257.45999999999998</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G133" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H133" s="2">
-        <v>41586</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
       <c r="I133" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -8286,19 +8284,19 @@
         <v>89</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="E134" s="123">
-        <v>272.37</v>
+        <v>257.45999999999998</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G134" s="2">
-        <v>41585</v>
+        <v>41583</v>
       </c>
       <c r="H134" s="2">
-        <v>41588</v>
+        <v>41586</v>
       </c>
       <c r="I134" s="116">
         <v>41586</v>
@@ -8307,65 +8305,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A135" s="44" t="s">
+    <row r="135" spans="1:10">
+      <c r="A135" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E135" s="123">
+        <v>272.37</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G135" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H135" s="2">
+        <v>41588</v>
+      </c>
+      <c r="I135" s="116">
+        <v>41586</v>
+      </c>
+      <c r="J135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A136" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="124">
+      <c r="B136" s="44"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>252536.55</v>
-      </c>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="117"/>
-      <c r="J135" s="114">
+        <v>252697.06999999998</v>
+      </c>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="117"/>
+      <c r="J136" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="143" spans="1:10">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="122"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="118"/>
-      <c r="J143" s="110"/>
-    </row>
+    <row r="137" spans="1:10" ht="15.75" thickTop="1"/>
     <row r="144" spans="1:10">
-      <c r="C144" s="109"/>
-      <c r="D144" s="109"/>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="122"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="118"/>
-      <c r="J160" s="110"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="122"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="118"/>
+      <c r="J144" s="110"/>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" s="109"/>
+      <c r="D145" s="109"/>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="122"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="118"/>
+      <c r="J161" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136:B143 B111 B128:B129 B125 B29:B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137:B144 B111 B129:B130 B126 B29:B83">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A136:A143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A137:A144">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A135">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F46" authorId="0">
+    <comment ref="F43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F49" authorId="0">
+    <comment ref="F46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0">
+    <comment ref="F47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="0">
+    <comment ref="F81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F106" authorId="0">
+    <comment ref="F103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F116" authorId="0">
+    <comment ref="F114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F127" authorId="0">
+    <comment ref="F126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="0">
+    <comment ref="F129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="308">
   <si>
     <t>Opis</t>
   </si>
@@ -883,9 +883,6 @@
     <t>8. Ścianki działowe</t>
   </si>
   <si>
-    <t>9. Instalacje wew</t>
-  </si>
-  <si>
     <t>10. Biały montaż</t>
   </si>
   <si>
@@ -1130,6 +1127,48 @@
   </si>
   <si>
     <t>7995/T/12/2013</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>Styropian 25cm</t>
+  </si>
+  <si>
+    <t>FPF/955/2013</t>
+  </si>
+  <si>
+    <t>Parapety i zatyczki</t>
+  </si>
+  <si>
+    <t>00. Przed budową</t>
+  </si>
+  <si>
+    <t>01. Fundamenty</t>
+  </si>
+  <si>
+    <t>02. Drenaż</t>
+  </si>
+  <si>
+    <t>03. Ściany nadziemia</t>
+  </si>
+  <si>
+    <t>04. Stropy, schody</t>
+  </si>
+  <si>
+    <t>05. Dach</t>
+  </si>
+  <si>
+    <t>06. Ocieplenie</t>
+  </si>
+  <si>
+    <t>07. Okna i drzwi zewn</t>
+  </si>
+  <si>
+    <t>08. Ścianki działowe</t>
+  </si>
+  <si>
+    <t>09. Instalacje wew</t>
   </si>
 </sst>
 </file>
@@ -2182,25 +2221,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52715520"/>
-        <c:axId val="52717056"/>
+        <c:axId val="62703872"/>
+        <c:axId val="63574016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52715520"/>
+        <c:axId val="62703872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52717056"/>
+        <c:crossAx val="63574016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52717056"/>
+        <c:axId val="63574016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2248,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52715520"/>
+        <c:crossAx val="62703872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,7 +2261,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000755" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000755" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4016,8 +4055,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J136" totalsRowCount="1">
-  <autoFilter ref="A1:J135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J138" totalsRowCount="1">
+  <autoFilter ref="A1:J137">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4026,8 +4065,8 @@
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
-  <sortState ref="A2:J130">
-    <sortCondition ref="A1:A130"/>
+  <sortState ref="A2:J137">
+    <sortCondition ref="A1:A137"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="2" name="Etap" totalsRowLabel="Suma" totalsRowDxfId="9"/>
@@ -4356,11 +4395,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4416,7 +4455,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>115</v>
@@ -4448,7 +4487,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>115</v>
@@ -4475,12 +4514,12 @@
         <v>86</v>
       </c>
       <c r="M3" s="111" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>87</v>
@@ -4507,12 +4546,12 @@
         <v>26</v>
       </c>
       <c r="M4" s="111" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>87</v>
@@ -4539,12 +4578,12 @@
         <v>87</v>
       </c>
       <c r="M5" s="109" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>115</v>
@@ -4568,12 +4607,12 @@
         <v>84</v>
       </c>
       <c r="M6" s="112" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>87</v>
@@ -4597,12 +4636,12 @@
         <v>84</v>
       </c>
       <c r="M7" s="112" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>87</v>
@@ -4626,12 +4665,12 @@
         <v>84</v>
       </c>
       <c r="M8" s="112" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>128</v>
@@ -4655,12 +4694,12 @@
         <v>84</v>
       </c>
       <c r="M9" s="112" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>115</v>
@@ -4684,12 +4723,12 @@
         <v>84</v>
       </c>
       <c r="M10" s="112" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>128</v>
@@ -4713,12 +4752,12 @@
         <v>84</v>
       </c>
       <c r="M11" s="112" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>128</v>
@@ -4742,12 +4781,12 @@
         <v>84</v>
       </c>
       <c r="M12" s="112" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>115</v>
@@ -4771,12 +4810,12 @@
         <v>84</v>
       </c>
       <c r="M13" s="112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>87</v>
@@ -4800,12 +4839,12 @@
         <v>84</v>
       </c>
       <c r="M14" s="112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>86</v>
@@ -4829,12 +4868,12 @@
         <v>84</v>
       </c>
       <c r="M15" s="112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>128</v>
@@ -4858,12 +4897,12 @@
         <v>84</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>115</v>
@@ -4887,12 +4926,12 @@
         <v>84</v>
       </c>
       <c r="M17" s="112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>115</v>
@@ -4916,12 +4955,12 @@
         <v>84</v>
       </c>
       <c r="M18" s="112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>115</v>
@@ -4945,12 +4984,12 @@
         <v>84</v>
       </c>
       <c r="M19" s="112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>128</v>
@@ -4976,7 +5015,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>128</v>
@@ -5002,7 +5041,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>128</v>
@@ -5028,16 +5067,16 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E23" s="123">
         <v>10500</v>
@@ -5054,16 +5093,16 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="E24" s="123">
         <v>36</v>
@@ -5080,16 +5119,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E25" s="123">
         <v>22.19</v>
@@ -5106,16 +5145,16 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E26" s="123">
         <v>184.5</v>
@@ -5136,16 +5175,16 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="123">
         <v>387.45</v>
@@ -5166,16 +5205,16 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E28" s="123">
         <v>159.9</v>
@@ -5196,7 +5235,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>87</v>
@@ -5222,7 +5261,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>87</v>
@@ -5248,7 +5287,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>86</v>
@@ -5274,7 +5313,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>86</v>
@@ -5306,7 +5345,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>86</v>
@@ -5338,7 +5377,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>86</v>
@@ -5370,7 +5409,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>86</v>
@@ -5402,7 +5441,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>86</v>
@@ -5434,7 +5473,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
@@ -5466,7 +5505,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>86</v>
@@ -5498,7 +5537,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>26</v>
@@ -5526,7 +5565,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>86</v>
@@ -5558,7 +5597,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>86</v>
@@ -5590,7 +5629,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>86</v>
@@ -5618,25 +5657,31 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="E43" s="123">
-        <v>70</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>1764.84</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H43" s="2">
+        <v>41573</v>
+      </c>
       <c r="I43" s="116">
-        <v>41615</v>
+        <v>41570</v>
       </c>
       <c r="J43" t="s">
         <v>23</v>
@@ -5644,25 +5689,31 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="E44" s="123">
-        <v>270</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>241.71</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H44" s="2">
+        <v>41573</v>
+      </c>
       <c r="I44" s="116">
-        <v>41615</v>
+        <v>41570</v>
       </c>
       <c r="J44" t="s">
         <v>23</v>
@@ -5670,25 +5721,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="E45" s="123">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="116">
-        <v>41615</v>
+        <v>41571</v>
       </c>
       <c r="J45" t="s">
         <v>23</v>
@@ -5696,7 +5747,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>86</v>
@@ -5705,13 +5756,13 @@
         <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E46" s="123">
-        <v>1764.84</v>
+        <v>69.88</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G46" s="2">
         <v>41570</v>
@@ -5728,7 +5779,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>86</v>
@@ -5737,22 +5788,22 @@
         <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="E47" s="123">
-        <v>241.71</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G47" s="2">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="H47" s="2">
-        <v>41573</v>
+        <v>41585</v>
       </c>
       <c r="I47" s="116">
-        <v>41570</v>
+        <v>41582</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -5760,175 +5811,169 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E48" s="123">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="116">
-        <v>41571</v>
+        <v>41585</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="E49" s="123">
-        <v>69.88</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H49" s="2">
-        <v>41573</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="116">
-        <v>41570</v>
+        <v>41585</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E50" s="123">
-        <v>40.619999999999997</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G50" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H50" s="2">
+        <v>450</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="116">
         <v>41585</v>
       </c>
-      <c r="I50" s="116">
-        <v>41582</v>
-      </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="E51" s="123">
-        <v>3800</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+        <v>118.51</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G51" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H51" s="2">
+        <v>41588</v>
+      </c>
       <c r="I51" s="116">
-        <v>41585</v>
+        <v>41586</v>
       </c>
       <c r="J51" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="E52" s="123">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="116">
-        <v>41585</v>
+        <v>41598</v>
       </c>
       <c r="J52" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="E53" s="123">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="116">
-        <v>41585</v>
+        <v>41598</v>
       </c>
       <c r="J53" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>86</v>
@@ -5937,82 +5982,94 @@
         <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="E54" s="123">
-        <v>118.51</v>
+        <v>3813.05</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="G54" s="2">
-        <v>41585</v>
+        <v>41512</v>
       </c>
       <c r="H54" s="2">
-        <v>41588</v>
+        <v>41519</v>
       </c>
       <c r="I54" s="116">
-        <v>41586</v>
-      </c>
-      <c r="J54" t="s">
+        <v>41515</v>
+      </c>
+      <c r="J54" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="E55" s="123">
-        <v>1080</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+        <v>66.180000000000007</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H55" s="2">
+        <v>41516</v>
+      </c>
       <c r="I55" s="116">
-        <v>41598</v>
-      </c>
-      <c r="J55" t="s">
+        <v>41515</v>
+      </c>
+      <c r="J55" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="E56" s="123">
-        <v>100</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>649.32000000000005</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41513</v>
+      </c>
+      <c r="H56" s="2">
+        <v>41516</v>
+      </c>
       <c r="I56" s="116">
-        <v>41598</v>
-      </c>
-      <c r="J56" t="s">
+        <v>41515</v>
+      </c>
+      <c r="J56" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>86</v>
@@ -6021,22 +6078,22 @@
         <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E57" s="123">
-        <v>3813.05</v>
+        <v>3084.07</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G57" s="2">
-        <v>41512</v>
+        <v>41516</v>
       </c>
       <c r="H57" s="2">
         <v>41519</v>
       </c>
       <c r="I57" s="116">
-        <v>41515</v>
+        <v>41516</v>
       </c>
       <c r="J57" s="113" t="s">
         <v>23</v>
@@ -6044,71 +6101,63 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E58" s="123">
-        <v>66.180000000000007</v>
+        <v>7010.82</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H58" s="2">
-        <v>41516</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="116">
-        <v>41515</v>
+        <v>41521</v>
       </c>
       <c r="J58" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E59" s="123">
-        <v>649.32000000000005</v>
+        <v>54</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="2">
-        <v>41513</v>
-      </c>
-      <c r="H59" s="2">
-        <v>41516</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="116">
-        <v>41515</v>
+        <v>41521</v>
       </c>
       <c r="J59" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>86</v>
@@ -6117,13 +6166,13 @@
         <v>89</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E60" s="123">
-        <v>3084.07</v>
+        <v>1415.36</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="G60" s="2">
         <v>41516</v>
@@ -6132,7 +6181,7 @@
         <v>41519</v>
       </c>
       <c r="I60" s="116">
-        <v>41516</v>
+        <v>41521</v>
       </c>
       <c r="J60" s="113" t="s">
         <v>23</v>
@@ -6140,63 +6189,71 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="E61" s="123">
-        <v>7010.82</v>
+        <v>4163.04</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G61" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H61" s="2">
+        <v>41518</v>
+      </c>
       <c r="I61" s="116">
-        <v>41521</v>
+        <v>41527</v>
       </c>
       <c r="J61" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E62" s="123">
-        <v>54</v>
+        <v>1214.22</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="G62" s="2">
+        <v>41515</v>
+      </c>
+      <c r="H62" s="2">
+        <v>41518</v>
+      </c>
       <c r="I62" s="116">
-        <v>41521</v>
+        <v>41527</v>
       </c>
       <c r="J62" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>86</v>
@@ -6205,22 +6262,22 @@
         <v>89</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="E63" s="123">
-        <v>1415.36</v>
+        <v>227.55</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G63" s="2">
-        <v>41516</v>
+        <v>41528</v>
       </c>
       <c r="H63" s="2">
-        <v>41519</v>
+        <v>41531</v>
       </c>
       <c r="I63" s="116">
-        <v>41521</v>
+        <v>41528</v>
       </c>
       <c r="J63" s="113" t="s">
         <v>23</v>
@@ -6228,31 +6285,27 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E64" s="123">
-        <v>4163.04</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="2">
-        <v>41515</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2">
-        <v>41518</v>
+        <v>41537</v>
       </c>
       <c r="I64" s="116">
-        <v>41527</v>
+        <v>41537</v>
       </c>
       <c r="J64" s="113" t="s">
         <v>23</v>
@@ -6260,7 +6313,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>86</v>
@@ -6272,19 +6325,19 @@
         <v>160</v>
       </c>
       <c r="E65" s="123">
-        <v>1214.22</v>
+        <v>2786.4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G65" s="2">
-        <v>41515</v>
+        <v>41544</v>
       </c>
       <c r="H65" s="2">
-        <v>41518</v>
+        <v>41547</v>
       </c>
       <c r="I65" s="116">
-        <v>41527</v>
+        <v>41547</v>
       </c>
       <c r="J65" s="113" t="s">
         <v>23</v>
@@ -6292,7 +6345,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>86</v>
@@ -6301,22 +6354,22 @@
         <v>89</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="E66" s="123">
-        <v>227.55</v>
+        <v>594.69000000000005</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G66" s="2">
-        <v>41528</v>
+        <v>41547</v>
       </c>
       <c r="H66" s="2">
-        <v>41531</v>
+        <v>41550</v>
       </c>
       <c r="I66" s="116">
-        <v>41528</v>
+        <v>41547</v>
       </c>
       <c r="J66" s="113" t="s">
         <v>23</v>
@@ -6324,117 +6377,121 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="E67" s="123">
-        <v>360</v>
-      </c>
-      <c r="F67" s="1"/>
+        <v>2960</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="2">
-        <v>41537</v>
-      </c>
+      <c r="H67" s="2"/>
       <c r="I67" s="116">
-        <v>41537</v>
+        <v>41552</v>
       </c>
       <c r="J67" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E68" s="123">
-        <v>2786.4</v>
+        <v>200</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G68" s="2">
-        <v>41544</v>
+        <v>41549</v>
       </c>
       <c r="H68" s="2">
-        <v>41547</v>
+        <v>41549</v>
       </c>
       <c r="I68" s="116">
-        <v>41547</v>
+        <v>41552</v>
       </c>
       <c r="J68" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E69" s="123">
-        <v>594.69000000000005</v>
+        <v>48.18</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G69" s="2">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="H69" s="2">
-        <v>41550</v>
+        <v>41548</v>
       </c>
       <c r="I69" s="116">
-        <v>41547</v>
+        <v>41552</v>
       </c>
       <c r="J69" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="E70" s="123">
-        <v>2960</v>
+        <v>90</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G70" s="2">
+        <v>41547</v>
+      </c>
+      <c r="H70" s="2">
+        <v>41547</v>
+      </c>
       <c r="I70" s="116">
         <v>41552</v>
       </c>
@@ -6444,103 +6501,95 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="E71" s="123">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G71" s="2">
-        <v>41549</v>
-      </c>
-      <c r="H71" s="2">
-        <v>41549</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="116">
-        <v>41552</v>
-      </c>
-      <c r="J71" s="113" t="s">
+        <v>41578</v>
+      </c>
+      <c r="J71" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E72" s="123">
-        <v>48.18</v>
+        <v>1260.76</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G72" s="2">
-        <v>41548</v>
-      </c>
-      <c r="H72" s="2">
-        <v>41548</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="116">
-        <v>41552</v>
+        <v>41557</v>
       </c>
       <c r="J72" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="E73" s="123">
-        <v>90</v>
+        <v>2398.8000000000002</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="G73" s="2">
-        <v>41547</v>
+        <v>41558</v>
       </c>
       <c r="H73" s="2">
-        <v>41547</v>
+        <v>41561</v>
       </c>
       <c r="I73" s="116">
-        <v>41552</v>
+        <v>41558</v>
       </c>
       <c r="J73" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>26</v>
@@ -6549,18 +6598,16 @@
         <v>149</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="E74" s="123">
-        <v>2000</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="116">
-        <v>41578</v>
+        <v>41585</v>
       </c>
       <c r="J74" t="s">
         <v>84</v>
@@ -6568,7 +6615,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
@@ -6577,18 +6624,22 @@
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="E75" s="123">
-        <v>1260.76</v>
+        <v>2413.2399999999998</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="G75" s="2">
+        <v>41527</v>
+      </c>
+      <c r="H75" s="2">
+        <v>41530</v>
+      </c>
       <c r="I75" s="116">
-        <v>41557</v>
+        <v>41527</v>
       </c>
       <c r="J75" s="113" t="s">
         <v>23</v>
@@ -6596,7 +6647,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>86</v>
@@ -6605,22 +6656,22 @@
         <v>89</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E76" s="123">
-        <v>2398.8000000000002</v>
+        <v>247.93</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G76" s="2">
-        <v>41558</v>
+        <v>41534</v>
       </c>
       <c r="H76" s="2">
-        <v>41561</v>
+        <v>41537</v>
       </c>
       <c r="I76" s="116">
-        <v>41558</v>
+        <v>41534</v>
       </c>
       <c r="J76" s="113" t="s">
         <v>23</v>
@@ -6628,33 +6679,39 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="E77" s="123">
-        <v>120</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+        <v>257.38</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" s="2">
+        <v>41536</v>
+      </c>
+      <c r="H77" s="2">
+        <v>41539</v>
+      </c>
       <c r="I77" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J77" t="s">
-        <v>84</v>
+        <v>41536</v>
+      </c>
+      <c r="J77" s="113" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>86</v>
@@ -6663,22 +6720,22 @@
         <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E78" s="123">
-        <v>2413.2399999999998</v>
+        <v>7792.51</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G78" s="2">
-        <v>41527</v>
+        <v>41533</v>
       </c>
       <c r="H78" s="2">
-        <v>41530</v>
+        <v>41536</v>
       </c>
       <c r="I78" s="116">
-        <v>41527</v>
+        <v>41541</v>
       </c>
       <c r="J78" s="113" t="s">
         <v>23</v>
@@ -6686,31 +6743,25 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E79" s="123">
-        <v>247.93</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G79" s="2">
-        <v>41534</v>
-      </c>
-      <c r="H79" s="2">
-        <v>41537</v>
-      </c>
+        <v>10100</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="116">
-        <v>41534</v>
+        <v>41542</v>
       </c>
       <c r="J79" s="113" t="s">
         <v>23</v>
@@ -6718,7 +6769,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>86</v>
@@ -6727,22 +6778,22 @@
         <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E80" s="123">
-        <v>257.38</v>
+        <v>4489.5</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G80" s="2">
-        <v>41536</v>
+        <v>41542</v>
       </c>
       <c r="H80" s="2">
-        <v>41539</v>
+        <v>41545</v>
       </c>
       <c r="I80" s="116">
-        <v>41536</v>
+        <v>41542</v>
       </c>
       <c r="J80" s="113" t="s">
         <v>23</v>
@@ -6750,7 +6801,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -6759,223 +6810,217 @@
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E81" s="123">
-        <v>7792.51</v>
+        <v>86.1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="G81" s="2">
-        <v>41533</v>
+        <v>41570</v>
       </c>
       <c r="H81" s="2">
-        <v>41536</v>
+        <v>41573</v>
       </c>
       <c r="I81" s="116">
-        <v>41541</v>
-      </c>
-      <c r="J81" s="113" t="s">
+        <v>41570</v>
+      </c>
+      <c r="J81" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="E82" s="123">
-        <v>10100</v>
-      </c>
-      <c r="F82" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="116">
-        <v>41542</v>
+        <v>41555</v>
       </c>
       <c r="J82" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E83" s="123">
-        <v>4489.5</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" s="2">
-        <v>41542</v>
-      </c>
-      <c r="H83" s="2">
-        <v>41545</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="116">
-        <v>41542</v>
+        <v>41565</v>
       </c>
       <c r="J83" s="113" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="E84" s="123">
-        <v>86.1</v>
+        <v>5640</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H84" s="2">
-        <v>41573</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="116">
-        <v>41570</v>
+        <v>41585</v>
       </c>
       <c r="J84" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="E85" s="123">
-        <v>1000</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>6372</v>
+      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="116">
-        <v>41555</v>
-      </c>
-      <c r="J85" s="113" t="s">
-        <v>84</v>
-      </c>
+      <c r="I85" s="116"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="E86" s="123">
-        <v>6500</v>
-      </c>
-      <c r="F86" s="1"/>
+        <v>9249.7800000000007</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="116">
-        <v>41565</v>
+        <v>41557</v>
       </c>
       <c r="J86" s="113" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="E87" s="123">
-        <v>5640</v>
+        <v>610</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J87" t="s">
-        <v>84</v>
+        <v>41557</v>
+      </c>
+      <c r="J87" s="113" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="E88" s="123">
-        <v>6372</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>1420.86</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="116"/>
+      <c r="I88" s="116">
+        <v>41618</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>86</v>
@@ -6984,13 +7029,13 @@
         <v>182</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E89" s="123">
-        <v>9249.7800000000007</v>
+        <v>790</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -7003,7 +7048,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>86</v>
@@ -7012,26 +7057,26 @@
         <v>182</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E90" s="123">
-        <v>610</v>
+        <v>1841.26</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J90" s="113" t="s">
+        <v>41618</v>
+      </c>
+      <c r="J90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>86</v>
@@ -7040,74 +7085,73 @@
         <v>182</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E91" s="123">
-        <v>1420.86</v>
+        <v>12076.41</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>293</v>
+        <v>190</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="116">
-        <v>41618</v>
-      </c>
-      <c r="J91" t="s">
+        <v>41557</v>
+      </c>
+      <c r="J91" s="113" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="E92" s="123">
-        <v>790</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>-2500</v>
+      </c>
+      <c r="F92" s="1"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J92" s="113" t="s">
-        <v>23</v>
+        <v>41607</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E93" s="123">
-        <v>1841.26</v>
+        <v>290.98</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="G93" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H93" s="2">
+        <v>41574</v>
+      </c>
       <c r="I93" s="116">
-        <v>41618</v>
+        <v>41571</v>
       </c>
       <c r="J93" t="s">
         <v>23</v>
@@ -7115,58 +7159,71 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="E94" s="123">
-        <v>12076.41</v>
+        <v>888</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="G94" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H94" s="2">
+        <v>41586</v>
+      </c>
       <c r="I94" s="116">
-        <v>41557</v>
-      </c>
-      <c r="J94" s="113" t="s">
+        <v>41586</v>
+      </c>
+      <c r="J94" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E95" s="123">
-        <v>-2500</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+        <v>367.84</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G95" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H95" s="2">
+        <v>41588</v>
+      </c>
       <c r="I95" s="116">
-        <v>41607</v>
+        <v>41586</v>
+      </c>
+      <c r="J95" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>86</v>
@@ -7175,22 +7232,22 @@
         <v>89</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E96" s="123">
-        <v>290.98</v>
+        <v>760.18</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="G96" s="2">
-        <v>41571</v>
+        <v>41591</v>
       </c>
       <c r="H96" s="2">
-        <v>41574</v>
+        <v>41594</v>
       </c>
       <c r="I96" s="116">
-        <v>41571</v>
+        <v>41595</v>
       </c>
       <c r="J96" t="s">
         <v>23</v>
@@ -7198,31 +7255,27 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E97" s="123">
-        <v>888</v>
+        <v>929.88</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G97" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H97" s="2">
-        <v>41586</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="116">
-        <v>41586</v>
+        <v>41592</v>
       </c>
       <c r="J97" t="s">
         <v>23</v>
@@ -7230,7 +7283,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>86</v>
@@ -7239,22 +7292,22 @@
         <v>89</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="E98" s="123">
-        <v>367.84</v>
+        <v>104.7</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G98" s="2">
-        <v>41585</v>
+        <v>41596</v>
       </c>
       <c r="H98" s="2">
-        <v>41588</v>
+        <v>41599</v>
       </c>
       <c r="I98" s="116">
-        <v>41586</v>
+        <v>41596</v>
       </c>
       <c r="J98" t="s">
         <v>23</v>
@@ -7262,31 +7315,31 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E99" s="123">
-        <v>760.18</v>
+        <v>120</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G99" s="2">
-        <v>41591</v>
+        <v>41598</v>
       </c>
       <c r="H99" s="2">
-        <v>41594</v>
+        <v>41601</v>
       </c>
       <c r="I99" s="116">
-        <v>41595</v>
+        <v>41599</v>
       </c>
       <c r="J99" t="s">
         <v>23</v>
@@ -7294,27 +7347,31 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E100" s="123">
-        <v>929.88</v>
+        <v>960.45</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="G100" s="2">
+        <v>41600</v>
+      </c>
+      <c r="H100" s="2">
+        <v>41600</v>
+      </c>
       <c r="I100" s="116">
-        <v>41592</v>
+        <v>41605</v>
       </c>
       <c r="J100" t="s">
         <v>23</v>
@@ -7322,31 +7379,29 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="E101" s="123">
-        <v>104.7</v>
+        <v>690.74</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="G101" s="2">
-        <v>41596</v>
-      </c>
-      <c r="H101" s="2">
-        <v>41599</v>
-      </c>
+        <v>41617</v>
+      </c>
+      <c r="H101" s="2"/>
       <c r="I101" s="116">
-        <v>41596</v>
+        <v>41618</v>
       </c>
       <c r="J101" t="s">
         <v>23</v>
@@ -7354,31 +7409,31 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E102" s="123">
-        <v>120</v>
+        <v>192.4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G102" s="2">
-        <v>41598</v>
+        <v>41583</v>
       </c>
       <c r="H102" s="2">
-        <v>41601</v>
+        <v>41586</v>
       </c>
       <c r="I102" s="116">
-        <v>41599</v>
+        <v>41586</v>
       </c>
       <c r="J102" t="s">
         <v>23</v>
@@ -7386,31 +7441,31 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="E103" s="123">
-        <v>960.45</v>
+        <v>312.33</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G103" s="2">
-        <v>41600</v>
+        <v>41582</v>
       </c>
       <c r="H103" s="2">
-        <v>41600</v>
+        <v>41585</v>
       </c>
       <c r="I103" s="116">
-        <v>41605</v>
+        <v>41582</v>
       </c>
       <c r="J103" t="s">
         <v>23</v>
@@ -7418,37 +7473,33 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="E104" s="123">
-        <v>690.74</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G104" s="2">
-        <v>41617</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="116">
-        <v>41618</v>
+        <v>41585</v>
       </c>
       <c r="J104" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>86</v>
@@ -7457,22 +7508,22 @@
         <v>89</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="E105" s="123">
-        <v>192.4</v>
+        <v>7781.55</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="G105" s="2">
-        <v>41583</v>
+        <v>41610</v>
       </c>
       <c r="H105" s="2">
-        <v>41586</v>
+        <v>41613</v>
       </c>
       <c r="I105" s="116">
-        <v>41586</v>
+        <v>41613</v>
       </c>
       <c r="J105" t="s">
         <v>23</v>
@@ -7480,7 +7531,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>86</v>
@@ -7489,22 +7540,22 @@
         <v>89</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="E106" s="123">
-        <v>312.33</v>
+        <v>4842.8500000000004</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="G106" s="2">
-        <v>41582</v>
+        <v>41607</v>
       </c>
       <c r="H106" s="2">
-        <v>41585</v>
+        <v>41614</v>
       </c>
       <c r="I106" s="116">
-        <v>41582</v>
+        <v>41613</v>
       </c>
       <c r="J106" t="s">
         <v>23</v>
@@ -7512,89 +7563,79 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="E107" s="123">
-        <v>200</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+        <v>1467.55</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G107" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H107" s="2">
+        <v>41615</v>
+      </c>
       <c r="I107" s="116">
-        <v>41585</v>
+        <v>41613</v>
       </c>
       <c r="J107" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E108" s="123">
-        <v>7781.55</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G108" s="2">
-        <v>41610</v>
-      </c>
-      <c r="H108" s="2">
-        <v>41613</v>
-      </c>
-      <c r="I108" s="116">
-        <v>41613</v>
-      </c>
-      <c r="J108" t="s">
-        <v>23</v>
-      </c>
+        <f>200*35</f>
+        <v>7000</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="116"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E109" s="123">
-        <v>4842.8500000000004</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G109" s="2">
-        <v>41607</v>
-      </c>
-      <c r="H109" s="2">
-        <v>41614</v>
-      </c>
+        <v>1470</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
       <c r="I109" s="116">
-        <v>41613</v>
+        <v>41615</v>
       </c>
       <c r="J109" t="s">
         <v>23</v>
@@ -7602,7 +7643,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>86</v>
@@ -7611,22 +7652,22 @@
         <v>89</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E110" s="123">
-        <v>1467.55</v>
+        <v>296.64</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G110" s="2">
-        <v>41612</v>
+        <v>41614</v>
       </c>
       <c r="H110" s="2">
-        <v>41615</v>
+        <v>41617</v>
       </c>
       <c r="I110" s="116">
-        <v>41613</v>
+        <v>41618</v>
       </c>
       <c r="J110" t="s">
         <v>23</v>
@@ -7634,79 +7675,90 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E111" s="123">
-        <f>200*35</f>
-        <v>7000</v>
-      </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="116"/>
+        <v>851.37</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G111" s="2">
+        <v>41618</v>
+      </c>
+      <c r="H111" s="2">
+        <v>41621</v>
+      </c>
+      <c r="I111" s="116">
+        <v>41618</v>
+      </c>
+      <c r="J111" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="E112" s="123">
-        <v>1470</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="116">
-        <v>41615</v>
-      </c>
-      <c r="J112" t="s">
-        <v>23</v>
-      </c>
+        <v>160.52000000000001</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G112" s="2">
+        <v>41619</v>
+      </c>
+      <c r="H112" s="2">
+        <v>41622</v>
+      </c>
+      <c r="I112" s="116"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E113" s="123">
-        <v>296.64</v>
+        <v>610</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G113" s="2">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="H113" s="2">
-        <v>41617</v>
+        <v>41621</v>
       </c>
       <c r="I113" s="116">
-        <v>41618</v>
+        <v>41621</v>
       </c>
       <c r="J113" t="s">
         <v>23</v>
@@ -7714,7 +7766,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>86</v>
@@ -7723,22 +7775,22 @@
         <v>89</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="E114" s="123">
-        <v>851.37</v>
+        <v>60.89</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="G114" s="2">
-        <v>41618</v>
+        <v>41570</v>
       </c>
       <c r="H114" s="2">
-        <v>41621</v>
+        <v>41573</v>
       </c>
       <c r="I114" s="116">
-        <v>41618</v>
+        <v>41570</v>
       </c>
       <c r="J114" t="s">
         <v>23</v>
@@ -7746,7 +7798,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>86</v>
@@ -7758,78 +7810,71 @@
         <v>22</v>
       </c>
       <c r="E115" s="123">
-        <v>160.52000000000001</v>
+        <v>84.89</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="G115" s="2">
-        <v>41619</v>
+        <v>41577</v>
       </c>
       <c r="H115" s="2">
-        <v>41622</v>
-      </c>
-      <c r="I115" s="116"/>
+        <v>41580</v>
+      </c>
+      <c r="I115" s="116">
+        <v>41577</v>
+      </c>
+      <c r="J115" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="E116" s="123">
-        <v>60.89</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G116" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H116" s="2">
-        <v>41573</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
       <c r="I116" s="116">
-        <v>41570</v>
+        <v>41585</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="E117" s="123">
-        <v>84.89</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G117" s="2">
-        <v>41577</v>
-      </c>
-      <c r="H117" s="2">
-        <v>41580</v>
-      </c>
+        <v>1323</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
       <c r="I117" s="116">
-        <v>41577</v>
+        <v>41602</v>
       </c>
       <c r="J117" t="s">
         <v>23</v>
@@ -7837,51 +7882,46 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="E118" s="123">
-        <v>180</v>
+        <v>3086</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="116">
-        <v>41585</v>
-      </c>
-      <c r="J118" t="s">
-        <v>84</v>
-      </c>
+      <c r="I118" s="116"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E119" s="123">
-        <v>1323</v>
+        <v>8555</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="116">
-        <v>41602</v>
+        <v>41582</v>
       </c>
       <c r="J119" t="s">
         <v>23</v>
@@ -7889,46 +7929,57 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E120" s="123">
-        <v>3086</v>
-      </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="116"/>
+        <v>8555</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G120" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H120" s="2">
+        <v>41615</v>
+      </c>
+      <c r="I120" s="116">
+        <v>41613</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E121" s="123">
-        <v>8555</v>
+        <v>547</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="116">
-        <v>41582</v>
+        <v>41611</v>
       </c>
       <c r="J121" t="s">
         <v>23</v>
@@ -7936,57 +7987,48 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>270</v>
       </c>
       <c r="E122" s="123">
-        <v>8555</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G122" s="2">
-        <v>41612</v>
-      </c>
+        <v>1276</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="2">
-        <v>41615</v>
-      </c>
-      <c r="I122" s="116">
-        <v>41613</v>
-      </c>
-      <c r="J122" t="s">
-        <v>23</v>
-      </c>
+        <v>41619</v>
+      </c>
+      <c r="I122" s="116"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E123" s="123">
-        <v>547</v>
+        <v>50</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="116">
-        <v>41611</v>
+        <v>41615</v>
       </c>
       <c r="J123" t="s">
         <v>23</v>
@@ -7994,42 +8036,51 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="E124" s="123">
-        <v>1276</v>
-      </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2">
-        <v>41619</v>
-      </c>
-      <c r="I124" s="116"/>
+        <v>391.63</v>
+      </c>
+      <c r="F124" s="130">
+        <v>41621</v>
+      </c>
+      <c r="G124" s="130">
+        <v>41621</v>
+      </c>
+      <c r="H124" s="130">
+        <v>41621</v>
+      </c>
+      <c r="I124" s="116">
+        <v>41621</v>
+      </c>
+      <c r="J124" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E125" s="123">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="2"/>
@@ -8043,25 +8094,31 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="E126" s="123">
-        <v>190</v>
-      </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+        <v>5326</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G126" s="2">
+        <v>41570</v>
+      </c>
+      <c r="H126" s="2">
+        <v>41573</v>
+      </c>
       <c r="I126" s="116">
-        <v>41615</v>
+        <v>41570</v>
       </c>
       <c r="J126" t="s">
         <v>23</v>
@@ -8069,7 +8126,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>86</v>
@@ -8078,22 +8135,22 @@
         <v>89</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="E127" s="123">
-        <v>5326</v>
+        <v>93.52</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G127" s="2">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="H127" s="2">
-        <v>41573</v>
+        <v>41574</v>
       </c>
       <c r="I127" s="116">
-        <v>41570</v>
+        <v>41571</v>
       </c>
       <c r="J127" t="s">
         <v>23</v>
@@ -8101,65 +8158,65 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E128" s="123">
-        <v>93.52</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G128" s="2">
-        <v>41571</v>
-      </c>
-      <c r="H128" s="2">
-        <v>41574</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
       <c r="I128" s="116">
-        <v>41571</v>
+        <v>41585</v>
       </c>
       <c r="J128" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="E129" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+        <v>227.67</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G129" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H129" s="2">
+        <v>41585</v>
+      </c>
       <c r="I129" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J129" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>86</v>
@@ -8168,10 +8225,10 @@
         <v>89</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E130" s="123">
-        <v>227.67</v>
+        <v>1214.3399999999999</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>224</v>
@@ -8191,39 +8248,33 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="E131" s="123">
-        <v>1214.3399999999999</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G131" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H131" s="2">
+        <v>90</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="116">
         <v>41585</v>
       </c>
-      <c r="I131" s="116">
-        <v>41582</v>
-      </c>
       <c r="J131" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>26</v>
@@ -8235,7 +8286,7 @@
         <v>228</v>
       </c>
       <c r="E132" s="123">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="2"/>
@@ -8249,33 +8300,39 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="E133" s="123">
-        <v>120</v>
-      </c>
-      <c r="F133" s="1"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+        <v>257.45999999999998</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G133" s="2">
+        <v>41583</v>
+      </c>
+      <c r="H133" s="2">
+        <v>41586</v>
+      </c>
       <c r="I133" s="116">
-        <v>41585</v>
+        <v>41586</v>
       </c>
       <c r="J133" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>86</v>
@@ -8284,19 +8341,19 @@
         <v>89</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="E134" s="123">
-        <v>257.45999999999998</v>
+        <v>272.37</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G134" s="2">
-        <v>41583</v>
+        <v>41585</v>
       </c>
       <c r="H134" s="2">
-        <v>41586</v>
+        <v>41588</v>
       </c>
       <c r="I134" s="116">
         <v>41586</v>
@@ -8307,95 +8364,141 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="E135" s="123">
-        <v>272.37</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G135" s="2">
-        <v>41585</v>
-      </c>
-      <c r="H135" s="2">
-        <v>41588</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
       <c r="I135" s="116">
-        <v>41586</v>
+        <v>41615</v>
       </c>
       <c r="J135" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A136" s="44" t="s">
+    <row r="136" spans="1:10">
+      <c r="A136" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E136" s="123">
+        <v>270</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="116">
+        <v>41615</v>
+      </c>
+      <c r="J136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E137" s="123">
+        <v>500</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="116">
+        <v>41615</v>
+      </c>
+      <c r="J137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A138" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B136" s="44"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="124">
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
-        <v>252697.06999999998</v>
-      </c>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="117"/>
-      <c r="J136" s="114">
+        <v>253698.69999999998</v>
+      </c>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="117"/>
+      <c r="J138" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="144" spans="1:10">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="122"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="118"/>
-      <c r="J144" s="110"/>
-    </row>
-    <row r="145" spans="3:4">
-      <c r="C145" s="109"/>
-      <c r="D145" s="109"/>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="122"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="118"/>
-      <c r="J161" s="110"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="118"/>
+      <c r="J146" s="110"/>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="C147" s="109"/>
+      <c r="D147" s="109"/>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="122"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="118"/>
+      <c r="J163" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137:B144 B111 B129:B130 B126 B29:B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B146 B111 B131:B132 B128 B29:B83">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A137:A144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A139:A146">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A137">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -8521,7 +8624,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="126" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43">
@@ -8536,7 +8639,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="43">
         <v>500</v>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F114" authorId="0">
+    <comment ref="F115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F126" authorId="0">
+    <comment ref="F127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F129" authorId="0">
+    <comment ref="F130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="308">
   <si>
     <t>Opis</t>
   </si>
@@ -2221,25 +2221,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62703872"/>
-        <c:axId val="63574016"/>
+        <c:axId val="62707968"/>
+        <c:axId val="63578112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62703872"/>
+        <c:axId val="62707968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63574016"/>
+        <c:crossAx val="63578112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63574016"/>
+        <c:axId val="63578112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2248,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62703872"/>
+        <c:crossAx val="62707968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2261,7 +2261,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000777" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000777" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4055,8 +4055,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J138" totalsRowCount="1">
-  <autoFilter ref="A1:J137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J139" totalsRowCount="1">
+  <autoFilter ref="A1:J138">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -4395,11 +4395,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <selection pane="bottomLeft" activeCell="G143" sqref="G143:H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7730,7 +7730,12 @@
       <c r="H112" s="2">
         <v>41622</v>
       </c>
-      <c r="I112" s="116"/>
+      <c r="I112" s="116">
+        <v>41624</v>
+      </c>
+      <c r="J112" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
@@ -7765,38 +7770,17 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="123">
-        <v>60.89</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G114" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H114" s="2">
-        <v>41573</v>
-      </c>
-      <c r="I114" s="116">
-        <v>41570</v>
-      </c>
-      <c r="J114" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="123"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="116"/>
+    </row>
+    <row r="115" spans="1:10" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>305</v>
       </c>
@@ -7810,19 +7794,19 @@
         <v>22</v>
       </c>
       <c r="E115" s="123">
-        <v>84.89</v>
+        <v>60.89</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G115" s="2">
-        <v>41577</v>
+        <v>41570</v>
       </c>
       <c r="H115" s="2">
-        <v>41580</v>
+        <v>41573</v>
       </c>
       <c r="I115" s="116">
-        <v>41577</v>
+        <v>41570</v>
       </c>
       <c r="J115" t="s">
         <v>23</v>
@@ -7833,25 +7817,31 @@
         <v>305</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="E116" s="123">
-        <v>180</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+        <v>84.89</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G116" s="2">
+        <v>41577</v>
+      </c>
+      <c r="H116" s="2">
+        <v>41580</v>
+      </c>
       <c r="I116" s="116">
-        <v>41585</v>
+        <v>41577</v>
       </c>
       <c r="J116" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7859,25 +7849,25 @@
         <v>305</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="E117" s="123">
-        <v>1323</v>
+        <v>180</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="116">
-        <v>41602</v>
+        <v>41585</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7891,15 +7881,20 @@
         <v>253</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E118" s="123">
-        <v>3086</v>
+        <v>1323</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-      <c r="I118" s="116"/>
+      <c r="I118" s="116">
+        <v>41602</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
@@ -7909,23 +7904,18 @@
         <v>86</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E119" s="123">
-        <v>8555</v>
+        <v>3086</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-      <c r="I119" s="116">
-        <v>41582</v>
-      </c>
-      <c r="J119" t="s">
-        <v>23</v>
-      </c>
+      <c r="I119" s="116"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
@@ -7938,22 +7928,16 @@
         <v>256</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E120" s="123">
         <v>8555</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G120" s="2">
-        <v>41612</v>
-      </c>
-      <c r="H120" s="2">
-        <v>41615</v>
-      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
       <c r="I120" s="116">
-        <v>41613</v>
+        <v>41582</v>
       </c>
       <c r="J120" t="s">
         <v>23</v>
@@ -7967,19 +7951,25 @@
         <v>86</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E121" s="123">
-        <v>547</v>
-      </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+        <v>8555</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G121" s="2">
+        <v>41612</v>
+      </c>
+      <c r="H121" s="2">
+        <v>41615</v>
+      </c>
       <c r="I121" s="116">
-        <v>41611</v>
+        <v>41613</v>
       </c>
       <c r="J121" t="s">
         <v>23</v>
@@ -7996,17 +7986,20 @@
         <v>253</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E122" s="123">
-        <v>1276</v>
+        <v>547</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="2">
-        <v>41619</v>
-      </c>
-      <c r="I122" s="116"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="116">
+        <v>41611</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
@@ -8016,23 +8009,20 @@
         <v>86</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E123" s="123">
-        <v>50</v>
+        <v>1276</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="116">
-        <v>41615</v>
-      </c>
-      <c r="J123" t="s">
-        <v>23</v>
-      </c>
+      <c r="H123" s="2">
+        <v>41619</v>
+      </c>
+      <c r="I123" s="116"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
@@ -8042,25 +8032,19 @@
         <v>86</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E124" s="123">
-        <v>391.63</v>
-      </c>
-      <c r="F124" s="130">
-        <v>41621</v>
-      </c>
-      <c r="G124" s="130">
-        <v>41621</v>
-      </c>
-      <c r="H124" s="130">
-        <v>41621</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
       <c r="I124" s="116">
-        <v>41621</v>
+        <v>41615</v>
       </c>
       <c r="J124" t="s">
         <v>23</v>
@@ -8068,25 +8052,31 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E125" s="123">
-        <v>190</v>
-      </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+        <v>391.63</v>
+      </c>
+      <c r="F125" s="130">
+        <v>41621</v>
+      </c>
+      <c r="G125" s="130">
+        <v>41621</v>
+      </c>
+      <c r="H125" s="130">
+        <v>41621</v>
+      </c>
       <c r="I125" s="116">
-        <v>41615</v>
+        <v>41621</v>
       </c>
       <c r="J125" t="s">
         <v>23</v>
@@ -8097,28 +8087,22 @@
         <v>306</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="E126" s="123">
-        <v>5326</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G126" s="2">
-        <v>41570</v>
-      </c>
-      <c r="H126" s="2">
-        <v>41573</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
       <c r="I126" s="116">
-        <v>41570</v>
+        <v>41615</v>
       </c>
       <c r="J126" t="s">
         <v>23</v>
@@ -8135,22 +8119,22 @@
         <v>89</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="E127" s="123">
-        <v>93.52</v>
+        <v>5326</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G127" s="2">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="H127" s="2">
-        <v>41574</v>
+        <v>41573</v>
       </c>
       <c r="I127" s="116">
-        <v>41571</v>
+        <v>41570</v>
       </c>
       <c r="J127" t="s">
         <v>23</v>
@@ -8161,25 +8145,31 @@
         <v>306</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E128" s="123">
-        <v>4400</v>
-      </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+        <v>93.52</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G128" s="2">
+        <v>41571</v>
+      </c>
+      <c r="H128" s="2">
+        <v>41574</v>
+      </c>
       <c r="I128" s="116">
-        <v>41585</v>
+        <v>41571</v>
       </c>
       <c r="J128" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -8187,31 +8177,25 @@
         <v>306</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="E129" s="123">
-        <v>227.67</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G129" s="2">
-        <v>41582</v>
-      </c>
-      <c r="H129" s="2">
+        <v>4400</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="116">
         <v>41585</v>
       </c>
-      <c r="I129" s="116">
-        <v>41582</v>
-      </c>
       <c r="J129" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -8225,13 +8209,13 @@
         <v>89</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="E130" s="123">
-        <v>1214.3399999999999</v>
+        <v>227.67</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G130" s="2">
         <v>41582</v>
@@ -8251,25 +8235,31 @@
         <v>306</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="E131" s="123">
-        <v>90</v>
-      </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+        <v>1214.3399999999999</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G131" s="2">
+        <v>41582</v>
+      </c>
+      <c r="H131" s="2">
+        <v>41585</v>
+      </c>
       <c r="I131" s="116">
-        <v>41585</v>
+        <v>41582</v>
       </c>
       <c r="J131" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -8283,10 +8273,10 @@
         <v>149</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E132" s="123">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="2"/>
@@ -8303,31 +8293,25 @@
         <v>306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="E133" s="123">
-        <v>257.45999999999998</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G133" s="2">
-        <v>41583</v>
-      </c>
-      <c r="H133" s="2">
-        <v>41586</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
       <c r="I133" s="116">
-        <v>41586</v>
+        <v>41585</v>
       </c>
       <c r="J133" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -8341,19 +8325,19 @@
         <v>89</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="E134" s="123">
-        <v>272.37</v>
+        <v>257.45999999999998</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G134" s="2">
-        <v>41585</v>
+        <v>41583</v>
       </c>
       <c r="H134" s="2">
-        <v>41588</v>
+        <v>41586</v>
       </c>
       <c r="I134" s="116">
         <v>41586</v>
@@ -8364,25 +8348,31 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="E135" s="123">
-        <v>70</v>
-      </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
+        <v>272.37</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G135" s="2">
+        <v>41585</v>
+      </c>
+      <c r="H135" s="2">
+        <v>41588</v>
+      </c>
       <c r="I135" s="116">
-        <v>41615</v>
+        <v>41586</v>
       </c>
       <c r="J135" t="s">
         <v>23</v>
@@ -8390,7 +8380,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>26</v>
@@ -8399,10 +8389,10 @@
         <v>149</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E136" s="123">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="2"/>
@@ -8419,16 +8409,16 @@
         <v>214</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E137" s="123">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="2"/>
@@ -8440,65 +8430,91 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A138" s="44" t="s">
+    <row r="138" spans="1:10">
+      <c r="A138" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" s="123">
+        <v>500</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="116">
+        <v>41615</v>
+      </c>
+      <c r="J138" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A139" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="124">
+      <c r="B139" s="44"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="124">
         <f>SUBTOTAL(109,[Kwota])</f>
         <v>253698.69999999998</v>
       </c>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="117"/>
-      <c r="J138" s="114">
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="117"/>
+      <c r="J139" s="114">
         <f>SUBTOTAL(103,[Konto])</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="146" spans="1:10">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="118"/>
-      <c r="J146" s="110"/>
-    </row>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" thickTop="1"/>
     <row r="147" spans="1:10">
-      <c r="C147" s="109"/>
-      <c r="D147" s="109"/>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="122"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="118"/>
-      <c r="J163" s="110"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="122"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="118"/>
+      <c r="J147" s="110"/>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="C148" s="109"/>
+      <c r="D148" s="109"/>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="122"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="118"/>
+      <c r="J164" s="110"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B146 B111 B131:B132 B128 B29:B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B140:B147 B111 B132:B133 B129 B29:B83">
       <formula1>$L$3:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A139:A146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A140:A147">
       <formula1>$M$4:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A138">
       <formula1>$M$3:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/plan/Mati - wydatki budowa.xlsx
+++ b/trunk/plan/Mati - wydatki budowa.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2505" windowWidth="13020" windowHeight="2895"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="F43" authorId="0">
+    <comment ref="F44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0">
+    <comment ref="F47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0">
+    <comment ref="F48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="0">
+    <comment ref="F82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F103" authorId="0">
+    <comment ref="F105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F115" authorId="0">
+    <comment ref="F120" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F127" authorId="0">
+    <comment ref="F133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="0">
+    <comment ref="F136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="313">
   <si>
     <t>Opis</t>
   </si>
@@ -667,12 +667,6 @@
     <t>Wniosek o wpis do hipoteki</t>
   </si>
   <si>
-    <t>0. Przed budową</t>
-  </si>
-  <si>
-    <t>1. Fundamenty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marek  </t>
   </si>
   <si>
@@ -862,27 +856,6 @@
     <t>Drenaż - Żwir</t>
   </si>
   <si>
-    <t>2. Drenaż</t>
-  </si>
-  <si>
-    <t>3. Ściany nadziemia</t>
-  </si>
-  <si>
-    <t>4. Stropy, schody</t>
-  </si>
-  <si>
-    <t>5. Dach</t>
-  </si>
-  <si>
-    <t>6. Ocieplenie</t>
-  </si>
-  <si>
-    <t>7. Okna i drzwi zewn</t>
-  </si>
-  <si>
-    <t>8. Ścianki działowe</t>
-  </si>
-  <si>
     <t>10. Biały montaż</t>
   </si>
   <si>
@@ -1169,6 +1142,48 @@
   </si>
   <si>
     <t>09. Instalacje wew</t>
+  </si>
+  <si>
+    <t>Armalux</t>
+  </si>
+  <si>
+    <t>Płytki podłogowe</t>
+  </si>
+  <si>
+    <t>FS 7155/M/12/2013</t>
+  </si>
+  <si>
+    <t>Wełna, płyty OSB</t>
+  </si>
+  <si>
+    <t>8187/T/12/2013</t>
+  </si>
+  <si>
+    <t>KOREKTA NA WEŁNĘ</t>
+  </si>
+  <si>
+    <t>Womag</t>
+  </si>
+  <si>
+    <t>SB/003839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wełna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">991/k/2013 </t>
+  </si>
+  <si>
+    <t>Założenie parapetów</t>
+  </si>
+  <si>
+    <t>Założenie rynien</t>
+  </si>
+  <si>
+    <t>Kontener na śmieci</t>
+  </si>
+  <si>
+    <t>Pianka, klej, siatka</t>
   </si>
 </sst>
 </file>
@@ -2174,6 +2189,9 @@
                 <c:pt idx="1">
                   <c:v>9100</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1235</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>-3352</c:v>
                 </c:pt>
@@ -2181,7 +2199,7 @@
                   <c:v>-17900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-47500</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-32000</c:v>
@@ -2221,25 +2239,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62707968"/>
-        <c:axId val="63578112"/>
+        <c:axId val="66937600"/>
+        <c:axId val="66939136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62707968"/>
+        <c:axId val="66937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63578112"/>
+        <c:crossAx val="66939136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63578112"/>
+        <c:axId val="66939136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2266,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62707968"/>
+        <c:crossAx val="66937600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2261,7 +2279,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000777" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000777" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2303,27 +2321,37 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41615.637318518522" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="129">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="41634.730409374999" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="145">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Etap" numFmtId="0">
-      <sharedItems containsBlank="1" count="15">
-        <s v="0. Przed budową"/>
-        <s v="1. Fundamenty"/>
+      <sharedItems containsBlank="1" count="25">
+        <s v="00. Przed budową"/>
+        <s v="01. Fundamenty"/>
+        <s v="02. Drenaż"/>
+        <s v="03. Ściany nadziemia"/>
+        <s v="04. Stropy, schody"/>
+        <s v="05. Dach"/>
+        <s v="06. Ocieplenie"/>
+        <s v="07. Okna i drzwi zewn"/>
+        <s v="08. Ścianki działowe"/>
         <s v="11. Tynki wewn, malowanie"/>
         <s v="12. Podłogi, podłoża, posadzki"/>
-        <s v="2. Drenaż"/>
-        <s v="3. Ściany nadziemia"/>
-        <s v="4. Stropy, schody"/>
-        <s v="5. Dach"/>
-        <s v="6. Ocieplenie"/>
-        <s v="7. Okna i drzwi zewn"/>
-        <s v="8. Ścianki działowe"/>
         <m u="1"/>
+        <s v="4. Stropy, schody" u="1"/>
+        <s v="7. Okna i drzwi zewn" u="1"/>
         <s v="2. Ściany nadziemia" u="1"/>
+        <s v="8. Ścianki działowe" u="1"/>
+        <s v="6. Ocieplenie" u="1"/>
+        <s v="5. Dach" u="1"/>
+        <s v="1. Fundamenty" u="1"/>
+        <s v="8. Okna i drzwi zewn" u="1"/>
         <s v="3. Stropy, schody" u="1"/>
+        <s v="3. Ściany nadziemia" u="1"/>
+        <s v="0. Przed budową" u="1"/>
+        <s v="2. Drenaż" u="1"/>
         <s v="4. Dach" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2347,16 +2375,84 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2500" maxValue="12076.41"/>
     </cacheField>
     <cacheField name="Faktura numer" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2013-12-13T00:00:00" maxDate="2013-12-14T00:00:00"/>
     </cacheField>
     <cacheField name="Data faktury" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-12-05T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-06T00:00:00" maxDate="2013-12-24T00:00:00"/>
     </cacheField>
     <cacheField name="Data płatności" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-12-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2013-08-09T00:00:00" maxDate="2013-12-27T00:00:00"/>
     </cacheField>
     <cacheField name="Zapłacono" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-12-08T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2012-04-16T00:00:00" maxDate="2013-12-27T00:00:00" count="67">
+        <d v="2012-04-16T00:00:00"/>
+        <d v="2012-07-10T00:00:00"/>
+        <d v="2012-10-15T00:00:00"/>
+        <d v="2013-03-18T00:00:00"/>
+        <d v="2013-03-19T00:00:00"/>
+        <d v="2013-03-20T00:00:00"/>
+        <d v="2013-03-27T00:00:00"/>
+        <d v="2013-03-29T00:00:00"/>
+        <d v="2013-04-03T00:00:00"/>
+        <d v="2013-04-08T00:00:00"/>
+        <d v="2013-04-18T00:00:00"/>
+        <d v="2013-04-27T00:00:00"/>
+        <d v="2013-05-10T00:00:00"/>
+        <d v="2013-05-12T00:00:00"/>
+        <d v="2013-06-03T00:00:00"/>
+        <d v="2013-07-29T00:00:00"/>
+        <d v="2013-08-02T00:00:00"/>
+        <d v="2013-08-23T00:00:00"/>
+        <d v="2013-08-29T00:00:00"/>
+        <d v="2013-10-28T00:00:00"/>
+        <d v="2013-11-23T00:00:00"/>
+        <d v="2013-11-27T00:00:00"/>
+        <d v="2013-11-28T00:00:00"/>
+        <d v="2013-12-24T00:00:00"/>
+        <d v="2013-07-19T00:00:00"/>
+        <d v="2013-08-09T00:00:00"/>
+        <d v="2013-08-15T00:00:00"/>
+        <d v="2013-08-16T00:00:00"/>
+        <d v="2013-08-21T00:00:00"/>
+        <d v="2013-08-30T00:00:00"/>
+        <d v="2013-09-04T00:00:00"/>
+        <d v="2013-10-23T00:00:00"/>
+        <d v="2013-10-24T00:00:00"/>
+        <d v="2013-11-04T00:00:00"/>
+        <d v="2013-11-07T00:00:00"/>
+        <d v="2013-11-08T00:00:00"/>
+        <d v="2013-11-20T00:00:00"/>
+        <d v="2013-09-10T00:00:00"/>
+        <d v="2013-09-11T00:00:00"/>
+        <d v="2013-09-20T00:00:00"/>
+        <d v="2013-09-30T00:00:00"/>
+        <d v="2013-10-05T00:00:00"/>
+        <d v="2013-10-31T00:00:00"/>
+        <d v="2013-10-10T00:00:00"/>
+        <d v="2013-10-11T00:00:00"/>
+        <d v="2013-09-17T00:00:00"/>
+        <d v="2013-09-19T00:00:00"/>
+        <d v="2013-09-24T00:00:00"/>
+        <d v="2013-09-25T00:00:00"/>
+        <d v="2013-10-08T00:00:00"/>
+        <d v="2013-10-18T00:00:00"/>
+        <d v="2013-12-10T00:00:00"/>
+        <d v="2013-11-29T00:00:00"/>
+        <d v="2013-11-17T00:00:00"/>
+        <d v="2013-11-14T00:00:00"/>
+        <d v="2013-11-18T00:00:00"/>
+        <d v="2013-11-21T00:00:00"/>
+        <d v="2013-12-05T00:00:00"/>
+        <d v="2013-12-07T00:00:00"/>
+        <d v="2013-12-16T00:00:00"/>
+        <d v="2013-12-13T00:00:00"/>
+        <d v="2013-12-26T00:00:00"/>
+        <m/>
+        <d v="2013-12-23T00:00:00"/>
+        <d v="2013-10-30T00:00:00"/>
+        <d v="2013-11-24T00:00:00"/>
+        <d v="2013-12-03T00:00:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Konto" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2366,7 +2462,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="129">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="145">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2376,7 +2472,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2012-04-16T00:00:00"/>
+    <x v="0"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2388,7 +2484,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2012-07-10T00:00:00"/>
+    <x v="1"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2400,7 +2496,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2012-10-15T00:00:00"/>
+    <x v="2"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2412,7 +2508,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-03-18T00:00:00"/>
+    <x v="3"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2424,7 +2520,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-03-18T00:00:00"/>
+    <x v="3"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2436,7 +2532,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-03-19T00:00:00"/>
+    <x v="4"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2448,7 +2544,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-03-20T00:00:00"/>
+    <x v="5"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2460,7 +2556,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-03-27T00:00:00"/>
+    <x v="6"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2472,7 +2568,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-03-29T00:00:00"/>
+    <x v="7"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2484,7 +2580,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-04-03T00:00:00"/>
+    <x v="8"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2496,7 +2592,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-04-08T00:00:00"/>
+    <x v="9"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2508,7 +2604,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-04-18T00:00:00"/>
+    <x v="10"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2520,7 +2616,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-04-27T00:00:00"/>
+    <x v="11"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2532,7 +2628,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-05-10T00:00:00"/>
+    <x v="12"/>
     <s v="gotówka"/>
   </r>
   <r>
@@ -2544,7 +2640,7 @@
     <m/>
     <m/>
     <m/>
-    <d v="2013-05-12T00:00:00"/>
+    <x v="13"/